--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413797F1-5923-4300-9FBF-47E124E06EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADB921-E577-4A36-85B5-FA1F204D2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10959,8 +10959,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADB921-E577-4A36-85B5-FA1F204D2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5B753-6C92-4436-B26A-61D3EDCFDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5B753-6C92-4436-B26A-61D3EDCFDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F09C6-B98B-4803-8339-EE19C515F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F09C6-B98B-4803-8339-EE19C515F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8C5FB-CEDD-4B21-83A9-8F0DC780D4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,6 +1630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10959,8 +10962,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12862,7 +12865,7 @@
       <c r="B74" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="104" t="s">
         <v>70</v>
       </c>
       <c r="D74" s="25"/>
@@ -13340,8 +13343,8 @@
       <c r="C91" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="D91" s="92" t="s">
-        <v>202</v>
+      <c r="D91" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E91" s="92" t="s">
         <v>202</v>
@@ -13368,8 +13371,8 @@
       </c>
       <c r="B92" s="89"/>
       <c r="C92" s="96"/>
-      <c r="D92" s="93" t="s">
-        <v>210</v>
+      <c r="D92" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="E92" s="93" t="s">
         <v>210</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8C5FB-CEDD-4B21-83A9-8F0DC780D4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D4EF3-2F61-40CA-A3C6-C8D00C07562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1617,6 +1617,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1630,9 +1633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2582,10 +2582,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3365,12 +3365,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -10962,8 +10962,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12865,7 +12865,7 @@
       <c r="B74" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="99" t="s">
         <v>70</v>
       </c>
       <c r="D74" s="25"/>
@@ -13231,11 +13231,11 @@
     </row>
     <row r="87" spans="1:19" ht="14.25" thickBot="1">
       <c r="A87" s="7"/>
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="104"/>
       <c r="E87" s="90" t="s">
         <v>218</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D4EF3-2F61-40CA-A3C6-C8D00C07562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF165326-5D6A-4035-A680-1F7701ECB3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="228">
   <si>
     <t>步骤</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>5+1+5+1+3+2n+2</t>
-  </si>
-  <si>
-    <t>转置</t>
   </si>
   <si>
     <t>S_inv</t>
@@ -768,6 +765,34 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_5转置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_7</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,6 +1660,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1657,11 +1685,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1724025" cy="438150"/>
+    <xdr:ext cx="1538288" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="attachment-1647339354594-b5bf4ceb288e0530" descr="attachment-1647339354594-b5bf4ceb288e0530">
@@ -1682,8 +1710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="12963525"/>
-          <a:ext cx="1724025" cy="438150"/>
+          <a:off x="295276" y="14135099"/>
+          <a:ext cx="1538288" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,9 +1919,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="352425"/>
     <xdr:pic>
@@ -1916,7 +1944,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="13882688"/>
+          <a:off x="342900" y="15163800"/>
           <a:ext cx="1495425" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1930,9 +1958,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="419100"/>
     <xdr:pic>
@@ -1955,7 +1983,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="733425" y="13096875"/>
           <a:ext cx="638175" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,53 +2441,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -2520,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -2618,7 +2646,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -2655,7 +2683,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2666,10 +2694,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2689,7 +2717,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2706,7 +2734,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2714,13 +2742,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2757,7 +2785,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2765,13 +2793,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2808,20 +2836,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2863,25 +2891,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2912,21 +2940,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2957,25 +2985,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3006,21 +3034,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3051,25 +3079,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -3100,25 +3128,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3145,31 +3173,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -3196,31 +3224,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -3251,21 +3279,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -3298,15 +3326,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -3366,7 +3394,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="101"/>
       <c r="C22" s="101"/>
@@ -3401,7 +3429,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3436,7 +3464,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3471,7 +3499,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -3479,10 +3507,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3522,14 +3550,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3571,10 +3599,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3608,14 +3636,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3645,25 +3673,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3694,19 +3722,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3733,31 +3761,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3788,21 +3816,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3829,7 +3857,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3864,31 +3892,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3898,7 +3926,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -3924,22 +3952,22 @@
         <v>65</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3966,7 +3994,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -3981,16 +4009,16 @@
         <v>66</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -4025,17 +4053,17 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -4066,25 +4094,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -4111,26 +4139,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -4164,14 +4192,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4234,7 +4262,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4273,21 +4301,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4318,21 +4346,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -4367,25 +4395,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4418,15 +4446,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -4467,15 +4495,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4508,25 +4536,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4557,21 +4585,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -4602,25 +4630,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4651,25 +4679,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4729,7 +4757,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4768,25 +4796,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F54" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -4817,25 +4845,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -4866,25 +4894,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -4915,21 +4943,21 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -4960,25 +4988,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -5009,25 +5037,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -5058,25 +5086,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -10962,8 +10990,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -11031,7 +11059,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -11054,7 +11082,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -11284,7 +11312,7 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -11336,7 +11364,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="58" t="s">
@@ -11387,14 +11415,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -11420,10 +11448,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -11472,16 +11500,16 @@
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="D21" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>199</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>200</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="4"/>
@@ -11557,14 +11585,14 @@
     <row r="24" spans="1:19">
       <c r="A24" s="3"/>
       <c r="B24" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>29</v>
@@ -11748,7 +11776,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="73" t="s">
@@ -11799,14 +11827,14 @@
     <row r="34" spans="1:19">
       <c r="A34" s="4"/>
       <c r="B34" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
@@ -11880,14 +11908,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="4"/>
       <c r="B37" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>43</v>
@@ -11916,7 +11944,7 @@
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -11963,14 +11991,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -12044,14 +12072,14 @@
     <row r="43" spans="1:19">
       <c r="A43" s="4"/>
       <c r="B43" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="4"/>
@@ -12080,7 +12108,7 @@
         <v>45</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -12129,16 +12157,16 @@
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
       <c r="B46" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="D46" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="7">
         <v>8</v>
@@ -12365,16 +12393,18 @@
       <c r="S55" s="4"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="40"/>
+      <c r="A56" s="17" t="s">
+        <v>221</v>
+      </c>
       <c r="B56" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="41"/>
@@ -12394,14 +12424,14 @@
     <row r="57" spans="1:19">
       <c r="A57" s="40"/>
       <c r="B57" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="41"/>
@@ -12421,14 +12451,14 @@
     <row r="58" spans="1:19">
       <c r="A58" s="40"/>
       <c r="B58" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="41"/>
@@ -12446,16 +12476,18 @@
       <c r="S58" s="41"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="40"/>
+      <c r="A59" s="17" t="s">
+        <v>222</v>
+      </c>
       <c r="B59" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="41"/>
@@ -12475,14 +12507,14 @@
     <row r="60" spans="1:19">
       <c r="A60" s="40"/>
       <c r="B60" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="41"/>
@@ -12502,17 +12534,17 @@
     <row r="61" spans="1:19">
       <c r="A61" s="40"/>
       <c r="B61" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -12529,16 +12561,18 @@
       <c r="S61" s="41"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="3"/>
+      <c r="A62" s="17" t="s">
+        <v>223</v>
+      </c>
       <c r="B62" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -12558,14 +12592,14 @@
     <row r="63" spans="1:19">
       <c r="A63" s="3"/>
       <c r="B63" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="4"/>
@@ -12585,14 +12619,14 @@
     <row r="64" spans="1:19">
       <c r="A64" s="3"/>
       <c r="B64" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="4"/>
@@ -12612,17 +12646,17 @@
     <row r="65" spans="1:19">
       <c r="A65" s="3"/>
       <c r="B65" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="48"/>
       <c r="E65" s="69" t="s">
         <v>62</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -12641,10 +12675,10 @@
     <row r="66" spans="1:19">
       <c r="A66" s="3"/>
       <c r="B66" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="46" t="s">
@@ -12668,14 +12702,14 @@
     <row r="67" spans="1:19">
       <c r="A67" s="3"/>
       <c r="B67" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="44"/>
       <c r="E67" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="41"/>
@@ -12693,7 +12727,9 @@
       <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="3"/>
+      <c r="A68" s="17" t="s">
+        <v>224</v>
+      </c>
       <c r="B68" s="64" t="s">
         <v>65</v>
       </c>
@@ -12755,16 +12791,16 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="27" t="s">
         <v>199</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>52</v>
@@ -12784,8 +12820,8 @@
       <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="3" t="s">
-        <v>69</v>
+      <c r="A71" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>66</v>
@@ -12793,7 +12829,7 @@
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
       <c r="E71" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="4"/>
@@ -12838,12 +12874,12 @@
     <row r="73" spans="1:19">
       <c r="A73" s="40"/>
       <c r="B73" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="41"/>
@@ -12861,16 +12897,18 @@
       <c r="S73" s="41"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="3"/>
+      <c r="A74" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="B74" s="62" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -12917,17 +12955,17 @@
     <row r="76" spans="1:19">
       <c r="A76" s="3"/>
       <c r="B76" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -12946,16 +12984,16 @@
     <row r="77" spans="1:19">
       <c r="A77" s="3"/>
       <c r="B77" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="E77" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -12978,13 +13016,13 @@
         <v>64</v>
       </c>
       <c r="C78" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>76</v>
-      </c>
       <c r="E78" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="4"/>
@@ -13016,7 +13054,7 @@
         <v>25</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -13035,16 +13073,16 @@
     <row r="80" spans="1:19">
       <c r="A80" s="3"/>
       <c r="B80" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>79</v>
-      </c>
       <c r="E80" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
@@ -13067,13 +13105,13 @@
         <v>64</v>
       </c>
       <c r="C81" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="E81" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="4"/>
@@ -13105,7 +13143,7 @@
         <v>23</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -13122,18 +13160,20 @@
       <c r="S82" s="4"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="4"/>
+      <c r="A83" s="105" t="s">
+        <v>227</v>
+      </c>
       <c r="B83" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="75" t="s">
-        <v>79</v>
-      </c>
       <c r="E83" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="4"/>
@@ -13153,16 +13193,16 @@
     <row r="84" spans="1:19">
       <c r="A84" s="4"/>
       <c r="B84" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="D84" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="E84" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
@@ -13182,16 +13222,16 @@
     <row r="85" spans="1:19">
       <c r="A85" s="4"/>
       <c r="B85" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="D85" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="E85" s="30" t="s">
         <v>201</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>202</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="4"/>
@@ -13232,12 +13272,12 @@
     <row r="87" spans="1:19" ht="14.25" thickBot="1">
       <c r="A87" s="7"/>
       <c r="B87" s="103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" s="104"/>
       <c r="D87" s="104"/>
       <c r="E87" s="90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -13254,16 +13294,16 @@
     <row r="88" spans="1:19" ht="14.25" thickBot="1">
       <c r="A88" s="39"/>
       <c r="B88" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="C88" s="95" t="s">
+      <c r="D88" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="95" t="s">
         <v>220</v>
-      </c>
-      <c r="D88" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="E88" s="95" t="s">
-        <v>221</v>
       </c>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
@@ -13279,19 +13319,19 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="91" t="s">
-        <v>200</v>
-      </c>
       <c r="D89" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="91" t="s">
         <v>199</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>200</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -13309,15 +13349,15 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="88"/>
       <c r="C90" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" s="92"/>
       <c r="E90" s="92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -13335,22 +13375,22 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E91" s="92" t="s">
-        <v>202</v>
-      </c>
       <c r="G91" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -13367,18 +13407,18 @@
     </row>
     <row r="92" spans="1:19" ht="14.25" thickBot="1">
       <c r="A92" s="97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B92" s="89"/>
       <c r="C92" s="96"/>
       <c r="D92" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E92" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="86" t="s">
         <v>210</v>
-      </c>
-      <c r="G92" s="86" t="s">
-        <v>211</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF165326-5D6A-4035-A680-1F7701ECB3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23909509-C102-4914-B54D-95683814DB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,6 +1645,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1659,9 +1662,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,10 +2610,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3393,12 +3393,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -10990,8 +10990,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -13160,7 +13160,7 @@
       <c r="S82" s="4"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="105" t="s">
+      <c r="A83" s="100" t="s">
         <v>227</v>
       </c>
       <c r="B83" s="62" t="s">
@@ -13271,11 +13271,11 @@
     </row>
     <row r="87" spans="1:19" ht="14.25" thickBot="1">
       <c r="A87" s="7"/>
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
       <c r="E87" s="90" t="s">
         <v>217</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23909509-C102-4914-B54D-95683814DB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C249E9-C51E-47C3-89C1-2EC47F190CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="235">
   <si>
     <t>步骤</t>
   </si>
@@ -793,6 +793,34 @@
   </si>
   <si>
     <t>UPD_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3*3)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_l</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2*3+2n)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10990,8 +11018,8 @@
   <dimension ref="A1:S263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -13476,8 +13504,12 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
       <c r="F95" s="7"/>
@@ -13497,8 +13529,12 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="4"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
+      <c r="B96" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>232</v>
+      </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="7"/>
@@ -13518,8 +13554,12 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="4"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
+      <c r="B97" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="7"/>
@@ -13539,8 +13579,12 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="4"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+      <c r="B98" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="7"/>
@@ -13560,8 +13604,12 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="4"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="7"/>
@@ -13581,8 +13629,12 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="4"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
       <c r="F100" s="7"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C249E9-C51E-47C3-89C1-2EC47F190CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA6851-F11F-4B93-8A2C-C70A21871092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="239">
   <si>
     <t>步骤</t>
   </si>
@@ -821,6 +821,22 @@
   </si>
   <si>
     <t>(2*3+2n)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-POS/1-NEG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-NEG/1-POS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1180,48 +1196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1370,13 +1344,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,9 +1484,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,13 +1497,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,13 +1509,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1568,16 +1557,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,9 +1582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,11 +1608,23 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1640,28 +1632,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1676,6 +1653,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1685,10 +1668,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,7 +1724,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1538288" cy="333375"/>
@@ -1753,7 +1763,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1657350" cy="533400"/>
@@ -1792,7 +1802,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1866900" cy="333375"/>
@@ -1831,7 +1841,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="533400" cy="371475"/>
@@ -1909,7 +1919,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="695325" cy="409575"/>
@@ -1948,7 +1958,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="352425"/>
@@ -1987,7 +1997,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="419100"/>
@@ -2026,7 +2036,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1266825" cy="428625"/>
@@ -2065,7 +2075,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1971675" cy="381000"/>
@@ -2104,7 +2114,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1914525" cy="309563"/>
@@ -2638,10 +2648,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3421,12 +3431,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -11015,18 +11025,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S263"/>
+  <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="29.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11" style="55" customWidth="1"/>
-    <col min="3" max="5" width="13" style="55" customWidth="1"/>
+    <col min="2" max="2" width="11" style="52" customWidth="1"/>
+    <col min="3" max="5" width="13" style="52" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="19" width="14" customWidth="1"/>
   </cols>
@@ -11086,7 +11096,7 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="67" t="s">
         <v>187</v>
       </c>
       <c r="B3" s="13"/>
@@ -11109,7 +11119,7 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="66" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="13"/>
@@ -11244,28 +11254,28 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" s="81" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="78" t="s">
+    <row r="10" spans="1:19" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
@@ -11388,14 +11398,14 @@
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>191</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="55" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="3"/>
@@ -11467,52 +11477,50 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="38.25" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A19" s="95"/>
+      <c r="B19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+    </row>
+    <row r="20" spans="1:19" ht="38.25" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D20" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E20" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -11527,19 +11535,19 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="B21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -11554,207 +11562,225 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="39.75" customHeight="1">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="95"/>
+      <c r="B23" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="94"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" ht="39.75" customHeight="1">
+      <c r="A24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B24" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C24" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="73" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="3"/>
-      <c r="B23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="3"/>
-      <c r="B24" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="3"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="B25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3"/>
+      <c r="B27" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" s="81" customFormat="1">
-      <c r="A27" s="52" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" s="75" customFormat="1">
+      <c r="A29" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -11775,9 +11801,9 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="33" customHeight="1">
+    <row r="31" spans="1:19">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -11798,21 +11824,17 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="33" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+    <row r="32" spans="1:19">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -11825,18 +11847,14 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="4"/>
-      <c r="B33" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>39</v>
-      </c>
+    <row r="33" spans="1:19" ht="33" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E33" s="17"/>
       <c r="F33" s="7"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -11852,21 +11870,21 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" ht="33" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="27" t="s">
-        <v>201</v>
+      <c r="B34" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -11881,19 +11899,19 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="4"/>
-      <c r="B35" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="B35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -11909,18 +11927,18 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -11934,45 +11952,43 @@
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="4"/>
-      <c r="B37" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="95"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="4"/>
-      <c r="B38" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="63" t="s">
-        <v>193</v>
+      <c r="B38" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -11994,12 +12010,12 @@
       <c r="B39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -12018,17 +12034,19 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="4"/>
@@ -12044,47 +12062,47 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="4"/>
-      <c r="B41" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
-      <c r="B42" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="B42" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -12099,19 +12117,19 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="4"/>
-      <c r="B43" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="B43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -12126,17 +12144,15 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
-      <c r="B44" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>188</v>
+      <c r="B44" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -12154,53 +12170,47 @@
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="4"/>
-      <c r="B45" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
-      <c r="B46" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="7">
-        <v>8</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="B46" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -12215,13 +12225,17 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="4"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B47" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -12236,63 +12250,77 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" s="81" customFormat="1">
-      <c r="A48" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="80"/>
-      <c r="S48" s="80"/>
+    <row r="48" spans="1:19">
+      <c r="A48" s="4"/>
+      <c r="B48" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="94"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -12306,13 +12334,19 @@
       <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -12329,14 +12363,22 @@
       <c r="S51" s="4"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="7"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="7">
+        <v>8</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -12352,37 +12394,43 @@
       <c r="S52" s="4"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="94"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" s="17"/>
-      <c r="C54" s="38"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -12397,214 +12445,178 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:19" s="75" customFormat="1">
+      <c r="A55" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="40"/>
-      <c r="B57" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="40"/>
-      <c r="B58" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C59" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="40"/>
-      <c r="B60" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="40"/>
-      <c r="B61" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -12618,192 +12630,190 @@
       <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="3"/>
-      <c r="B63" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="A63" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="39"/>
+      <c r="B64" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="39"/>
+      <c r="B65" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="42"/>
+      <c r="E65" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="39"/>
+      <c r="B67" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="3"/>
-      <c r="B64" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="44" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="39"/>
+      <c r="B68" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="27" t="s">
+      <c r="D68" s="42"/>
+      <c r="E68" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="3"/>
-      <c r="B65" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="3"/>
-      <c r="B66" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="3"/>
-      <c r="B67" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
+      <c r="F68" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="3"/>
-      <c r="B69" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -12819,20 +12829,16 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>198</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D70" s="17"/>
       <c r="E70" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -12848,18 +12854,18 @@
       <c r="S70" s="4"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="7"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -12876,127 +12882,133 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="3"/>
-      <c r="B72" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
+      <c r="B72" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="40"/>
-      <c r="B73" s="26" t="s">
+      <c r="A73" s="3"/>
+      <c r="B73" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="3"/>
+      <c r="B74" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="27" t="s">
+      <c r="C74" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B74" s="62" t="s">
+      <c r="F74" s="3"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="95"/>
+      <c r="B75" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="95"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19">
-      <c r="A75" s="3"/>
-      <c r="B75" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19">
-      <c r="A76" s="3"/>
-      <c r="B76" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="D76" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -13011,21 +13023,23 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="3"/>
-      <c r="B77" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="B77" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -13041,18 +13055,20 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -13068,49 +13084,45 @@
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="3"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="26" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F79" s="95"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="3"/>
-      <c r="B80" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>78</v>
+      <c r="A80" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
@@ -13130,16 +13142,12 @@
     <row r="81" spans="1:19">
       <c r="A81" s="3"/>
       <c r="B81" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="27" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="4"/>
@@ -13157,55 +13165,47 @@
       <c r="S81" s="4"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="4"/>
-      <c r="B82" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="38"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" s="62" t="s">
+      <c r="A83" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -13219,18 +13219,16 @@
       <c r="S83" s="4"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="4"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="17"/>
       <c r="E84" s="27" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
@@ -13248,20 +13246,20 @@
       <c r="S84" s="4"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="4"/>
-      <c r="B85" s="28" t="s">
+      <c r="A85" s="3"/>
+      <c r="B85" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F85" s="7"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -13276,37 +13274,50 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="90" t="s">
-        <v>217</v>
-      </c>
+    <row r="86" spans="1:19">
+      <c r="A86" s="95"/>
+      <c r="B86" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="95"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="3"/>
+      <c r="B87" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -13319,76 +13330,83 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A88" s="39"/>
-      <c r="B88" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
+    <row r="88" spans="1:19">
+      <c r="A88" s="3"/>
+      <c r="B88" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="97" t="s">
-        <v>211</v>
-      </c>
-      <c r="B89" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>199</v>
+      <c r="A89" s="3"/>
+      <c r="B89" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="B90" s="88"/>
-      <c r="C90" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -13402,24 +13420,21 @@
       <c r="S90" s="4"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="B91" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -13433,21 +13448,25 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A92" s="97" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="89"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E92" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="G92" s="86" t="s">
-        <v>210</v>
-      </c>
+    <row r="92" spans="1:19">
+      <c r="A92" s="4"/>
+      <c r="B92" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -13461,11 +13480,21 @@
       <c r="S92" s="4"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="4"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="A93" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="104" t="s">
+        <v>78</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -13483,10 +13512,18 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="B94" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -13504,14 +13541,18 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
-      <c r="B95" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="B95" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>201</v>
+      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -13528,38 +13569,34 @@
       <c r="S95" s="4"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="4"/>
-      <c r="B96" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="A97" s="4"/>
-      <c r="B97" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>231</v>
-      </c>
+      <c r="A96" s="40"/>
+      <c r="B96" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="42"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+    </row>
+    <row r="97" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="7"/>
@@ -13577,19 +13614,16 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19">
-      <c r="A98" s="4"/>
-      <c r="B98" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+    <row r="98" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="100"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="83" t="s">
+        <v>217</v>
+      </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -13602,65 +13636,76 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19">
-      <c r="A99" s="4"/>
-      <c r="B99" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
+    <row r="99" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A99" s="38"/>
+      <c r="B99" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="4"/>
-      <c r="B100" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="7"/>
+      <c r="A100" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="84" t="s">
+        <v>199</v>
+      </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="40"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="4"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="A101" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="81"/>
+      <c r="C101" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -13674,13 +13719,24 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="4"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="4"/>
+      <c r="A102" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B102" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -13694,15 +13750,21 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19">
-      <c r="A103" s="4"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+    <row r="103" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A103" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" s="82"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" s="79" t="s">
+        <v>210</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -13759,8 +13821,12 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
+      <c r="B106" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
       <c r="F106" s="7"/>
@@ -13780,8 +13846,12 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
+      <c r="B107" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>232</v>
+      </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
       <c r="F107" s="7"/>
@@ -13801,8 +13871,12 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
+      <c r="B108" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
       <c r="F108" s="7"/>
@@ -13822,8 +13896,12 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
+      <c r="B109" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
       <c r="F109" s="7"/>
@@ -13843,8 +13921,12 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
+      <c r="B110" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
       <c r="F110" s="7"/>
@@ -13864,8 +13946,12 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
+      <c r="B111" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
       <c r="F111" s="7"/>
@@ -16657,6 +16743,12 @@
     </row>
     <row r="244" spans="1:19">
       <c r="A244" s="4"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
@@ -16672,6 +16764,12 @@
     </row>
     <row r="245" spans="1:19">
       <c r="A245" s="4"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
@@ -16687,6 +16785,12 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="4"/>
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
@@ -16702,6 +16806,12 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="4"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
@@ -16717,6 +16827,12 @@
     </row>
     <row r="248" spans="1:19">
       <c r="A248" s="4"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
@@ -16732,6 +16848,12 @@
     </row>
     <row r="249" spans="1:19">
       <c r="A249" s="4"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
@@ -16747,6 +16869,12 @@
     </row>
     <row r="250" spans="1:19">
       <c r="A250" s="4"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
@@ -16762,6 +16890,12 @@
     </row>
     <row r="251" spans="1:19">
       <c r="A251" s="4"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
@@ -16777,6 +16911,12 @@
     </row>
     <row r="252" spans="1:19">
       <c r="A252" s="4"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
@@ -16792,6 +16932,12 @@
     </row>
     <row r="253" spans="1:19">
       <c r="A253" s="4"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
@@ -16807,6 +16953,12 @@
     </row>
     <row r="254" spans="1:19">
       <c r="A254" s="4"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
@@ -16955,9 +17107,174 @@
       <c r="R263" s="4"/>
       <c r="S263" s="4"/>
     </row>
+    <row r="264" spans="1:19">
+      <c r="A264" s="4"/>
+      <c r="H264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="4"/>
+      <c r="O264" s="4"/>
+      <c r="P264" s="4"/>
+      <c r="Q264" s="4"/>
+      <c r="R264" s="4"/>
+      <c r="S264" s="4"/>
+    </row>
+    <row r="265" spans="1:19">
+      <c r="A265" s="4"/>
+      <c r="H265" s="4"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="4"/>
+      <c r="O265" s="4"/>
+      <c r="P265" s="4"/>
+      <c r="Q265" s="4"/>
+      <c r="R265" s="4"/>
+      <c r="S265" s="4"/>
+    </row>
+    <row r="266" spans="1:19">
+      <c r="A266" s="4"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="4"/>
+      <c r="O266" s="4"/>
+      <c r="P266" s="4"/>
+      <c r="Q266" s="4"/>
+      <c r="R266" s="4"/>
+      <c r="S266" s="4"/>
+    </row>
+    <row r="267" spans="1:19">
+      <c r="A267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
+      <c r="Q267" s="4"/>
+      <c r="R267" s="4"/>
+      <c r="S267" s="4"/>
+    </row>
+    <row r="268" spans="1:19">
+      <c r="A268" s="4"/>
+      <c r="H268" s="4"/>
+      <c r="I268" s="4"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4"/>
+      <c r="N268" s="4"/>
+      <c r="O268" s="4"/>
+      <c r="P268" s="4"/>
+      <c r="Q268" s="4"/>
+      <c r="R268" s="4"/>
+      <c r="S268" s="4"/>
+    </row>
+    <row r="269" spans="1:19">
+      <c r="A269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="4"/>
+      <c r="J269" s="4"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="4"/>
+      <c r="O269" s="4"/>
+      <c r="P269" s="4"/>
+      <c r="Q269" s="4"/>
+      <c r="R269" s="4"/>
+      <c r="S269" s="4"/>
+    </row>
+    <row r="270" spans="1:19">
+      <c r="A270" s="4"/>
+      <c r="H270" s="4"/>
+      <c r="I270" s="4"/>
+      <c r="J270" s="4"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+      <c r="M270" s="4"/>
+      <c r="N270" s="4"/>
+      <c r="O270" s="4"/>
+      <c r="P270" s="4"/>
+      <c r="Q270" s="4"/>
+      <c r="R270" s="4"/>
+      <c r="S270" s="4"/>
+    </row>
+    <row r="271" spans="1:19">
+      <c r="A271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="4"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="4"/>
+      <c r="O271" s="4"/>
+      <c r="P271" s="4"/>
+      <c r="Q271" s="4"/>
+      <c r="R271" s="4"/>
+      <c r="S271" s="4"/>
+    </row>
+    <row r="272" spans="1:19">
+      <c r="A272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="4"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="4"/>
+      <c r="O272" s="4"/>
+      <c r="P272" s="4"/>
+      <c r="Q272" s="4"/>
+      <c r="R272" s="4"/>
+      <c r="S272" s="4"/>
+    </row>
+    <row r="273" spans="1:19">
+      <c r="A273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="4"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4"/>
+      <c r="N273" s="4"/>
+      <c r="O273" s="4"/>
+      <c r="P273" s="4"/>
+      <c r="Q273" s="4"/>
+      <c r="R273" s="4"/>
+      <c r="S273" s="4"/>
+    </row>
+    <row r="274" spans="1:19">
+      <c r="A274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="4"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="4"/>
+      <c r="O274" s="4"/>
+      <c r="P274" s="4"/>
+      <c r="Q274" s="4"/>
+      <c r="R274" s="4"/>
+      <c r="S274" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA6851-F11F-4B93-8A2C-C70A21871092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5E2EE-4D40-48E5-943A-14C0F783B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="5970" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -1659,21 +1659,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,6 +1684,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2648,10 +2648,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3431,12 +3431,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -11028,8 +11028,8 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12090,10 +12090,10 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="41"/>
@@ -12198,10 +12198,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="97" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="41"/>
@@ -12306,16 +12306,16 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4"/>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="106" t="s">
+      <c r="C50" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="E50" s="99" t="s">
         <v>188</v>
       </c>
       <c r="F50" s="3"/>
@@ -12633,14 +12633,14 @@
       <c r="A63" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="107" t="s">
+      <c r="C63" s="102" t="s">
         <v>207</v>
       </c>
       <c r="D63" s="41"/>
-      <c r="E63" s="108" t="s">
+      <c r="E63" s="103" t="s">
         <v>185</v>
       </c>
       <c r="F63" s="38"/>
@@ -12667,7 +12667,7 @@
         <v>208</v>
       </c>
       <c r="D64" s="24"/>
-      <c r="E64" s="109" t="s">
+      <c r="E64" s="104" t="s">
         <v>186</v>
       </c>
       <c r="F64" s="38"/>
@@ -12882,7 +12882,7 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="3"/>
-      <c r="B72" s="101" t="s">
+      <c r="B72" s="96" t="s">
         <v>185</v>
       </c>
       <c r="C72" s="77" t="s">
@@ -13483,16 +13483,16 @@
       <c r="A93" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="102" t="s">
+      <c r="C93" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="103" t="s">
+      <c r="D93" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="E93" s="104" t="s">
+      <c r="E93" s="99" t="s">
         <v>78</v>
       </c>
       <c r="F93" s="7"/>
@@ -13616,11 +13616,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="99" t="s">
+      <c r="B98" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="109"/>
       <c r="E98" s="83" t="s">
         <v>217</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5E2EE-4D40-48E5-943A-14C0F783B5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C10DF-E1BD-464A-B6F2-90C394A607CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="5970" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C10DF-E1BD-464A-B6F2-90C394A607CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0EB360-9C6A-42D1-8914-527EE38B628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5970" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
     <sheet name="矩阵运算" sheetId="2" r:id="rId2"/>
+    <sheet name="数据关联" sheetId="3" r:id="rId3"/>
+    <sheet name="TEMP_BANK" sheetId="4" r:id="rId4"/>
+    <sheet name="COV_BANK" sheetId="5" r:id="rId5"/>
+    <sheet name="NEW_COV_BANK" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="469">
   <si>
     <t>步骤</t>
   </si>
@@ -219,9 +223,6 @@
     <t>H_T</t>
   </si>
   <si>
-    <t>cov_vl_H_T</t>
-  </si>
-  <si>
     <t>(5*2)</t>
   </si>
   <si>
@@ -262,9 +263,6 @@
   </si>
   <si>
     <t>2n+8</t>
-  </si>
-  <si>
-    <t>(cov_vl_H_T)_T</t>
   </si>
   <si>
     <t>cov</t>
@@ -660,10 +658,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cov_vl_H_T</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cov_mv</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -838,13 +832,805 @@
   <si>
     <t>NEW</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT</t>
+  </si>
+  <si>
+    <t>(cov_HT)_T</t>
+  </si>
+  <si>
+    <t>cov_HT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_HT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_xi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_vv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_vv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>(cov_lv)T</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_lv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_z</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_ll</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_ll</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>(H_z)T</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_lv_H</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>(H_xi)T</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_vv_H</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_ll_H</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有+Q，</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>转置中加！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(3)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_PRD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_cov</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_xi(偶)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_z(奇)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_z_Q</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv_G_xi(1,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_t/S_inv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_vl_H_T</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(0,1) = vt(1,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(0,2) = vt(2,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(0,1) = 0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(0,2) = 0</t>
+  </si>
+  <si>
+    <t>cov_vl_H_T(7,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(7,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(7,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(7,2)</t>
+  </si>
+  <si>
+    <t>BANK1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>b(4)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(1,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(1,2)</t>
+  </si>
+  <si>
+    <t>cov_l/K(1,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(1,2)</t>
+  </si>
+  <si>
+    <t>cov_vl_H_T(6,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(6,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(6,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(6,2)</t>
+  </si>
+  <si>
+    <t>BANK2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(2,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(2,2)</t>
+  </si>
+  <si>
+    <t>cov_l/K(2,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(2,2)</t>
+  </si>
+  <si>
+    <t>cov_vl_H_T(5,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(5,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(5,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(5,2)</t>
+  </si>
+  <si>
+    <t>BANK3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(3,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(3,2)</t>
+  </si>
+  <si>
+    <t>cov_l/K(3,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(3,2)</t>
+  </si>
+  <si>
+    <t>cov_vl_H_T(4,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vl_H_T(4,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_l/K(4,1)</t>
+  </si>
+  <si>
+    <t>cov_l/K(4,2)</t>
+  </si>
+  <si>
+    <t>F_xi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_xi_T</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地标初始化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测阶段占BANK0~2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新阶段占BANK1~3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(1,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(1,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(2,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(2,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(2,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(3,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(3,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(3,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(3,3)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(4,1)</t>
+  </si>
+  <si>
+    <t>cov(4,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(4,2)</t>
+  </si>
+  <si>
+    <t>cov(4,3)</t>
+  </si>
+  <si>
+    <t>cov(4,4)</t>
+  </si>
+  <si>
+    <t>state(5,1)</t>
+  </si>
+  <si>
+    <t>cov(5,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(5,2)</t>
+  </si>
+  <si>
+    <t>cov(5,3)</t>
+  </si>
+  <si>
+    <t>cov(5,4)</t>
+  </si>
+  <si>
+    <t>cov(5,5)</t>
+  </si>
+  <si>
+    <t>state(6,1)</t>
+  </si>
+  <si>
+    <t>cov(6,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(6,2)</t>
+  </si>
+  <si>
+    <t>cov(6,3)</t>
+  </si>
+  <si>
+    <t>cov(6,4)</t>
+  </si>
+  <si>
+    <t>cov(6,5)</t>
+  </si>
+  <si>
+    <t>cov(6,6)</t>
+  </si>
+  <si>
+    <t>state(7,1)</t>
+  </si>
+  <si>
+    <t>cov(7,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(7,2)</t>
+  </si>
+  <si>
+    <t>cov(7,3)</t>
+  </si>
+  <si>
+    <t>cov(7,4)</t>
+  </si>
+  <si>
+    <t>cov(7,5)</t>
+  </si>
+  <si>
+    <t>cov(7,6)</t>
+  </si>
+  <si>
+    <t>cov(7,7)</t>
+  </si>
+  <si>
+    <t>state(8,1)</t>
+  </si>
+  <si>
+    <t>cov(8,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(8,2)</t>
+  </si>
+  <si>
+    <t>cov(8,3)</t>
+  </si>
+  <si>
+    <t>cov(8,4)</t>
+  </si>
+  <si>
+    <t>cov(8,5)</t>
+  </si>
+  <si>
+    <t>cov(8,6)</t>
+  </si>
+  <si>
+    <t>cov(8,7)</t>
+  </si>
+  <si>
+    <t>cov(8,8)</t>
+  </si>
+  <si>
+    <t>state(9,1)</t>
+  </si>
+  <si>
+    <t>cov(9,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(9,2)</t>
+  </si>
+  <si>
+    <t>cov(9,3)</t>
+  </si>
+  <si>
+    <t>cov(9,4)</t>
+  </si>
+  <si>
+    <t>cov(9,5)</t>
+  </si>
+  <si>
+    <t>cov(9,6)</t>
+  </si>
+  <si>
+    <t>cov(9,7)</t>
+  </si>
+  <si>
+    <t>cov(9,8)</t>
+  </si>
+  <si>
+    <t>cov(9,9)</t>
+  </si>
+  <si>
+    <t>state(10,1)</t>
+  </si>
+  <si>
+    <t>cov(10,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(10,2)</t>
+  </si>
+  <si>
+    <t>cov(10,3)</t>
+  </si>
+  <si>
+    <t>cov(10,4)</t>
+  </si>
+  <si>
+    <t>cov(10,5)</t>
+  </si>
+  <si>
+    <t>cov(10,6)</t>
+  </si>
+  <si>
+    <t>cov(10,7)</t>
+  </si>
+  <si>
+    <t>cov(10,8)</t>
+  </si>
+  <si>
+    <t>cov(10,9)</t>
+  </si>
+  <si>
+    <t>cov(10,10)</t>
+  </si>
+  <si>
+    <t>state(11,1)</t>
+  </si>
+  <si>
+    <t>cov(11,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(11,2)</t>
+  </si>
+  <si>
+    <t>cov(11,3)</t>
+  </si>
+  <si>
+    <t>cov(11,4)</t>
+  </si>
+  <si>
+    <t>cov(11,5)</t>
+  </si>
+  <si>
+    <t>cov(11,6)</t>
+  </si>
+  <si>
+    <t>cov(11,7)</t>
+  </si>
+  <si>
+    <t>cov(11,8)</t>
+  </si>
+  <si>
+    <t>cov(11,9)</t>
+  </si>
+  <si>
+    <t>cov(11,10)</t>
+  </si>
+  <si>
+    <t>cov(11,11)</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(2,2)</t>
+  </si>
+  <si>
+    <t>cov(3,2)</t>
+  </si>
+  <si>
+    <t>cov(3,3)</t>
+  </si>
+  <si>
+    <t>state(15,1)</t>
+  </si>
+  <si>
+    <t>cov(15,1)</t>
+  </si>
+  <si>
+    <t>state(14,1)</t>
+  </si>
+  <si>
+    <t>cov(15,2)</t>
+  </si>
+  <si>
+    <t>cov(14,1)</t>
+  </si>
+  <si>
+    <t>state(13,1)</t>
+  </si>
+  <si>
+    <t>cov(15,3)</t>
+  </si>
+  <si>
+    <t>cov(14,2)</t>
+  </si>
+  <si>
+    <t>cov(13,1)</t>
+  </si>
+  <si>
+    <t>state(12,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(15,4)</t>
+  </si>
+  <si>
+    <t>cov(14,3)</t>
+  </si>
+  <si>
+    <t>cov(13,2)</t>
+  </si>
+  <si>
+    <t>cov(12,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(15,5)</t>
+  </si>
+  <si>
+    <t>cov(14,4)</t>
+  </si>
+  <si>
+    <t>cov(13,3)</t>
+  </si>
+  <si>
+    <t>cov(12,2)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(15,6)</t>
+  </si>
+  <si>
+    <t>cov(14,5)</t>
+  </si>
+  <si>
+    <t>cov(13,4)</t>
+  </si>
+  <si>
+    <t>cov(12,3)</t>
+  </si>
+  <si>
+    <t>cov(15,7)</t>
+  </si>
+  <si>
+    <t>cov(14,6)</t>
+  </si>
+  <si>
+    <t>cov(13,5)</t>
+  </si>
+  <si>
+    <t>cov(12,4)</t>
+  </si>
+  <si>
+    <t>cov(15,8)</t>
+  </si>
+  <si>
+    <t>cov(14,7)</t>
+  </si>
+  <si>
+    <t>cov(13,6)</t>
+  </si>
+  <si>
+    <t>cov(12,5)</t>
+  </si>
+  <si>
+    <t>cov(15,9)</t>
+  </si>
+  <si>
+    <t>cov(14,8)</t>
+  </si>
+  <si>
+    <t>cov(13,7)</t>
+  </si>
+  <si>
+    <t>cov(12,6)</t>
+  </si>
+  <si>
+    <t>cov(15,10)</t>
+  </si>
+  <si>
+    <t>cov(14,9)</t>
+  </si>
+  <si>
+    <t>cov(13,8)</t>
+  </si>
+  <si>
+    <t>cov(12,7)</t>
+  </si>
+  <si>
+    <t>cov(15,11)</t>
+  </si>
+  <si>
+    <t>cov(14,10)</t>
+  </si>
+  <si>
+    <t>cov(13,9)</t>
+  </si>
+  <si>
+    <t>cov(12,8)</t>
+  </si>
+  <si>
+    <t>cov(15,12)</t>
+  </si>
+  <si>
+    <t>cov(14,11)</t>
+  </si>
+  <si>
+    <t>cov(13,10)</t>
+  </si>
+  <si>
+    <t>cov(12,9)</t>
+  </si>
+  <si>
+    <t>cov(15,13)</t>
+  </si>
+  <si>
+    <t>cov(14,12)</t>
+  </si>
+  <si>
+    <t>cov(13,11)</t>
+  </si>
+  <si>
+    <t>cov(12,10)</t>
+  </si>
+  <si>
+    <t>cov(15,14)</t>
+  </si>
+  <si>
+    <t>cov(14,13)</t>
+  </si>
+  <si>
+    <t>cov(13,12)</t>
+  </si>
+  <si>
+    <t>cov(12,11)</t>
+  </si>
+  <si>
+    <t>cov(15,15)</t>
+  </si>
+  <si>
+    <t>cov(14,14)</t>
+  </si>
+  <si>
+    <t>cov(13,13)</t>
+  </si>
+  <si>
+    <t>cov(12,12)</t>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(1,2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(1,3)</t>
+  </si>
+  <si>
+    <t>cov(2,3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -920,8 +1706,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,8 +1793,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1368,13 +2214,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +2607,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2453,7 +3532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -2479,53 +3558,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -2586,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -2684,7 +3763,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -2721,7 +3800,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2732,10 +3811,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2755,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2772,7 +3851,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2780,13 +3859,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2823,7 +3902,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2831,13 +3910,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2874,20 +3953,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2929,25 +4008,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2978,21 +4057,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -3023,25 +4102,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3072,21 +4151,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3117,25 +4196,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -3166,25 +4245,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3211,31 +4290,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -3262,31 +4341,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -3317,21 +4396,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -3364,15 +4443,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -3432,7 +4511,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="106"/>
@@ -3467,7 +4546,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3502,7 +4581,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3537,7 +4616,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -3545,10 +4624,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3588,14 +4667,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3637,10 +4716,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3674,14 +4753,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3711,25 +4790,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3760,19 +4839,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3799,31 +4878,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3854,21 +4933,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3895,7 +4974,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3930,31 +5009,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3964,7 +5043,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -3987,25 +5066,25 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -4032,31 +5111,31 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -4087,21 +5166,21 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -4132,25 +5211,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -4177,26 +5256,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -4230,14 +5309,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -4300,7 +5379,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4339,21 +5418,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4384,21 +5463,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -4433,25 +5512,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4484,15 +5563,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -4533,15 +5612,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4574,25 +5653,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4623,21 +5702,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -4668,25 +5747,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4717,25 +5796,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4795,7 +5874,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4834,25 +5913,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -4883,25 +5962,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -4932,25 +6011,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -4981,21 +6060,21 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -5026,25 +6105,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -5075,25 +6154,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -5124,25 +6203,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -11027,9 +12106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -11097,7 +12176,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -11120,7 +12199,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -11350,7 +12429,7 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -11402,7 +12481,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="55" t="s">
@@ -11453,14 +12532,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -11480,14 +12559,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="95"/>
       <c r="B19" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F19" s="95"/>
       <c r="G19" s="40"/>
@@ -11513,10 +12592,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -11565,16 +12644,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -11594,16 +12673,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="95"/>
       <c r="B23" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F23" s="94"/>
       <c r="G23" s="40"/>
@@ -11679,14 +12758,14 @@
     <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>29</v>
@@ -11708,14 +12787,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -11876,7 +12955,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="68" t="s">
@@ -11927,14 +13006,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -11954,14 +13033,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F37" s="95"/>
       <c r="G37" s="40"/>
@@ -12035,14 +13114,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>43</v>
@@ -12064,14 +13143,14 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F41" s="95"/>
       <c r="G41" s="95"/>
@@ -12098,7 +13177,7 @@
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -12145,14 +13224,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -12172,14 +13251,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F45" s="95"/>
       <c r="G45" s="95"/>
@@ -12253,14 +13332,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -12280,14 +13359,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F49" s="94"/>
       <c r="G49" s="40"/>
@@ -12316,7 +13395,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -12365,16 +13444,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>201</v>
       </c>
       <c r="F52" s="7">
         <v>8</v>
@@ -12396,16 +13475,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="48" t="s">
         <v>235</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>238</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="40"/>
@@ -12631,17 +13710,17 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" s="102" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="103" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -12661,14 +13740,14 @@
     <row r="64" spans="1:19">
       <c r="A64" s="39"/>
       <c r="B64" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="40"/>
@@ -12688,14 +13767,14 @@
     <row r="65" spans="1:19">
       <c r="A65" s="39"/>
       <c r="B65" s="47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="40"/>
@@ -12714,17 +13793,17 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="64" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
@@ -12744,14 +13823,14 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
@@ -12771,17 +13850,17 @@
     <row r="68" spans="1:19">
       <c r="A68" s="39"/>
       <c r="B68" s="47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -12799,17 +13878,17 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="62" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -12829,14 +13908,14 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
@@ -12856,14 +13935,14 @@
     <row r="71" spans="1:19">
       <c r="A71" s="3"/>
       <c r="B71" s="26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
@@ -12883,17 +13962,17 @@
     <row r="72" spans="1:19">
       <c r="A72" s="3"/>
       <c r="B72" s="96" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C72" s="77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="64" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -12912,14 +13991,14 @@
     <row r="73" spans="1:19">
       <c r="A73" s="3"/>
       <c r="B73" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="40"/>
@@ -12939,14 +14018,14 @@
     <row r="74" spans="1:19">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="40"/>
@@ -12966,14 +14045,14 @@
     <row r="75" spans="1:19">
       <c r="A75" s="95"/>
       <c r="B75" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F75" s="95"/>
       <c r="G75" s="40"/>
@@ -12992,19 +14071,19 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>49</v>
       </c>
       <c r="E76" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -13024,10 +14103,10 @@
     <row r="77" spans="1:19">
       <c r="A77" s="3"/>
       <c r="B77" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>47</v>
@@ -13036,7 +14115,7 @@
         <v>47</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -13055,16 +14134,16 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>52</v>
@@ -13086,16 +14165,16 @@
     <row r="79" spans="1:19">
       <c r="A79" s="95"/>
       <c r="B79" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F79" s="95"/>
       <c r="G79" s="40"/>
@@ -13114,15 +14193,15 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
@@ -13167,12 +14246,12 @@
     <row r="82" spans="1:19">
       <c r="A82" s="39"/>
       <c r="B82" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="40"/>
@@ -13191,17 +14270,17 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="C83" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -13221,14 +14300,14 @@
     <row r="84" spans="1:19">
       <c r="A84" s="3"/>
       <c r="B84" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
@@ -13248,17 +14327,17 @@
     <row r="85" spans="1:19">
       <c r="A85" s="3"/>
       <c r="B85" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -13277,14 +14356,14 @@
     <row r="86" spans="1:19">
       <c r="A86" s="95"/>
       <c r="B86" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F86" s="95"/>
       <c r="G86" s="40"/>
@@ -13304,16 +14383,16 @@
     <row r="87" spans="1:19">
       <c r="A87" s="3"/>
       <c r="B87" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C87" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="E87" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -13333,16 +14412,16 @@
     <row r="88" spans="1:19">
       <c r="A88" s="3"/>
       <c r="B88" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="E88" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
@@ -13374,7 +14453,7 @@
         <v>25</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -13393,16 +14472,16 @@
     <row r="90" spans="1:19">
       <c r="A90" s="3"/>
       <c r="B90" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="4"/>
@@ -13422,16 +14501,16 @@
     <row r="91" spans="1:19">
       <c r="A91" s="3"/>
       <c r="B91" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
@@ -13463,7 +14542,7 @@
         <v>23</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -13481,19 +14560,19 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B93" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" s="97" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="D93" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E93" s="99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
@@ -13513,16 +14592,16 @@
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="E94" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
@@ -13542,16 +14621,16 @@
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>201</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
@@ -13571,10 +14650,10 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
@@ -13617,12 +14696,12 @@
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
       <c r="B98" s="108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C98" s="109"/>
       <c r="D98" s="109"/>
       <c r="E98" s="83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -13639,16 +14718,16 @@
     <row r="99" spans="1:19" ht="14.25" thickBot="1">
       <c r="A99" s="38"/>
       <c r="B99" s="87" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C99" s="88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D99" s="88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E99" s="88" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -13664,19 +14743,19 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="90" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B100" s="80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C100" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D100" s="84" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E100" s="84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -13694,15 +14773,15 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B101" s="81"/>
       <c r="C101" s="85" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D101" s="85"/>
       <c r="E101" s="85" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -13720,22 +14799,22 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="90" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B102" s="81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C102" s="85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E102" s="85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -13752,18 +14831,18 @@
     </row>
     <row r="103" spans="1:19" ht="14.25" thickBot="1">
       <c r="A103" s="90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B103" s="82"/>
       <c r="C103" s="89"/>
       <c r="D103" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E103" s="86" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G103" s="79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -13822,10 +14901,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -13847,10 +14926,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -13872,10 +14951,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -13897,10 +14976,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -13922,10 +15001,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -13947,10 +15026,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -17281,4 +18360,2878 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696DFE49-C43E-4BC5-A72A-A7713F047E7F}">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="110" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="110" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.4" customHeight="1">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="111"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
+  <dimension ref="A1:AU15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="35" max="35" width="11.9296875" customWidth="1"/>
+    <col min="36" max="36" width="9.3984375" customWidth="1"/>
+    <col min="37" max="37" width="9.1328125" customWidth="1"/>
+    <col min="38" max="38" width="8.796875" customWidth="1"/>
+    <col min="39" max="39" width="7" customWidth="1"/>
+    <col min="40" max="40" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="10.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <v>39</v>
+      </c>
+      <c r="AP1">
+        <v>40</v>
+      </c>
+      <c r="AQ1">
+        <v>41</v>
+      </c>
+      <c r="AR1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="112">
+        <v>1</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="112">
+        <v>1</v>
+      </c>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="115" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="115" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="R2" s="116"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="U2" s="118"/>
+      <c r="V2" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="W2" s="117"/>
+      <c r="X2" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO2" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP2" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ2" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR2" s="115" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS2" s="117" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT2" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU2" s="117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="14.25" thickBot="1">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125">
+        <v>1</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="125">
+        <v>1</v>
+      </c>
+      <c r="G3" s="125"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128">
+        <v>1</v>
+      </c>
+      <c r="J3" s="129"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128">
+        <v>1</v>
+      </c>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO3" s="129" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP3" s="127" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ3" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR3" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS3" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT3" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU3" s="129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="14.25" thickBot="1">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138">
+        <v>1</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="138">
+        <v>1</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="134">
+        <v>1</v>
+      </c>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="139"/>
+      <c r="AN4" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO4" s="129" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP4" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ4" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR4" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS4" s="129" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT4" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU4" s="129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="14.25" thickBot="1">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AN5" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO5" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP5" s="130" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ5" s="134" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR5" s="130" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS5" s="134" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT5" s="130" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU5" s="134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B6" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="141"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="140" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="141"/>
+      <c r="G6" s="142"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B7" s="140" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="140" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="141"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="141"/>
+      <c r="AO7" s="141"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="141"/>
+      <c r="AR7" s="142"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="AB15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="Q7:AA7"/>
+    <mergeCell ref="AB7:AR7"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31A2A6-BB98-4ABD-94E7-4BC4F8C140C1}">
+  <dimension ref="A1:W58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="143">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="147">
+        <v>1</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="151"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="147">
+        <v>2</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="147">
+        <v>3</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="149" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="151"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="147">
+        <v>4</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="149" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="149" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="151"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="147">
+        <v>5</v>
+      </c>
+      <c r="B6" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="149" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="151"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="147">
+        <v>6</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="151"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="147">
+        <v>7</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="149" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="147">
+        <v>8</v>
+      </c>
+      <c r="B9" s="148" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="I9" s="149" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="151"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="147">
+        <v>9</v>
+      </c>
+      <c r="B10" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="149" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="I10" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" s="149" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" s="149" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="147">
+        <v>10</v>
+      </c>
+      <c r="B11" s="148" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="149" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="149" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="149" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="151"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A12" s="152">
+        <v>11</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="154" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="154" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="154" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="155" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" s="154" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12" s="154" t="s">
+        <v>392</v>
+      </c>
+      <c r="I12" s="154" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" s="154" t="s">
+        <v>394</v>
+      </c>
+      <c r="K12" s="154" t="s">
+        <v>395</v>
+      </c>
+      <c r="L12" s="154" t="s">
+        <v>396</v>
+      </c>
+      <c r="M12" s="156" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="159" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="159" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="159" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="159" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="J14" s="159" t="s">
+        <v>355</v>
+      </c>
+      <c r="K14" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="O14" s="159" t="s">
+        <v>360</v>
+      </c>
+      <c r="P14" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q14" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="R14" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="S14" s="159" t="s">
+        <v>364</v>
+      </c>
+      <c r="T14" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="U14" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="V14" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="W14" s="110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="158" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="159" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="159" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="159" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="159" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" s="159" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="L15" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="M15" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="N15" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="O15" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="P15" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q15" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="R15" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="S15" s="159" t="s">
+        <v>373</v>
+      </c>
+      <c r="T15" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="V15" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="W15" s="110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="158" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="159" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="159" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" s="159" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="159" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="158" t="s">
+        <v>375</v>
+      </c>
+      <c r="L16" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="M16" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="N16" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="O16" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q16" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="R16" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="S16" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="T16" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="U16" s="159" t="s">
+        <v>385</v>
+      </c>
+      <c r="V16" s="110" t="s">
+        <v>398</v>
+      </c>
+      <c r="W16" s="110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="159" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" s="159" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="159" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="M17" s="159" t="s">
+        <v>388</v>
+      </c>
+      <c r="N17" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="O17" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="P17" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q17" s="159" t="s">
+        <v>392</v>
+      </c>
+      <c r="R17" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="S17" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="T17" s="159" t="s">
+        <v>395</v>
+      </c>
+      <c r="U17" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="V17" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="W17" s="110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="159" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="H19" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="I19" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="159" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="I20" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="J20" s="159" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="159" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="158" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="G21" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="J21" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="L21" s="159" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="159" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="G22" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22" s="159" t="s">
+        <v>392</v>
+      </c>
+      <c r="I22" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="K22" s="159" t="s">
+        <v>395</v>
+      </c>
+      <c r="L22" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="M22" s="159" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="110" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="110" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="J24" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="K24" s="110" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="110">
+        <v>0</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="158" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="110">
+        <v>0</v>
+      </c>
+      <c r="I25" s="110">
+        <v>0</v>
+      </c>
+      <c r="J25" s="110">
+        <v>0</v>
+      </c>
+      <c r="K25" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="110">
+        <v>1</v>
+      </c>
+      <c r="B26" s="158" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="159" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="110">
+        <v>0</v>
+      </c>
+      <c r="I26" s="110">
+        <v>1</v>
+      </c>
+      <c r="J26" s="110">
+        <v>0</v>
+      </c>
+      <c r="K26" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="110">
+        <v>2</v>
+      </c>
+      <c r="B27" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="158" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="159" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" s="110">
+        <v>1</v>
+      </c>
+      <c r="I27" s="110">
+        <v>0</v>
+      </c>
+      <c r="J27" s="110">
+        <v>1</v>
+      </c>
+      <c r="K27" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="110">
+        <v>3</v>
+      </c>
+      <c r="B28" s="159" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="159" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="158" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="110">
+        <v>2</v>
+      </c>
+      <c r="I28" s="110">
+        <v>1</v>
+      </c>
+      <c r="J28" s="110">
+        <v>0</v>
+      </c>
+      <c r="K28" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="110">
+        <v>4</v>
+      </c>
+      <c r="B29" s="159" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="159" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="158" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="110">
+        <v>3</v>
+      </c>
+      <c r="I29" s="110">
+        <v>2</v>
+      </c>
+      <c r="J29" s="110">
+        <v>1</v>
+      </c>
+      <c r="K29" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="110">
+        <v>5</v>
+      </c>
+      <c r="B30" s="159" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="159" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="159" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" s="110">
+        <v>4</v>
+      </c>
+      <c r="I30" s="110">
+        <v>3</v>
+      </c>
+      <c r="J30" s="110">
+        <v>2</v>
+      </c>
+      <c r="K30" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="110">
+        <v>6</v>
+      </c>
+      <c r="B31" s="159" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="159" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="159" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="159" t="s">
+        <v>332</v>
+      </c>
+      <c r="H31" s="110">
+        <v>5</v>
+      </c>
+      <c r="I31" s="110">
+        <v>4</v>
+      </c>
+      <c r="J31" s="110">
+        <v>3</v>
+      </c>
+      <c r="K31" s="110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="110">
+        <v>7</v>
+      </c>
+      <c r="B32" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="159" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="159" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="159" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" s="110">
+        <v>6</v>
+      </c>
+      <c r="I32" s="110">
+        <v>5</v>
+      </c>
+      <c r="J32" s="110">
+        <v>4</v>
+      </c>
+      <c r="K32" s="110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="110">
+        <v>8</v>
+      </c>
+      <c r="B33" s="159" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="159" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="159" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="110">
+        <v>7</v>
+      </c>
+      <c r="I33" s="110">
+        <v>6</v>
+      </c>
+      <c r="J33" s="110">
+        <v>5</v>
+      </c>
+      <c r="K33" s="110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="110">
+        <v>9</v>
+      </c>
+      <c r="B34" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="158" t="s">
+        <v>375</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34" s="110">
+        <v>8</v>
+      </c>
+      <c r="I34" s="110">
+        <v>7</v>
+      </c>
+      <c r="J34" s="110">
+        <v>6</v>
+      </c>
+      <c r="K34" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="110">
+        <v>10</v>
+      </c>
+      <c r="B35" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="159" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="E35" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="110">
+        <v>9</v>
+      </c>
+      <c r="I35" s="110">
+        <v>8</v>
+      </c>
+      <c r="J35" s="110">
+        <v>7</v>
+      </c>
+      <c r="K35" s="110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="110">
+        <v>11</v>
+      </c>
+      <c r="B36" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" s="159" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="110">
+        <v>10</v>
+      </c>
+      <c r="I36" s="110">
+        <v>9</v>
+      </c>
+      <c r="J36" s="110">
+        <v>8</v>
+      </c>
+      <c r="K36" s="110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="110">
+        <v>12</v>
+      </c>
+      <c r="B37" s="159" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="110">
+        <v>11</v>
+      </c>
+      <c r="I37" s="110">
+        <v>10</v>
+      </c>
+      <c r="J37" s="110">
+        <v>9</v>
+      </c>
+      <c r="K37" s="110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="110">
+        <v>13</v>
+      </c>
+      <c r="B38" s="159" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="159" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="E38" s="159" t="s">
+        <v>390</v>
+      </c>
+      <c r="H38" s="110">
+        <v>12</v>
+      </c>
+      <c r="I38" s="110">
+        <v>11</v>
+      </c>
+      <c r="J38" s="110">
+        <v>10</v>
+      </c>
+      <c r="K38" s="110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="110">
+        <v>14</v>
+      </c>
+      <c r="B39" s="159" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="159" t="s">
+        <v>380</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="H39" s="110">
+        <v>13</v>
+      </c>
+      <c r="I39" s="110">
+        <v>12</v>
+      </c>
+      <c r="J39" s="110">
+        <v>11</v>
+      </c>
+      <c r="K39" s="110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="110">
+        <v>15</v>
+      </c>
+      <c r="B40" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>381</v>
+      </c>
+      <c r="E40" s="159" t="s">
+        <v>392</v>
+      </c>
+      <c r="H40" s="110">
+        <v>14</v>
+      </c>
+      <c r="I40" s="110">
+        <v>13</v>
+      </c>
+      <c r="J40" s="110">
+        <v>12</v>
+      </c>
+      <c r="K40" s="110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="110">
+        <v>16</v>
+      </c>
+      <c r="B41" s="159" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="110">
+        <v>15</v>
+      </c>
+      <c r="I41" s="110">
+        <v>14</v>
+      </c>
+      <c r="J41" s="110">
+        <v>13</v>
+      </c>
+      <c r="K41" s="110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="110">
+        <v>17</v>
+      </c>
+      <c r="B42" s="159" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="159" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="159" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" s="110">
+        <v>16</v>
+      </c>
+      <c r="I42" s="110">
+        <v>15</v>
+      </c>
+      <c r="J42" s="110">
+        <v>14</v>
+      </c>
+      <c r="K42" s="110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="110">
+        <v>18</v>
+      </c>
+      <c r="B43" s="158" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="159" t="s">
+        <v>395</v>
+      </c>
+      <c r="H43" s="110">
+        <v>17</v>
+      </c>
+      <c r="I43" s="110">
+        <v>16</v>
+      </c>
+      <c r="J43" s="110">
+        <v>15</v>
+      </c>
+      <c r="K43" s="110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="110">
+        <v>19</v>
+      </c>
+      <c r="B44" s="161" t="s">
+        <v>404</v>
+      </c>
+      <c r="C44" s="158" t="s">
+        <v>405</v>
+      </c>
+      <c r="D44" s="159" t="s">
+        <v>385</v>
+      </c>
+      <c r="E44" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="H44" s="110">
+        <v>18</v>
+      </c>
+      <c r="I44" s="110">
+        <v>17</v>
+      </c>
+      <c r="J44" s="110">
+        <v>16</v>
+      </c>
+      <c r="K44" s="110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="110">
+        <v>20</v>
+      </c>
+      <c r="B45" s="161" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" s="161" t="s">
+        <v>407</v>
+      </c>
+      <c r="D45" s="158" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="H45" s="110">
+        <v>19</v>
+      </c>
+      <c r="I45" s="110">
+        <v>18</v>
+      </c>
+      <c r="J45" s="110">
+        <v>17</v>
+      </c>
+      <c r="K45" s="110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="110">
+        <v>21</v>
+      </c>
+      <c r="B46" s="161" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="161" t="s">
+        <v>410</v>
+      </c>
+      <c r="D46" s="161" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="158" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" s="110">
+        <v>20</v>
+      </c>
+      <c r="I46" s="110">
+        <v>19</v>
+      </c>
+      <c r="J46" s="110">
+        <v>18</v>
+      </c>
+      <c r="K46" s="110">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="110">
+        <v>22</v>
+      </c>
+      <c r="B47" s="161" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="161" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="161" t="s">
+        <v>415</v>
+      </c>
+      <c r="E47" s="161" t="s">
+        <v>416</v>
+      </c>
+      <c r="H47" s="110">
+        <v>21</v>
+      </c>
+      <c r="I47" s="110">
+        <v>20</v>
+      </c>
+      <c r="J47" s="110">
+        <v>19</v>
+      </c>
+      <c r="K47" s="110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="110">
+        <v>23</v>
+      </c>
+      <c r="B48" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="161" t="s">
+        <v>418</v>
+      </c>
+      <c r="D48" s="161" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" s="161" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" s="110">
+        <v>22</v>
+      </c>
+      <c r="I48" s="110">
+        <v>21</v>
+      </c>
+      <c r="J48" s="110">
+        <v>20</v>
+      </c>
+      <c r="K48" s="110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="110">
+        <v>24</v>
+      </c>
+      <c r="B49" s="161" t="s">
+        <v>421</v>
+      </c>
+      <c r="C49" s="161" t="s">
+        <v>422</v>
+      </c>
+      <c r="D49" s="161" t="s">
+        <v>423</v>
+      </c>
+      <c r="E49" s="161" t="s">
+        <v>424</v>
+      </c>
+      <c r="H49" s="110">
+        <v>23</v>
+      </c>
+      <c r="I49" s="110">
+        <v>22</v>
+      </c>
+      <c r="J49" s="110">
+        <v>21</v>
+      </c>
+      <c r="K49" s="110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="110">
+        <v>25</v>
+      </c>
+      <c r="B50" s="161" t="s">
+        <v>425</v>
+      </c>
+      <c r="C50" s="161" t="s">
+        <v>426</v>
+      </c>
+      <c r="D50" s="161" t="s">
+        <v>427</v>
+      </c>
+      <c r="E50" s="161" t="s">
+        <v>428</v>
+      </c>
+      <c r="H50" s="110">
+        <v>24</v>
+      </c>
+      <c r="I50" s="110">
+        <v>23</v>
+      </c>
+      <c r="J50" s="110">
+        <v>22</v>
+      </c>
+      <c r="K50" s="110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="110">
+        <v>26</v>
+      </c>
+      <c r="B51" s="161" t="s">
+        <v>429</v>
+      </c>
+      <c r="C51" s="161" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" s="161" t="s">
+        <v>431</v>
+      </c>
+      <c r="E51" s="161" t="s">
+        <v>432</v>
+      </c>
+      <c r="H51" s="110">
+        <v>25</v>
+      </c>
+      <c r="I51" s="110">
+        <v>24</v>
+      </c>
+      <c r="J51" s="110">
+        <v>23</v>
+      </c>
+      <c r="K51" s="110">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="110">
+        <v>27</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>433</v>
+      </c>
+      <c r="C52" s="161" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="161" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="161" t="s">
+        <v>436</v>
+      </c>
+      <c r="H52" s="110">
+        <v>26</v>
+      </c>
+      <c r="I52" s="110">
+        <v>25</v>
+      </c>
+      <c r="J52" s="110">
+        <v>24</v>
+      </c>
+      <c r="K52" s="110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="110">
+        <v>28</v>
+      </c>
+      <c r="B53" s="161" t="s">
+        <v>437</v>
+      </c>
+      <c r="C53" s="161" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" s="161" t="s">
+        <v>439</v>
+      </c>
+      <c r="E53" s="161" t="s">
+        <v>440</v>
+      </c>
+      <c r="H53" s="110">
+        <v>27</v>
+      </c>
+      <c r="I53" s="110">
+        <v>26</v>
+      </c>
+      <c r="J53" s="110">
+        <v>25</v>
+      </c>
+      <c r="K53" s="110">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="110">
+        <v>29</v>
+      </c>
+      <c r="B54" s="161" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" s="161" t="s">
+        <v>442</v>
+      </c>
+      <c r="D54" s="161" t="s">
+        <v>443</v>
+      </c>
+      <c r="E54" s="161" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" s="110">
+        <v>28</v>
+      </c>
+      <c r="I54" s="110">
+        <v>27</v>
+      </c>
+      <c r="J54" s="110">
+        <v>26</v>
+      </c>
+      <c r="K54" s="110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="110">
+        <v>30</v>
+      </c>
+      <c r="B55" s="161" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="161" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55" s="161" t="s">
+        <v>447</v>
+      </c>
+      <c r="E55" s="161" t="s">
+        <v>448</v>
+      </c>
+      <c r="H55" s="110">
+        <v>29</v>
+      </c>
+      <c r="I55" s="110">
+        <v>28</v>
+      </c>
+      <c r="J55" s="110">
+        <v>27</v>
+      </c>
+      <c r="K55" s="110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="110">
+        <v>31</v>
+      </c>
+      <c r="B56" s="161" t="s">
+        <v>449</v>
+      </c>
+      <c r="C56" s="161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="E56" s="161" t="s">
+        <v>452</v>
+      </c>
+      <c r="H56" s="110">
+        <v>30</v>
+      </c>
+      <c r="I56" s="110">
+        <v>29</v>
+      </c>
+      <c r="J56" s="110">
+        <v>28</v>
+      </c>
+      <c r="K56" s="110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="110">
+        <v>32</v>
+      </c>
+      <c r="B57" s="161" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" s="161" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" s="161" t="s">
+        <v>455</v>
+      </c>
+      <c r="E57" s="161" t="s">
+        <v>456</v>
+      </c>
+      <c r="H57" s="110">
+        <v>31</v>
+      </c>
+      <c r="I57" s="110">
+        <v>30</v>
+      </c>
+      <c r="J57" s="110">
+        <v>29</v>
+      </c>
+      <c r="K57" s="110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="110">
+        <v>33</v>
+      </c>
+      <c r="B58" s="161" t="s">
+        <v>457</v>
+      </c>
+      <c r="C58" s="161" t="s">
+        <v>458</v>
+      </c>
+      <c r="D58" s="161" t="s">
+        <v>459</v>
+      </c>
+      <c r="E58" s="161" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" s="110">
+        <v>32</v>
+      </c>
+      <c r="I58" s="110">
+        <v>31</v>
+      </c>
+      <c r="J58" s="110">
+        <v>30</v>
+      </c>
+      <c r="K58" s="110">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="162"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="162" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="162" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" s="162" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" s="162" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="162" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="162">
+        <v>0</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="165" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="164"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="162">
+        <v>1</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="164"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="162">
+        <v>2</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="166" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="163"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="162">
+        <v>3</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="163"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="162">
+        <v>4</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="165"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="162">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="162">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="162">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="162">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="162">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="162">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="162">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="162">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="162">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="162">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="162">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="162">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="162">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="162">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="162">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="162">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0EB360-9C6A-42D1-8914-527EE38B628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDF411-D015-4D51-A05F-5616CC06FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="487">
   <si>
     <t>步骤</t>
   </si>
@@ -646,10 +646,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>t_cov_vv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -868,10 +864,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>t_cov_vv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>H_vv</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1624,6 +1616,79 @@
   </si>
   <si>
     <t>cov(2,3)</t>
+  </si>
+  <si>
+    <t>state(4,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(4,2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(4,3)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(5,2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(5,3)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(6,2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(6,3)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(5,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(6,1)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(7,1)</t>
+  </si>
+  <si>
+    <t>cov(4,5)</t>
+  </si>
+  <si>
+    <t>cov(4,6)</t>
+  </si>
+  <si>
+    <t>cov(5,6)</t>
+  </si>
+  <si>
+    <t>cov(4,7)</t>
+  </si>
+  <si>
+    <t>cov(5,7)</t>
+  </si>
+  <si>
+    <t>cov(6,7)</t>
+  </si>
+  <si>
+    <t>cov_vv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_vv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1830,7 +1895,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2276,13 +2341,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2441,9 +2528,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2466,9 +2550,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,21 +2675,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2699,15 +2765,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2768,16 +2825,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3727,10 +3859,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="106"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4510,12 +4642,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12106,9 +12238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12175,7 +12307,7 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>185</v>
       </c>
       <c r="B3" s="13"/>
@@ -12198,8 +12330,8 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>201</v>
+      <c r="A4" s="64" t="s">
+        <v>200</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -12333,28 +12465,28 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" s="75" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="72" t="s">
+    <row r="10" spans="1:19" s="73" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
     </row>
     <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
@@ -12480,11 +12612,11 @@
       <c r="B16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>189</v>
+      <c r="C16" s="180" t="s">
+        <v>486</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="3"/>
@@ -12532,14 +12664,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>196</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -12557,18 +12689,18 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="95"/>
+        <v>231</v>
+      </c>
+      <c r="F19" s="93"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -12585,17 +12717,17 @@
     </row>
     <row r="20" spans="1:19" ht="38.25" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="57" t="s">
         <v>189</v>
+      </c>
+      <c r="E20" s="180" t="s">
+        <v>486</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12644,15 +12776,15 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>196</v>
-      </c>
       <c r="D22" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>196</v>
       </c>
       <c r="F22" s="7"/>
@@ -12671,20 +12803,20 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="94"/>
+        <v>231</v>
+      </c>
+      <c r="F23" s="92"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
@@ -12703,14 +12835,14 @@
       <c r="A24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="25"/>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="66" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="3"/>
@@ -12758,14 +12890,14 @@
     <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>29</v>
@@ -12787,14 +12919,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -12834,28 +12966,28 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" s="75" customFormat="1">
+    <row r="29" spans="1:19" s="73" customFormat="1">
       <c r="A29" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="3" t="s">
@@ -12951,14 +13083,14 @@
     </row>
     <row r="34" spans="1:19" ht="33" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="58" t="s">
-        <v>189</v>
+      <c r="C34" s="180" t="s">
+        <v>486</v>
       </c>
       <c r="D34" s="25"/>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="66" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="3"/>
@@ -13006,14 +13138,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>196</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -13033,16 +13165,16 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="95"/>
+        <v>234</v>
+      </c>
+      <c r="F37" s="93"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -13059,14 +13191,14 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="4"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="36"/>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="66" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="3"/>
@@ -13114,14 +13246,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>43</v>
@@ -13143,18 +13275,18 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
+        <v>234</v>
+      </c>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
@@ -13169,15 +13301,15 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="95" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="41"/>
-      <c r="E42" s="64" t="s">
-        <v>191</v>
+      <c r="E42" s="62" t="s">
+        <v>190</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13224,14 +13356,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -13251,18 +13383,18 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
+        <v>231</v>
+      </c>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
@@ -13277,14 +13409,14 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="95" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="41"/>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="62" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="3"/>
@@ -13332,14 +13464,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -13359,16 +13491,16 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" s="94"/>
+        <v>231</v>
+      </c>
+      <c r="F49" s="92"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -13385,16 +13517,16 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4"/>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="99" t="s">
+      <c r="E50" s="97" t="s">
         <v>186</v>
       </c>
       <c r="F50" s="3"/>
@@ -13444,16 +13576,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="D52" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="7">
         <v>8</v>
@@ -13475,18 +13607,18 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="94"/>
+        <v>234</v>
+      </c>
+      <c r="F53" s="92"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
@@ -13524,28 +13656,28 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" s="75" customFormat="1">
+    <row r="55" spans="1:19" s="73" customFormat="1">
       <c r="A55" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="3" t="s">
@@ -13710,17 +13842,17 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="100" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="102" t="s">
-        <v>204</v>
+      <c r="C63" s="100" t="s">
+        <v>203</v>
       </c>
       <c r="D63" s="41"/>
-      <c r="E63" s="103" t="s">
-        <v>230</v>
+      <c r="E63" s="101" t="s">
+        <v>229</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -13743,10 +13875,10 @@
         <v>184</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="24"/>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="102" t="s">
         <v>184</v>
       </c>
       <c r="F64" s="38"/>
@@ -13767,14 +13899,14 @@
     <row r="65" spans="1:19">
       <c r="A65" s="39"/>
       <c r="B65" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="40"/>
@@ -13793,17 +13925,17 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="181" t="s">
+        <v>486</v>
+      </c>
+      <c r="C66" s="75" t="s">
         <v>180</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="64" t="s">
-        <v>236</v>
+      <c r="E66" s="62" t="s">
+        <v>235</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
@@ -13823,7 +13955,7 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>179</v>
@@ -13849,18 +13981,18 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="39"/>
-      <c r="B68" s="47" t="s">
-        <v>195</v>
+      <c r="B68" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -13878,17 +14010,17 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="76" t="s">
         <v>180</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="62" t="s">
-        <v>238</v>
+      <c r="E69" s="61" t="s">
+        <v>237</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -13908,14 +14040,14 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
@@ -13935,14 +14067,14 @@
     <row r="71" spans="1:19">
       <c r="A71" s="3"/>
       <c r="B71" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
@@ -13961,15 +14093,15 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="3"/>
-      <c r="B72" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="77" t="s">
+      <c r="B72" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="75" t="s">
         <v>181</v>
       </c>
       <c r="D72" s="45"/>
-      <c r="E72" s="64" t="s">
-        <v>236</v>
+      <c r="E72" s="62" t="s">
+        <v>235</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>187</v>
@@ -14018,14 +14150,14 @@
     <row r="74" spans="1:19">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="40"/>
@@ -14043,18 +14175,18 @@
       <c r="S74" s="40"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="95"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="F75" s="95"/>
+        <v>232</v>
+      </c>
+      <c r="F75" s="93"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
@@ -14071,18 +14203,18 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="65" t="s">
+      <c r="C76" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="62" t="s">
+      <c r="E76" s="61" t="s">
         <v>65</v>
       </c>
       <c r="F76" s="3"/>
@@ -14134,16 +14266,16 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="D78" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>52</v>
@@ -14163,20 +14295,20 @@
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="95"/>
+      <c r="A79" s="93"/>
       <c r="B79" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="F79" s="95"/>
+        <v>231</v>
+      </c>
+      <c r="F79" s="93"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
@@ -14193,14 +14325,14 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" s="58" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="60" t="s">
+      <c r="E80" s="59" t="s">
         <v>68</v>
       </c>
       <c r="F80" s="7"/>
@@ -14246,12 +14378,12 @@
     <row r="82" spans="1:19">
       <c r="A82" s="39"/>
       <c r="B82" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="40"/>
@@ -14270,16 +14402,16 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D83" s="25"/>
-      <c r="E83" s="60" t="s">
+      <c r="E83" s="59" t="s">
         <v>69</v>
       </c>
       <c r="F83" s="3"/>
@@ -14327,14 +14459,14 @@
     <row r="85" spans="1:19">
       <c r="A85" s="3"/>
       <c r="B85" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>70</v>
@@ -14354,18 +14486,18 @@
       <c r="S85" s="4"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="95"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="95"/>
+        <v>232</v>
+      </c>
+      <c r="F86" s="93"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
@@ -14475,7 +14607,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D90" s="44" t="s">
         <v>76</v>
@@ -14559,19 +14691,19 @@
       <c r="S92" s="4"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="96" t="s">
+      <c r="A93" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B93" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" s="98" t="s">
+      <c r="C93" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="E93" s="99" t="s">
+      <c r="E93" s="97" t="s">
         <v>76</v>
       </c>
       <c r="F93" s="7"/>
@@ -14621,16 +14753,16 @@
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="D95" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="E95" s="43" t="s">
         <v>197</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>198</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
@@ -14650,14 +14782,14 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
-      <c r="F96" s="94"/>
+      <c r="F96" s="92"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
@@ -14695,13 +14827,13 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="108" t="s">
+      <c r="B98" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="81" t="s">
         <v>213</v>
-      </c>
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="83" t="s">
-        <v>214</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -14717,17 +14849,17 @@
     </row>
     <row r="99" spans="1:19" ht="14.25" thickBot="1">
       <c r="A99" s="38"/>
-      <c r="B99" s="87" t="s">
+      <c r="B99" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="88" t="s">
+      <c r="D99" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="86" t="s">
         <v>216</v>
-      </c>
-      <c r="D99" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99" s="88" t="s">
-        <v>217</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -14742,20 +14874,20 @@
       <c r="S99" s="40"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="80" t="s">
+      <c r="A100" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="84" t="s">
+      <c r="D100" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="82" t="s">
         <v>195</v>
-      </c>
-      <c r="E100" s="84" t="s">
-        <v>196</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -14772,16 +14904,16 @@
       <c r="S100" s="40"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85" t="s">
-        <v>211</v>
+      <c r="A101" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="79"/>
+      <c r="C101" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83" t="s">
+        <v>210</v>
       </c>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -14798,23 +14930,23 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="81" t="s">
+      <c r="A102" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="85" t="s">
-        <v>198</v>
-      </c>
       <c r="G102" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -14830,19 +14962,19 @@
       <c r="S102" s="4"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A103" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="82"/>
-      <c r="C103" s="89"/>
+      <c r="A103" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="80"/>
+      <c r="C103" s="87"/>
       <c r="D103" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" s="77" t="s">
         <v>206</v>
-      </c>
-      <c r="G103" s="79" t="s">
-        <v>207</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -14901,10 +15033,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -14926,10 +15058,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -14951,10 +15083,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -14979,7 +15111,7 @@
         <v>183</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15001,10 +15133,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15026,10 +15158,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -18367,243 +18499,301 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="110" t="s">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B1" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="D1" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="E1" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="110" t="s">
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="133" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="110" t="s">
+      <c r="C2" s="135" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="110" t="s">
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110" t="s">
+      <c r="C3" s="140" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="110" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B4" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="135" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="110" t="s">
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B7" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="137" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B10" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="133" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="137" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B13" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="124"/>
+      <c r="E13" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="133" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C14" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110" t="s">
+      <c r="D15" s="140" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="110" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="110" t="s">
+      <c r="E15" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B16" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C17" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110" t="s">
+      <c r="D17" s="135" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="110" t="s">
+      <c r="E17" s="136" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="110" t="s">
+      <c r="C18" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B19" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="110" t="s">
+      <c r="C20" s="135" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="136" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="110" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.4" customHeight="1">
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" s="110" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="110" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" s="110" t="s">
+      <c r="F20" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="111"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
+      <c r="B21" s="137" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B22" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="179" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -18764,377 +18954,377 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="105">
+        <v>1</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="105">
+        <v>1</v>
+      </c>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="112">
-        <v>1</v>
-      </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="112">
-        <v>1</v>
-      </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="115" t="s">
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="116" t="s">
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="115" t="s">
+      <c r="R2" s="109"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="115" t="s">
+      <c r="U2" s="111"/>
+      <c r="V2" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="W2" s="110"/>
+      <c r="X2" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="119" t="s">
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="U2" s="118"/>
-      <c r="V2" s="115" t="s">
-        <v>262</v>
-      </c>
-      <c r="W2" s="117"/>
-      <c r="X2" s="115" t="s">
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="120" t="s">
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="121" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="115" t="s">
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="115" t="s">
+      <c r="AO2" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="121" t="s">
+      <c r="AP2" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="AO2" s="123" t="s">
+      <c r="AQ2" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="AP2" s="115" t="s">
+      <c r="AR2" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="AQ2" s="117" t="s">
+      <c r="AS2" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="AR2" s="115" t="s">
+      <c r="AT2" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="AS2" s="117" t="s">
+      <c r="AU2" s="110" t="s">
         <v>281</v>
-      </c>
-      <c r="AT2" s="115" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU2" s="117" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118">
+        <v>1</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="118">
+        <v>1</v>
+      </c>
+      <c r="G3" s="118"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121">
+        <v>1</v>
+      </c>
+      <c r="J3" s="122"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="121">
+        <v>1</v>
+      </c>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125">
-        <v>1</v>
-      </c>
-      <c r="D3" s="126" t="s">
+      <c r="AO3" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="125">
-        <v>1</v>
-      </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128">
-        <v>1</v>
-      </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128">
-        <v>1</v>
-      </c>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="127" t="s">
+      <c r="AP3" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="AO3" s="129" t="s">
+      <c r="AQ3" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="AP3" s="127" t="s">
+      <c r="AR3" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="AQ3" s="129" t="s">
+      <c r="AS3" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="AR3" s="127" t="s">
+      <c r="AT3" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="AS3" s="129" t="s">
+      <c r="AU3" s="122" t="s">
         <v>291</v>
-      </c>
-      <c r="AT3" s="127" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU3" s="129" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131">
+        <v>1</v>
+      </c>
+      <c r="E4" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="131">
+        <v>1</v>
+      </c>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="127">
+        <v>1</v>
+      </c>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AN4" s="120" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO4" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138">
-        <v>1</v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="138">
-        <v>1</v>
-      </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="134">
-        <v>1</v>
-      </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="139"/>
-      <c r="AN4" s="127" t="s">
+      <c r="AP4" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="AO4" s="129" t="s">
+      <c r="AQ4" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="AP4" s="127" t="s">
+      <c r="AR4" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="AQ4" s="129" t="s">
+      <c r="AS4" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="AR4" s="127" t="s">
+      <c r="AT4" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="AS4" s="129" t="s">
+      <c r="AU4" s="122" t="s">
         <v>300</v>
-      </c>
-      <c r="AT4" s="127" t="s">
-        <v>301</v>
-      </c>
-      <c r="AU4" s="129" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AN5" s="123" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO5" s="127" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AN5" s="130" t="s">
+      <c r="AP5" s="123" t="s">
         <v>304</v>
       </c>
-      <c r="AO5" s="134" t="s">
+      <c r="AQ5" s="127" t="s">
         <v>305</v>
       </c>
-      <c r="AP5" s="130" t="s">
+      <c r="AR5" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="AQ5" s="134" t="s">
+      <c r="AS5" s="127" t="s">
         <v>307</v>
       </c>
-      <c r="AR5" s="130" t="s">
+      <c r="AT5" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="AS5" s="134" t="s">
+      <c r="AU5" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AT5" s="130" t="s">
+    </row>
+    <row r="6" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B6" s="158" t="s">
         <v>310</v>
       </c>
-      <c r="AU5" s="134" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="158" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="140" t="s">
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B7" s="158" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="140" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="158" t="s">
         <v>313</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="142"/>
-    </row>
-    <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="140" t="s">
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="140" t="s">
-        <v>315</v>
-      </c>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="140" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="141"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="141"/>
-      <c r="AK7" s="141"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="141"/>
-      <c r="AO7" s="141"/>
-      <c r="AP7" s="141"/>
-      <c r="AQ7" s="141"/>
-      <c r="AR7" s="142"/>
+      <c r="AC7" s="159"/>
+      <c r="AD7" s="159"/>
+      <c r="AE7" s="159"/>
+      <c r="AF7" s="159"/>
+      <c r="AG7" s="159"/>
+      <c r="AH7" s="159"/>
+      <c r="AI7" s="159"/>
+      <c r="AJ7" s="159"/>
+      <c r="AK7" s="159"/>
+      <c r="AL7" s="159"/>
+      <c r="AM7" s="159"/>
+      <c r="AN7" s="159"/>
+      <c r="AO7" s="159"/>
+      <c r="AP7" s="159"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="160"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AM9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19142,7 +19332,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19152,7 +19342,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -19178,1805 +19368,1805 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="110"/>
+    <col min="1" max="16384" width="9.06640625" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="143">
+      <c r="A1" s="133">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="146"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="147">
+      <c r="A2" s="137">
         <v>1</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="139" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="137">
+        <v>2</v>
+      </c>
+      <c r="B3" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C3" s="139" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="151"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="147">
+      <c r="D3" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="137">
+        <v>3</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="137">
+        <v>4</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="137">
+        <v>5</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="139" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="137">
+        <v>6</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="137">
+        <v>7</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="139" t="s">
+        <v>353</v>
+      </c>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="137">
+        <v>8</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="139" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="139" t="s">
+        <v>360</v>
+      </c>
+      <c r="I9" s="139" t="s">
+        <v>361</v>
+      </c>
+      <c r="J9" s="139" t="s">
+        <v>362</v>
+      </c>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="137">
+        <v>9</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" s="139" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" s="139" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="137">
+        <v>10</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>379</v>
+      </c>
+      <c r="I11" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" s="139" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="139" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" s="141"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A12" s="142">
+        <v>11</v>
+      </c>
+      <c r="B12" s="143" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="145" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="144" t="s">
+        <v>390</v>
+      </c>
+      <c r="I12" s="144" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" s="144" t="s">
+        <v>392</v>
+      </c>
+      <c r="K12" s="144" t="s">
+        <v>393</v>
+      </c>
+      <c r="L12" s="144" t="s">
+        <v>394</v>
+      </c>
+      <c r="M12" s="146" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="149" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="149" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="J14" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="L14" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="M14" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="N14" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="O14" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="149" t="s">
+        <v>360</v>
+      </c>
+      <c r="R14" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="S14" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="T14" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="U14" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="V14" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="W14" s="103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="149" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="149" t="s">
+        <v>343</v>
+      </c>
+      <c r="I15" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="J15" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="L15" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="M15" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="N15" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="O15" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="P15" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q15" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="R15" s="149" t="s">
+        <v>370</v>
+      </c>
+      <c r="S15" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="T15" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="U15" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="V15" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="W15" s="103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="149" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="149" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="149" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="L16" s="149" t="s">
+        <v>374</v>
+      </c>
+      <c r="M16" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="N16" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="O16" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="P16" s="149" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q16" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="R16" s="149" t="s">
+        <v>380</v>
+      </c>
+      <c r="S16" s="149" t="s">
+        <v>381</v>
+      </c>
+      <c r="T16" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="U16" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="V16" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="W16" s="103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="149" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" s="149" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" s="149" t="s">
+        <v>330</v>
+      </c>
+      <c r="I17" s="149" t="s">
+        <v>331</v>
+      </c>
+      <c r="J17" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="K17" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="L17" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="M17" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="N17" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="O17" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="P17" s="149" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q17" s="149" t="s">
+        <v>390</v>
+      </c>
+      <c r="R17" s="149" t="s">
+        <v>391</v>
+      </c>
+      <c r="S17" s="149" t="s">
+        <v>392</v>
+      </c>
+      <c r="T17" s="149" t="s">
+        <v>393</v>
+      </c>
+      <c r="U17" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="V17" s="149" t="s">
+        <v>395</v>
+      </c>
+      <c r="W17" s="103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="149" t="s">
+        <v>360</v>
+      </c>
+      <c r="I19" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="J19" s="149" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="H20" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="149" t="s">
+        <v>370</v>
+      </c>
+      <c r="J20" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="149" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="F21" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="G21" s="149" t="s">
+        <v>378</v>
+      </c>
+      <c r="H21" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" s="149" t="s">
+        <v>380</v>
+      </c>
+      <c r="J21" s="149" t="s">
+        <v>381</v>
+      </c>
+      <c r="K21" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="L21" s="149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="149" t="s">
+        <v>389</v>
+      </c>
+      <c r="H22" s="149" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="149" t="s">
+        <v>391</v>
+      </c>
+      <c r="J22" s="149" t="s">
+        <v>392</v>
+      </c>
+      <c r="K22" s="149" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="M22" s="149" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="103">
+        <v>0</v>
+      </c>
+      <c r="B25" s="147"/>
+      <c r="C25" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="103">
+        <v>0</v>
+      </c>
+      <c r="I25" s="103">
+        <v>0</v>
+      </c>
+      <c r="J25" s="103">
+        <v>0</v>
+      </c>
+      <c r="K25" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="103">
+        <v>1</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="103">
+        <v>0</v>
+      </c>
+      <c r="I26" s="103">
+        <v>1</v>
+      </c>
+      <c r="J26" s="103">
+        <v>0</v>
+      </c>
+      <c r="K26" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="103">
         <v>2</v>
       </c>
-      <c r="B3" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="149" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="147">
+      <c r="B27" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>398</v>
+      </c>
+      <c r="E27" s="149" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="103">
+        <v>1</v>
+      </c>
+      <c r="I27" s="103">
+        <v>0</v>
+      </c>
+      <c r="J27" s="103">
+        <v>1</v>
+      </c>
+      <c r="K27" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="103">
         <v>3</v>
       </c>
-      <c r="B4" s="148" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="149" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="149" t="s">
+      <c r="B28" s="149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C28" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="149" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" s="103">
+        <v>2</v>
+      </c>
+      <c r="I28" s="103">
+        <v>1</v>
+      </c>
+      <c r="J28" s="103">
+        <v>0</v>
+      </c>
+      <c r="K28" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="103">
+        <v>4</v>
+      </c>
+      <c r="B29" s="149" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="149" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="149" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="H29" s="103">
+        <v>3</v>
+      </c>
+      <c r="I29" s="103">
+        <v>2</v>
+      </c>
+      <c r="J29" s="103">
+        <v>1</v>
+      </c>
+      <c r="K29" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="103">
+        <v>5</v>
+      </c>
+      <c r="B30" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="149" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="147">
+      <c r="H30" s="103">
         <v>4</v>
       </c>
-      <c r="B5" s="148" t="s">
+      <c r="I30" s="103">
+        <v>3</v>
+      </c>
+      <c r="J30" s="103">
+        <v>2</v>
+      </c>
+      <c r="K30" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="103">
+        <v>6</v>
+      </c>
+      <c r="B31" s="149" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="149" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" s="149" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" s="149" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="149" t="s">
+      <c r="H31" s="103">
+        <v>5</v>
+      </c>
+      <c r="I31" s="103">
+        <v>4</v>
+      </c>
+      <c r="J31" s="103">
+        <v>3</v>
+      </c>
+      <c r="K31" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="103">
+        <v>7</v>
+      </c>
+      <c r="B32" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="149" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="H32" s="103">
+        <v>6</v>
+      </c>
+      <c r="I32" s="103">
+        <v>5</v>
+      </c>
+      <c r="J32" s="103">
+        <v>4</v>
+      </c>
+      <c r="K32" s="103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="103">
+        <v>8</v>
+      </c>
+      <c r="B33" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="149" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="149" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="151"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="147">
+      <c r="H33" s="103">
+        <v>7</v>
+      </c>
+      <c r="I33" s="103">
+        <v>6</v>
+      </c>
+      <c r="J33" s="103">
         <v>5</v>
       </c>
-      <c r="B6" s="148" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" s="149" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="149" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" s="149" t="s">
-        <v>340</v>
-      </c>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="151"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="147">
+      <c r="K33" s="103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="103">
+        <v>9</v>
+      </c>
+      <c r="B34" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" s="103">
+        <v>8</v>
+      </c>
+      <c r="I34" s="103">
+        <v>7</v>
+      </c>
+      <c r="J34" s="103">
         <v>6</v>
       </c>
-      <c r="B7" s="148" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="149" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="149" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="151"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="147">
+      <c r="K34" s="103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="103">
+        <v>10</v>
+      </c>
+      <c r="B35" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="H35" s="103">
+        <v>9</v>
+      </c>
+      <c r="I35" s="103">
+        <v>8</v>
+      </c>
+      <c r="J35" s="103">
         <v>7</v>
       </c>
-      <c r="B8" s="148" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="149" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="149" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="149" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="147">
+      <c r="K35" s="103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="103">
+        <v>11</v>
+      </c>
+      <c r="B36" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E36" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="H36" s="103">
+        <v>10</v>
+      </c>
+      <c r="I36" s="103">
+        <v>9</v>
+      </c>
+      <c r="J36" s="103">
         <v>8</v>
       </c>
-      <c r="B9" s="148" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="149" t="s">
+      <c r="K36" s="103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="103">
+        <v>12</v>
+      </c>
+      <c r="B37" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="C37" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="103">
+        <v>11</v>
+      </c>
+      <c r="I37" s="103">
+        <v>10</v>
+      </c>
+      <c r="J37" s="103">
+        <v>9</v>
+      </c>
+      <c r="K37" s="103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="103">
+        <v>13</v>
+      </c>
+      <c r="B38" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="C38" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="E38" s="149" t="s">
+        <v>388</v>
+      </c>
+      <c r="H38" s="103">
+        <v>12</v>
+      </c>
+      <c r="I38" s="103">
+        <v>11</v>
+      </c>
+      <c r="J38" s="103">
+        <v>10</v>
+      </c>
+      <c r="K38" s="103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="103">
+        <v>14</v>
+      </c>
+      <c r="B39" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="C39" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="149" t="s">
+        <v>378</v>
+      </c>
+      <c r="E39" s="149" t="s">
+        <v>389</v>
+      </c>
+      <c r="H39" s="103">
+        <v>13</v>
+      </c>
+      <c r="I39" s="103">
+        <v>12</v>
+      </c>
+      <c r="J39" s="103">
+        <v>11</v>
+      </c>
+      <c r="K39" s="103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="103">
+        <v>15</v>
+      </c>
+      <c r="B40" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="C40" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="149" t="s">
+        <v>379</v>
+      </c>
+      <c r="E40" s="149" t="s">
+        <v>390</v>
+      </c>
+      <c r="H40" s="103">
+        <v>14</v>
+      </c>
+      <c r="I40" s="103">
+        <v>13</v>
+      </c>
+      <c r="J40" s="103">
+        <v>12</v>
+      </c>
+      <c r="K40" s="103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="103">
+        <v>16</v>
+      </c>
+      <c r="B41" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="C41" s="149" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="149" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="149" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" s="103">
+        <v>15</v>
+      </c>
+      <c r="I41" s="103">
+        <v>14</v>
+      </c>
+      <c r="J41" s="103">
+        <v>13</v>
+      </c>
+      <c r="K41" s="103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="103">
+        <v>17</v>
+      </c>
+      <c r="B42" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="I9" s="149" t="s">
-        <v>363</v>
-      </c>
-      <c r="J9" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="147">
-        <v>9</v>
-      </c>
-      <c r="B10" s="148" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="F10" s="149" t="s">
-        <v>369</v>
-      </c>
-      <c r="G10" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" s="149" t="s">
+      <c r="C42" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="D42" s="149" t="s">
+        <v>381</v>
+      </c>
+      <c r="E42" s="149" t="s">
+        <v>392</v>
+      </c>
+      <c r="H42" s="103">
+        <v>16</v>
+      </c>
+      <c r="I42" s="103">
+        <v>15</v>
+      </c>
+      <c r="J42" s="103">
+        <v>14</v>
+      </c>
+      <c r="K42" s="103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="103">
+        <v>18</v>
+      </c>
+      <c r="B43" s="148" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="J10" s="149" t="s">
-        <v>373</v>
-      </c>
-      <c r="K10" s="149" t="s">
-        <v>374</v>
-      </c>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="147">
-        <v>10</v>
-      </c>
-      <c r="B11" s="148" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="149" t="s">
-        <v>378</v>
-      </c>
-      <c r="F11" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="G11" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="H11" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="I11" s="149" t="s">
+      <c r="D43" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="J11" s="149" t="s">
+      <c r="E43" s="149" t="s">
+        <v>393</v>
+      </c>
+      <c r="H43" s="103">
+        <v>17</v>
+      </c>
+      <c r="I43" s="103">
+        <v>16</v>
+      </c>
+      <c r="J43" s="103">
+        <v>15</v>
+      </c>
+      <c r="K43" s="103">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="103">
+        <v>19</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="148" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="149" t="s">
         <v>383</v>
       </c>
-      <c r="K11" s="149" t="s">
-        <v>384</v>
-      </c>
-      <c r="L11" s="149" t="s">
-        <v>385</v>
-      </c>
-      <c r="M11" s="151"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A12" s="152">
-        <v>11</v>
-      </c>
-      <c r="B12" s="153" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" s="154" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="154" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="155" t="s">
-        <v>390</v>
-      </c>
-      <c r="G12" s="154" t="s">
-        <v>391</v>
-      </c>
-      <c r="H12" s="154" t="s">
-        <v>392</v>
-      </c>
-      <c r="I12" s="154" t="s">
-        <v>393</v>
-      </c>
-      <c r="J12" s="154" t="s">
+      <c r="E44" s="149" t="s">
         <v>394</v>
       </c>
-      <c r="K12" s="154" t="s">
+      <c r="H44" s="103">
+        <v>18</v>
+      </c>
+      <c r="I44" s="103">
+        <v>17</v>
+      </c>
+      <c r="J44" s="103">
+        <v>16</v>
+      </c>
+      <c r="K44" s="103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="103">
+        <v>20</v>
+      </c>
+      <c r="B45" s="151" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>405</v>
+      </c>
+      <c r="D45" s="148" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" s="149" t="s">
         <v>395</v>
       </c>
-      <c r="L12" s="154" t="s">
-        <v>396</v>
-      </c>
-      <c r="M12" s="156" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="159" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="159" t="s">
-        <v>350</v>
-      </c>
-      <c r="F14" s="159" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="H14" s="159" t="s">
-        <v>353</v>
-      </c>
-      <c r="I14" s="159" t="s">
-        <v>354</v>
-      </c>
-      <c r="J14" s="159" t="s">
-        <v>355</v>
-      </c>
-      <c r="K14" s="158" t="s">
-        <v>356</v>
-      </c>
-      <c r="L14" s="159" t="s">
-        <v>357</v>
-      </c>
-      <c r="M14" s="159" t="s">
-        <v>358</v>
-      </c>
-      <c r="N14" s="159" t="s">
-        <v>359</v>
-      </c>
-      <c r="O14" s="159" t="s">
-        <v>360</v>
-      </c>
-      <c r="P14" s="159" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q14" s="159" t="s">
-        <v>362</v>
-      </c>
-      <c r="R14" s="159" t="s">
-        <v>363</v>
-      </c>
-      <c r="S14" s="159" t="s">
-        <v>364</v>
-      </c>
-      <c r="T14" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="U14" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="V14" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="W14" s="110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="158" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15" s="159" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="158" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="159" t="s">
-        <v>342</v>
-      </c>
-      <c r="F15" s="159" t="s">
-        <v>343</v>
-      </c>
-      <c r="G15" s="159" t="s">
-        <v>344</v>
-      </c>
-      <c r="H15" s="159" t="s">
-        <v>345</v>
-      </c>
-      <c r="I15" s="159" t="s">
-        <v>346</v>
-      </c>
-      <c r="J15" s="159" t="s">
-        <v>347</v>
-      </c>
-      <c r="K15" s="158" t="s">
-        <v>365</v>
-      </c>
-      <c r="L15" s="159" t="s">
-        <v>366</v>
-      </c>
-      <c r="M15" s="159" t="s">
-        <v>367</v>
-      </c>
-      <c r="N15" s="159" t="s">
-        <v>368</v>
-      </c>
-      <c r="O15" s="159" t="s">
-        <v>369</v>
-      </c>
-      <c r="P15" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q15" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="R15" s="159" t="s">
-        <v>372</v>
-      </c>
-      <c r="S15" s="159" t="s">
-        <v>373</v>
-      </c>
-      <c r="T15" s="159" t="s">
-        <v>374</v>
-      </c>
-      <c r="U15" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="V15" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="W15" s="110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="158" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="159" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="159" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>335</v>
-      </c>
-      <c r="F16" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="159" t="s">
-        <v>337</v>
-      </c>
-      <c r="H16" s="159" t="s">
-        <v>338</v>
-      </c>
-      <c r="I16" s="159" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" s="159" t="s">
-        <v>340</v>
-      </c>
-      <c r="K16" s="158" t="s">
-        <v>375</v>
-      </c>
-      <c r="L16" s="159" t="s">
-        <v>376</v>
-      </c>
-      <c r="M16" s="159" t="s">
-        <v>377</v>
-      </c>
-      <c r="N16" s="159" t="s">
-        <v>378</v>
-      </c>
-      <c r="O16" s="159" t="s">
-        <v>379</v>
-      </c>
-      <c r="P16" s="159" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q16" s="159" t="s">
-        <v>381</v>
-      </c>
-      <c r="R16" s="159" t="s">
-        <v>382</v>
-      </c>
-      <c r="S16" s="159" t="s">
-        <v>383</v>
-      </c>
-      <c r="T16" s="159" t="s">
-        <v>384</v>
-      </c>
-      <c r="U16" s="159" t="s">
-        <v>385</v>
-      </c>
-      <c r="V16" s="110" t="s">
-        <v>398</v>
-      </c>
-      <c r="W16" s="110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="110" t="s">
-        <v>303</v>
-      </c>
-      <c r="B17" s="158" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="159" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="159" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="159" t="s">
-        <v>329</v>
-      </c>
-      <c r="F17" s="158" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="H17" s="159" t="s">
-        <v>332</v>
-      </c>
-      <c r="I17" s="159" t="s">
-        <v>333</v>
-      </c>
-      <c r="J17" s="159" t="s">
-        <v>334</v>
-      </c>
-      <c r="K17" s="158" t="s">
-        <v>386</v>
-      </c>
-      <c r="L17" s="159" t="s">
-        <v>387</v>
-      </c>
-      <c r="M17" s="159" t="s">
-        <v>388</v>
-      </c>
-      <c r="N17" s="159" t="s">
-        <v>389</v>
-      </c>
-      <c r="O17" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="P17" s="159" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q17" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="R17" s="159" t="s">
-        <v>393</v>
-      </c>
-      <c r="S17" s="159" t="s">
-        <v>394</v>
-      </c>
-      <c r="T17" s="159" t="s">
-        <v>395</v>
-      </c>
-      <c r="U17" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="V17" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="W17" s="110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="158" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>357</v>
-      </c>
-      <c r="D19" s="159" t="s">
-        <v>358</v>
-      </c>
-      <c r="E19" s="159" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="159" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="159" t="s">
-        <v>361</v>
-      </c>
-      <c r="H19" s="159" t="s">
-        <v>362</v>
-      </c>
-      <c r="I19" s="159" t="s">
-        <v>363</v>
-      </c>
-      <c r="J19" s="159" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="158" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" s="159" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" s="159" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="159" t="s">
-        <v>368</v>
-      </c>
-      <c r="F20" s="159" t="s">
-        <v>369</v>
-      </c>
-      <c r="G20" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="H20" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="I20" s="159" t="s">
-        <v>372</v>
-      </c>
-      <c r="J20" s="159" t="s">
-        <v>373</v>
-      </c>
-      <c r="K20" s="159" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="158" t="s">
-        <v>375</v>
-      </c>
-      <c r="C21" s="159" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="159" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="159" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="159" t="s">
-        <v>379</v>
-      </c>
-      <c r="G21" s="159" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="159" t="s">
-        <v>381</v>
-      </c>
-      <c r="I21" s="159" t="s">
-        <v>382</v>
-      </c>
-      <c r="J21" s="159" t="s">
-        <v>383</v>
-      </c>
-      <c r="K21" s="159" t="s">
-        <v>384</v>
-      </c>
-      <c r="L21" s="159" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="110" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="158" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" s="159" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="159" t="s">
-        <v>388</v>
-      </c>
-      <c r="E22" s="159" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="G22" s="159" t="s">
-        <v>391</v>
-      </c>
-      <c r="H22" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="I22" s="159" t="s">
-        <v>393</v>
-      </c>
-      <c r="J22" s="159" t="s">
-        <v>394</v>
-      </c>
-      <c r="K22" s="159" t="s">
-        <v>395</v>
-      </c>
-      <c r="L22" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="M22" s="159" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="110" t="s">
-        <v>399</v>
-      </c>
-      <c r="B24" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="D24" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="J24" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="K24" s="110" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="110">
-        <v>0</v>
-      </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="158" t="s">
-        <v>321</v>
-      </c>
-      <c r="D25" s="158" t="s">
-        <v>323</v>
-      </c>
-      <c r="E25" s="158" t="s">
-        <v>326</v>
-      </c>
-      <c r="H25" s="110">
-        <v>0</v>
-      </c>
-      <c r="I25" s="110">
-        <v>0</v>
-      </c>
-      <c r="J25" s="110">
-        <v>0</v>
-      </c>
-      <c r="K25" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="110">
-        <v>1</v>
-      </c>
-      <c r="B26" s="158" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="159" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="159" t="s">
-        <v>324</v>
-      </c>
-      <c r="E26" s="159" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="110">
-        <v>0</v>
-      </c>
-      <c r="I26" s="110">
-        <v>1</v>
-      </c>
-      <c r="J26" s="110">
-        <v>0</v>
-      </c>
-      <c r="K26" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="110">
-        <v>2</v>
-      </c>
-      <c r="B27" s="159" t="s">
-        <v>349</v>
-      </c>
-      <c r="C27" s="158" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" s="159" t="s">
-        <v>400</v>
-      </c>
-      <c r="E27" s="159" t="s">
-        <v>401</v>
-      </c>
-      <c r="H27" s="110">
-        <v>1</v>
-      </c>
-      <c r="I27" s="110">
-        <v>0</v>
-      </c>
-      <c r="J27" s="110">
-        <v>1</v>
-      </c>
-      <c r="K27" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="110">
-        <v>3</v>
-      </c>
-      <c r="B28" s="159" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="159" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="158" t="s">
-        <v>335</v>
-      </c>
-      <c r="E28" s="159" t="s">
-        <v>402</v>
-      </c>
-      <c r="H28" s="110">
-        <v>2</v>
-      </c>
-      <c r="I28" s="110">
-        <v>1</v>
-      </c>
-      <c r="J28" s="110">
-        <v>0</v>
-      </c>
-      <c r="K28" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="110">
-        <v>4</v>
-      </c>
-      <c r="B29" s="159" t="s">
-        <v>351</v>
-      </c>
-      <c r="C29" s="159" t="s">
-        <v>343</v>
-      </c>
-      <c r="D29" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="158" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" s="110">
-        <v>3</v>
-      </c>
-      <c r="I29" s="110">
-        <v>2</v>
-      </c>
-      <c r="J29" s="110">
-        <v>1</v>
-      </c>
-      <c r="K29" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="110">
-        <v>5</v>
-      </c>
-      <c r="B30" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="C30" s="159" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="159" t="s">
-        <v>337</v>
-      </c>
-      <c r="E30" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="H30" s="110">
-        <v>4</v>
-      </c>
-      <c r="I30" s="110">
-        <v>3</v>
-      </c>
-      <c r="J30" s="110">
-        <v>2</v>
-      </c>
-      <c r="K30" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="110">
-        <v>6</v>
-      </c>
-      <c r="B31" s="159" t="s">
-        <v>353</v>
-      </c>
-      <c r="C31" s="159" t="s">
-        <v>345</v>
-      </c>
-      <c r="D31" s="159" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="159" t="s">
-        <v>332</v>
-      </c>
-      <c r="H31" s="110">
-        <v>5</v>
-      </c>
-      <c r="I31" s="110">
-        <v>4</v>
-      </c>
-      <c r="J31" s="110">
-        <v>3</v>
-      </c>
-      <c r="K31" s="110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="110">
-        <v>7</v>
-      </c>
-      <c r="B32" s="159" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="159" t="s">
-        <v>346</v>
-      </c>
-      <c r="D32" s="159" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="159" t="s">
-        <v>333</v>
-      </c>
-      <c r="H32" s="110">
-        <v>6</v>
-      </c>
-      <c r="I32" s="110">
-        <v>5</v>
-      </c>
-      <c r="J32" s="110">
-        <v>4</v>
-      </c>
-      <c r="K32" s="110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="110">
-        <v>8</v>
-      </c>
-      <c r="B33" s="159" t="s">
-        <v>355</v>
-      </c>
-      <c r="C33" s="159" t="s">
-        <v>347</v>
-      </c>
-      <c r="D33" s="159" t="s">
-        <v>340</v>
-      </c>
-      <c r="E33" s="159" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="110">
-        <v>7</v>
-      </c>
-      <c r="I33" s="110">
-        <v>6</v>
-      </c>
-      <c r="J33" s="110">
-        <v>5</v>
-      </c>
-      <c r="K33" s="110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="110">
-        <v>9</v>
-      </c>
-      <c r="B34" s="158" t="s">
-        <v>356</v>
-      </c>
-      <c r="C34" s="158" t="s">
-        <v>365</v>
-      </c>
-      <c r="D34" s="158" t="s">
-        <v>375</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>386</v>
-      </c>
-      <c r="H34" s="110">
-        <v>8</v>
-      </c>
-      <c r="I34" s="110">
-        <v>7</v>
-      </c>
-      <c r="J34" s="110">
-        <v>6</v>
-      </c>
-      <c r="K34" s="110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="110">
-        <v>10</v>
-      </c>
-      <c r="B35" s="159" t="s">
-        <v>357</v>
-      </c>
-      <c r="C35" s="159" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" s="159" t="s">
-        <v>376</v>
-      </c>
-      <c r="E35" s="159" t="s">
-        <v>387</v>
-      </c>
-      <c r="H35" s="110">
-        <v>9</v>
-      </c>
-      <c r="I35" s="110">
-        <v>8</v>
-      </c>
-      <c r="J35" s="110">
-        <v>7</v>
-      </c>
-      <c r="K35" s="110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="110">
-        <v>11</v>
-      </c>
-      <c r="B36" s="159" t="s">
-        <v>358</v>
-      </c>
-      <c r="C36" s="159" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="159" t="s">
-        <v>377</v>
-      </c>
-      <c r="E36" s="159" t="s">
-        <v>388</v>
-      </c>
-      <c r="H36" s="110">
-        <v>10</v>
-      </c>
-      <c r="I36" s="110">
-        <v>9</v>
-      </c>
-      <c r="J36" s="110">
-        <v>8</v>
-      </c>
-      <c r="K36" s="110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="110">
-        <v>12</v>
-      </c>
-      <c r="B37" s="159" t="s">
-        <v>359</v>
-      </c>
-      <c r="C37" s="159" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" s="159" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="159" t="s">
-        <v>389</v>
-      </c>
-      <c r="H37" s="110">
-        <v>11</v>
-      </c>
-      <c r="I37" s="110">
-        <v>10</v>
-      </c>
-      <c r="J37" s="110">
-        <v>9</v>
-      </c>
-      <c r="K37" s="110">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="110">
-        <v>13</v>
-      </c>
-      <c r="B38" s="159" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="159" t="s">
-        <v>369</v>
-      </c>
-      <c r="D38" s="159" t="s">
-        <v>379</v>
-      </c>
-      <c r="E38" s="159" t="s">
-        <v>390</v>
-      </c>
-      <c r="H38" s="110">
-        <v>12</v>
-      </c>
-      <c r="I38" s="110">
-        <v>11</v>
-      </c>
-      <c r="J38" s="110">
-        <v>10</v>
-      </c>
-      <c r="K38" s="110">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="110">
-        <v>14</v>
-      </c>
-      <c r="B39" s="159" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="159" t="s">
-        <v>380</v>
-      </c>
-      <c r="E39" s="159" t="s">
-        <v>391</v>
-      </c>
-      <c r="H39" s="110">
-        <v>13</v>
-      </c>
-      <c r="I39" s="110">
-        <v>12</v>
-      </c>
-      <c r="J39" s="110">
-        <v>11</v>
-      </c>
-      <c r="K39" s="110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="110">
-        <v>15</v>
-      </c>
-      <c r="B40" s="159" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="D40" s="159" t="s">
-        <v>381</v>
-      </c>
-      <c r="E40" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="H40" s="110">
-        <v>14</v>
-      </c>
-      <c r="I40" s="110">
-        <v>13</v>
-      </c>
-      <c r="J40" s="110">
-        <v>12</v>
-      </c>
-      <c r="K40" s="110">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="110">
+      <c r="H45" s="103">
+        <v>19</v>
+      </c>
+      <c r="I45" s="103">
+        <v>18</v>
+      </c>
+      <c r="J45" s="103">
+        <v>17</v>
+      </c>
+      <c r="K45" s="103">
         <v>16</v>
       </c>
-      <c r="B41" s="159" t="s">
-        <v>363</v>
-      </c>
-      <c r="C41" s="159" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41" s="159" t="s">
-        <v>382</v>
-      </c>
-      <c r="E41" s="159" t="s">
-        <v>393</v>
-      </c>
-      <c r="H41" s="110">
-        <v>15</v>
-      </c>
-      <c r="I41" s="110">
-        <v>14</v>
-      </c>
-      <c r="J41" s="110">
-        <v>13</v>
-      </c>
-      <c r="K41" s="110">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="110">
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="103">
+        <v>21</v>
+      </c>
+      <c r="B46" s="151" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="E46" s="148" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" s="103">
+        <v>20</v>
+      </c>
+      <c r="I46" s="103">
+        <v>19</v>
+      </c>
+      <c r="J46" s="103">
+        <v>18</v>
+      </c>
+      <c r="K46" s="103">
         <v>17</v>
       </c>
-      <c r="B42" s="159" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42" s="159" t="s">
-        <v>373</v>
-      </c>
-      <c r="D42" s="159" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="159" t="s">
-        <v>394</v>
-      </c>
-      <c r="H42" s="110">
-        <v>16</v>
-      </c>
-      <c r="I42" s="110">
-        <v>15</v>
-      </c>
-      <c r="J42" s="110">
-        <v>14</v>
-      </c>
-      <c r="K42" s="110">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="110">
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="103">
+        <v>22</v>
+      </c>
+      <c r="B47" s="151" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="151" t="s">
+        <v>414</v>
+      </c>
+      <c r="H47" s="103">
+        <v>21</v>
+      </c>
+      <c r="I47" s="103">
+        <v>20</v>
+      </c>
+      <c r="J47" s="103">
+        <v>19</v>
+      </c>
+      <c r="K47" s="103">
         <v>18</v>
       </c>
-      <c r="B43" s="158" t="s">
-        <v>403</v>
-      </c>
-      <c r="C43" s="159" t="s">
-        <v>374</v>
-      </c>
-      <c r="D43" s="159" t="s">
-        <v>384</v>
-      </c>
-      <c r="E43" s="159" t="s">
-        <v>395</v>
-      </c>
-      <c r="H43" s="110">
-        <v>17</v>
-      </c>
-      <c r="I43" s="110">
-        <v>16</v>
-      </c>
-      <c r="J43" s="110">
-        <v>15</v>
-      </c>
-      <c r="K43" s="110">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="110">
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="103">
+        <v>23</v>
+      </c>
+      <c r="B48" s="151" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>416</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>417</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="H48" s="103">
+        <v>22</v>
+      </c>
+      <c r="I48" s="103">
+        <v>21</v>
+      </c>
+      <c r="J48" s="103">
+        <v>20</v>
+      </c>
+      <c r="K48" s="103">
         <v>19</v>
       </c>
-      <c r="B44" s="161" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="158" t="s">
-        <v>405</v>
-      </c>
-      <c r="D44" s="159" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="H44" s="110">
-        <v>18</v>
-      </c>
-      <c r="I44" s="110">
-        <v>17</v>
-      </c>
-      <c r="J44" s="110">
-        <v>16</v>
-      </c>
-      <c r="K44" s="110">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="110">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="103">
+        <v>24</v>
+      </c>
+      <c r="B49" s="151" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="H49" s="103">
+        <v>23</v>
+      </c>
+      <c r="I49" s="103">
+        <v>22</v>
+      </c>
+      <c r="J49" s="103">
+        <v>21</v>
+      </c>
+      <c r="K49" s="103">
         <v>20</v>
       </c>
-      <c r="B45" s="161" t="s">
-        <v>406</v>
-      </c>
-      <c r="C45" s="161" t="s">
-        <v>407</v>
-      </c>
-      <c r="D45" s="158" t="s">
-        <v>408</v>
-      </c>
-      <c r="E45" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="H45" s="110">
-        <v>19</v>
-      </c>
-      <c r="I45" s="110">
-        <v>18</v>
-      </c>
-      <c r="J45" s="110">
-        <v>17</v>
-      </c>
-      <c r="K45" s="110">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="110">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="103">
+        <v>25</v>
+      </c>
+      <c r="B50" s="151" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="151" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="H50" s="103">
+        <v>24</v>
+      </c>
+      <c r="I50" s="103">
+        <v>23</v>
+      </c>
+      <c r="J50" s="103">
+        <v>22</v>
+      </c>
+      <c r="K50" s="103">
         <v>21</v>
       </c>
-      <c r="B46" s="161" t="s">
-        <v>409</v>
-      </c>
-      <c r="C46" s="161" t="s">
-        <v>410</v>
-      </c>
-      <c r="D46" s="161" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="158" t="s">
-        <v>412</v>
-      </c>
-      <c r="H46" s="110">
-        <v>20</v>
-      </c>
-      <c r="I46" s="110">
-        <v>19</v>
-      </c>
-      <c r="J46" s="110">
-        <v>18</v>
-      </c>
-      <c r="K46" s="110">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="110">
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="103">
+        <v>26</v>
+      </c>
+      <c r="B51" s="151" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="151" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>430</v>
+      </c>
+      <c r="H51" s="103">
+        <v>25</v>
+      </c>
+      <c r="I51" s="103">
+        <v>24</v>
+      </c>
+      <c r="J51" s="103">
+        <v>23</v>
+      </c>
+      <c r="K51" s="103">
         <v>22</v>
       </c>
-      <c r="B47" s="161" t="s">
-        <v>413</v>
-      </c>
-      <c r="C47" s="161" t="s">
-        <v>414</v>
-      </c>
-      <c r="D47" s="161" t="s">
-        <v>415</v>
-      </c>
-      <c r="E47" s="161" t="s">
-        <v>416</v>
-      </c>
-      <c r="H47" s="110">
-        <v>21</v>
-      </c>
-      <c r="I47" s="110">
-        <v>20</v>
-      </c>
-      <c r="J47" s="110">
-        <v>19</v>
-      </c>
-      <c r="K47" s="110">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="110">
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="103">
+        <v>27</v>
+      </c>
+      <c r="B52" s="151" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" s="151" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" s="151" t="s">
+        <v>433</v>
+      </c>
+      <c r="E52" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="H52" s="103">
+        <v>26</v>
+      </c>
+      <c r="I52" s="103">
+        <v>25</v>
+      </c>
+      <c r="J52" s="103">
+        <v>24</v>
+      </c>
+      <c r="K52" s="103">
         <v>23</v>
       </c>
-      <c r="B48" s="161" t="s">
-        <v>417</v>
-      </c>
-      <c r="C48" s="161" t="s">
-        <v>418</v>
-      </c>
-      <c r="D48" s="161" t="s">
-        <v>419</v>
-      </c>
-      <c r="E48" s="161" t="s">
-        <v>420</v>
-      </c>
-      <c r="H48" s="110">
-        <v>22</v>
-      </c>
-      <c r="I48" s="110">
-        <v>21</v>
-      </c>
-      <c r="J48" s="110">
-        <v>20</v>
-      </c>
-      <c r="K48" s="110">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="110">
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="103">
+        <v>28</v>
+      </c>
+      <c r="B53" s="151" t="s">
+        <v>435</v>
+      </c>
+      <c r="C53" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="D53" s="151" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="151" t="s">
+        <v>438</v>
+      </c>
+      <c r="H53" s="103">
+        <v>27</v>
+      </c>
+      <c r="I53" s="103">
+        <v>26</v>
+      </c>
+      <c r="J53" s="103">
+        <v>25</v>
+      </c>
+      <c r="K53" s="103">
         <v>24</v>
       </c>
-      <c r="B49" s="161" t="s">
-        <v>421</v>
-      </c>
-      <c r="C49" s="161" t="s">
-        <v>422</v>
-      </c>
-      <c r="D49" s="161" t="s">
-        <v>423</v>
-      </c>
-      <c r="E49" s="161" t="s">
-        <v>424</v>
-      </c>
-      <c r="H49" s="110">
-        <v>23</v>
-      </c>
-      <c r="I49" s="110">
-        <v>22</v>
-      </c>
-      <c r="J49" s="110">
-        <v>21</v>
-      </c>
-      <c r="K49" s="110">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="110">
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="103">
+        <v>29</v>
+      </c>
+      <c r="B54" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="151" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" s="151" t="s">
+        <v>441</v>
+      </c>
+      <c r="E54" s="151" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" s="103">
+        <v>28</v>
+      </c>
+      <c r="I54" s="103">
+        <v>27</v>
+      </c>
+      <c r="J54" s="103">
+        <v>26</v>
+      </c>
+      <c r="K54" s="103">
         <v>25</v>
       </c>
-      <c r="B50" s="161" t="s">
-        <v>425</v>
-      </c>
-      <c r="C50" s="161" t="s">
-        <v>426</v>
-      </c>
-      <c r="D50" s="161" t="s">
-        <v>427</v>
-      </c>
-      <c r="E50" s="161" t="s">
-        <v>428</v>
-      </c>
-      <c r="H50" s="110">
-        <v>24</v>
-      </c>
-      <c r="I50" s="110">
-        <v>23</v>
-      </c>
-      <c r="J50" s="110">
-        <v>22</v>
-      </c>
-      <c r="K50" s="110">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="110">
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="103">
+        <v>30</v>
+      </c>
+      <c r="B55" s="151" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D55" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="E55" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="H55" s="103">
+        <v>29</v>
+      </c>
+      <c r="I55" s="103">
+        <v>28</v>
+      </c>
+      <c r="J55" s="103">
+        <v>27</v>
+      </c>
+      <c r="K55" s="103">
         <v>26</v>
       </c>
-      <c r="B51" s="161" t="s">
-        <v>429</v>
-      </c>
-      <c r="C51" s="161" t="s">
-        <v>430</v>
-      </c>
-      <c r="D51" s="161" t="s">
-        <v>431</v>
-      </c>
-      <c r="E51" s="161" t="s">
-        <v>432</v>
-      </c>
-      <c r="H51" s="110">
-        <v>25</v>
-      </c>
-      <c r="I51" s="110">
-        <v>24</v>
-      </c>
-      <c r="J51" s="110">
-        <v>23</v>
-      </c>
-      <c r="K51" s="110">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="110">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="103">
+        <v>31</v>
+      </c>
+      <c r="B56" s="151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="151" t="s">
+        <v>448</v>
+      </c>
+      <c r="D56" s="151" t="s">
+        <v>449</v>
+      </c>
+      <c r="E56" s="151" t="s">
+        <v>450</v>
+      </c>
+      <c r="H56" s="103">
+        <v>30</v>
+      </c>
+      <c r="I56" s="103">
+        <v>29</v>
+      </c>
+      <c r="J56" s="103">
+        <v>28</v>
+      </c>
+      <c r="K56" s="103">
         <v>27</v>
       </c>
-      <c r="B52" s="161" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" s="161" t="s">
-        <v>434</v>
-      </c>
-      <c r="D52" s="161" t="s">
-        <v>435</v>
-      </c>
-      <c r="E52" s="161" t="s">
-        <v>436</v>
-      </c>
-      <c r="H52" s="110">
-        <v>26</v>
-      </c>
-      <c r="I52" s="110">
-        <v>25</v>
-      </c>
-      <c r="J52" s="110">
-        <v>24</v>
-      </c>
-      <c r="K52" s="110">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="110">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="103">
+        <v>32</v>
+      </c>
+      <c r="B57" s="151" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>452</v>
+      </c>
+      <c r="D57" s="151" t="s">
+        <v>453</v>
+      </c>
+      <c r="E57" s="151" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" s="103">
+        <v>31</v>
+      </c>
+      <c r="I57" s="103">
+        <v>30</v>
+      </c>
+      <c r="J57" s="103">
+        <v>29</v>
+      </c>
+      <c r="K57" s="103">
         <v>28</v>
       </c>
-      <c r="B53" s="161" t="s">
-        <v>437</v>
-      </c>
-      <c r="C53" s="161" t="s">
-        <v>438</v>
-      </c>
-      <c r="D53" s="161" t="s">
-        <v>439</v>
-      </c>
-      <c r="E53" s="161" t="s">
-        <v>440</v>
-      </c>
-      <c r="H53" s="110">
-        <v>27</v>
-      </c>
-      <c r="I53" s="110">
-        <v>26</v>
-      </c>
-      <c r="J53" s="110">
-        <v>25</v>
-      </c>
-      <c r="K53" s="110">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="110">
-        <v>29</v>
-      </c>
-      <c r="B54" s="161" t="s">
-        <v>441</v>
-      </c>
-      <c r="C54" s="161" t="s">
-        <v>442</v>
-      </c>
-      <c r="D54" s="161" t="s">
-        <v>443</v>
-      </c>
-      <c r="E54" s="161" t="s">
-        <v>444</v>
-      </c>
-      <c r="H54" s="110">
-        <v>28</v>
-      </c>
-      <c r="I54" s="110">
-        <v>27</v>
-      </c>
-      <c r="J54" s="110">
-        <v>26</v>
-      </c>
-      <c r="K54" s="110">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="110">
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="103">
+        <v>33</v>
+      </c>
+      <c r="B58" s="151" t="s">
+        <v>455</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>456</v>
+      </c>
+      <c r="D58" s="151" t="s">
+        <v>457</v>
+      </c>
+      <c r="E58" s="151" t="s">
+        <v>458</v>
+      </c>
+      <c r="H58" s="103">
+        <v>32</v>
+      </c>
+      <c r="I58" s="103">
+        <v>31</v>
+      </c>
+      <c r="J58" s="103">
         <v>30</v>
       </c>
-      <c r="B55" s="161" t="s">
-        <v>445</v>
-      </c>
-      <c r="C55" s="161" t="s">
-        <v>446</v>
-      </c>
-      <c r="D55" s="161" t="s">
-        <v>447</v>
-      </c>
-      <c r="E55" s="161" t="s">
-        <v>448</v>
-      </c>
-      <c r="H55" s="110">
-        <v>29</v>
-      </c>
-      <c r="I55" s="110">
-        <v>28</v>
-      </c>
-      <c r="J55" s="110">
-        <v>27</v>
-      </c>
-      <c r="K55" s="110">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="110">
-        <v>31</v>
-      </c>
-      <c r="B56" s="161" t="s">
-        <v>449</v>
-      </c>
-      <c r="C56" s="161" t="s">
-        <v>450</v>
-      </c>
-      <c r="D56" s="161" t="s">
-        <v>451</v>
-      </c>
-      <c r="E56" s="161" t="s">
-        <v>452</v>
-      </c>
-      <c r="H56" s="110">
-        <v>30</v>
-      </c>
-      <c r="I56" s="110">
-        <v>29</v>
-      </c>
-      <c r="J56" s="110">
-        <v>28</v>
-      </c>
-      <c r="K56" s="110">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="110">
-        <v>32</v>
-      </c>
-      <c r="B57" s="161" t="s">
-        <v>453</v>
-      </c>
-      <c r="C57" s="161" t="s">
-        <v>454</v>
-      </c>
-      <c r="D57" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="E57" s="161" t="s">
-        <v>456</v>
-      </c>
-      <c r="H57" s="110">
-        <v>31</v>
-      </c>
-      <c r="I57" s="110">
-        <v>30</v>
-      </c>
-      <c r="J57" s="110">
-        <v>29</v>
-      </c>
-      <c r="K57" s="110">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="110">
-        <v>33</v>
-      </c>
-      <c r="B58" s="161" t="s">
-        <v>457</v>
-      </c>
-      <c r="C58" s="161" t="s">
-        <v>458</v>
-      </c>
-      <c r="D58" s="161" t="s">
-        <v>459</v>
-      </c>
-      <c r="E58" s="161" t="s">
-        <v>460</v>
-      </c>
-      <c r="H58" s="110">
-        <v>32</v>
-      </c>
-      <c r="I58" s="110">
-        <v>31</v>
-      </c>
-      <c r="J58" s="110">
-        <v>30</v>
-      </c>
-      <c r="K58" s="110">
+      <c r="K58" s="103">
         <v>29</v>
       </c>
     </row>
@@ -20990,248 +21180,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="162"/>
+    <col min="1" max="16384" width="9.06640625" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A1" s="152" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="152" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="D1" s="152" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="E1" s="152" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="162" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="152">
+        <v>0</v>
+      </c>
+      <c r="B2" s="161" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="162" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="163"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="152">
+        <v>1</v>
+      </c>
+      <c r="B3" s="164" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="165" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="165" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="166"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="152">
+        <v>2</v>
+      </c>
+      <c r="B4" s="167" t="s">
         <v>464</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="C4" s="165" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="165" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="168"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A5" s="152">
+        <v>3</v>
+      </c>
+      <c r="B5" s="169" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="162">
-        <v>0</v>
-      </c>
-      <c r="B2" s="165" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="165" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="165" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="164"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="162">
-        <v>1</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="166" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="164"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="162">
-        <v>2</v>
-      </c>
-      <c r="B4" s="165" t="s">
+      <c r="C5" s="170" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="D5" s="170" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="166" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="163"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="162">
-        <v>3</v>
-      </c>
-      <c r="B5" s="166" t="s">
+      <c r="E5" s="171"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="152">
+        <v>4</v>
+      </c>
+      <c r="B6" s="161" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C6" s="162" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="172" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="152">
+        <v>5</v>
+      </c>
+      <c r="B7" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="165" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="173" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="152">
+        <v>6</v>
+      </c>
+      <c r="B8" s="167" t="s">
         <v>468</v>
       </c>
-      <c r="D5" s="166" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="163"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="162">
-        <v>4</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="165"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="162">
-        <v>6</v>
+      <c r="C8" s="165" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" s="165" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="173" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="162">
+      <c r="A9" s="152">
         <v>7</v>
       </c>
+      <c r="B9" s="175" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="176" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="176" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="177" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="162">
+      <c r="A10" s="152">
         <v>8</v>
       </c>
+      <c r="B10" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="162">
+      <c r="A11" s="152">
         <v>9</v>
       </c>
+      <c r="B11" s="167" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="165" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="165" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="162">
+      <c r="A12" s="152">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="162">
+      <c r="B12" s="164" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1">
+      <c r="A13" s="152">
         <v>11</v>
       </c>
+      <c r="B13" s="169" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="170" t="s">
+        <v>482</v>
+      </c>
+      <c r="E13" s="174" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="162">
+      <c r="A14" s="152">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="162">
+      <c r="A15" s="152">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="162">
+      <c r="A16" s="152">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="162">
+      <c r="A17" s="152">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="162">
+      <c r="A18" s="152">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="162">
+      <c r="A19" s="152">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="162">
+      <c r="A20" s="152">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="162">
+      <c r="A21" s="152">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="162">
+      <c r="A22" s="152">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="162">
+      <c r="A23" s="152">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="162">
+      <c r="A24" s="152">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="162">
+      <c r="A25" s="152">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="162">
+      <c r="A26" s="152">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="162">
+      <c r="A27" s="152">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="162">
+      <c r="A28" s="152">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="162">
+      <c r="A29" s="152">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="162">
+      <c r="A30" s="152">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="162">
+      <c r="A31" s="152">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="162">
+      <c r="A32" s="152">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="162">
+      <c r="A33" s="152">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="162">
+      <c r="A34" s="152">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="162">
+      <c r="A35" s="152">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDF411-D015-4D51-A05F-5616CC06FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F9985-CA55-4BF5-BC7F-5A8DB8485BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="487">
   <si>
     <t>步骤</t>
   </si>
@@ -2825,30 +2825,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2910,6 +2886,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3859,10 +3859,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4642,12 +4642,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12238,7 +12238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
@@ -12612,7 +12612,7 @@
       <c r="B16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="172" t="s">
         <v>486</v>
       </c>
       <c r="D16" s="19"/>
@@ -12726,7 +12726,7 @@
       <c r="D20" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="172" t="s">
         <v>486</v>
       </c>
       <c r="F20" s="3"/>
@@ -13086,7 +13086,7 @@
       <c r="B34" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="172" t="s">
         <v>486</v>
       </c>
       <c r="D34" s="25"/>
@@ -13927,7 +13927,7 @@
       <c r="A66" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="181" t="s">
+      <c r="B66" s="173" t="s">
         <v>486</v>
       </c>
       <c r="C66" s="75" t="s">
@@ -14827,11 +14827,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="156" t="s">
+      <c r="B98" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="157"/>
-      <c r="D98" s="157"/>
+      <c r="C98" s="178"/>
+      <c r="D98" s="178"/>
       <c r="E98" s="81" t="s">
         <v>213</v>
       </c>
@@ -18546,11 +18546,11 @@
       <c r="B4" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179" t="s">
+      <c r="D4" s="170"/>
+      <c r="E4" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18582,11 +18582,11 @@
       <c r="B7" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="178"/>
-      <c r="E7" s="179" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18618,11 +18618,11 @@
       <c r="B10" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179" t="s">
+      <c r="D10" s="170"/>
+      <c r="E10" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18654,11 +18654,11 @@
       <c r="B13" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="170" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="124"/>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18694,13 +18694,13 @@
       <c r="B16" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="170" t="s">
         <v>195</v>
       </c>
       <c r="D16" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="179" t="s">
+      <c r="E16" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18736,13 +18736,13 @@
       <c r="B19" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="170" t="s">
         <v>195</v>
       </c>
       <c r="D19" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="179" t="s">
+      <c r="E19" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -18785,13 +18785,13 @@
       <c r="B22" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="170" t="s">
         <v>195</v>
       </c>
       <c r="D22" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="179" t="s">
+      <c r="E22" s="171" t="s">
         <v>195</v>
       </c>
     </row>
@@ -19254,67 +19254,67 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="179" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="158" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="158" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="179" t="s">
         <v>313</v>
       </c>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="158" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="179" t="s">
         <v>314</v>
       </c>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="159"/>
-      <c r="AL7" s="159"/>
-      <c r="AM7" s="159"/>
-      <c r="AN7" s="159"/>
-      <c r="AO7" s="159"/>
-      <c r="AP7" s="159"/>
-      <c r="AQ7" s="159"/>
-      <c r="AR7" s="160"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
+      <c r="AN7" s="180"/>
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="181"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
@@ -21178,10 +21178,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21189,7 +21189,7 @@
     <col min="1" max="16384" width="9.06640625" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1">
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="152" t="s">
         <v>459</v>
       </c>
@@ -21205,214 +21205,362 @@
       <c r="E1" s="152" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="152" t="s">
+        <v>460</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>462</v>
+      </c>
+      <c r="J1" s="152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="152">
         <v>0</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="153" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="154" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="154" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="163"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="155"/>
+      <c r="G2" s="153">
+        <v>0</v>
+      </c>
+      <c r="H2" s="154">
+        <v>0</v>
+      </c>
+      <c r="I2" s="154">
+        <v>0</v>
+      </c>
+      <c r="J2" s="155"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="152">
         <v>1</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="156" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="157" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="166"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="158"/>
+      <c r="G3" s="156">
+        <v>1</v>
+      </c>
+      <c r="H3" s="157">
+        <v>0</v>
+      </c>
+      <c r="I3" s="157">
+        <v>0</v>
+      </c>
+      <c r="J3" s="158"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="152">
         <v>2</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="159" t="s">
         <v>464</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="157" t="s">
         <v>398</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="168"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1">
+      <c r="E4" s="160"/>
+      <c r="G4" s="159">
+        <v>0</v>
+      </c>
+      <c r="H4" s="157">
+        <v>1</v>
+      </c>
+      <c r="I4" s="157">
+        <v>0</v>
+      </c>
+      <c r="J4" s="160"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
       <c r="A5" s="152">
         <v>3</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="162" t="s">
         <v>466</v>
       </c>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="162" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="171"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="163"/>
+      <c r="G5" s="161">
+        <v>0</v>
+      </c>
+      <c r="H5" s="162">
+        <v>0</v>
+      </c>
+      <c r="I5" s="162">
+        <v>1</v>
+      </c>
+      <c r="J5" s="163"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="152">
         <v>4</v>
       </c>
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="153" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="154" t="s">
         <v>474</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="154" t="s">
         <v>475</v>
       </c>
-      <c r="E6" s="172" t="s">
+      <c r="E6" s="164" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="153">
+        <v>0</v>
+      </c>
+      <c r="H6" s="153">
+        <v>0</v>
+      </c>
+      <c r="I6" s="153">
+        <v>0</v>
+      </c>
+      <c r="J6" s="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="152">
         <v>5</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="156" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="157" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="157" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="165" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="156">
+        <v>1</v>
+      </c>
+      <c r="H7" s="156">
+        <v>1</v>
+      </c>
+      <c r="I7" s="156">
+        <v>1</v>
+      </c>
+      <c r="J7" s="156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="152">
         <v>6</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="159" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="157" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="165" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="159">
+        <v>2</v>
+      </c>
+      <c r="H8" s="159">
+        <v>2</v>
+      </c>
+      <c r="I8" s="159">
+        <v>2</v>
+      </c>
+      <c r="J8" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="A9" s="152">
         <v>7</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="167" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="168" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="168" t="s">
         <v>473</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="169" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="167">
+        <v>3</v>
+      </c>
+      <c r="H9" s="167">
+        <v>3</v>
+      </c>
+      <c r="I9" s="167">
+        <v>3</v>
+      </c>
+      <c r="J9" s="167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="152">
         <v>8</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="156" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="157" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="157" t="s">
         <v>343</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="165" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="153">
+        <v>4</v>
+      </c>
+      <c r="H10" s="153">
+        <v>4</v>
+      </c>
+      <c r="I10" s="153">
+        <v>4</v>
+      </c>
+      <c r="J10" s="153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="152">
         <v>9</v>
       </c>
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="159" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="157" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="173" t="s">
+      <c r="E11" s="165" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="156">
+        <v>5</v>
+      </c>
+      <c r="H11" s="156">
+        <v>5</v>
+      </c>
+      <c r="I11" s="156">
+        <v>5</v>
+      </c>
+      <c r="J11" s="156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="152">
         <v>10</v>
       </c>
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="156" t="s">
         <v>478</v>
       </c>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="157" t="s">
         <v>479</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="165" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1">
+      <c r="G12" s="159">
+        <v>6</v>
+      </c>
+      <c r="H12" s="159">
+        <v>6</v>
+      </c>
+      <c r="I12" s="159">
+        <v>6</v>
+      </c>
+      <c r="J12" s="159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" thickBot="1">
       <c r="A13" s="152">
         <v>11</v>
       </c>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="161" t="s">
         <v>480</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="162" t="s">
         <v>481</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="162" t="s">
         <v>482</v>
       </c>
-      <c r="E13" s="174" t="s">
+      <c r="E13" s="166" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="167">
+        <v>7</v>
+      </c>
+      <c r="H13" s="167">
+        <v>7</v>
+      </c>
+      <c r="I13" s="167">
+        <v>7</v>
+      </c>
+      <c r="J13" s="167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="152">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15" s="152">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16" s="152">
         <v>14</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F9985-CA55-4BF5-BC7F-5A8DB8485BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334740E2-DB8C-4A3B-8206-DAF67BC3E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="489">
   <si>
     <t>步骤</t>
   </si>
@@ -928,10 +928,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>没有+Q，</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -960,14 +956,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>G_xi(偶)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_z(奇)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>G_z_Q</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1689,6 +1677,26 @@
   <si>
     <t>cov_vv</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_xi -2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_z 2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_xi(偶) 1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_z(奇) 3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12613,7 +12621,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12727,7 +12735,7 @@
         <v>189</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -13087,7 +13095,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13928,7 +13936,7 @@
         <v>218</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C66" s="75" t="s">
         <v>180</v>
@@ -18523,7 +18531,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D2" s="135"/>
       <c r="E2" s="136" t="s">
@@ -18751,7 +18759,7 @@
         <v>258</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D20" s="135" t="s">
         <v>255</v>
@@ -18760,7 +18768,7 @@
         <v>259</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G20" s="104"/>
     </row>
@@ -18769,7 +18777,7 @@
         <v>250</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D21" s="140" t="s">
         <v>250</v>
@@ -18778,7 +18786,7 @@
         <v>250</v>
       </c>
       <c r="F21" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
@@ -18805,8 +18813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -18954,14 +18962,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="105">
         <v>1</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="105">
         <v>1</v>
@@ -18969,96 +18977,106 @@
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="109"/>
       <c r="J2" s="110"/>
       <c r="K2" s="109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L2" s="109"/>
       <c r="M2" s="109"/>
       <c r="N2" s="108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
       <c r="Q2" s="108" t="s">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="R2" s="109"/>
-      <c r="S2" s="111"/>
+      <c r="S2" s="111">
+        <v>5</v>
+      </c>
       <c r="T2" s="112" t="s">
-        <v>269</v>
-      </c>
-      <c r="U2" s="111"/>
+        <v>488</v>
+      </c>
+      <c r="U2" s="111">
+        <v>4</v>
+      </c>
       <c r="V2" s="108" t="s">
-        <v>260</v>
+        <v>484</v>
       </c>
       <c r="W2" s="110"/>
       <c r="X2" s="108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y2" s="110"/>
       <c r="Z2" s="113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA2" s="110"/>
       <c r="AB2" s="114" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="109"/>
+        <v>485</v>
+      </c>
+      <c r="AC2" s="115">
+        <v>-3</v>
+      </c>
+      <c r="AD2" s="109">
+        <v>0</v>
+      </c>
       <c r="AE2" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF2" s="115"/>
+        <v>486</v>
+      </c>
+      <c r="AF2" s="115">
+        <v>3</v>
+      </c>
       <c r="AG2" s="108" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AH2" s="110"/>
       <c r="AI2" s="108" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="109"/>
       <c r="AL2" s="109"/>
       <c r="AM2" s="109"/>
       <c r="AN2" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO2" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP2" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ2" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AR2" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="AP2" s="108" t="s">
+      <c r="AS2" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="AQ2" s="110" t="s">
+      <c r="AT2" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="AR2" s="108" t="s">
+      <c r="AU2" s="110" t="s">
         <v>278</v>
-      </c>
-      <c r="AS2" s="110" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT2" s="108" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU2" s="110" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B3" s="117"/>
       <c r="C3" s="118">
         <v>1</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="118">
@@ -19079,21 +19097,41 @@
       </c>
       <c r="P3" s="122"/>
       <c r="Q3" s="123"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="125"/>
+      <c r="R3" s="124">
+        <v>1</v>
+      </c>
+      <c r="S3" s="125">
+        <v>6</v>
+      </c>
+      <c r="T3" s="126">
+        <v>5</v>
+      </c>
+      <c r="U3" s="125">
+        <v>6</v>
+      </c>
       <c r="V3" s="123"/>
-      <c r="W3" s="127"/>
+      <c r="W3" s="127">
+        <v>1</v>
+      </c>
       <c r="X3" s="123"/>
       <c r="Y3" s="127"/>
       <c r="Z3" s="123"/>
       <c r="AA3" s="127"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
+      <c r="AB3" s="128">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="129">
+        <v>-5</v>
+      </c>
+      <c r="AD3" s="124">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="128">
+        <v>-4</v>
+      </c>
+      <c r="AF3" s="129">
+        <v>5</v>
+      </c>
       <c r="AG3" s="123"/>
       <c r="AH3" s="127"/>
       <c r="AI3" s="123"/>
@@ -19102,33 +19140,33 @@
       <c r="AL3" s="124"/>
       <c r="AM3" s="124"/>
       <c r="AN3" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO3" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP3" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ3" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="AO3" s="122" t="s">
+      <c r="AR3" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="AP3" s="120" t="s">
+      <c r="AS3" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="AQ3" s="122" t="s">
+      <c r="AT3" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="AR3" s="120" t="s">
+      <c r="AU3" s="122" t="s">
         <v>288</v>
-      </c>
-      <c r="AS3" s="122" t="s">
-        <v>289</v>
-      </c>
-      <c r="AT3" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU3" s="122" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B4" s="130"/>
       <c r="C4" s="131"/>
@@ -19136,10 +19174,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G4" s="131">
         <v>1</v>
@@ -19176,33 +19214,33 @@
       <c r="AG4" s="132"/>
       <c r="AH4" s="132"/>
       <c r="AN4" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO4" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP4" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ4" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="AO4" s="122" t="s">
+      <c r="AR4" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="AP4" s="120" t="s">
+      <c r="AS4" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="AQ4" s="122" t="s">
+      <c r="AT4" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="AR4" s="120" t="s">
+      <c r="AU4" s="122" t="s">
         <v>297</v>
-      </c>
-      <c r="AS4" s="122" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT4" s="120" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU4" s="122" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="131"/>
@@ -19229,45 +19267,45 @@
       <c r="AG5" s="132"/>
       <c r="AH5" s="132"/>
       <c r="AN5" s="123" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO5" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP5" s="123" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ5" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="AO5" s="127" t="s">
+      <c r="AR5" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="AP5" s="123" t="s">
+      <c r="AS5" s="127" t="s">
         <v>304</v>
       </c>
-      <c r="AQ5" s="127" t="s">
+      <c r="AT5" s="123" t="s">
         <v>305</v>
       </c>
-      <c r="AR5" s="123" t="s">
+      <c r="AU5" s="127" t="s">
         <v>306</v>
-      </c>
-      <c r="AS5" s="127" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT5" s="123" t="s">
-        <v>308</v>
-      </c>
-      <c r="AU5" s="127" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="179" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="180"/>
       <c r="D6" s="181"/>
       <c r="E6" s="179" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F6" s="180"/>
       <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="179" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
@@ -19284,7 +19322,7 @@
       <c r="O7" s="180"/>
       <c r="P7" s="181"/>
       <c r="Q7" s="179" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="R7" s="180"/>
       <c r="S7" s="180"/>
@@ -19297,7 +19335,7 @@
       <c r="Z7" s="180"/>
       <c r="AA7" s="181"/>
       <c r="AB7" s="179" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC7" s="180"/>
       <c r="AD7" s="180"/>
@@ -19321,10 +19359,10 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19332,7 +19370,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19342,7 +19380,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -19393,10 +19431,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" s="139" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="140"/>
@@ -19414,13 +19452,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" s="139" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
@@ -19437,16 +19475,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="138" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>327</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -19462,19 +19500,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="139" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="F5" s="139" t="s">
         <v>329</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>332</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -19489,22 +19527,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="F6" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="G6" s="139" t="s">
         <v>335</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>338</v>
       </c>
       <c r="H6" s="140"/>
       <c r="I6" s="140"/>
@@ -19518,25 +19556,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="F7" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="G7" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>345</v>
       </c>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
@@ -19549,28 +19587,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="F8" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="G8" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="H8" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="I8" s="139" t="s">
         <v>350</v>
-      </c>
-      <c r="G8" s="139" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>353</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
@@ -19582,31 +19620,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="138" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="F9" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="G9" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="J9" s="139" t="s">
         <v>359</v>
-      </c>
-      <c r="H9" s="139" t="s">
-        <v>360</v>
-      </c>
-      <c r="I9" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>362</v>
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="140"/>
@@ -19617,34 +19655,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="F10" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="G10" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="H10" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="I10" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="J10" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="K10" s="139" t="s">
         <v>369</v>
-      </c>
-      <c r="I10" s="139" t="s">
-        <v>370</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>371</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>372</v>
       </c>
       <c r="L10" s="140"/>
       <c r="M10" s="141"/>
@@ -19654,37 +19692,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="138" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="F11" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="G11" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="H11" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="I11" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="J11" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="K11" s="139" t="s">
         <v>379</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="L11" s="139" t="s">
         <v>380</v>
-      </c>
-      <c r="J11" s="139" t="s">
-        <v>381</v>
-      </c>
-      <c r="K11" s="139" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>383</v>
       </c>
       <c r="M11" s="141"/>
     </row>
@@ -19693,497 +19731,497 @@
         <v>11</v>
       </c>
       <c r="B12" s="143" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="144" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="F12" s="145" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="G12" s="144" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="H12" s="144" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="I12" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="J12" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="K12" s="144" t="s">
         <v>390</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="L12" s="144" t="s">
         <v>391</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="M12" s="146" t="s">
         <v>392</v>
-      </c>
-      <c r="K12" s="144" t="s">
-        <v>393</v>
-      </c>
-      <c r="L12" s="144" t="s">
-        <v>394</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="147"/>
       <c r="C14" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="G14" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="H14" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="I14" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="K14" s="148" t="s">
         <v>351</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="L14" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="M14" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="N14" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="O14" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="P14" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="N14" s="149" t="s">
+      <c r="Q14" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="O14" s="149" t="s">
+      <c r="R14" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="P14" s="149" t="s">
+      <c r="S14" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="Q14" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="R14" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="S14" s="149" t="s">
-        <v>362</v>
-      </c>
       <c r="T14" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="U14" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V14" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B15" s="148" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C15" s="149" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D15" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="F15" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="G15" s="149" t="s">
         <v>339</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="H15" s="149" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="I15" s="149" t="s">
         <v>341</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="J15" s="149" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="149" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="149" t="s">
-        <v>344</v>
-      </c>
-      <c r="J15" s="149" t="s">
-        <v>345</v>
-      </c>
       <c r="K15" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="L15" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="M15" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="N15" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="L15" s="149" t="s">
+      <c r="O15" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="P15" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="N15" s="149" t="s">
+      <c r="Q15" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="R15" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="P15" s="149" t="s">
+      <c r="S15" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="Q15" s="149" t="s">
+      <c r="T15" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="R15" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="S15" s="149" t="s">
-        <v>371</v>
-      </c>
-      <c r="T15" s="149" t="s">
-        <v>372</v>
-      </c>
       <c r="U15" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V15" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W15" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B16" s="148" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C16" s="149" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D16" s="149" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E16" s="148" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="149" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="I16" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="J16" s="149" t="s">
         <v>335</v>
       </c>
-      <c r="H16" s="149" t="s">
-        <v>336</v>
-      </c>
-      <c r="I16" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="J16" s="149" t="s">
-        <v>338</v>
-      </c>
       <c r="K16" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="M16" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="N16" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="L16" s="149" t="s">
+      <c r="O16" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="P16" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="N16" s="149" t="s">
+      <c r="Q16" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="R16" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="P16" s="149" t="s">
+      <c r="S16" s="149" t="s">
         <v>378</v>
       </c>
-      <c r="Q16" s="149" t="s">
+      <c r="T16" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="R16" s="149" t="s">
+      <c r="U16" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="S16" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="T16" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="U16" s="149" t="s">
-        <v>383</v>
-      </c>
       <c r="V16" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W16" s="103" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B17" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="149" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="F17" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="G17" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="H17" s="149" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="I17" s="149" t="s">
         <v>328</v>
       </c>
-      <c r="G17" s="149" t="s">
+      <c r="J17" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="H17" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="I17" s="149" t="s">
-        <v>331</v>
-      </c>
-      <c r="J17" s="149" t="s">
-        <v>332</v>
-      </c>
       <c r="K17" s="148" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="M17" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="N17" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="L17" s="149" t="s">
+      <c r="O17" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="P17" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="N17" s="149" t="s">
+      <c r="Q17" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="O17" s="150" t="s">
+      <c r="R17" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="P17" s="149" t="s">
+      <c r="S17" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="Q17" s="149" t="s">
+      <c r="T17" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="R17" s="149" t="s">
+      <c r="U17" s="149" t="s">
         <v>391</v>
       </c>
-      <c r="S17" s="149" t="s">
+      <c r="V17" s="149" t="s">
         <v>392</v>
       </c>
-      <c r="T17" s="149" t="s">
+      <c r="W17" s="103" t="s">
         <v>393</v>
-      </c>
-      <c r="U17" s="149" t="s">
-        <v>394</v>
-      </c>
-      <c r="V17" s="149" t="s">
-        <v>395</v>
-      </c>
-      <c r="W17" s="103" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="F19" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="G19" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="H19" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="F19" s="149" t="s">
+      <c r="I19" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="G19" s="149" t="s">
+      <c r="J19" s="149" t="s">
         <v>359</v>
-      </c>
-      <c r="H19" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="I19" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B20" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="F20" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="G20" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="H20" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="I20" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="G20" s="149" t="s">
+      <c r="J20" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="H20" s="149" t="s">
+      <c r="K20" s="149" t="s">
         <v>369</v>
-      </c>
-      <c r="I20" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="J20" s="149" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="149" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B21" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="F21" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="G21" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="H21" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="I21" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="J21" s="149" t="s">
         <v>378</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="K21" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="I21" s="149" t="s">
+      <c r="L21" s="149" t="s">
         <v>380</v>
-      </c>
-      <c r="J21" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="K21" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B22" s="148" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="F22" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="G22" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="H22" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="I22" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="G22" s="149" t="s">
+      <c r="J22" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="H22" s="149" t="s">
+      <c r="K22" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="I22" s="149" t="s">
+      <c r="L22" s="149" t="s">
         <v>391</v>
       </c>
-      <c r="J22" s="149" t="s">
+      <c r="M22" s="149" t="s">
         <v>392</v>
-      </c>
-      <c r="K22" s="149" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="149" t="s">
-        <v>394</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="103" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -20192,13 +20230,13 @@
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="148" t="s">
         <v>321</v>
-      </c>
-      <c r="E25" s="148" t="s">
-        <v>324</v>
       </c>
       <c r="H25" s="103">
         <v>0</v>
@@ -20218,16 +20256,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C26" s="149" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D26" s="149" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="149" t="s">
         <v>322</v>
-      </c>
-      <c r="E26" s="149" t="s">
-        <v>325</v>
       </c>
       <c r="H26" s="103">
         <v>0</v>
@@ -20247,16 +20285,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="149" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D27" s="149" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E27" s="149" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H27" s="103">
         <v>1</v>
@@ -20276,16 +20314,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="149" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D28" s="148" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E28" s="149" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H28" s="103">
         <v>2</v>
@@ -20305,16 +20343,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H29" s="103">
         <v>3</v>
@@ -20334,16 +20372,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H30" s="103">
         <v>4</v>
@@ -20363,16 +20401,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H31" s="103">
         <v>5</v>
@@ -20392,16 +20430,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="149" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E32" s="149" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H32" s="103">
         <v>6</v>
@@ -20421,16 +20459,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H33" s="103">
         <v>7</v>
@@ -20450,16 +20488,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="148" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C34" s="148" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D34" s="148" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H34" s="103">
         <v>8</v>
@@ -20479,16 +20517,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H35" s="103">
         <v>9</v>
@@ -20508,16 +20546,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H36" s="103">
         <v>10</v>
@@ -20537,16 +20575,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H37" s="103">
         <v>11</v>
@@ -20566,16 +20604,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H38" s="103">
         <v>12</v>
@@ -20595,16 +20633,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H39" s="103">
         <v>13</v>
@@ -20624,16 +20662,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H40" s="103">
         <v>14</v>
@@ -20653,16 +20691,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="149" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D41" s="149" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H41" s="103">
         <v>15</v>
@@ -20682,16 +20720,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H42" s="103">
         <v>16</v>
@@ -20711,16 +20749,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H43" s="103">
         <v>17</v>
@@ -20740,16 +20778,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="151" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C44" s="148" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D44" s="149" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H44" s="103">
         <v>18</v>
@@ -20769,16 +20807,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="151" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C45" s="151" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D45" s="148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E45" s="149" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H45" s="103">
         <v>19</v>
@@ -20798,16 +20836,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="151" t="s">
+        <v>404</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>405</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>406</v>
+      </c>
+      <c r="E46" s="148" t="s">
         <v>407</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>408</v>
-      </c>
-      <c r="D46" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>410</v>
       </c>
       <c r="H46" s="103">
         <v>20</v>
@@ -20827,16 +20865,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>410</v>
+      </c>
+      <c r="E47" s="151" t="s">
         <v>411</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>412</v>
-      </c>
-      <c r="D47" s="151" t="s">
-        <v>413</v>
-      </c>
-      <c r="E47" s="151" t="s">
-        <v>414</v>
       </c>
       <c r="H47" s="103">
         <v>21</v>
@@ -20856,16 +20894,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="151" t="s">
+        <v>412</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>414</v>
+      </c>
+      <c r="E48" s="151" t="s">
         <v>415</v>
-      </c>
-      <c r="C48" s="151" t="s">
-        <v>416</v>
-      </c>
-      <c r="D48" s="151" t="s">
-        <v>417</v>
-      </c>
-      <c r="E48" s="151" t="s">
-        <v>418</v>
       </c>
       <c r="H48" s="103">
         <v>22</v>
@@ -20885,16 +20923,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="151" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49" s="151" t="s">
         <v>419</v>
-      </c>
-      <c r="C49" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="D49" s="151" t="s">
-        <v>421</v>
-      </c>
-      <c r="E49" s="151" t="s">
-        <v>422</v>
       </c>
       <c r="H49" s="103">
         <v>23</v>
@@ -20914,16 +20952,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="E50" s="151" t="s">
         <v>423</v>
-      </c>
-      <c r="C50" s="151" t="s">
-        <v>424</v>
-      </c>
-      <c r="D50" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="E50" s="151" t="s">
-        <v>426</v>
       </c>
       <c r="H50" s="103">
         <v>24</v>
@@ -20943,16 +20981,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="151" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="D51" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="E51" s="151" t="s">
         <v>427</v>
-      </c>
-      <c r="C51" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="D51" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="E51" s="151" t="s">
-        <v>430</v>
       </c>
       <c r="H51" s="103">
         <v>25</v>
@@ -20972,16 +21010,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="151" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" s="151" t="s">
+        <v>430</v>
+      </c>
+      <c r="E52" s="151" t="s">
         <v>431</v>
-      </c>
-      <c r="C52" s="151" t="s">
-        <v>432</v>
-      </c>
-      <c r="D52" s="151" t="s">
-        <v>433</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>434</v>
       </c>
       <c r="H52" s="103">
         <v>26</v>
@@ -21001,16 +21039,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="151" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53" s="151" t="s">
+        <v>433</v>
+      </c>
+      <c r="D53" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" s="151" t="s">
         <v>435</v>
-      </c>
-      <c r="C53" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="D53" s="151" t="s">
-        <v>437</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>438</v>
       </c>
       <c r="H53" s="103">
         <v>27</v>
@@ -21030,16 +21068,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="151" t="s">
+        <v>437</v>
+      </c>
+      <c r="D54" s="151" t="s">
+        <v>438</v>
+      </c>
+      <c r="E54" s="151" t="s">
         <v>439</v>
-      </c>
-      <c r="C54" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="D54" s="151" t="s">
-        <v>441</v>
-      </c>
-      <c r="E54" s="151" t="s">
-        <v>442</v>
       </c>
       <c r="H54" s="103">
         <v>28</v>
@@ -21059,16 +21097,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="151" t="s">
+        <v>440</v>
+      </c>
+      <c r="C55" s="151" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" s="151" t="s">
+        <v>442</v>
+      </c>
+      <c r="E55" s="151" t="s">
         <v>443</v>
-      </c>
-      <c r="C55" s="151" t="s">
-        <v>444</v>
-      </c>
-      <c r="D55" s="151" t="s">
-        <v>445</v>
-      </c>
-      <c r="E55" s="151" t="s">
-        <v>446</v>
       </c>
       <c r="H55" s="103">
         <v>29</v>
@@ -21088,16 +21126,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="C56" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" s="151" t="s">
         <v>447</v>
-      </c>
-      <c r="C56" s="151" t="s">
-        <v>448</v>
-      </c>
-      <c r="D56" s="151" t="s">
-        <v>449</v>
-      </c>
-      <c r="E56" s="151" t="s">
-        <v>450</v>
       </c>
       <c r="H56" s="103">
         <v>30</v>
@@ -21117,16 +21155,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="151" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" s="151" t="s">
+        <v>450</v>
+      </c>
+      <c r="E57" s="151" t="s">
         <v>451</v>
-      </c>
-      <c r="C57" s="151" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="151" t="s">
-        <v>453</v>
-      </c>
-      <c r="E57" s="151" t="s">
-        <v>454</v>
       </c>
       <c r="H57" s="103">
         <v>31</v>
@@ -21146,16 +21184,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="151" t="s">
+        <v>452</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="151" t="s">
+        <v>454</v>
+      </c>
+      <c r="E58" s="151" t="s">
         <v>455</v>
-      </c>
-      <c r="C58" s="151" t="s">
-        <v>456</v>
-      </c>
-      <c r="D58" s="151" t="s">
-        <v>457</v>
-      </c>
-      <c r="E58" s="151" t="s">
-        <v>458</v>
       </c>
       <c r="H58" s="103">
         <v>32</v>
@@ -21180,7 +21218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -21191,31 +21229,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="152" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="152" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="152" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="152" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="E1" s="152" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="152" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="152" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="152" t="s">
-        <v>463</v>
-      </c>
       <c r="G1" s="152" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="152" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="152" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="152" t="s">
         <v>460</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21223,13 +21261,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="153" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" s="154" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="154" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>324</v>
       </c>
       <c r="E2" s="155"/>
       <c r="G2" s="153">
@@ -21248,13 +21286,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C3" s="157" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="157" t="s">
         <v>322</v>
-      </c>
-      <c r="D3" s="157" t="s">
-        <v>325</v>
       </c>
       <c r="E3" s="158"/>
       <c r="G3" s="156">
@@ -21273,13 +21311,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D4" s="157" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E4" s="160"/>
       <c r="G4" s="159">
@@ -21298,13 +21336,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C5" s="162" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E5" s="163"/>
       <c r="G5" s="161">
@@ -21323,16 +21361,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D6" s="154" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E6" s="164" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G6" s="153">
         <v>0</v>
@@ -21352,16 +21390,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="156" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G7" s="156">
         <v>1</v>
@@ -21381,16 +21419,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C8" s="157" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D8" s="157" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E8" s="165" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G8" s="159">
         <v>2</v>
@@ -21410,16 +21448,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="167" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C9" s="168" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D9" s="168" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E9" s="169" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G9" s="167">
         <v>3</v>
@@ -21439,16 +21477,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="157" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D10" s="157" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G10" s="153">
         <v>4</v>
@@ -21468,16 +21506,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="159" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G11" s="156">
         <v>5</v>
@@ -21497,16 +21535,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C12" s="157" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E12" s="165" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G12" s="159">
         <v>6</v>
@@ -21526,16 +21564,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C13" s="162" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E13" s="166" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G13" s="167">
         <v>7</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334740E2-DB8C-4A3B-8206-DAF67BC3E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AB442-33B6-411F-9AAD-A8C6F68C456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="490">
   <si>
     <t>步骤</t>
   </si>
@@ -774,10 +774,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UPD_5转置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>UPD_6</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1697,6 +1693,14 @@
   <si>
     <t>G_z(奇) 3</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_5转置(seq_cnt等待转置完成)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3215,11 +3219,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>733426</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="638175" cy="419100"/>
+    <xdr:ext cx="495300" cy="338138"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="attachment-1647339334594-2d16b7a892b9bae2" descr="attachment-1647339334594-2d16b7a892b9bae2">
@@ -3240,8 +3244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="13096875"/>
-          <a:ext cx="638175" cy="419100"/>
+          <a:off x="733426" y="14320837"/>
+          <a:ext cx="495300" cy="338138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12246,9 +12250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12621,7 +12625,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12699,14 +12703,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="93"/>
       <c r="B19" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="40"/>
@@ -12735,7 +12739,7 @@
         <v>189</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12813,16 +12817,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="93"/>
       <c r="B23" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="40"/>
@@ -12927,14 +12931,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -13095,7 +13099,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13173,14 +13177,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="40"/>
@@ -13283,14 +13287,14 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>232</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
@@ -13391,14 +13395,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
@@ -13499,14 +13503,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" s="92"/>
       <c r="G49" s="40"/>
@@ -13615,16 +13619,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F53" s="92"/>
       <c r="G53" s="40"/>
@@ -13860,7 +13864,7 @@
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -13936,14 +13940,14 @@
         <v>218</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C66" s="75" t="s">
         <v>180</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
@@ -14028,7 +14032,7 @@
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -14100,16 +14104,18 @@
       <c r="S71" s="4"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="3"/>
+      <c r="A72" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="B72" s="94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="75" t="s">
         <v>181</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>187</v>
@@ -14185,14 +14191,14 @@
     <row r="75" spans="1:19">
       <c r="A75" s="93"/>
       <c r="B75" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="40"/>
@@ -14210,14 +14216,14 @@
       <c r="S75" s="40"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="17" t="s">
-        <v>220</v>
+      <c r="A76" s="152" t="s">
+        <v>488</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>49</v>
@@ -14305,16 +14311,16 @@
     <row r="79" spans="1:19">
       <c r="A79" s="93"/>
       <c r="B79" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F79" s="93"/>
       <c r="G79" s="40"/>
@@ -14333,7 +14339,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="B80" s="58" t="s">
         <v>65</v>
@@ -14410,10 +14416,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" s="90" t="s">
         <v>68</v>
@@ -14496,14 +14502,14 @@
     <row r="86" spans="1:19">
       <c r="A86" s="93"/>
       <c r="B86" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="40"/>
@@ -14615,7 +14621,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" s="44" t="s">
         <v>76</v>
@@ -14700,13 +14706,13 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D93" s="96" t="s">
         <v>76</v>
@@ -14790,10 +14796,10 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
@@ -15041,10 +15047,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>225</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -15066,10 +15072,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -15091,10 +15097,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -15119,7 +15125,7 @@
         <v>183</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15141,10 +15147,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15166,10 +15172,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -18514,40 +18520,40 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1">
       <c r="B1" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="D1" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="E1" s="103" t="s">
         <v>241</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" s="135"/>
       <c r="E2" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="137" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="140" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>246</v>
       </c>
       <c r="D3" s="140"/>
       <c r="E3" s="141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
@@ -18564,26 +18570,26 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="140"/>
       <c r="E6" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1">
@@ -18600,26 +18606,26 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="135" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>252</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" s="140"/>
       <c r="E9" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" thickBot="1">
@@ -18636,26 +18642,26 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="135"/>
       <c r="E11" s="136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.25" thickBot="1">
@@ -18672,30 +18678,30 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="136" t="s">
         <v>256</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="136" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="140" t="s">
-        <v>250</v>
-      </c>
       <c r="E15" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
@@ -18714,30 +18720,30 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="133" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="D17" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>255</v>
-      </c>
       <c r="E17" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D18" s="140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" thickBot="1">
@@ -18756,37 +18762,37 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="133" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="135" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="136" t="s">
+      <c r="F20" s="104" t="s">
         <v>259</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>260</v>
       </c>
       <c r="G20" s="104"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
@@ -18813,7 +18819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -18962,14 +18968,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="105">
         <v>1</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="105">
         <v>1</v>
@@ -18977,47 +18983,47 @@
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I2" s="109"/>
       <c r="J2" s="110"/>
       <c r="K2" s="109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L2" s="109"/>
       <c r="M2" s="109"/>
       <c r="N2" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
       <c r="Q2" s="108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R2" s="109"/>
       <c r="S2" s="111">
         <v>5</v>
       </c>
       <c r="T2" s="112" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U2" s="111">
         <v>4</v>
       </c>
       <c r="V2" s="108" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W2" s="110"/>
       <c r="X2" s="108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y2" s="110"/>
       <c r="Z2" s="113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA2" s="110"/>
       <c r="AB2" s="114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AC2" s="115">
         <v>-3</v>
@@ -19026,57 +19032,57 @@
         <v>0</v>
       </c>
       <c r="AE2" s="114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF2" s="115">
         <v>3</v>
       </c>
       <c r="AG2" s="108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH2" s="110"/>
       <c r="AI2" s="108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="109"/>
       <c r="AL2" s="109"/>
       <c r="AM2" s="109"/>
       <c r="AN2" s="114" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO2" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AP2" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="AP2" s="108" t="s">
+      <c r="AQ2" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="AQ2" s="110" t="s">
+      <c r="AR2" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="AR2" s="108" t="s">
+      <c r="AS2" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="AS2" s="110" t="s">
+      <c r="AT2" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="AT2" s="108" t="s">
+      <c r="AU2" s="110" t="s">
         <v>277</v>
-      </c>
-      <c r="AU2" s="110" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="117"/>
       <c r="C3" s="118">
         <v>1</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="118">
@@ -19140,33 +19146,33 @@
       <c r="AL3" s="124"/>
       <c r="AM3" s="124"/>
       <c r="AN3" s="120" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO3" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="AO3" s="122" t="s">
+      <c r="AP3" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="AP3" s="120" t="s">
+      <c r="AQ3" s="122" t="s">
         <v>283</v>
       </c>
-      <c r="AQ3" s="122" t="s">
+      <c r="AR3" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="AR3" s="120" t="s">
+      <c r="AS3" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="AS3" s="122" t="s">
+      <c r="AT3" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="AT3" s="120" t="s">
+      <c r="AU3" s="122" t="s">
         <v>287</v>
-      </c>
-      <c r="AU3" s="122" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="130"/>
       <c r="C4" s="131"/>
@@ -19174,10 +19180,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="131">
         <v>1</v>
@@ -19214,33 +19220,33 @@
       <c r="AG4" s="132"/>
       <c r="AH4" s="132"/>
       <c r="AN4" s="120" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO4" s="122" t="s">
         <v>290</v>
       </c>
-      <c r="AO4" s="122" t="s">
+      <c r="AP4" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="AP4" s="120" t="s">
+      <c r="AQ4" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="AQ4" s="122" t="s">
+      <c r="AR4" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="AR4" s="120" t="s">
+      <c r="AS4" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="AS4" s="122" t="s">
+      <c r="AT4" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="AT4" s="120" t="s">
+      <c r="AU4" s="122" t="s">
         <v>296</v>
-      </c>
-      <c r="AU4" s="122" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="131"/>
@@ -19267,45 +19273,45 @@
       <c r="AG5" s="132"/>
       <c r="AH5" s="132"/>
       <c r="AN5" s="123" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO5" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="AO5" s="127" t="s">
+      <c r="AP5" s="123" t="s">
         <v>300</v>
       </c>
-      <c r="AP5" s="123" t="s">
+      <c r="AQ5" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="AQ5" s="127" t="s">
+      <c r="AR5" s="123" t="s">
         <v>302</v>
       </c>
-      <c r="AR5" s="123" t="s">
+      <c r="AS5" s="127" t="s">
         <v>303</v>
       </c>
-      <c r="AS5" s="127" t="s">
+      <c r="AT5" s="123" t="s">
         <v>304</v>
       </c>
-      <c r="AT5" s="123" t="s">
+      <c r="AU5" s="127" t="s">
         <v>305</v>
-      </c>
-      <c r="AU5" s="127" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="179" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="180"/>
       <c r="D6" s="181"/>
       <c r="E6" s="179" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F6" s="180"/>
       <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="179" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
@@ -19322,7 +19328,7 @@
       <c r="O7" s="180"/>
       <c r="P7" s="181"/>
       <c r="Q7" s="179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R7" s="180"/>
       <c r="S7" s="180"/>
@@ -19335,7 +19341,7 @@
       <c r="Z7" s="180"/>
       <c r="AA7" s="181"/>
       <c r="AB7" s="179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AC7" s="180"/>
       <c r="AD7" s="180"/>
@@ -19359,10 +19365,10 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM9" t="s">
         <v>312</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19370,7 +19376,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19380,7 +19386,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -19431,10 +19437,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="138" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="139" t="s">
         <v>316</v>
-      </c>
-      <c r="C2" s="139" t="s">
-        <v>317</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="140"/>
@@ -19452,13 +19458,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="138" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="D3" s="139" t="s">
         <v>319</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
@@ -19475,16 +19481,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="139" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="D4" s="139" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="E4" s="139" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -19500,19 +19506,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="139" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="D5" s="139" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="E5" s="139" t="s">
         <v>327</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="F5" s="139" t="s">
         <v>328</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>329</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -19527,22 +19533,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="D6" s="139" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="E6" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="F6" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="G6" s="139" t="s">
         <v>334</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>335</v>
       </c>
       <c r="H6" s="140"/>
       <c r="I6" s="140"/>
@@ -19556,25 +19562,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="138" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="D7" s="139" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="E7" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="F7" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="G7" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>341</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>342</v>
       </c>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
@@ -19587,28 +19593,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="D8" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="E8" s="139" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="F8" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="G8" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="H8" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="I8" s="139" t="s">
         <v>349</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>350</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
@@ -19620,31 +19626,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="138" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="D9" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="E9" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="F9" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="G9" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="J9" s="139" t="s">
         <v>358</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>359</v>
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="140"/>
@@ -19655,34 +19661,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="138" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="D10" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="E10" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="F10" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="G10" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="H10" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="I10" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="J10" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="J10" s="139" t="s">
+      <c r="K10" s="139" t="s">
         <v>368</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>369</v>
       </c>
       <c r="L10" s="140"/>
       <c r="M10" s="141"/>
@@ -19692,37 +19698,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="D11" s="139" t="s">
         <v>371</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="E11" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="F11" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="G11" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="H11" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="I11" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="J11" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="J11" s="139" t="s">
+      <c r="K11" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="139" t="s">
+      <c r="L11" s="139" t="s">
         <v>379</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>380</v>
       </c>
       <c r="M11" s="141"/>
     </row>
@@ -19731,497 +19737,497 @@
         <v>11</v>
       </c>
       <c r="B12" s="143" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="D12" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="E12" s="144" t="s">
         <v>383</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="F12" s="145" t="s">
         <v>384</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="144" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="H12" s="144" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="I12" s="144" t="s">
         <v>387</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="J12" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="K12" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="K12" s="144" t="s">
+      <c r="L12" s="144" t="s">
         <v>390</v>
       </c>
-      <c r="L12" s="144" t="s">
+      <c r="M12" s="146" t="s">
         <v>391</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="147"/>
       <c r="C14" s="148" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="E14" s="149" t="s">
         <v>344</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="F14" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="G14" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="H14" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="I14" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="K14" s="148" t="s">
         <v>350</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="L14" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="M14" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="N14" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="N14" s="149" t="s">
+      <c r="O14" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="O14" s="149" t="s">
+      <c r="P14" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="P14" s="149" t="s">
+      <c r="Q14" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="Q14" s="149" t="s">
+      <c r="R14" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="R14" s="149" t="s">
+      <c r="S14" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="S14" s="149" t="s">
-        <v>359</v>
-      </c>
       <c r="T14" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U14" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V14" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="149" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="149" t="s">
-        <v>317</v>
-      </c>
       <c r="D15" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="F15" s="149" t="s">
         <v>337</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="G15" s="149" t="s">
         <v>338</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="H15" s="149" t="s">
         <v>339</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="I15" s="149" t="s">
         <v>340</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="J15" s="149" t="s">
         <v>341</v>
       </c>
-      <c r="J15" s="149" t="s">
-        <v>342</v>
-      </c>
       <c r="K15" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="L15" s="149" t="s">
+      <c r="M15" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="N15" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="N15" s="149" t="s">
+      <c r="O15" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="P15" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="P15" s="149" t="s">
+      <c r="Q15" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="Q15" s="149" t="s">
+      <c r="R15" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="R15" s="149" t="s">
+      <c r="S15" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="S15" s="149" t="s">
+      <c r="T15" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="T15" s="149" t="s">
-        <v>369</v>
-      </c>
       <c r="U15" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V15" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W15" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="148" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="149" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="D16" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="149" t="s">
-        <v>320</v>
-      </c>
       <c r="E16" s="148" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="149" t="s">
         <v>330</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="G16" s="149" t="s">
         <v>331</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="H16" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="I16" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="I16" s="149" t="s">
+      <c r="J16" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="149" t="s">
-        <v>335</v>
-      </c>
       <c r="K16" s="148" t="s">
+        <v>369</v>
+      </c>
+      <c r="L16" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="L16" s="149" t="s">
+      <c r="M16" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="N16" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="N16" s="149" t="s">
+      <c r="O16" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="P16" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="P16" s="149" t="s">
+      <c r="Q16" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="Q16" s="149" t="s">
+      <c r="R16" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="R16" s="149" t="s">
+      <c r="S16" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="S16" s="149" t="s">
+      <c r="T16" s="149" t="s">
         <v>378</v>
       </c>
-      <c r="T16" s="149" t="s">
+      <c r="U16" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="U16" s="149" t="s">
-        <v>380</v>
-      </c>
       <c r="V16" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W16" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="D17" s="149" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="E17" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="F17" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="G17" s="149" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="149" t="s">
+      <c r="H17" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="H17" s="149" t="s">
+      <c r="I17" s="149" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="149" t="s">
+      <c r="J17" s="149" t="s">
         <v>328</v>
       </c>
-      <c r="J17" s="149" t="s">
-        <v>329</v>
-      </c>
       <c r="K17" s="148" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="149" t="s">
+      <c r="M17" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="N17" s="149" t="s">
         <v>383</v>
       </c>
-      <c r="N17" s="149" t="s">
+      <c r="O17" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="O17" s="150" t="s">
+      <c r="P17" s="149" t="s">
         <v>385</v>
       </c>
-      <c r="P17" s="149" t="s">
+      <c r="Q17" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="Q17" s="149" t="s">
+      <c r="R17" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="R17" s="149" t="s">
+      <c r="S17" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="S17" s="149" t="s">
+      <c r="T17" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="T17" s="149" t="s">
+      <c r="U17" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="U17" s="149" t="s">
+      <c r="V17" s="149" t="s">
         <v>391</v>
       </c>
-      <c r="V17" s="149" t="s">
+      <c r="W17" s="103" t="s">
         <v>392</v>
-      </c>
-      <c r="W17" s="103" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" s="148" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="D19" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="E19" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="F19" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="149" t="s">
+      <c r="G19" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="149" t="s">
+      <c r="H19" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="H19" s="149" t="s">
+      <c r="I19" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="I19" s="149" t="s">
+      <c r="J19" s="149" t="s">
         <v>358</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="D20" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="E20" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="F20" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="G20" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="G20" s="149" t="s">
+      <c r="H20" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="H20" s="149" t="s">
+      <c r="I20" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="I20" s="149" t="s">
+      <c r="J20" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="K20" s="149" t="s">
         <v>368</v>
-      </c>
-      <c r="K20" s="149" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" s="148" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="D21" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="E21" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="F21" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="G21" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="H21" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="I21" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="I21" s="149" t="s">
+      <c r="J21" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="J21" s="149" t="s">
+      <c r="K21" s="149" t="s">
         <v>378</v>
       </c>
-      <c r="K21" s="149" t="s">
+      <c r="L21" s="149" t="s">
         <v>379</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" s="148" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="D22" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="E22" s="149" t="s">
         <v>383</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="F22" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="G22" s="149" t="s">
         <v>385</v>
       </c>
-      <c r="G22" s="149" t="s">
+      <c r="H22" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="H22" s="149" t="s">
+      <c r="I22" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="I22" s="149" t="s">
+      <c r="J22" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="J22" s="149" t="s">
+      <c r="K22" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="K22" s="149" t="s">
+      <c r="L22" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="L22" s="149" t="s">
+      <c r="M22" s="149" t="s">
         <v>391</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -20230,13 +20236,13 @@
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D25" s="148" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H25" s="103">
         <v>0</v>
@@ -20256,16 +20262,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" s="149" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26" s="149" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H26" s="103">
         <v>0</v>
@@ -20285,16 +20291,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27" s="149" t="s">
         <v>395</v>
-      </c>
-      <c r="E27" s="149" t="s">
-        <v>396</v>
       </c>
       <c r="H27" s="103">
         <v>1</v>
@@ -20314,16 +20320,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E28" s="149" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H28" s="103">
         <v>2</v>
@@ -20343,16 +20349,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H29" s="103">
         <v>3</v>
@@ -20372,16 +20378,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" s="103">
         <v>4</v>
@@ -20401,16 +20407,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H31" s="103">
         <v>5</v>
@@ -20430,16 +20436,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" s="149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H32" s="103">
         <v>6</v>
@@ -20459,16 +20465,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H33" s="103">
         <v>7</v>
@@ -20488,16 +20494,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="148" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C34" s="148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D34" s="148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H34" s="103">
         <v>8</v>
@@ -20517,16 +20523,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H35" s="103">
         <v>9</v>
@@ -20546,16 +20552,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H36" s="103">
         <v>10</v>
@@ -20575,16 +20581,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H37" s="103">
         <v>11</v>
@@ -20604,16 +20610,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H38" s="103">
         <v>12</v>
@@ -20633,16 +20639,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H39" s="103">
         <v>13</v>
@@ -20662,16 +20668,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H40" s="103">
         <v>14</v>
@@ -20691,16 +20697,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D41" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H41" s="103">
         <v>15</v>
@@ -20720,16 +20726,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H42" s="103">
         <v>16</v>
@@ -20749,16 +20755,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H43" s="103">
         <v>17</v>
@@ -20778,16 +20784,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="151" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="148" t="s">
         <v>399</v>
       </c>
-      <c r="C44" s="148" t="s">
-        <v>400</v>
-      </c>
       <c r="D44" s="149" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H44" s="103">
         <v>18</v>
@@ -20807,16 +20813,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="151" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="151" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="D45" s="148" t="s">
         <v>402</v>
       </c>
-      <c r="D45" s="148" t="s">
-        <v>403</v>
-      </c>
       <c r="E45" s="149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H45" s="103">
         <v>19</v>
@@ -20836,16 +20842,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="151" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="151" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="D46" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="E46" s="148" t="s">
         <v>406</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>407</v>
       </c>
       <c r="H46" s="103">
         <v>20</v>
@@ -20865,16 +20871,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="151" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="D47" s="151" t="s">
         <v>409</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="E47" s="151" t="s">
         <v>410</v>
-      </c>
-      <c r="E47" s="151" t="s">
-        <v>411</v>
       </c>
       <c r="H47" s="103">
         <v>21</v>
@@ -20894,16 +20900,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="151" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" s="151" t="s">
         <v>412</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="D48" s="151" t="s">
         <v>413</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="E48" s="151" t="s">
         <v>414</v>
-      </c>
-      <c r="E48" s="151" t="s">
-        <v>415</v>
       </c>
       <c r="H48" s="103">
         <v>22</v>
@@ -20923,16 +20929,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="151" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="151" t="s">
         <v>416</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="D49" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="D49" s="151" t="s">
+      <c r="E49" s="151" t="s">
         <v>418</v>
-      </c>
-      <c r="E49" s="151" t="s">
-        <v>419</v>
       </c>
       <c r="H49" s="103">
         <v>23</v>
@@ -20952,16 +20958,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="151" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="151" t="s">
         <v>420</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="D50" s="151" t="s">
         <v>421</v>
       </c>
-      <c r="D50" s="151" t="s">
+      <c r="E50" s="151" t="s">
         <v>422</v>
-      </c>
-      <c r="E50" s="151" t="s">
-        <v>423</v>
       </c>
       <c r="H50" s="103">
         <v>24</v>
@@ -20981,16 +20987,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="151" t="s">
+        <v>423</v>
+      </c>
+      <c r="C51" s="151" t="s">
         <v>424</v>
       </c>
-      <c r="C51" s="151" t="s">
+      <c r="D51" s="151" t="s">
         <v>425</v>
       </c>
-      <c r="D51" s="151" t="s">
+      <c r="E51" s="151" t="s">
         <v>426</v>
-      </c>
-      <c r="E51" s="151" t="s">
-        <v>427</v>
       </c>
       <c r="H51" s="103">
         <v>25</v>
@@ -21010,16 +21016,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="151" t="s">
+        <v>427</v>
+      </c>
+      <c r="C52" s="151" t="s">
         <v>428</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="D52" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="D52" s="151" t="s">
+      <c r="E52" s="151" t="s">
         <v>430</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>431</v>
       </c>
       <c r="H52" s="103">
         <v>26</v>
@@ -21039,16 +21045,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="151" t="s">
+        <v>431</v>
+      </c>
+      <c r="C53" s="151" t="s">
         <v>432</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="D53" s="151" t="s">
         <v>433</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="E53" s="151" t="s">
         <v>434</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>435</v>
       </c>
       <c r="H53" s="103">
         <v>27</v>
@@ -21068,16 +21074,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="151" t="s">
+        <v>435</v>
+      </c>
+      <c r="C54" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="D54" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="D54" s="151" t="s">
+      <c r="E54" s="151" t="s">
         <v>438</v>
-      </c>
-      <c r="E54" s="151" t="s">
-        <v>439</v>
       </c>
       <c r="H54" s="103">
         <v>28</v>
@@ -21097,16 +21103,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" s="151" t="s">
         <v>440</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="D55" s="151" t="s">
         <v>441</v>
       </c>
-      <c r="D55" s="151" t="s">
+      <c r="E55" s="151" t="s">
         <v>442</v>
-      </c>
-      <c r="E55" s="151" t="s">
-        <v>443</v>
       </c>
       <c r="H55" s="103">
         <v>29</v>
@@ -21126,16 +21132,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="151" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" s="151" t="s">
         <v>444</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="D56" s="151" t="s">
         <v>445</v>
       </c>
-      <c r="D56" s="151" t="s">
+      <c r="E56" s="151" t="s">
         <v>446</v>
-      </c>
-      <c r="E56" s="151" t="s">
-        <v>447</v>
       </c>
       <c r="H56" s="103">
         <v>30</v>
@@ -21155,16 +21161,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="151" t="s">
+        <v>447</v>
+      </c>
+      <c r="C57" s="151" t="s">
         <v>448</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="D57" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="E57" s="151" t="s">
         <v>450</v>
-      </c>
-      <c r="E57" s="151" t="s">
-        <v>451</v>
       </c>
       <c r="H57" s="103">
         <v>31</v>
@@ -21184,16 +21190,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="151" t="s">
+        <v>451</v>
+      </c>
+      <c r="C58" s="151" t="s">
         <v>452</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="D58" s="151" t="s">
         <v>453</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="E58" s="151" t="s">
         <v>454</v>
-      </c>
-      <c r="E58" s="151" t="s">
-        <v>455</v>
       </c>
       <c r="H58" s="103">
         <v>32</v>
@@ -21229,31 +21235,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="152" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="152" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="C1" s="152" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="D1" s="152" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="E1" s="152" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="152" t="s">
-        <v>460</v>
-      </c>
       <c r="G1" s="152" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="152" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="I1" s="152" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="152" t="s">
+      <c r="J1" s="152" t="s">
         <v>459</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21261,13 +21267,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="154" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" s="155"/>
       <c r="G2" s="153">
@@ -21286,13 +21292,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="157" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E3" s="158"/>
       <c r="G3" s="156">
@@ -21311,13 +21317,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" s="157" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="157" t="s">
         <v>395</v>
-      </c>
-      <c r="D4" s="157" t="s">
-        <v>396</v>
       </c>
       <c r="E4" s="160"/>
       <c r="G4" s="159">
@@ -21336,13 +21342,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="161" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" s="162" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="162" t="s">
-        <v>463</v>
-      </c>
       <c r="D5" s="162" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E5" s="163"/>
       <c r="G5" s="161">
@@ -21361,16 +21367,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" s="154" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" s="154" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="154" t="s">
-        <v>472</v>
-      </c>
       <c r="E6" s="164" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" s="153">
         <v>0</v>
@@ -21390,16 +21396,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G7" s="156">
         <v>1</v>
@@ -21419,16 +21425,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" s="157" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" s="157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E8" s="165" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8" s="159">
         <v>2</v>
@@ -21448,16 +21454,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="167" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C9" s="168" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D9" s="168" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E9" s="169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G9" s="167">
         <v>3</v>
@@ -21477,16 +21483,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G10" s="153">
         <v>4</v>
@@ -21506,16 +21512,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G11" s="156">
         <v>5</v>
@@ -21535,16 +21541,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="156" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="157" t="s">
-        <v>476</v>
-      </c>
       <c r="D12" s="157" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E12" s="165" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" s="159">
         <v>6</v>
@@ -21564,16 +21570,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="161" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="162" t="s">
         <v>477</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="D13" s="162" t="s">
         <v>478</v>
       </c>
-      <c r="D13" s="162" t="s">
-        <v>479</v>
-      </c>
       <c r="E13" s="166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G13" s="167">
         <v>7</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AB442-33B6-411F-9AAD-A8C6F68C456D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A8C4A-5DF0-4D41-ADB8-D94665AC399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1620" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A8C4A-5DF0-4D41-ADB8-D94665AC399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D96AB-D1C3-44EF-BF40-F12CB5307B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1620" windowWidth="16200" windowHeight="9397" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="490">
   <si>
     <t>步骤</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>(2*5)</t>
-  </si>
-  <si>
-    <t>5+1+5+1+3+2n+2</t>
   </si>
   <si>
     <t>S_inv</t>
@@ -1700,6 +1697,10 @@
   </si>
   <si>
     <t>UPD_5转置(seq_cnt等待转置完成)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S是对称矩阵</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2381,7 +2382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2922,6 +2923,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3702,53 +3715,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -3809,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -3907,7 +3920,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -3944,7 +3957,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3955,10 +3968,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3978,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -3995,7 +4008,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4003,13 +4016,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4046,7 +4059,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4054,13 +4067,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4097,20 +4110,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4152,25 +4165,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4201,21 +4214,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4246,25 +4259,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -4295,21 +4308,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -4340,25 +4353,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4389,25 +4402,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -4434,31 +4447,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -4485,31 +4498,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -4540,21 +4553,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -4587,15 +4600,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4655,7 +4668,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="175"/>
       <c r="C22" s="175"/>
@@ -4690,7 +4703,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4725,7 +4738,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4760,7 +4773,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4768,10 +4781,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -4811,14 +4824,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -4860,10 +4873,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4897,14 +4910,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -4934,25 +4947,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4983,19 +4996,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5022,31 +5035,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5077,21 +5090,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5118,7 +5131,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5153,31 +5166,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5187,7 +5200,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -5213,22 +5226,22 @@
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5255,7 +5268,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -5270,16 +5283,16 @@
         <v>65</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -5314,17 +5327,17 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5355,25 +5368,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5400,26 +5413,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -5453,14 +5466,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -5523,7 +5536,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5562,21 +5575,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5607,21 +5620,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -5656,25 +5669,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5707,15 +5720,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -5756,15 +5769,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5797,25 +5810,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5846,21 +5859,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5891,25 +5904,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5940,25 +5953,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6018,7 +6031,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6057,25 +6070,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F54" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -6106,25 +6119,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -6155,25 +6168,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -6204,21 +6217,21 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -6249,25 +6262,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -6298,25 +6311,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6347,25 +6360,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -12252,7 +12265,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12320,7 +12333,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12343,7 +12356,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -12573,7 +12586,7 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -12625,7 +12638,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12676,14 +12689,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -12703,14 +12716,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="93"/>
       <c r="B19" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="40"/>
@@ -12736,10 +12749,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12788,16 +12801,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -12817,16 +12830,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="93"/>
       <c r="B23" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="40"/>
@@ -12902,14 +12915,14 @@
     <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>29</v>
@@ -12931,14 +12944,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -13099,7 +13112,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13150,14 +13163,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -13177,14 +13190,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="40"/>
@@ -13258,14 +13271,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>43</v>
@@ -13287,14 +13300,14 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
@@ -13321,7 +13334,7 @@
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13368,14 +13381,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -13395,14 +13408,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
@@ -13476,14 +13489,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -13503,14 +13516,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F49" s="92"/>
       <c r="G49" s="40"/>
@@ -13539,7 +13552,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -13588,16 +13601,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>195</v>
-      </c>
       <c r="D52" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52" s="7">
         <v>8</v>
@@ -13619,16 +13632,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F53" s="92"/>
       <c r="G53" s="40"/>
@@ -13854,17 +13867,17 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -13884,14 +13897,14 @@
     <row r="64" spans="1:19">
       <c r="A64" s="39"/>
       <c r="B64" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="40"/>
@@ -13911,14 +13924,14 @@
     <row r="65" spans="1:19">
       <c r="A65" s="39"/>
       <c r="B65" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="40"/>
@@ -13937,17 +13950,17 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
@@ -13967,14 +13980,14 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
@@ -13994,17 +14007,17 @@
     <row r="68" spans="1:19">
       <c r="A68" s="39"/>
       <c r="B68" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -14022,17 +14035,17 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B69" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -14052,14 +14065,14 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
@@ -14079,14 +14092,14 @@
     <row r="71" spans="1:19">
       <c r="A71" s="3"/>
       <c r="B71" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
@@ -14105,20 +14118,20 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" s="94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -14137,10 +14150,10 @@
     <row r="73" spans="1:19">
       <c r="A73" s="3"/>
       <c r="B73" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="43" t="s">
@@ -14164,14 +14177,14 @@
     <row r="74" spans="1:19">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="40"/>
@@ -14191,14 +14204,14 @@
     <row r="75" spans="1:19">
       <c r="A75" s="93"/>
       <c r="B75" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="40"/>
@@ -14217,13 +14230,13 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="152" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="63" t="s">
-        <v>237</v>
+      <c r="C76" s="76" t="s">
+        <v>236</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>49</v>
@@ -14231,11 +14244,13 @@
       <c r="E76" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="F76" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G76" s="182"/>
+      <c r="H76" s="183"/>
+      <c r="I76" s="182"/>
+      <c r="J76" s="184"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14260,13 +14275,11 @@
       <c r="E77" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="185"/>
+      <c r="H77" s="183"/>
+      <c r="I77" s="185"/>
+      <c r="J77" s="184"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14280,24 +14293,21 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>195</v>
-      </c>
       <c r="D78" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E78" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="G78" s="185"/>
+      <c r="H78" s="183"/>
+      <c r="I78" s="185"/>
+      <c r="J78" s="184"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14311,22 +14321,21 @@
     <row r="79" spans="1:19">
       <c r="A79" s="93"/>
       <c r="B79" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="93"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
+        <v>229</v>
+      </c>
+      <c r="G79" s="185"/>
+      <c r="H79" s="183"/>
+      <c r="I79" s="185"/>
+      <c r="J79" s="184"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14339,7 +14348,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B80" s="58" t="s">
         <v>65</v>
@@ -14347,7 +14356,7 @@
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
@@ -14392,12 +14401,12 @@
     <row r="82" spans="1:19">
       <c r="A82" s="39"/>
       <c r="B82" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="40"/>
@@ -14416,17 +14425,17 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -14473,17 +14482,17 @@
     <row r="85" spans="1:19">
       <c r="A85" s="3"/>
       <c r="B85" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -14502,14 +14511,14 @@
     <row r="86" spans="1:19">
       <c r="A86" s="93"/>
       <c r="B86" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="40"/>
@@ -14529,16 +14538,16 @@
     <row r="87" spans="1:19">
       <c r="A87" s="3"/>
       <c r="B87" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="E87" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -14561,13 +14570,13 @@
         <v>63</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="E88" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
@@ -14599,7 +14608,7 @@
         <v>25</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -14618,16 +14627,16 @@
     <row r="90" spans="1:19">
       <c r="A90" s="3"/>
       <c r="B90" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="4"/>
@@ -14650,13 +14659,13 @@
         <v>63</v>
       </c>
       <c r="C91" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
@@ -14688,7 +14697,7 @@
         <v>23</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -14706,19 +14715,19 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D93" s="96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E93" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
@@ -14738,16 +14747,16 @@
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="D94" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="E94" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
@@ -14767,16 +14776,16 @@
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="D95" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="E95" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>197</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
@@ -14796,10 +14805,10 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
@@ -14842,12 +14851,12 @@
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
       <c r="B98" s="177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C98" s="178"/>
       <c r="D98" s="178"/>
       <c r="E98" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -14864,16 +14873,16 @@
     <row r="99" spans="1:19" ht="14.25" thickBot="1">
       <c r="A99" s="38"/>
       <c r="B99" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="D99" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E99" s="86" t="s">
         <v>215</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" s="86" t="s">
-        <v>216</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -14889,19 +14898,19 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="82" t="s">
-        <v>195</v>
-      </c>
       <c r="D100" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="82" t="s">
         <v>194</v>
-      </c>
-      <c r="E100" s="82" t="s">
-        <v>195</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -14919,15 +14928,15 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B101" s="79"/>
       <c r="C101" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101" s="83"/>
       <c r="E101" s="83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -14945,22 +14954,22 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="C102" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>197</v>
-      </c>
       <c r="G102" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -14977,18 +14986,18 @@
     </row>
     <row r="103" spans="1:19" ht="14.25" thickBot="1">
       <c r="A103" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="80"/>
       <c r="C103" s="87"/>
       <c r="D103" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E103" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103" s="77" t="s">
         <v>205</v>
-      </c>
-      <c r="G103" s="77" t="s">
-        <v>206</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -15047,10 +15056,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -15072,10 +15081,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -15097,10 +15106,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -15122,10 +15131,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15147,10 +15156,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15172,10 +15181,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -18520,293 +18529,293 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1">
       <c r="B1" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="D1" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="E1" s="103" t="s">
         <v>240</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="135"/>
       <c r="E2" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="140" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>245</v>
       </c>
       <c r="D3" s="140"/>
       <c r="E3" s="141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
       <c r="B4" s="142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="170"/>
       <c r="E4" s="171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="140"/>
       <c r="E6" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1">
       <c r="B7" s="142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="170"/>
       <c r="E7" s="171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="133" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="135" t="s">
         <v>250</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>251</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="140"/>
       <c r="E9" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" thickBot="1">
       <c r="B10" s="142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="170"/>
       <c r="E10" s="171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="135"/>
       <c r="E11" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.25" thickBot="1">
       <c r="B13" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="170" t="s">
         <v>194</v>
-      </c>
-      <c r="C13" s="170" t="s">
-        <v>195</v>
       </c>
       <c r="D13" s="124"/>
       <c r="E13" s="171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="136" t="s">
         <v>255</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="136" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="140" t="s">
-        <v>249</v>
-      </c>
       <c r="E15" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
       <c r="B16" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="170" t="s">
-        <v>195</v>
-      </c>
       <c r="D16" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="171" t="s">
         <v>194</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="D17" s="135" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>254</v>
-      </c>
       <c r="E17" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" thickBot="1">
       <c r="B19" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="170" t="s">
-        <v>195</v>
-      </c>
       <c r="D19" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="171" t="s">
         <v>194</v>
-      </c>
-      <c r="E19" s="171" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="135" t="s">
-        <v>480</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="136" t="s">
+      <c r="F20" s="104" t="s">
         <v>258</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>259</v>
       </c>
       <c r="G20" s="104"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F21" s="103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
       <c r="B22" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="170" t="s">
-        <v>195</v>
-      </c>
       <c r="D22" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="171" t="s">
         <v>194</v>
-      </c>
-      <c r="E22" s="171" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -18968,14 +18977,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="105">
         <v>1</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="105">
         <v>1</v>
@@ -18983,47 +18992,47 @@
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I2" s="109"/>
       <c r="J2" s="110"/>
       <c r="K2" s="109" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L2" s="109"/>
       <c r="M2" s="109"/>
       <c r="N2" s="108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
       <c r="Q2" s="108" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R2" s="109"/>
       <c r="S2" s="111">
         <v>5</v>
       </c>
       <c r="T2" s="112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U2" s="111">
         <v>4</v>
       </c>
       <c r="V2" s="108" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W2" s="110"/>
       <c r="X2" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y2" s="110"/>
       <c r="Z2" s="113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA2" s="110"/>
       <c r="AB2" s="114" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AC2" s="115">
         <v>-3</v>
@@ -19032,57 +19041,57 @@
         <v>0</v>
       </c>
       <c r="AE2" s="114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF2" s="115">
         <v>3</v>
       </c>
       <c r="AG2" s="108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH2" s="110"/>
       <c r="AI2" s="108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="109"/>
       <c r="AL2" s="109"/>
       <c r="AM2" s="109"/>
       <c r="AN2" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO2" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AP2" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="AP2" s="108" t="s">
+      <c r="AQ2" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="AQ2" s="110" t="s">
+      <c r="AR2" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="AR2" s="108" t="s">
+      <c r="AS2" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="AS2" s="110" t="s">
+      <c r="AT2" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="AT2" s="108" t="s">
+      <c r="AU2" s="110" t="s">
         <v>276</v>
-      </c>
-      <c r="AU2" s="110" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="117"/>
       <c r="C3" s="118">
         <v>1</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="118">
@@ -19146,33 +19155,33 @@
       <c r="AL3" s="124"/>
       <c r="AM3" s="124"/>
       <c r="AN3" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO3" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="AO3" s="122" t="s">
+      <c r="AP3" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="AP3" s="120" t="s">
+      <c r="AQ3" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="AQ3" s="122" t="s">
+      <c r="AR3" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="AR3" s="120" t="s">
+      <c r="AS3" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="AS3" s="122" t="s">
+      <c r="AT3" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="AT3" s="120" t="s">
+      <c r="AU3" s="122" t="s">
         <v>286</v>
-      </c>
-      <c r="AU3" s="122" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="130"/>
       <c r="C4" s="131"/>
@@ -19180,10 +19189,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="131">
         <v>1</v>
@@ -19220,33 +19229,33 @@
       <c r="AG4" s="132"/>
       <c r="AH4" s="132"/>
       <c r="AN4" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO4" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="AO4" s="122" t="s">
+      <c r="AP4" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="AP4" s="120" t="s">
+      <c r="AQ4" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="AQ4" s="122" t="s">
+      <c r="AR4" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="AR4" s="120" t="s">
+      <c r="AS4" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="AS4" s="122" t="s">
+      <c r="AT4" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="AT4" s="120" t="s">
+      <c r="AU4" s="122" t="s">
         <v>295</v>
-      </c>
-      <c r="AU4" s="122" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="131"/>
@@ -19273,45 +19282,45 @@
       <c r="AG5" s="132"/>
       <c r="AH5" s="132"/>
       <c r="AN5" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO5" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="AO5" s="127" t="s">
+      <c r="AP5" s="123" t="s">
         <v>299</v>
       </c>
-      <c r="AP5" s="123" t="s">
+      <c r="AQ5" s="127" t="s">
         <v>300</v>
       </c>
-      <c r="AQ5" s="127" t="s">
+      <c r="AR5" s="123" t="s">
         <v>301</v>
       </c>
-      <c r="AR5" s="123" t="s">
+      <c r="AS5" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="AS5" s="127" t="s">
+      <c r="AT5" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="AT5" s="123" t="s">
+      <c r="AU5" s="127" t="s">
         <v>304</v>
-      </c>
-      <c r="AU5" s="127" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="179" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="180"/>
       <c r="D6" s="181"/>
       <c r="E6" s="179" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" s="180"/>
       <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="179" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
@@ -19328,7 +19337,7 @@
       <c r="O7" s="180"/>
       <c r="P7" s="181"/>
       <c r="Q7" s="179" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R7" s="180"/>
       <c r="S7" s="180"/>
@@ -19341,7 +19350,7 @@
       <c r="Z7" s="180"/>
       <c r="AA7" s="181"/>
       <c r="AB7" s="179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC7" s="180"/>
       <c r="AD7" s="180"/>
@@ -19365,10 +19374,10 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM9" t="s">
         <v>311</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19376,7 +19385,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19386,7 +19395,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -19437,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="139" t="s">
         <v>315</v>
-      </c>
-      <c r="C2" s="139" t="s">
-        <v>316</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="140"/>
@@ -19458,13 +19467,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="138" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="139" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="D3" s="139" t="s">
         <v>318</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>319</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
@@ -19481,16 +19490,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="139" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="D4" s="139" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="E4" s="139" t="s">
         <v>322</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>323</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -19506,19 +19515,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="139" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="D5" s="139" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="E5" s="139" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="F5" s="139" t="s">
         <v>327</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>328</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -19533,22 +19542,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="D6" s="139" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="E6" s="139" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="F6" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="G6" s="139" t="s">
         <v>333</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>334</v>
       </c>
       <c r="H6" s="140"/>
       <c r="I6" s="140"/>
@@ -19562,25 +19571,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="139" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="D7" s="139" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="E7" s="139" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="F7" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="G7" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>340</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>341</v>
       </c>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
@@ -19593,28 +19602,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="139" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="D8" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="E8" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="F8" s="139" t="s">
         <v>345</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="G8" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="H8" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="I8" s="139" t="s">
         <v>348</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>349</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
@@ -19626,31 +19635,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="D9" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="E9" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="F9" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="139" t="s">
+      <c r="G9" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="J9" s="139" t="s">
         <v>357</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>358</v>
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="140"/>
@@ -19661,34 +19670,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="D10" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="E10" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="F10" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="G10" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="H10" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="H10" s="139" t="s">
+      <c r="I10" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="J10" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="J10" s="139" t="s">
+      <c r="K10" s="139" t="s">
         <v>367</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>368</v>
       </c>
       <c r="L10" s="140"/>
       <c r="M10" s="141"/>
@@ -19698,37 +19707,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="138" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="139" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="D11" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="E11" s="139" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="F11" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="G11" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="H11" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="I11" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="J11" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="J11" s="139" t="s">
+      <c r="K11" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="139" t="s">
+      <c r="L11" s="139" t="s">
         <v>378</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>379</v>
       </c>
       <c r="M11" s="141"/>
     </row>
@@ -19737,497 +19746,497 @@
         <v>11</v>
       </c>
       <c r="B12" s="143" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="144" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="D12" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="E12" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="F12" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="144" t="s">
         <v>384</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="H12" s="144" t="s">
         <v>385</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="I12" s="144" t="s">
         <v>386</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="J12" s="144" t="s">
         <v>387</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="K12" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="K12" s="144" t="s">
+      <c r="L12" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="L12" s="144" t="s">
+      <c r="M12" s="146" t="s">
         <v>390</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="147"/>
       <c r="C14" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="149" t="s">
         <v>342</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="E14" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="F14" s="149" t="s">
         <v>344</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="G14" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="H14" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="I14" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="K14" s="148" t="s">
         <v>349</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="L14" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="M14" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="N14" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="N14" s="149" t="s">
+      <c r="O14" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="O14" s="149" t="s">
+      <c r="P14" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="P14" s="149" t="s">
+      <c r="Q14" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="Q14" s="149" t="s">
+      <c r="R14" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="R14" s="149" t="s">
+      <c r="S14" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="S14" s="149" t="s">
-        <v>358</v>
-      </c>
       <c r="T14" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U14" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V14" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="149" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="149" t="s">
-        <v>316</v>
-      </c>
       <c r="D15" s="148" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="149" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="F15" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="G15" s="149" t="s">
         <v>337</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="H15" s="149" t="s">
         <v>338</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="I15" s="149" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="J15" s="149" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="149" t="s">
-        <v>341</v>
-      </c>
       <c r="K15" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="L15" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="L15" s="149" t="s">
+      <c r="M15" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="N15" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="N15" s="149" t="s">
+      <c r="O15" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="P15" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="P15" s="149" t="s">
+      <c r="Q15" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="Q15" s="149" t="s">
+      <c r="R15" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="R15" s="149" t="s">
+      <c r="S15" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="S15" s="149" t="s">
+      <c r="T15" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="T15" s="149" t="s">
-        <v>368</v>
-      </c>
       <c r="U15" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V15" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W15" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="149" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="D16" s="149" t="s">
         <v>318</v>
       </c>
-      <c r="D16" s="149" t="s">
-        <v>319</v>
-      </c>
       <c r="E16" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="G16" s="149" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="H16" s="149" t="s">
         <v>331</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="I16" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="I16" s="149" t="s">
+      <c r="J16" s="149" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="149" t="s">
-        <v>334</v>
-      </c>
       <c r="K16" s="148" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="L16" s="149" t="s">
+      <c r="M16" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="N16" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="N16" s="149" t="s">
+      <c r="O16" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="P16" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="P16" s="149" t="s">
+      <c r="Q16" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="Q16" s="149" t="s">
+      <c r="R16" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="R16" s="149" t="s">
+      <c r="S16" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="S16" s="149" t="s">
+      <c r="T16" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="T16" s="149" t="s">
+      <c r="U16" s="149" t="s">
         <v>378</v>
       </c>
-      <c r="U16" s="149" t="s">
-        <v>379</v>
-      </c>
       <c r="V16" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W16" s="103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="149" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="D17" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="E17" s="149" t="s">
         <v>322</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="F17" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="G17" s="149" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="149" t="s">
+      <c r="H17" s="149" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="149" t="s">
+      <c r="I17" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="I17" s="149" t="s">
+      <c r="J17" s="149" t="s">
         <v>327</v>
       </c>
-      <c r="J17" s="149" t="s">
-        <v>328</v>
-      </c>
       <c r="K17" s="148" t="s">
+        <v>379</v>
+      </c>
+      <c r="L17" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="L17" s="149" t="s">
+      <c r="M17" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="N17" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="N17" s="149" t="s">
+      <c r="O17" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="O17" s="150" t="s">
+      <c r="P17" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="P17" s="149" t="s">
+      <c r="Q17" s="149" t="s">
         <v>385</v>
       </c>
-      <c r="Q17" s="149" t="s">
+      <c r="R17" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="R17" s="149" t="s">
+      <c r="S17" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="S17" s="149" t="s">
+      <c r="T17" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="T17" s="149" t="s">
+      <c r="U17" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="U17" s="149" t="s">
+      <c r="V17" s="149" t="s">
         <v>390</v>
       </c>
-      <c r="V17" s="149" t="s">
+      <c r="W17" s="103" t="s">
         <v>391</v>
-      </c>
-      <c r="W17" s="103" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="D19" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="E19" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="F19" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="F19" s="149" t="s">
+      <c r="G19" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="G19" s="149" t="s">
+      <c r="H19" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="H19" s="149" t="s">
+      <c r="I19" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="I19" s="149" t="s">
+      <c r="J19" s="149" t="s">
         <v>357</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="D20" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="E20" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="F20" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="G20" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="G20" s="149" t="s">
+      <c r="H20" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="H20" s="149" t="s">
+      <c r="I20" s="149" t="s">
         <v>365</v>
       </c>
-      <c r="I20" s="149" t="s">
+      <c r="J20" s="149" t="s">
         <v>366</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="K20" s="149" t="s">
         <v>367</v>
-      </c>
-      <c r="K20" s="149" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="148" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="D21" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="E21" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="F21" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="G21" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="H21" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="I21" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="I21" s="149" t="s">
+      <c r="J21" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="J21" s="149" t="s">
+      <c r="K21" s="149" t="s">
         <v>377</v>
       </c>
-      <c r="K21" s="149" t="s">
+      <c r="L21" s="149" t="s">
         <v>378</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B22" s="148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="D22" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="E22" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="F22" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="G22" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="G22" s="149" t="s">
+      <c r="H22" s="149" t="s">
         <v>385</v>
       </c>
-      <c r="H22" s="149" t="s">
+      <c r="I22" s="149" t="s">
         <v>386</v>
       </c>
-      <c r="I22" s="149" t="s">
+      <c r="J22" s="149" t="s">
         <v>387</v>
       </c>
-      <c r="J22" s="149" t="s">
+      <c r="K22" s="149" t="s">
         <v>388</v>
       </c>
-      <c r="K22" s="149" t="s">
+      <c r="L22" s="149" t="s">
         <v>389</v>
       </c>
-      <c r="L22" s="149" t="s">
+      <c r="M22" s="149" t="s">
         <v>390</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -20236,13 +20245,13 @@
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" s="148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H25" s="103">
         <v>0</v>
@@ -20262,16 +20271,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C26" s="149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" s="149" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E26" s="149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="103">
         <v>0</v>
@@ -20291,16 +20300,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D27" s="149" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="149" t="s">
         <v>394</v>
-      </c>
-      <c r="E27" s="149" t="s">
-        <v>395</v>
       </c>
       <c r="H27" s="103">
         <v>1</v>
@@ -20320,16 +20329,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" s="148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E28" s="149" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H28" s="103">
         <v>2</v>
@@ -20349,16 +20358,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H29" s="103">
         <v>3</v>
@@ -20378,16 +20387,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H30" s="103">
         <v>4</v>
@@ -20407,16 +20416,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H31" s="103">
         <v>5</v>
@@ -20436,16 +20445,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="149" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E32" s="149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H32" s="103">
         <v>6</v>
@@ -20465,16 +20474,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H33" s="103">
         <v>7</v>
@@ -20494,16 +20503,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="148" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" s="148" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" s="148" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H34" s="103">
         <v>8</v>
@@ -20523,16 +20532,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H35" s="103">
         <v>9</v>
@@ -20552,16 +20561,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H36" s="103">
         <v>10</v>
@@ -20581,16 +20590,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H37" s="103">
         <v>11</v>
@@ -20610,16 +20619,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H38" s="103">
         <v>12</v>
@@ -20639,16 +20648,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="103">
         <v>13</v>
@@ -20668,16 +20677,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H40" s="103">
         <v>14</v>
@@ -20697,16 +20706,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D41" s="149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H41" s="103">
         <v>15</v>
@@ -20726,16 +20735,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H42" s="103">
         <v>16</v>
@@ -20755,16 +20764,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H43" s="103">
         <v>17</v>
@@ -20784,16 +20793,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="151" t="s">
+        <v>397</v>
+      </c>
+      <c r="C44" s="148" t="s">
         <v>398</v>
       </c>
-      <c r="C44" s="148" t="s">
-        <v>399</v>
-      </c>
       <c r="D44" s="149" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H44" s="103">
         <v>18</v>
@@ -20813,16 +20822,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="151" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="151" t="s">
         <v>400</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="D45" s="148" t="s">
         <v>401</v>
       </c>
-      <c r="D45" s="148" t="s">
-        <v>402</v>
-      </c>
       <c r="E45" s="149" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H45" s="103">
         <v>19</v>
@@ -20842,16 +20851,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46" s="151" t="s">
         <v>403</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="D46" s="151" t="s">
         <v>404</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="E46" s="148" t="s">
         <v>405</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>406</v>
       </c>
       <c r="H46" s="103">
         <v>20</v>
@@ -20871,16 +20880,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="151" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="151" t="s">
         <v>407</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="D47" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="E47" s="151" t="s">
         <v>409</v>
-      </c>
-      <c r="E47" s="151" t="s">
-        <v>410</v>
       </c>
       <c r="H47" s="103">
         <v>21</v>
@@ -20900,16 +20909,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="151" t="s">
+        <v>410</v>
+      </c>
+      <c r="C48" s="151" t="s">
         <v>411</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="D48" s="151" t="s">
         <v>412</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="E48" s="151" t="s">
         <v>413</v>
-      </c>
-      <c r="E48" s="151" t="s">
-        <v>414</v>
       </c>
       <c r="H48" s="103">
         <v>22</v>
@@ -20929,16 +20938,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="151" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="151" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="151" t="s">
+      <c r="D49" s="151" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="151" t="s">
+      <c r="E49" s="151" t="s">
         <v>417</v>
-      </c>
-      <c r="E49" s="151" t="s">
-        <v>418</v>
       </c>
       <c r="H49" s="103">
         <v>23</v>
@@ -20958,16 +20967,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="151" t="s">
         <v>419</v>
       </c>
-      <c r="C50" s="151" t="s">
+      <c r="D50" s="151" t="s">
         <v>420</v>
       </c>
-      <c r="D50" s="151" t="s">
+      <c r="E50" s="151" t="s">
         <v>421</v>
-      </c>
-      <c r="E50" s="151" t="s">
-        <v>422</v>
       </c>
       <c r="H50" s="103">
         <v>24</v>
@@ -20987,16 +20996,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="C51" s="151" t="s">
         <v>423</v>
       </c>
-      <c r="C51" s="151" t="s">
+      <c r="D51" s="151" t="s">
         <v>424</v>
       </c>
-      <c r="D51" s="151" t="s">
+      <c r="E51" s="151" t="s">
         <v>425</v>
-      </c>
-      <c r="E51" s="151" t="s">
-        <v>426</v>
       </c>
       <c r="H51" s="103">
         <v>25</v>
@@ -21016,16 +21025,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="151" t="s">
         <v>427</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="D52" s="151" t="s">
         <v>428</v>
       </c>
-      <c r="D52" s="151" t="s">
+      <c r="E52" s="151" t="s">
         <v>429</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>430</v>
       </c>
       <c r="H52" s="103">
         <v>26</v>
@@ -21045,16 +21054,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="151" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" s="151" t="s">
         <v>431</v>
       </c>
-      <c r="C53" s="151" t="s">
+      <c r="D53" s="151" t="s">
         <v>432</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="E53" s="151" t="s">
         <v>433</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>434</v>
       </c>
       <c r="H53" s="103">
         <v>27</v>
@@ -21074,16 +21083,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" s="151" t="s">
         <v>435</v>
       </c>
-      <c r="C54" s="151" t="s">
+      <c r="D54" s="151" t="s">
         <v>436</v>
       </c>
-      <c r="D54" s="151" t="s">
+      <c r="E54" s="151" t="s">
         <v>437</v>
-      </c>
-      <c r="E54" s="151" t="s">
-        <v>438</v>
       </c>
       <c r="H54" s="103">
         <v>28</v>
@@ -21103,16 +21112,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="151" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="151" t="s">
         <v>439</v>
       </c>
-      <c r="C55" s="151" t="s">
+      <c r="D55" s="151" t="s">
         <v>440</v>
       </c>
-      <c r="D55" s="151" t="s">
+      <c r="E55" s="151" t="s">
         <v>441</v>
-      </c>
-      <c r="E55" s="151" t="s">
-        <v>442</v>
       </c>
       <c r="H55" s="103">
         <v>29</v>
@@ -21132,16 +21141,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="151" t="s">
+        <v>442</v>
+      </c>
+      <c r="C56" s="151" t="s">
         <v>443</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="D56" s="151" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="151" t="s">
+      <c r="E56" s="151" t="s">
         <v>445</v>
-      </c>
-      <c r="E56" s="151" t="s">
-        <v>446</v>
       </c>
       <c r="H56" s="103">
         <v>30</v>
@@ -21161,16 +21170,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="C57" s="151" t="s">
         <v>447</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="D57" s="151" t="s">
         <v>448</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="E57" s="151" t="s">
         <v>449</v>
-      </c>
-      <c r="E57" s="151" t="s">
-        <v>450</v>
       </c>
       <c r="H57" s="103">
         <v>31</v>
@@ -21190,16 +21199,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="151" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="151" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="D58" s="151" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="E58" s="151" t="s">
         <v>453</v>
-      </c>
-      <c r="E58" s="151" t="s">
-        <v>454</v>
       </c>
       <c r="H58" s="103">
         <v>32</v>
@@ -21235,31 +21244,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="152" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="152" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="C1" s="152" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="D1" s="152" t="s">
         <v>457</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="E1" s="152" t="s">
         <v>458</v>
       </c>
-      <c r="E1" s="152" t="s">
-        <v>459</v>
-      </c>
       <c r="G1" s="152" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" s="152" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="I1" s="152" t="s">
         <v>457</v>
       </c>
-      <c r="I1" s="152" t="s">
+      <c r="J1" s="152" t="s">
         <v>458</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21267,13 +21276,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="155"/>
       <c r="G2" s="153">
@@ -21292,13 +21301,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" s="158"/>
       <c r="G3" s="156">
@@ -21317,13 +21326,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C4" s="157" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="157" t="s">
         <v>394</v>
-      </c>
-      <c r="D4" s="157" t="s">
-        <v>395</v>
       </c>
       <c r="E4" s="160"/>
       <c r="G4" s="159">
@@ -21342,13 +21351,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="161" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="162" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="162" t="s">
-        <v>462</v>
-      </c>
       <c r="D5" s="162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" s="163"/>
       <c r="G5" s="161">
@@ -21367,16 +21376,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" s="154" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="154" t="s">
         <v>470</v>
       </c>
-      <c r="D6" s="154" t="s">
-        <v>471</v>
-      </c>
       <c r="E6" s="164" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G6" s="153">
         <v>0</v>
@@ -21396,16 +21405,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G7" s="156">
         <v>1</v>
@@ -21425,16 +21434,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C8" s="157" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D8" s="157" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E8" s="165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G8" s="159">
         <v>2</v>
@@ -21454,16 +21463,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="167" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" s="168" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D9" s="168" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E9" s="169" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G9" s="167">
         <v>3</v>
@@ -21483,16 +21492,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G10" s="153">
         <v>4</v>
@@ -21512,16 +21521,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="159" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" s="156">
         <v>5</v>
@@ -21541,16 +21550,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="156" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="157" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="157" t="s">
-        <v>475</v>
-      </c>
       <c r="D12" s="157" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G12" s="159">
         <v>6</v>
@@ -21570,16 +21579,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="161" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="162" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="162" t="s">
+      <c r="D13" s="162" t="s">
         <v>477</v>
       </c>
-      <c r="D13" s="162" t="s">
-        <v>478</v>
-      </c>
       <c r="E13" s="166" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="167">
         <v>7</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D96AB-D1C3-44EF-BF40-F12CB5307B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C51C18-1213-4B07-8797-126C17F9DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="4178" windowWidth="16200" windowHeight="9405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -2901,6 +2901,18 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2923,18 +2935,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3884,10 +3884,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4667,12 +4667,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -14247,10 +14247,10 @@
       <c r="F76" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G76" s="182"/>
-      <c r="H76" s="183"/>
-      <c r="I76" s="182"/>
-      <c r="J76" s="184"/>
+      <c r="G76" s="174"/>
+      <c r="H76" s="175"/>
+      <c r="I76" s="174"/>
+      <c r="J76" s="176"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14276,10 +14276,10 @@
         <v>47</v>
       </c>
       <c r="F77" s="93"/>
-      <c r="G77" s="185"/>
-      <c r="H77" s="183"/>
-      <c r="I77" s="185"/>
-      <c r="J77" s="184"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="176"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14304,10 +14304,10 @@
       <c r="E78" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="G78" s="185"/>
-      <c r="H78" s="183"/>
-      <c r="I78" s="185"/>
-      <c r="J78" s="184"/>
+      <c r="G78" s="177"/>
+      <c r="H78" s="175"/>
+      <c r="I78" s="177"/>
+      <c r="J78" s="176"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14332,10 +14332,10 @@
       <c r="E79" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G79" s="185"/>
-      <c r="H79" s="183"/>
-      <c r="I79" s="185"/>
-      <c r="J79" s="184"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="175"/>
+      <c r="I79" s="177"/>
+      <c r="J79" s="176"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14850,11 +14850,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="177" t="s">
+      <c r="B98" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="178"/>
-      <c r="D98" s="178"/>
+      <c r="C98" s="182"/>
+      <c r="D98" s="182"/>
       <c r="E98" s="81" t="s">
         <v>212</v>
       </c>
@@ -19307,67 +19307,67 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="179" t="s">
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="F6" s="180"/>
-      <c r="G6" s="181"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="183" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="179" t="s">
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="183" t="s">
         <v>308</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="179" t="s">
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="183" t="s">
         <v>309</v>
       </c>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
-      <c r="AN7" s="180"/>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="181"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="185"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C51C18-1213-4B07-8797-126C17F9DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E5408F-8E84-4D29-9304-F9391BA7DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="4178" windowWidth="16200" windowHeight="9405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E5408F-8E84-4D29-9304-F9391BA7DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614649C-9B35-4875-AC9C-610A428809DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="491">
   <si>
     <t>步骤</t>
   </si>
@@ -88,9 +88,6 @@
     <t>1c)预测机器人-机器人协方差矩阵</t>
   </si>
   <si>
-    <t>n+2+2*max(k,Y)*组数</t>
-  </si>
-  <si>
     <t>F_xi</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>2n*3</t>
   </si>
   <si>
-    <t>3+2+2*3*n/2=5+3N</t>
-  </si>
-  <si>
     <t>每观测到一个地标执行一次，区分新地标和已探测地标</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
   </si>
   <si>
     <t>(3+2n * 1)</t>
-  </si>
-  <si>
-    <t>2n+8</t>
   </si>
   <si>
     <t>cov</t>
@@ -635,10 +626,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>合并，需要切换bank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>K</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -683,10 +670,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>在这个阶段，就要开始吧cov_l读到TEMP_BANK里了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色：TEMP_BANK</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1701,6 +1684,30 @@
   </si>
   <si>
     <t>S是对称矩阵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度：m n k 地标数目：N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3N+10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4N+10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>max(n+1, 2k)*N/2 + 7 + n</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2N+10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8*(1+N/2)*N/2/2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3715,53 +3722,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -3822,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -3920,7 +3927,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -3957,7 +3964,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3968,10 +3975,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3991,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -4008,7 +4015,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4016,13 +4023,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4059,7 +4066,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4067,13 +4074,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4110,20 +4117,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4165,25 +4172,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4214,21 +4221,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4259,25 +4266,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -4308,21 +4315,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -4353,25 +4360,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4402,25 +4409,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -4447,31 +4454,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -4498,31 +4505,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -4553,21 +4560,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -4600,15 +4607,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4668,7 +4675,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="180" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B22" s="179"/>
       <c r="C22" s="179"/>
@@ -4703,7 +4710,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4738,7 +4745,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4773,7 +4780,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4781,10 +4788,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -4824,14 +4831,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -4873,10 +4880,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4910,14 +4917,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -4947,25 +4954,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4996,19 +5003,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5035,31 +5042,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5090,21 +5097,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5131,7 +5138,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5166,31 +5173,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5200,7 +5207,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -5223,25 +5230,25 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5268,31 +5275,31 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -5323,21 +5330,21 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5368,25 +5375,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5413,26 +5420,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -5466,14 +5473,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -5536,7 +5543,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5575,21 +5582,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5620,21 +5627,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -5669,25 +5676,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5720,15 +5727,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -5769,15 +5776,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5810,25 +5817,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5859,21 +5866,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5904,25 +5911,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5953,25 +5960,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6031,7 +6038,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6070,25 +6077,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -6119,25 +6126,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -6168,25 +6175,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -6217,21 +6224,21 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -6262,25 +6269,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -6311,25 +6318,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6360,25 +6367,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -12264,8 +12271,8 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12273,7 +12280,7 @@
     <col min="1" max="1" width="29.73046875" customWidth="1"/>
     <col min="2" max="2" width="11" style="52" customWidth="1"/>
     <col min="3" max="5" width="13" style="52" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="58.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12333,7 +12340,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12356,7 +12363,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -12586,13 +12593,15 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>485</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -12616,7 +12625,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12635,14 +12644,14 @@
     <row r="16" spans="1:19" ht="36" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -12662,14 +12671,14 @@
     <row r="17" spans="1:19" ht="13.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
@@ -12689,14 +12698,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -12716,14 +12725,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="93"/>
       <c r="B19" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="40"/>
@@ -12743,16 +12752,16 @@
     <row r="20" spans="1:19" ht="38.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12772,16 +12781,16 @@
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
@@ -12801,16 +12810,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -12830,16 +12839,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="93"/>
       <c r="B23" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="40"/>
@@ -12858,17 +12867,17 @@
     </row>
     <row r="24" spans="1:19" ht="39.75" customHeight="1">
       <c r="A24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>27</v>
-      </c>
       <c r="C24" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -12888,14 +12897,14 @@
     <row r="25" spans="1:19">
       <c r="A25" s="3"/>
       <c r="B25" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="4"/>
@@ -12915,17 +12924,17 @@
     <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>29</v>
+        <v>486</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -12944,14 +12953,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -12970,7 +12979,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -12993,7 +13002,7 @@
     </row>
     <row r="29" spans="1:19" s="73" customFormat="1">
       <c r="A29" s="49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
@@ -13016,7 +13025,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -13039,7 +13048,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -13062,7 +13071,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -13085,7 +13094,7 @@
     </row>
     <row r="33" spans="1:19" ht="33" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -13109,14 +13118,14 @@
     <row r="34" spans="1:19" ht="33" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -13136,14 +13145,14 @@
     <row r="35" spans="1:19">
       <c r="A35" s="4"/>
       <c r="B35" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="4"/>
@@ -13163,14 +13172,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -13190,14 +13199,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="40"/>
@@ -13217,14 +13226,14 @@
     <row r="38" spans="1:19">
       <c r="A38" s="4"/>
       <c r="B38" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -13244,14 +13253,14 @@
     <row r="39" spans="1:19">
       <c r="A39" s="4"/>
       <c r="B39" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -13271,17 +13280,17 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -13300,16 +13309,18 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="93"/>
+        <v>227</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>487</v>
+      </c>
       <c r="G41" s="93"/>
       <c r="H41" s="93"/>
       <c r="I41" s="40"/>
@@ -13327,14 +13338,14 @@
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
       <c r="B42" s="98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="62" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13354,14 +13365,14 @@
     <row r="43" spans="1:19">
       <c r="A43" s="4"/>
       <c r="B43" s="46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -13381,14 +13392,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -13408,14 +13419,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
@@ -13435,14 +13446,14 @@
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -13462,14 +13473,14 @@
     <row r="47" spans="1:19">
       <c r="A47" s="4"/>
       <c r="B47" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="4"/>
@@ -13489,14 +13500,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -13516,14 +13527,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F49" s="92"/>
       <c r="G49" s="40"/>
@@ -13543,16 +13554,16 @@
     <row r="50" spans="1:19">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" s="97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -13572,16 +13583,16 @@
     <row r="51" spans="1:19">
       <c r="A51" s="4"/>
       <c r="B51" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="4"/>
@@ -13601,20 +13612,18 @@
     <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="7">
-        <v>8</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -13632,16 +13641,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F53" s="92"/>
       <c r="G53" s="40"/>
@@ -13665,7 +13674,7 @@
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -13683,7 +13692,7 @@
     </row>
     <row r="55" spans="1:19" s="73" customFormat="1">
       <c r="A55" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
@@ -13706,7 +13715,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -13729,7 +13738,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -13752,7 +13761,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -13775,7 +13784,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="37"/>
@@ -13798,7 +13807,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="37"/>
@@ -13821,7 +13830,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="37"/>
@@ -13844,7 +13853,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -13867,17 +13876,17 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="101" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -13897,14 +13906,14 @@
     <row r="64" spans="1:19">
       <c r="A64" s="39"/>
       <c r="B64" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="40"/>
@@ -13924,14 +13933,14 @@
     <row r="65" spans="1:19">
       <c r="A65" s="39"/>
       <c r="B65" s="47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="40"/>
@@ -13950,17 +13959,17 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B66" s="173" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="62" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
@@ -13980,14 +13989,14 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
@@ -14007,18 +14016,16 @@
     <row r="68" spans="1:19">
       <c r="A68" s="39"/>
       <c r="B68" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F68" s="38" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F68" s="38"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
@@ -14035,17 +14042,17 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B69" s="69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="61" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -14065,14 +14072,14 @@
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
@@ -14092,14 +14099,14 @@
     <row r="71" spans="1:19">
       <c r="A71" s="3"/>
       <c r="B71" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
@@ -14118,21 +14125,19 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B72" s="94" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>186</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
       <c r="I72" s="40"/>
@@ -14150,14 +14155,14 @@
     <row r="73" spans="1:19">
       <c r="A73" s="3"/>
       <c r="B73" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="40"/>
@@ -14177,14 +14182,14 @@
     <row r="74" spans="1:19">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="40"/>
@@ -14204,16 +14209,18 @@
     <row r="75" spans="1:19">
       <c r="A75" s="93"/>
       <c r="B75" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" s="93"/>
+        <v>225</v>
+      </c>
+      <c r="F75" s="93" t="s">
+        <v>486</v>
+      </c>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
@@ -14230,22 +14237,22 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="152" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C76" s="76" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D76" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G76" s="174"/>
       <c r="H76" s="175"/>
@@ -14264,16 +14271,16 @@
     <row r="77" spans="1:19">
       <c r="A77" s="3"/>
       <c r="B77" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" s="93"/>
       <c r="G77" s="177"/>
@@ -14293,16 +14300,16 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G78" s="177"/>
       <c r="H78" s="175"/>
@@ -14321,16 +14328,16 @@
     <row r="79" spans="1:19">
       <c r="A79" s="93"/>
       <c r="B79" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G79" s="177"/>
       <c r="H79" s="175"/>
@@ -14348,15 +14355,15 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="4"/>
@@ -14376,12 +14383,12 @@
     <row r="81" spans="1:19">
       <c r="A81" s="3"/>
       <c r="B81" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="4"/>
@@ -14401,12 +14408,12 @@
     <row r="82" spans="1:19">
       <c r="A82" s="39"/>
       <c r="B82" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="40"/>
@@ -14425,17 +14432,17 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C83" s="90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -14455,14 +14462,14 @@
     <row r="84" spans="1:19">
       <c r="A84" s="3"/>
       <c r="B84" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="4"/>
@@ -14482,17 +14489,17 @@
     <row r="85" spans="1:19">
       <c r="A85" s="3"/>
       <c r="B85" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -14511,16 +14518,18 @@
     <row r="86" spans="1:19">
       <c r="A86" s="93"/>
       <c r="B86" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F86" s="93"/>
+        <v>225</v>
+      </c>
+      <c r="F86" s="93" t="s">
+        <v>489</v>
+      </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
@@ -14538,16 +14547,16 @@
     <row r="87" spans="1:19">
       <c r="A87" s="3"/>
       <c r="B87" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -14567,16 +14576,16 @@
     <row r="88" spans="1:19">
       <c r="A88" s="3"/>
       <c r="B88" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
@@ -14596,20 +14605,18 @@
     <row r="89" spans="1:19">
       <c r="A89" s="3"/>
       <c r="B89" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E89" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -14627,16 +14634,16 @@
     <row r="90" spans="1:19">
       <c r="A90" s="3"/>
       <c r="B90" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="4"/>
@@ -14656,16 +14663,16 @@
     <row r="91" spans="1:19">
       <c r="A91" s="3"/>
       <c r="B91" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
@@ -14685,19 +14692,19 @@
     <row r="92" spans="1:19">
       <c r="A92" s="4"/>
       <c r="B92" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -14715,19 +14722,19 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="91" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B93" s="94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D93" s="96" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E93" s="97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
@@ -14747,16 +14754,16 @@
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
@@ -14776,16 +14783,16 @@
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
@@ -14805,14 +14812,16 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
-      <c r="F96" s="92"/>
+      <c r="F96" s="92" t="s">
+        <v>490</v>
+      </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
@@ -14851,12 +14860,12 @@
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
       <c r="B98" s="181" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C98" s="182"/>
       <c r="D98" s="182"/>
       <c r="E98" s="81" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -14873,16 +14882,16 @@
     <row r="99" spans="1:19" ht="14.25" thickBot="1">
       <c r="A99" s="38"/>
       <c r="B99" s="85" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C99" s="86" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D99" s="86" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E99" s="86" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -14898,19 +14907,19 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="88" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B100" s="78" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E100" s="82" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -14928,15 +14937,15 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B101" s="79"/>
       <c r="C101" s="83" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D101" s="83"/>
       <c r="E101" s="83" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -14954,22 +14963,22 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="88" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B102" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C102" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -14986,18 +14995,18 @@
     </row>
     <row r="103" spans="1:19" ht="14.25" thickBot="1">
       <c r="A103" s="88" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B103" s="80"/>
       <c r="C103" s="87"/>
       <c r="D103" s="29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E103" s="84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G103" s="77" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -15056,10 +15065,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -15081,10 +15090,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -15106,10 +15115,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -15131,10 +15140,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15156,10 +15165,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15181,10 +15190,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -18529,293 +18538,293 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1">
       <c r="B1" s="103" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C1" s="103" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="133" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D2" s="135"/>
       <c r="E2" s="136" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D3" s="140"/>
       <c r="E3" s="141" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
       <c r="B4" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C4" s="170" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D4" s="170"/>
       <c r="E4" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="133" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C5" s="135" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D5" s="135"/>
       <c r="E5" s="136" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D6" s="140"/>
       <c r="E6" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1">
       <c r="B7" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D7" s="170"/>
       <c r="E7" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="133" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C8" s="135" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D8" s="135"/>
       <c r="E8" s="136" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="137" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D9" s="140"/>
       <c r="E9" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" thickBot="1">
       <c r="B10" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" s="170" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10" s="170"/>
       <c r="E10" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="133" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D11" s="135"/>
       <c r="E11" s="136" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="137" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.25" thickBot="1">
       <c r="B13" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C13" s="170" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D13" s="124"/>
       <c r="E13" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="133" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C14" s="135" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="137" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>248</v>
-      </c>
       <c r="E15" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
       <c r="B16" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E16" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="136" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="135" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="136" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="137" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C18" s="140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D18" s="140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E18" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" thickBot="1">
       <c r="B19" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C19" s="170" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E19" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="133" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D20" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="104" t="s">
         <v>253</v>
-      </c>
-      <c r="E20" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>258</v>
       </c>
       <c r="G20" s="104"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E21" s="141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F21" s="103" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
       <c r="B22" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C22" s="170" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E22" s="171" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -18977,14 +18986,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B2" s="105">
         <v>1</v>
       </c>
       <c r="C2" s="106"/>
       <c r="D2" s="107" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E2" s="105">
         <v>1</v>
@@ -18992,47 +19001,47 @@
       <c r="F2" s="106"/>
       <c r="G2" s="106"/>
       <c r="H2" s="108" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I2" s="109"/>
       <c r="J2" s="110"/>
       <c r="K2" s="109" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L2" s="109"/>
       <c r="M2" s="109"/>
       <c r="N2" s="108" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
       <c r="Q2" s="108" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="R2" s="109"/>
       <c r="S2" s="111">
         <v>5</v>
       </c>
       <c r="T2" s="112" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="U2" s="111">
         <v>4</v>
       </c>
       <c r="V2" s="108" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="W2" s="110"/>
       <c r="X2" s="108" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Y2" s="110"/>
       <c r="Z2" s="113" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AA2" s="110"/>
       <c r="AB2" s="114" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AC2" s="115">
         <v>-3</v>
@@ -19041,57 +19050,57 @@
         <v>0</v>
       </c>
       <c r="AE2" s="114" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AF2" s="115">
         <v>3</v>
       </c>
       <c r="AG2" s="108" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AH2" s="110"/>
       <c r="AI2" s="108" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AJ2" s="109"/>
       <c r="AK2" s="109"/>
       <c r="AL2" s="109"/>
       <c r="AM2" s="109"/>
       <c r="AN2" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO2" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP2" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ2" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR2" s="108" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS2" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AT2" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="AP2" s="108" t="s">
+      <c r="AU2" s="110" t="s">
         <v>271</v>
-      </c>
-      <c r="AQ2" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR2" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS2" s="110" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT2" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU2" s="110" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B3" s="117"/>
       <c r="C3" s="118">
         <v>1</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="118">
@@ -19155,33 +19164,33 @@
       <c r="AL3" s="124"/>
       <c r="AM3" s="124"/>
       <c r="AN3" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO3" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP3" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ3" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR3" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS3" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="AO3" s="122" t="s">
+      <c r="AT3" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="AP3" s="120" t="s">
+      <c r="AU3" s="122" t="s">
         <v>281</v>
-      </c>
-      <c r="AQ3" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR3" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="AS3" s="122" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT3" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU3" s="122" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B4" s="130"/>
       <c r="C4" s="131"/>
@@ -19189,10 +19198,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G4" s="131">
         <v>1</v>
@@ -19229,33 +19238,33 @@
       <c r="AG4" s="132"/>
       <c r="AH4" s="132"/>
       <c r="AN4" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO4" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP4" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ4" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR4" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS4" s="122" t="s">
         <v>288</v>
       </c>
-      <c r="AO4" s="122" t="s">
+      <c r="AT4" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="AP4" s="120" t="s">
+      <c r="AU4" s="122" t="s">
         <v>290</v>
-      </c>
-      <c r="AQ4" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR4" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS4" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="AT4" s="120" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU4" s="122" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E5" s="130"/>
       <c r="F5" s="131"/>
@@ -19282,45 +19291,45 @@
       <c r="AG5" s="132"/>
       <c r="AH5" s="132"/>
       <c r="AN5" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO5" s="127" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP5" s="123" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ5" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR5" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS5" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="AO5" s="127" t="s">
+      <c r="AT5" s="123" t="s">
         <v>298</v>
       </c>
-      <c r="AP5" s="123" t="s">
+      <c r="AU5" s="127" t="s">
         <v>299</v>
-      </c>
-      <c r="AQ5" s="127" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR5" s="123" t="s">
-        <v>301</v>
-      </c>
-      <c r="AS5" s="127" t="s">
-        <v>302</v>
-      </c>
-      <c r="AT5" s="123" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU5" s="127" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="183" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C6" s="184"/>
       <c r="D6" s="185"/>
       <c r="E6" s="183" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F6" s="184"/>
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="183" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C7" s="184"/>
       <c r="D7" s="184"/>
@@ -19337,7 +19346,7 @@
       <c r="O7" s="184"/>
       <c r="P7" s="185"/>
       <c r="Q7" s="183" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="R7" s="184"/>
       <c r="S7" s="184"/>
@@ -19350,7 +19359,7 @@
       <c r="Z7" s="184"/>
       <c r="AA7" s="185"/>
       <c r="AB7" s="183" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AC7" s="184"/>
       <c r="AD7" s="184"/>
@@ -19374,10 +19383,10 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19385,7 +19394,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19395,7 +19404,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -19446,10 +19455,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C2" s="139" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D2" s="140"/>
       <c r="E2" s="140"/>
@@ -19467,13 +19476,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C3" s="139" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E3" s="140"/>
       <c r="F3" s="140"/>
@@ -19490,16 +19499,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="138" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C4" s="139" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -19515,19 +19524,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="140"/>
@@ -19542,22 +19551,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="139" t="s">
         <v>328</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>332</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>333</v>
       </c>
       <c r="H6" s="140"/>
       <c r="I6" s="140"/>
@@ -19571,25 +19580,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>335</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>339</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>340</v>
       </c>
       <c r="I7" s="140"/>
       <c r="J7" s="140"/>
@@ -19602,28 +19611,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="139" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="H8" s="139" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="I8" s="139" t="s">
         <v>343</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="139" t="s">
-        <v>346</v>
-      </c>
-      <c r="H8" s="139" t="s">
-        <v>347</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>348</v>
       </c>
       <c r="J8" s="140"/>
       <c r="K8" s="140"/>
@@ -19635,31 +19644,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="138" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="J9" s="139" t="s">
         <v>352</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>353</v>
-      </c>
-      <c r="G9" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="H9" s="139" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="139" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>357</v>
       </c>
       <c r="K9" s="140"/>
       <c r="L9" s="140"/>
@@ -19670,34 +19679,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="138" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="139" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="H10" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="I10" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="J10" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="K10" s="139" t="s">
         <v>362</v>
-      </c>
-      <c r="G10" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>364</v>
-      </c>
-      <c r="I10" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>366</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>367</v>
       </c>
       <c r="L10" s="140"/>
       <c r="M10" s="141"/>
@@ -19707,37 +19716,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="H11" s="139" t="s">
         <v>369</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="I11" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="J11" s="139" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="K11" s="139" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="L11" s="139" t="s">
         <v>373</v>
-      </c>
-      <c r="H11" s="139" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" s="139" t="s">
-        <v>375</v>
-      </c>
-      <c r="J11" s="139" t="s">
-        <v>376</v>
-      </c>
-      <c r="K11" s="139" t="s">
-        <v>377</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>378</v>
       </c>
       <c r="M11" s="141"/>
     </row>
@@ -19746,497 +19755,497 @@
         <v>11</v>
       </c>
       <c r="B12" s="143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="145" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="144" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="H12" s="144" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="I12" s="144" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="J12" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="K12" s="144" t="s">
         <v>383</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="L12" s="144" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="M12" s="146" t="s">
         <v>385</v>
-      </c>
-      <c r="I12" s="144" t="s">
-        <v>386</v>
-      </c>
-      <c r="J12" s="144" t="s">
-        <v>387</v>
-      </c>
-      <c r="K12" s="144" t="s">
-        <v>388</v>
-      </c>
-      <c r="L12" s="144" t="s">
-        <v>389</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="103" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B14" s="147"/>
       <c r="C14" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="149" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="149" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="149" t="s">
+      <c r="I14" s="149" t="s">
         <v>342</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="J14" s="149" t="s">
         <v>343</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="K14" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="L14" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="M14" s="149" t="s">
         <v>346</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="N14" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="O14" s="149" t="s">
         <v>348</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="P14" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="L14" s="149" t="s">
+      <c r="Q14" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="R14" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="N14" s="149" t="s">
+      <c r="S14" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="O14" s="149" t="s">
-        <v>353</v>
-      </c>
-      <c r="P14" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q14" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="R14" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="S14" s="149" t="s">
-        <v>357</v>
-      </c>
       <c r="T14" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="U14" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="V14" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="103" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B15" s="148" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C15" s="149" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D15" s="148" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="149" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="149" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="J15" s="149" t="s">
         <v>335</v>
       </c>
-      <c r="F15" s="149" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="H15" s="149" t="s">
-        <v>338</v>
-      </c>
-      <c r="I15" s="149" t="s">
-        <v>339</v>
-      </c>
-      <c r="J15" s="149" t="s">
-        <v>340</v>
-      </c>
       <c r="K15" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="L15" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="N15" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="O15" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="P15" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="L15" s="149" t="s">
+      <c r="Q15" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="R15" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="N15" s="149" t="s">
+      <c r="S15" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="T15" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="P15" s="149" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q15" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="R15" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="S15" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="T15" s="149" t="s">
-        <v>367</v>
-      </c>
       <c r="U15" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="V15" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="W15" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="103" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" s="148" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C16" s="149" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D16" s="149" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E16" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="149" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="149" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="149" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" s="149" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="149" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="H16" s="149" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="149" t="s">
-        <v>332</v>
-      </c>
-      <c r="J16" s="149" t="s">
-        <v>333</v>
-      </c>
       <c r="K16" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="L16" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="M16" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="N16" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="O16" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="P16" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="L16" s="149" t="s">
+      <c r="Q16" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="M16" s="149" t="s">
+      <c r="R16" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="N16" s="149" t="s">
+      <c r="S16" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="T16" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="P16" s="149" t="s">
+      <c r="U16" s="149" t="s">
         <v>373</v>
       </c>
-      <c r="Q16" s="149" t="s">
-        <v>374</v>
-      </c>
-      <c r="R16" s="149" t="s">
-        <v>375</v>
-      </c>
-      <c r="S16" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="T16" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="U16" s="149" t="s">
-        <v>378</v>
-      </c>
       <c r="V16" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="W16" s="103" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="103" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B17" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="149" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" s="149" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="H17" s="149" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="I17" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="J17" s="149" t="s">
         <v>322</v>
       </c>
-      <c r="F17" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="H17" s="149" t="s">
-        <v>325</v>
-      </c>
-      <c r="I17" s="149" t="s">
-        <v>326</v>
-      </c>
-      <c r="J17" s="149" t="s">
-        <v>327</v>
-      </c>
       <c r="K17" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="N17" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="O17" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="P17" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="L17" s="149" t="s">
+      <c r="Q17" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="R17" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="N17" s="149" t="s">
+      <c r="S17" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="O17" s="150" t="s">
+      <c r="T17" s="149" t="s">
         <v>383</v>
       </c>
-      <c r="P17" s="149" t="s">
+      <c r="U17" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="Q17" s="149" t="s">
+      <c r="V17" s="149" t="s">
         <v>385</v>
       </c>
-      <c r="R17" s="149" t="s">
+      <c r="W17" s="103" t="s">
         <v>386</v>
-      </c>
-      <c r="S17" s="149" t="s">
-        <v>387</v>
-      </c>
-      <c r="T17" s="149" t="s">
-        <v>388</v>
-      </c>
-      <c r="U17" s="149" t="s">
-        <v>389</v>
-      </c>
-      <c r="V17" s="149" t="s">
-        <v>390</v>
-      </c>
-      <c r="W17" s="103" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="103" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B19" s="148" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="149" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="H19" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="I19" s="149" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="149" t="s">
+      <c r="J19" s="149" t="s">
         <v>352</v>
-      </c>
-      <c r="F19" s="149" t="s">
-        <v>353</v>
-      </c>
-      <c r="G19" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="H19" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="I19" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="103" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B20" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="149" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="149" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="149" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="149" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="H20" s="149" t="s">
         <v>359</v>
       </c>
-      <c r="D20" s="149" t="s">
+      <c r="I20" s="149" t="s">
         <v>360</v>
       </c>
-      <c r="E20" s="149" t="s">
+      <c r="J20" s="149" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="K20" s="149" t="s">
         <v>362</v>
-      </c>
-      <c r="G20" s="149" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="I20" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="J20" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="K20" s="149" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="103" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B21" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="H21" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="I21" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="J21" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="K21" s="149" t="s">
         <v>372</v>
       </c>
-      <c r="G21" s="149" t="s">
+      <c r="L21" s="149" t="s">
         <v>373</v>
-      </c>
-      <c r="H21" s="149" t="s">
-        <v>374</v>
-      </c>
-      <c r="I21" s="149" t="s">
-        <v>375</v>
-      </c>
-      <c r="J21" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="K21" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="103" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B22" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="149" t="s">
         <v>379</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="H22" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="I22" s="149" t="s">
         <v>381</v>
       </c>
-      <c r="E22" s="149" t="s">
+      <c r="J22" s="149" t="s">
         <v>382</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="K22" s="149" t="s">
         <v>383</v>
       </c>
-      <c r="G22" s="149" t="s">
+      <c r="L22" s="149" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="149" t="s">
+      <c r="M22" s="149" t="s">
         <v>385</v>
-      </c>
-      <c r="I22" s="149" t="s">
-        <v>386</v>
-      </c>
-      <c r="J22" s="149" t="s">
-        <v>387</v>
-      </c>
-      <c r="K22" s="149" t="s">
-        <v>388</v>
-      </c>
-      <c r="L22" s="149" t="s">
-        <v>389</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="103" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -20245,13 +20254,13 @@
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="148" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="148" t="s">
         <v>314</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" s="148" t="s">
-        <v>319</v>
       </c>
       <c r="H25" s="103">
         <v>0</v>
@@ -20271,16 +20280,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C26" s="149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="149" t="s">
         <v>315</v>
-      </c>
-      <c r="D26" s="149" t="s">
-        <v>317</v>
-      </c>
-      <c r="E26" s="149" t="s">
-        <v>320</v>
       </c>
       <c r="H26" s="103">
         <v>0</v>
@@ -20300,16 +20309,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="149" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D27" s="149" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E27" s="149" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H27" s="103">
         <v>1</v>
@@ -20329,16 +20338,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="149" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C28" s="149" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D28" s="148" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E28" s="149" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H28" s="103">
         <v>2</v>
@@ -20358,16 +20367,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H29" s="103">
         <v>3</v>
@@ -20387,16 +20396,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C30" s="149" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E30" s="149" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H30" s="103">
         <v>4</v>
@@ -20416,16 +20425,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H31" s="103">
         <v>5</v>
@@ -20445,16 +20454,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="149" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C32" s="149" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D32" s="149" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E32" s="149" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H32" s="103">
         <v>6</v>
@@ -20474,16 +20483,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="149" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D33" s="149" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E33" s="149" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H33" s="103">
         <v>7</v>
@@ -20503,16 +20512,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="148" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C34" s="148" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D34" s="148" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E34" s="148" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H34" s="103">
         <v>8</v>
@@ -20532,16 +20541,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="149" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C35" s="149" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D35" s="149" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E35" s="149" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H35" s="103">
         <v>9</v>
@@ -20561,16 +20570,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C36" s="149" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D36" s="149" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E36" s="149" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H36" s="103">
         <v>10</v>
@@ -20590,16 +20599,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C37" s="149" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E37" s="149" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H37" s="103">
         <v>11</v>
@@ -20619,16 +20628,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C38" s="149" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H38" s="103">
         <v>12</v>
@@ -20648,16 +20657,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C39" s="149" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E39" s="149" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H39" s="103">
         <v>13</v>
@@ -20677,16 +20686,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C40" s="149" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E40" s="149" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H40" s="103">
         <v>14</v>
@@ -20706,16 +20715,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="149" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C41" s="149" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D41" s="149" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E41" s="149" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H41" s="103">
         <v>15</v>
@@ -20735,16 +20744,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C42" s="149" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D42" s="149" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E42" s="149" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H42" s="103">
         <v>16</v>
@@ -20764,16 +20773,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="148" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C43" s="149" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D43" s="149" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E43" s="149" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H43" s="103">
         <v>17</v>
@@ -20793,16 +20802,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="151" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C44" s="148" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D44" s="149" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E44" s="149" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H44" s="103">
         <v>18</v>
@@ -20822,16 +20831,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="151" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C45" s="151" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D45" s="148" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E45" s="149" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H45" s="103">
         <v>19</v>
@@ -20851,16 +20860,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="151" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C46" s="151" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E46" s="148" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H46" s="103">
         <v>20</v>
@@ -20880,16 +20889,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="151" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C47" s="151" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D47" s="151" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E47" s="151" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H47" s="103">
         <v>21</v>
@@ -20909,16 +20918,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="151" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C48" s="151" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D48" s="151" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E48" s="151" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H48" s="103">
         <v>22</v>
@@ -20938,16 +20947,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="151" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C49" s="151" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D49" s="151" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E49" s="151" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H49" s="103">
         <v>23</v>
@@ -20967,16 +20976,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="151" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C50" s="151" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D50" s="151" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E50" s="151" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H50" s="103">
         <v>24</v>
@@ -20996,16 +21005,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="151" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C51" s="151" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D51" s="151" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E51" s="151" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H51" s="103">
         <v>25</v>
@@ -21025,16 +21034,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="151" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C52" s="151" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D52" s="151" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E52" s="151" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H52" s="103">
         <v>26</v>
@@ -21054,16 +21063,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="151" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C53" s="151" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D53" s="151" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E53" s="151" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H53" s="103">
         <v>27</v>
@@ -21083,16 +21092,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="151" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C54" s="151" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D54" s="151" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E54" s="151" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H54" s="103">
         <v>28</v>
@@ -21112,16 +21121,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="151" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C55" s="151" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D55" s="151" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E55" s="151" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H55" s="103">
         <v>29</v>
@@ -21141,16 +21150,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="151" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C56" s="151" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D56" s="151" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E56" s="151" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H56" s="103">
         <v>30</v>
@@ -21170,16 +21179,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="151" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C57" s="151" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D57" s="151" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E57" s="151" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H57" s="103">
         <v>31</v>
@@ -21199,16 +21208,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="151" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C58" s="151" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D58" s="151" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E58" s="151" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H58" s="103">
         <v>32</v>
@@ -21234,7 +21243,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G6" sqref="G6:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21244,31 +21253,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="152" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C1" s="152" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D1" s="152" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E1" s="152" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G1" s="152" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H1" s="152" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I1" s="152" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J1" s="152" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -21276,13 +21285,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="153" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="154" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" s="154" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>319</v>
       </c>
       <c r="E2" s="155"/>
       <c r="G2" s="153">
@@ -21301,13 +21310,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="157" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="157" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" s="157" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="157" t="s">
-        <v>320</v>
       </c>
       <c r="E3" s="158"/>
       <c r="G3" s="156">
@@ -21326,13 +21335,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D4" s="157" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E4" s="160"/>
       <c r="G4" s="159">
@@ -21351,13 +21360,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C5" s="162" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E5" s="163"/>
       <c r="G5" s="161">
@@ -21376,16 +21385,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D6" s="154" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E6" s="164" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G6" s="153">
         <v>0</v>
@@ -21405,16 +21414,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="156" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="157" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="157" t="s">
-        <v>329</v>
-      </c>
       <c r="D7" s="157" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G7" s="156">
         <v>1</v>
@@ -21434,16 +21443,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="159" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C8" s="157" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D8" s="157" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E8" s="165" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G8" s="159">
         <v>2</v>
@@ -21463,16 +21472,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="167" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C9" s="168" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D9" s="168" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E9" s="169" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G9" s="167">
         <v>3</v>
@@ -21492,16 +21501,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="156" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="157" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="157" t="s">
-        <v>332</v>
-      </c>
       <c r="D10" s="157" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G10" s="153">
         <v>4</v>
@@ -21521,16 +21530,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="159" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G11" s="156">
         <v>5</v>
@@ -21550,16 +21559,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C12" s="157" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E12" s="165" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G12" s="159">
         <v>6</v>
@@ -21579,16 +21588,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="161" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C13" s="162" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E13" s="166" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G13" s="167">
         <v>7</v>
@@ -21607,93 +21616,237 @@
       <c r="A14" s="152">
         <v>12</v>
       </c>
+      <c r="G14" s="153">
+        <v>8</v>
+      </c>
+      <c r="H14" s="153">
+        <v>8</v>
+      </c>
+      <c r="I14" s="153">
+        <v>8</v>
+      </c>
+      <c r="J14" s="153">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="152">
         <v>13</v>
       </c>
+      <c r="G15" s="156">
+        <v>9</v>
+      </c>
+      <c r="H15" s="156">
+        <v>9</v>
+      </c>
+      <c r="I15" s="156">
+        <v>9</v>
+      </c>
+      <c r="J15" s="156">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="152">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="G16" s="159">
+        <v>10</v>
+      </c>
+      <c r="H16" s="159">
+        <v>10</v>
+      </c>
+      <c r="I16" s="159">
+        <v>10</v>
+      </c>
+      <c r="J16" s="159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" thickBot="1">
       <c r="A17" s="152">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="G17" s="167">
+        <v>11</v>
+      </c>
+      <c r="H17" s="167">
+        <v>11</v>
+      </c>
+      <c r="I17" s="167">
+        <v>11</v>
+      </c>
+      <c r="J17" s="167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="152">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="G18" s="153">
+        <v>12</v>
+      </c>
+      <c r="H18" s="153">
+        <v>12</v>
+      </c>
+      <c r="I18" s="153">
+        <v>12</v>
+      </c>
+      <c r="J18" s="153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="152">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="G19" s="156">
+        <v>13</v>
+      </c>
+      <c r="H19" s="156">
+        <v>13</v>
+      </c>
+      <c r="I19" s="156">
+        <v>13</v>
+      </c>
+      <c r="J19" s="156">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="152">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="G20" s="159">
+        <v>14</v>
+      </c>
+      <c r="H20" s="159">
+        <v>14</v>
+      </c>
+      <c r="I20" s="159">
+        <v>14</v>
+      </c>
+      <c r="J20" s="159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickBot="1">
       <c r="A21" s="152">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="G21" s="167">
+        <v>15</v>
+      </c>
+      <c r="H21" s="167">
+        <v>15</v>
+      </c>
+      <c r="I21" s="167">
+        <v>15</v>
+      </c>
+      <c r="J21" s="167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="152">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="G22" s="153">
+        <v>16</v>
+      </c>
+      <c r="H22" s="153">
+        <v>16</v>
+      </c>
+      <c r="I22" s="153">
+        <v>16</v>
+      </c>
+      <c r="J22" s="153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="152">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="G23" s="156">
+        <v>17</v>
+      </c>
+      <c r="H23" s="156">
+        <v>17</v>
+      </c>
+      <c r="I23" s="156">
+        <v>17</v>
+      </c>
+      <c r="J23" s="156">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="152">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="G24" s="159">
+        <v>18</v>
+      </c>
+      <c r="H24" s="159">
+        <v>18</v>
+      </c>
+      <c r="I24" s="159">
+        <v>18</v>
+      </c>
+      <c r="J24" s="159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="152">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="G25" s="167">
+        <v>19</v>
+      </c>
+      <c r="H25" s="167">
+        <v>19</v>
+      </c>
+      <c r="I25" s="167">
+        <v>19</v>
+      </c>
+      <c r="J25" s="167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="152">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27" s="152">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10">
       <c r="A28" s="152">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:10">
       <c r="A29" s="152">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:10">
       <c r="A30" s="152">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:10">
       <c r="A31" s="152">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:10">
       <c r="A32" s="152">
         <v>30</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614649C-9B35-4875-AC9C-610A428809DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02A6E8-2036-4BB0-B2D2-C3B67272DC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02A6E8-2036-4BB0-B2D2-C3B67272DC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13060A-9770-404B-9287-43AF617FAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="488">
   <si>
     <t>步骤</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>S_inv为反对称 可转置</t>
   </si>
   <si>
     <t>vt</t>
@@ -638,18 +635,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cov_mv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2n * 3)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3*3)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>TB-A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -666,10 +651,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>(2n * 2)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色：TEMP_BANK</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -812,10 +793,6 @@
     <t>(cov_HT)_T</t>
   </si>
   <si>
-    <t>cov_HT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>t_cov_HT</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1708,6 +1685,18 @@
   </si>
   <si>
     <t>8*(1+N/2)*N/2/2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_v</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3+2n * 3)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S, S_inv为对称 可转置</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2389,7 +2378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2591,9 +2580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2942,6 +2928,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3722,53 +3720,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -3829,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -3891,10 +3889,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="179"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3927,7 +3925,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -3964,7 +3962,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3975,10 +3973,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3998,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -4015,7 +4013,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4023,13 +4021,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4066,7 +4064,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4074,13 +4072,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4117,20 +4115,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4172,25 +4170,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4221,21 +4219,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4266,25 +4264,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -4315,21 +4313,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -4360,25 +4358,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4409,25 +4407,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -4454,31 +4452,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -4505,31 +4503,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -4560,21 +4558,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -4607,15 +4605,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4674,12 +4672,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -4710,7 +4708,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4745,7 +4743,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4780,7 +4778,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -4788,10 +4786,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -4831,14 +4829,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -4880,10 +4878,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4917,14 +4915,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -4954,25 +4952,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -5003,19 +5001,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5042,31 +5040,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5097,21 +5095,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5138,7 +5136,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5173,31 +5171,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5207,7 +5205,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -5233,22 +5231,22 @@
         <v>62</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5275,7 +5273,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -5290,16 +5288,16 @@
         <v>63</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -5337,14 +5335,14 @@
         <v>65</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5375,25 +5373,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5420,26 +5418,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -5473,14 +5471,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -5543,7 +5541,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5582,21 +5580,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5627,21 +5625,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -5676,25 +5674,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5727,15 +5725,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -5776,15 +5774,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5817,25 +5815,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5866,21 +5864,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5911,25 +5909,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5960,25 +5958,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6038,7 +6036,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6077,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>65</v>
@@ -6086,16 +6084,16 @@
         <v>66</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -6129,22 +6127,22 @@
         <v>66</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -6175,25 +6173,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -6228,17 +6226,17 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -6275,19 +6273,19 @@
         <v>63</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -6318,25 +6316,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6367,25 +6365,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -12271,8 +12269,8 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12340,7 +12338,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12363,7 +12361,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -12497,28 +12495,28 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" s="73" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="70" t="s">
+    <row r="10" spans="1:19" s="72" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
     </row>
     <row r="11" spans="1:19" ht="15">
       <c r="A11" s="2" t="s">
@@ -12593,14 +12591,14 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -12625,7 +12623,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12646,8 +12644,8 @@
       <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="172" t="s">
-        <v>476</v>
+      <c r="C16" s="171" t="s">
+        <v>470</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12698,14 +12696,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -12723,18 +12721,18 @@
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="93"/>
+        <v>219</v>
+      </c>
+      <c r="F19" s="92"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -12758,10 +12756,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="172" t="s">
-        <v>476</v>
+        <v>183</v>
+      </c>
+      <c r="E20" s="171" t="s">
+        <v>470</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12810,16 +12808,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -12837,20 +12835,20 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="93"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="92"/>
+        <v>219</v>
+      </c>
+      <c r="F23" s="91"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
@@ -12924,17 +12922,17 @@
     <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -12953,14 +12951,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -13000,28 +12998,28 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" s="73" customFormat="1">
+    <row r="29" spans="1:19" s="72" customFormat="1">
       <c r="A29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="3" t="s">
@@ -13120,8 +13118,8 @@
       <c r="B34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="172" t="s">
-        <v>476</v>
+      <c r="C34" s="171" t="s">
+        <v>470</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13172,14 +13170,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="4"/>
       <c r="B36" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -13199,16 +13197,16 @@
     <row r="37" spans="1:19">
       <c r="A37" s="40"/>
       <c r="B37" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="93"/>
+        <v>222</v>
+      </c>
+      <c r="F37" s="92"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -13280,14 +13278,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
       <c r="B40" s="50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>41</v>
@@ -13309,20 +13307,20 @@
     <row r="41" spans="1:19">
       <c r="A41" s="40"/>
       <c r="B41" s="50" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="93" t="s">
-        <v>487</v>
-      </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
+        <v>222</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>481</v>
+      </c>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
@@ -13337,15 +13335,15 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="94" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13392,14 +13390,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="4"/>
       <c r="B44" s="46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -13419,18 +13417,18 @@
     <row r="45" spans="1:19">
       <c r="A45" s="40"/>
       <c r="B45" s="47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
+        <v>219</v>
+      </c>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
@@ -13445,10 +13443,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="94" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="41"/>
@@ -13500,14 +13498,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="4"/>
       <c r="B48" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -13527,16 +13525,16 @@
     <row r="49" spans="1:19">
       <c r="A49" s="40"/>
       <c r="B49" s="46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="92"/>
+        <v>219</v>
+      </c>
+      <c r="F49" s="91"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -13553,17 +13551,17 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="97" t="s">
-        <v>182</v>
+      <c r="E50" s="96" t="s">
+        <v>181</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -13612,16 +13610,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="4"/>
       <c r="B52" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="4"/>
@@ -13641,18 +13639,18 @@
     <row r="53" spans="1:19">
       <c r="A53" s="40"/>
       <c r="B53" s="47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" s="92"/>
+        <v>222</v>
+      </c>
+      <c r="F53" s="91"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
@@ -13690,28 +13688,28 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" s="73" customFormat="1">
+    <row r="55" spans="1:19" s="72" customFormat="1">
       <c r="A55" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="3" t="s">
@@ -13876,17 +13874,17 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B63" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>197</v>
+        <v>206</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>192</v>
       </c>
       <c r="D63" s="41"/>
-      <c r="E63" s="101" t="s">
-        <v>222</v>
+      <c r="E63" s="100" t="s">
+        <v>217</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="40"/>
@@ -13906,14 +13904,14 @@
     <row r="64" spans="1:19">
       <c r="A64" s="39"/>
       <c r="B64" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D64" s="24"/>
-      <c r="E64" s="102" t="s">
-        <v>180</v>
+      <c r="E64" s="101" t="s">
+        <v>179</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="40"/>
@@ -13933,14 +13931,14 @@
     <row r="65" spans="1:19">
       <c r="A65" s="39"/>
       <c r="B65" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="40"/>
@@ -13959,18 +13957,16 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="173" t="s">
-        <v>476</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>176</v>
+        <v>207</v>
+      </c>
+      <c r="B66" s="172" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="62" t="s">
-        <v>228</v>
-      </c>
+      <c r="E66" s="185"/>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -13989,15 +13985,13 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>188</v>
+        <v>486</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="24"/>
-      <c r="E67" s="43" t="s">
-        <v>175</v>
-      </c>
+      <c r="E67" s="186"/>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -14016,15 +14010,13 @@
     <row r="68" spans="1:19">
       <c r="A68" s="39"/>
       <c r="B68" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>196</v>
-      </c>
       <c r="D68" s="42"/>
-      <c r="E68" s="48" t="s">
-        <v>190</v>
-      </c>
+      <c r="E68" s="187"/>
       <c r="F68" s="38"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -14042,18 +14034,16 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="74" t="s">
         <v>176</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="61" t="s">
-        <v>230</v>
-      </c>
+      <c r="E69" s="175"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -14071,16 +14061,14 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="3"/>
-      <c r="B70" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>175</v>
+      <c r="B70" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="27" t="s">
-        <v>193</v>
-      </c>
+      <c r="E70" s="175"/>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -14098,16 +14086,14 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="3"/>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>196</v>
-      </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="27" t="s">
-        <v>190</v>
-      </c>
+      <c r="E71" s="175"/>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -14125,17 +14111,17 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="B72" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>177</v>
+        <v>209</v>
+      </c>
+      <c r="B72" s="188" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>176</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="40"/>
@@ -14155,10 +14141,10 @@
     <row r="73" spans="1:19">
       <c r="A73" s="3"/>
       <c r="B73" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="43" t="s">
@@ -14182,14 +14168,14 @@
     <row r="74" spans="1:19">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="40"/>
@@ -14207,19 +14193,19 @@
       <c r="S74" s="40"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="93"/>
+      <c r="A75" s="92"/>
       <c r="B75" s="47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="F75" s="93" t="s">
-        <v>486</v>
+        <v>220</v>
+      </c>
+      <c r="F75" s="92" t="s">
+        <v>480</v>
       </c>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -14236,14 +14222,14 @@
       <c r="S75" s="40"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="152" t="s">
-        <v>482</v>
+      <c r="A76" s="151" t="s">
+        <v>476</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="76" t="s">
-        <v>231</v>
+      <c r="C76" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>47</v>
@@ -14252,12 +14238,12 @@
         <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="G76" s="174"/>
-      <c r="H76" s="175"/>
-      <c r="I76" s="174"/>
-      <c r="J76" s="176"/>
+        <v>478</v>
+      </c>
+      <c r="G76" s="173"/>
+      <c r="H76" s="174"/>
+      <c r="I76" s="173"/>
+      <c r="J76" s="175"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14282,11 +14268,11 @@
       <c r="E77" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="93"/>
-      <c r="G77" s="177"/>
-      <c r="H77" s="175"/>
-      <c r="I77" s="177"/>
-      <c r="J77" s="176"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="176"/>
+      <c r="H77" s="174"/>
+      <c r="I77" s="176"/>
+      <c r="J77" s="175"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14300,21 +14286,21 @@
     <row r="78" spans="1:19">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G78" s="177"/>
-      <c r="H78" s="175"/>
-      <c r="I78" s="177"/>
-      <c r="J78" s="176"/>
+        <v>186</v>
+      </c>
+      <c r="G78" s="176"/>
+      <c r="H78" s="174"/>
+      <c r="I78" s="176"/>
+      <c r="J78" s="175"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14326,23 +14312,23 @@
       <c r="S78" s="4"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="93"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" s="177"/>
-      <c r="H79" s="175"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="176"/>
+        <v>219</v>
+      </c>
+      <c r="G79" s="176"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="176"/>
+      <c r="J79" s="175"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14355,7 +14341,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B80" s="58" t="s">
         <v>63</v>
@@ -14408,12 +14394,12 @@
     <row r="82" spans="1:19">
       <c r="A82" s="39"/>
       <c r="B82" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="40"/>
@@ -14432,12 +14418,12 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="89" t="s">
         <v>65</v>
       </c>
       <c r="D83" s="25"/>
@@ -14489,17 +14475,17 @@
     <row r="85" spans="1:19">
       <c r="A85" s="3"/>
       <c r="B85" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>67</v>
+        <v>487</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -14516,19 +14502,19 @@
       <c r="S85" s="4"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="93"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F86" s="93" t="s">
-        <v>489</v>
+        <v>220</v>
+      </c>
+      <c r="F86" s="92" t="s">
+        <v>483</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -14547,16 +14533,16 @@
     <row r="87" spans="1:19">
       <c r="A87" s="3"/>
       <c r="B87" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C87" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>69</v>
-      </c>
       <c r="E87" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -14579,13 +14565,13 @@
         <v>61</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="E88" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="4"/>
@@ -14637,13 +14623,13 @@
         <v>66</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="4"/>
@@ -14666,13 +14652,13 @@
         <v>61</v>
       </c>
       <c r="C91" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
@@ -14704,7 +14690,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -14721,20 +14707,20 @@
       <c r="S92" s="4"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="94" t="s">
+      <c r="A93" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="97" t="s">
-        <v>72</v>
+      <c r="C93" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="96" t="s">
+        <v>71</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
@@ -14754,16 +14740,16 @@
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
       <c r="B94" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="D94" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>78</v>
-      </c>
       <c r="E94" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
@@ -14783,16 +14769,16 @@
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
       <c r="B95" s="46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="4"/>
@@ -14812,15 +14798,15 @@
     <row r="96" spans="1:19">
       <c r="A96" s="40"/>
       <c r="B96" s="47" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
-      <c r="F96" s="92" t="s">
-        <v>490</v>
+      <c r="F96" s="91" t="s">
+        <v>484</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -14859,13 +14845,13 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="181" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="182"/>
-      <c r="D98" s="182"/>
-      <c r="E98" s="81" t="s">
-        <v>207</v>
+      <c r="B98" s="180" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="181"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="80" t="s">
+        <v>202</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -14881,17 +14867,17 @@
     </row>
     <row r="99" spans="1:19" ht="14.25" thickBot="1">
       <c r="A99" s="38"/>
-      <c r="B99" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D99" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="86" t="s">
-        <v>210</v>
+      <c r="B99" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="85" t="s">
+        <v>205</v>
       </c>
       <c r="I99" s="40"/>
       <c r="J99" s="40"/>
@@ -14906,20 +14892,20 @@
       <c r="S99" s="40"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C100" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="D100" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" s="82" t="s">
-        <v>190</v>
+      <c r="A100" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" s="81" t="s">
+        <v>186</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -14936,16 +14922,16 @@
       <c r="S100" s="40"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="79"/>
-      <c r="C101" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83" t="s">
-        <v>204</v>
+      <c r="A101" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="78"/>
+      <c r="C101" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82" t="s">
+        <v>199</v>
       </c>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
@@ -14962,23 +14948,23 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" s="83" t="s">
-        <v>191</v>
+      <c r="A102" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="82" t="s">
+        <v>187</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="E102" s="82" t="s">
+        <v>188</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -14994,19 +14980,19 @@
       <c r="S102" s="4"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A103" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" s="80"/>
-      <c r="C103" s="87"/>
+      <c r="A103" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="79"/>
+      <c r="C103" s="86"/>
       <c r="D103" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="G103" s="77" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="E103" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="76" t="s">
+        <v>195</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -15065,10 +15051,10 @@
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -15090,10 +15076,10 @@
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
       <c r="B107" s="52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -15115,10 +15101,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
       <c r="B108" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -15140,10 +15126,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
       <c r="B109" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15165,10 +15151,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
       <c r="B110" s="18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15190,10 +15176,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
       <c r="B111" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -18537,294 +18523,294 @@
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C3" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="140" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B4" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="134" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="D5" s="134"/>
+      <c r="E5" s="135" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="133" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="135" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="140" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="137" t="s">
+    <row r="7" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B7" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C8" s="134" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B4" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="133" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="135" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B10" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B13" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="123"/>
+      <c r="E13" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="132" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="D15" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B16" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136" t="s">
+      <c r="C17" s="134" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="140" t="s">
+      <c r="D17" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B7" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="133" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="135" t="s">
+      <c r="E17" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B19" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="132" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="135" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B10" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="170" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="133" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="135" t="s">
+      <c r="F20" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="136" t="s">
+      <c r="G20" s="103"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="139" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="102" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B13" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="133" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="136" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="137" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B16" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="135" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="136" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B19" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="133" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="135" t="s">
-        <v>474</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="104"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="137" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="140" t="s">
-        <v>475</v>
-      </c>
-      <c r="D21" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B22" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="171" t="s">
-        <v>190</v>
+      <c r="B22" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="170" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -18986,407 +18972,407 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="104">
+        <v>1</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="104">
+        <v>1</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="107" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="107" t="s">
+        <v>474</v>
+      </c>
+      <c r="R2" s="108"/>
+      <c r="S2" s="110">
+        <v>5</v>
+      </c>
+      <c r="T2" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="U2" s="110">
+        <v>4</v>
+      </c>
+      <c r="V2" s="107" t="s">
+        <v>471</v>
+      </c>
+      <c r="W2" s="109"/>
+      <c r="X2" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="105">
-        <v>1</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC2" s="114">
+        <v>-3</v>
+      </c>
+      <c r="AD2" s="108">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF2" s="114">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="105">
-        <v>1</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="108" t="s">
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="109" t="s">
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="108" t="s">
+      <c r="AO2" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="111">
-        <v>5</v>
-      </c>
-      <c r="T2" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="U2" s="111">
-        <v>4</v>
-      </c>
-      <c r="V2" s="108" t="s">
-        <v>477</v>
-      </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="108" t="s">
+      <c r="AP2" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="113" t="s">
+      <c r="AQ2" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="114" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC2" s="115">
-        <v>-3</v>
-      </c>
-      <c r="AD2" s="109">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="114" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF2" s="115">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="108" t="s">
+      <c r="AR2" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="108" t="s">
+      <c r="AS2" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="114" t="s">
+      <c r="AT2" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="AO2" s="116" t="s">
+      <c r="AU2" s="109" t="s">
         <v>265</v>
-      </c>
-      <c r="AP2" s="108" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ2" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR2" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS2" s="110" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT2" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU2" s="110" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117">
+        <v>1</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="119"/>
+      <c r="F3" s="117">
+        <v>1</v>
+      </c>
+      <c r="G3" s="117"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="120">
+        <v>1</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="120">
+        <v>1</v>
+      </c>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123">
+        <v>1</v>
+      </c>
+      <c r="S3" s="124">
+        <v>6</v>
+      </c>
+      <c r="T3" s="125">
+        <v>5</v>
+      </c>
+      <c r="U3" s="124">
+        <v>6</v>
+      </c>
+      <c r="V3" s="122"/>
+      <c r="W3" s="126">
+        <v>1</v>
+      </c>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="127">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="128">
+        <v>-5</v>
+      </c>
+      <c r="AD3" s="123">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="127">
+        <v>-4</v>
+      </c>
+      <c r="AF3" s="128">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO3" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP3" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ3" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR3" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118">
-        <v>1</v>
-      </c>
-      <c r="D3" s="119" t="s">
+      <c r="AS3" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="118">
-        <v>1</v>
-      </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121">
-        <v>1</v>
-      </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="121">
-        <v>1</v>
-      </c>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="124">
-        <v>1</v>
-      </c>
-      <c r="S3" s="125">
-        <v>6</v>
-      </c>
-      <c r="T3" s="126">
-        <v>5</v>
-      </c>
-      <c r="U3" s="125">
-        <v>6</v>
-      </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="127">
-        <v>1</v>
-      </c>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="128">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="129">
-        <v>-5</v>
-      </c>
-      <c r="AD3" s="124">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="128">
-        <v>-4</v>
-      </c>
-      <c r="AF3" s="129">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="120" t="s">
+      <c r="AT3" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="AO3" s="122" t="s">
+      <c r="AU3" s="121" t="s">
         <v>275</v>
-      </c>
-      <c r="AP3" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ3" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR3" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS3" s="122" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT3" s="120" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU3" s="122" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130">
+        <v>1</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="130">
+        <v>1</v>
+      </c>
+      <c r="H4" s="122"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126">
+        <v>1</v>
+      </c>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AN4" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO4" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP4" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ4" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR4" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS4" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131">
-        <v>1</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="131">
-        <v>1</v>
-      </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="127">
-        <v>1</v>
-      </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AN4" s="120" t="s">
+      <c r="AT4" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="AO4" s="122" t="s">
+      <c r="AU4" s="121" t="s">
         <v>284</v>
-      </c>
-      <c r="AP4" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ4" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR4" s="120" t="s">
-        <v>287</v>
-      </c>
-      <c r="AS4" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="AT4" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU4" s="122" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AN5" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO5" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP5" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ5" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR5" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS5" s="126" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
-      <c r="AN5" s="123" t="s">
+      <c r="AT5" s="122" t="s">
         <v>292</v>
       </c>
-      <c r="AO5" s="127" t="s">
+      <c r="AU5" s="126" t="s">
         <v>293</v>
       </c>
-      <c r="AP5" s="123" t="s">
+    </row>
+    <row r="6" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B6" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="AQ5" s="127" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="AR5" s="123" t="s">
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B7" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="AS5" s="127" t="s">
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="182" t="s">
         <v>297</v>
       </c>
-      <c r="AT5" s="123" t="s">
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="183"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="AU5" s="127" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="183" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="183" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="184"/>
-      <c r="G6" s="185"/>
-    </row>
-    <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="183" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="183" t="s">
-        <v>303</v>
-      </c>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="184"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="184"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="183" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC7" s="184"/>
-      <c r="AD7" s="184"/>
-      <c r="AE7" s="184"/>
-      <c r="AF7" s="184"/>
-      <c r="AG7" s="184"/>
-      <c r="AH7" s="184"/>
-      <c r="AI7" s="184"/>
-      <c r="AJ7" s="184"/>
-      <c r="AK7" s="184"/>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="184"/>
-      <c r="AN7" s="184"/>
-      <c r="AO7" s="184"/>
-      <c r="AP7" s="184"/>
-      <c r="AQ7" s="184"/>
-      <c r="AR7" s="185"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="183"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="183"/>
+      <c r="AL7" s="183"/>
+      <c r="AM7" s="183"/>
+      <c r="AN7" s="183"/>
+      <c r="AO7" s="183"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="184"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AM9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19394,7 +19380,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19404,7 +19390,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -19430,1805 +19416,1805 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="103"/>
+    <col min="1" max="16384" width="9.06640625" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="133">
+      <c r="A1" s="132">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="137">
+      <c r="A2" s="136">
         <v>1</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="136">
+        <v>2</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="136">
+        <v>3</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="138" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="137">
+      <c r="E4" s="138" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="136">
+        <v>4</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="138" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="140"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="136">
+        <v>5</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="140"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="136">
+        <v>6</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="138" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="136">
+        <v>7</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="138" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="138" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="136">
+        <v>8</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="138" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" s="138" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="138" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="138" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="140"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="136">
+        <v>9</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="138" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="138" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="138" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="138" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="139"/>
+      <c r="M10" s="140"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="136">
+        <v>10</v>
+      </c>
+      <c r="B11" s="137" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="I11" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="138" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="138" t="s">
+        <v>367</v>
+      </c>
+      <c r="M11" s="140"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A12" s="141">
+        <v>11</v>
+      </c>
+      <c r="B12" s="142" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="143" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="143" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="144" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="143" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="143" t="s">
+        <v>374</v>
+      </c>
+      <c r="I12" s="143" t="s">
+        <v>375</v>
+      </c>
+      <c r="J12" s="143" t="s">
+        <v>376</v>
+      </c>
+      <c r="K12" s="143" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" s="143" t="s">
+        <v>378</v>
+      </c>
+      <c r="M12" s="145" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="148" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="K14" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="L14" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="M14" s="148" t="s">
+        <v>340</v>
+      </c>
+      <c r="N14" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="O14" s="148" t="s">
+        <v>342</v>
+      </c>
+      <c r="P14" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q14" s="148" t="s">
+        <v>344</v>
+      </c>
+      <c r="R14" s="148" t="s">
+        <v>345</v>
+      </c>
+      <c r="S14" s="148" t="s">
+        <v>346</v>
+      </c>
+      <c r="T14" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="U14" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="V14" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="W14" s="102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="148" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="M15" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="N15" s="148" t="s">
+        <v>350</v>
+      </c>
+      <c r="O15" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="P15" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="R15" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="S15" s="148" t="s">
+        <v>355</v>
+      </c>
+      <c r="T15" s="148" t="s">
+        <v>356</v>
+      </c>
+      <c r="U15" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="V15" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="W15" s="102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="147" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="I16" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="J16" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="K16" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="N16" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="O16" s="148" t="s">
+        <v>361</v>
+      </c>
+      <c r="P16" s="148" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q16" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="R16" s="148" t="s">
+        <v>364</v>
+      </c>
+      <c r="S16" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="T16" s="148" t="s">
+        <v>366</v>
+      </c>
+      <c r="U16" s="148" t="s">
+        <v>367</v>
+      </c>
+      <c r="V16" s="102" t="s">
+        <v>380</v>
+      </c>
+      <c r="W16" s="102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="147" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="148" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="147" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="K17" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="148" t="s">
+        <v>369</v>
+      </c>
+      <c r="M17" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="N17" s="148" t="s">
+        <v>371</v>
+      </c>
+      <c r="O17" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q17" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="R17" s="148" t="s">
+        <v>375</v>
+      </c>
+      <c r="S17" s="148" t="s">
+        <v>376</v>
+      </c>
+      <c r="T17" s="148" t="s">
+        <v>377</v>
+      </c>
+      <c r="U17" s="148" t="s">
+        <v>378</v>
+      </c>
+      <c r="V17" s="148" t="s">
+        <v>379</v>
+      </c>
+      <c r="W17" s="102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="148" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" s="148" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="148" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="148" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="C20" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="148" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="I20" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="J20" s="148" t="s">
+        <v>355</v>
+      </c>
+      <c r="K20" s="148" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" s="148" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" s="148" t="s">
+        <v>364</v>
+      </c>
+      <c r="J21" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" s="148" t="s">
+        <v>366</v>
+      </c>
+      <c r="L21" s="148" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="148" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="149" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="I22" s="148" t="s">
+        <v>375</v>
+      </c>
+      <c r="J22" s="148" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="148" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="148" t="s">
+        <v>378</v>
+      </c>
+      <c r="M22" s="148" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="K24" s="102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="102">
+        <v>0</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="147" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="147" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" s="102">
+        <v>0</v>
+      </c>
+      <c r="I25" s="102">
+        <v>0</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0</v>
+      </c>
+      <c r="K25" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="102">
+        <v>1</v>
+      </c>
+      <c r="B26" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="148" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="148" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="102">
+        <v>0</v>
+      </c>
+      <c r="I26" s="102">
+        <v>1</v>
+      </c>
+      <c r="J26" s="102">
+        <v>0</v>
+      </c>
+      <c r="K26" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="102">
         <v>2</v>
       </c>
-      <c r="B3" s="138" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="139" t="s">
+      <c r="B27" s="148" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="148" t="s">
+        <v>382</v>
+      </c>
+      <c r="E27" s="148" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="102">
+        <v>1</v>
+      </c>
+      <c r="I27" s="102">
+        <v>0</v>
+      </c>
+      <c r="J27" s="102">
+        <v>1</v>
+      </c>
+      <c r="K27" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="102">
+        <v>3</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="148" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="148" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28" s="102">
+        <v>2</v>
+      </c>
+      <c r="I28" s="102">
+        <v>1</v>
+      </c>
+      <c r="J28" s="102">
+        <v>0</v>
+      </c>
+      <c r="K28" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="102">
+        <v>4</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" s="148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" s="148" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="147" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="H29" s="102">
+        <v>3</v>
+      </c>
+      <c r="I29" s="102">
+        <v>2</v>
+      </c>
+      <c r="J29" s="102">
+        <v>1</v>
+      </c>
+      <c r="K29" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="102">
+        <v>5</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="148" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="137">
+      <c r="H30" s="102">
+        <v>4</v>
+      </c>
+      <c r="I30" s="102">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="J30" s="102">
+        <v>2</v>
+      </c>
+      <c r="K30" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="102">
+        <v>6</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="148" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="H31" s="102">
+        <v>5</v>
+      </c>
+      <c r="I31" s="102">
+        <v>4</v>
+      </c>
+      <c r="J31" s="102">
+        <v>3</v>
+      </c>
+      <c r="K31" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="102">
+        <v>7</v>
+      </c>
+      <c r="B32" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="148" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="H32" s="102">
+        <v>6</v>
+      </c>
+      <c r="I32" s="102">
+        <v>5</v>
+      </c>
+      <c r="J32" s="102">
+        <v>4</v>
+      </c>
+      <c r="K32" s="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="102">
+        <v>8</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" s="148" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="139" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="137">
+      <c r="H33" s="102">
+        <v>7</v>
+      </c>
+      <c r="I33" s="102">
+        <v>6</v>
+      </c>
+      <c r="J33" s="102">
+        <v>5</v>
+      </c>
+      <c r="K33" s="102">
         <v>4</v>
       </c>
-      <c r="B5" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>322</v>
-      </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="137">
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="102">
+        <v>9</v>
+      </c>
+      <c r="B34" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="H34" s="102">
+        <v>8</v>
+      </c>
+      <c r="I34" s="102">
+        <v>7</v>
+      </c>
+      <c r="J34" s="102">
+        <v>6</v>
+      </c>
+      <c r="K34" s="102">
         <v>5</v>
       </c>
-      <c r="B6" s="138" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="139" t="s">
-        <v>327</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="137">
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="102">
+        <v>10</v>
+      </c>
+      <c r="B35" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="148" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="148" t="s">
+        <v>369</v>
+      </c>
+      <c r="H35" s="102">
+        <v>9</v>
+      </c>
+      <c r="I35" s="102">
+        <v>8</v>
+      </c>
+      <c r="J35" s="102">
+        <v>7</v>
+      </c>
+      <c r="K35" s="102">
         <v>6</v>
       </c>
-      <c r="B7" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>331</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>332</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>335</v>
-      </c>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="141"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="137">
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="102">
+        <v>11</v>
+      </c>
+      <c r="B36" s="148" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="148" t="s">
+        <v>370</v>
+      </c>
+      <c r="H36" s="102">
+        <v>10</v>
+      </c>
+      <c r="I36" s="102">
+        <v>9</v>
+      </c>
+      <c r="J36" s="102">
+        <v>8</v>
+      </c>
+      <c r="K36" s="102">
         <v>7</v>
       </c>
-      <c r="B8" s="138" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>338</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="139" t="s">
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="102">
+        <v>12</v>
+      </c>
+      <c r="B37" s="148" t="s">
         <v>341</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="C37" s="148" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="148" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="102">
+        <v>11</v>
+      </c>
+      <c r="I37" s="102">
+        <v>10</v>
+      </c>
+      <c r="J37" s="102">
+        <v>9</v>
+      </c>
+      <c r="K37" s="102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="102">
+        <v>13</v>
+      </c>
+      <c r="B38" s="148" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="C38" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="148" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" s="148" t="s">
+        <v>372</v>
+      </c>
+      <c r="H38" s="102">
+        <v>12</v>
+      </c>
+      <c r="I38" s="102">
+        <v>11</v>
+      </c>
+      <c r="J38" s="102">
+        <v>10</v>
+      </c>
+      <c r="K38" s="102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="102">
+        <v>14</v>
+      </c>
+      <c r="B39" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="137">
-        <v>8</v>
-      </c>
-      <c r="B9" s="138" t="s">
+      <c r="C39" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="148" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" s="148" t="s">
+        <v>373</v>
+      </c>
+      <c r="H39" s="102">
+        <v>13</v>
+      </c>
+      <c r="I39" s="102">
+        <v>12</v>
+      </c>
+      <c r="J39" s="102">
+        <v>11</v>
+      </c>
+      <c r="K39" s="102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="102">
+        <v>15</v>
+      </c>
+      <c r="B40" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C40" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="148" t="s">
+        <v>363</v>
+      </c>
+      <c r="E40" s="148" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" s="102">
+        <v>14</v>
+      </c>
+      <c r="I40" s="102">
+        <v>13</v>
+      </c>
+      <c r="J40" s="102">
+        <v>12</v>
+      </c>
+      <c r="K40" s="102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="102">
+        <v>16</v>
+      </c>
+      <c r="B41" s="148" t="s">
         <v>345</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="C41" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="148" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" s="148" t="s">
+        <v>375</v>
+      </c>
+      <c r="H41" s="102">
+        <v>15</v>
+      </c>
+      <c r="I41" s="102">
+        <v>14</v>
+      </c>
+      <c r="J41" s="102">
+        <v>13</v>
+      </c>
+      <c r="K41" s="102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="102">
+        <v>17</v>
+      </c>
+      <c r="B42" s="148" t="s">
         <v>346</v>
       </c>
-      <c r="E9" s="139" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="139" t="s">
-        <v>349</v>
-      </c>
-      <c r="H9" s="139" t="s">
-        <v>350</v>
-      </c>
-      <c r="I9" s="139" t="s">
-        <v>351</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="141"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="137">
-        <v>9</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="139" t="s">
+      <c r="C42" s="148" t="s">
         <v>355</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="D42" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" s="148" t="s">
+        <v>376</v>
+      </c>
+      <c r="H42" s="102">
+        <v>16</v>
+      </c>
+      <c r="I42" s="102">
+        <v>15</v>
+      </c>
+      <c r="J42" s="102">
+        <v>14</v>
+      </c>
+      <c r="K42" s="102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="102">
+        <v>18</v>
+      </c>
+      <c r="B43" s="147" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="148" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="139" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="I10" s="139" t="s">
-        <v>360</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="L10" s="140"/>
-      <c r="M10" s="141"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="137">
-        <v>10</v>
-      </c>
-      <c r="B11" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="139" t="s">
+      <c r="D43" s="148" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="139" t="s">
+      <c r="E43" s="148" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" s="102">
+        <v>17</v>
+      </c>
+      <c r="I43" s="102">
+        <v>16</v>
+      </c>
+      <c r="J43" s="102">
+        <v>15</v>
+      </c>
+      <c r="K43" s="102">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="102">
+        <v>19</v>
+      </c>
+      <c r="B44" s="150" t="s">
+        <v>386</v>
+      </c>
+      <c r="C44" s="147" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="148" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="139" t="s">
-        <v>368</v>
-      </c>
-      <c r="H11" s="139" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" s="139" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" s="139" t="s">
-        <v>371</v>
-      </c>
-      <c r="K11" s="139" t="s">
-        <v>372</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>373</v>
-      </c>
-      <c r="M11" s="141"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A12" s="142">
-        <v>11</v>
-      </c>
-      <c r="B12" s="143" t="s">
-        <v>374</v>
-      </c>
-      <c r="C12" s="144" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" s="144" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="144" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="145" t="s">
+      <c r="E44" s="148" t="s">
         <v>378</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="H44" s="102">
+        <v>18</v>
+      </c>
+      <c r="I44" s="102">
+        <v>17</v>
+      </c>
+      <c r="J44" s="102">
+        <v>16</v>
+      </c>
+      <c r="K44" s="102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="102">
+        <v>20</v>
+      </c>
+      <c r="B45" s="150" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="150" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="147" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="148" t="s">
         <v>379</v>
       </c>
-      <c r="H12" s="144" t="s">
-        <v>380</v>
-      </c>
-      <c r="I12" s="144" t="s">
-        <v>381</v>
-      </c>
-      <c r="J12" s="144" t="s">
-        <v>382</v>
-      </c>
-      <c r="K12" s="144" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" s="144" t="s">
-        <v>384</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="E14" s="149" t="s">
-        <v>338</v>
-      </c>
-      <c r="F14" s="149" t="s">
-        <v>339</v>
-      </c>
-      <c r="G14" s="149" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" s="149" t="s">
-        <v>341</v>
-      </c>
-      <c r="I14" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="J14" s="149" t="s">
-        <v>343</v>
-      </c>
-      <c r="K14" s="148" t="s">
-        <v>344</v>
-      </c>
-      <c r="L14" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="M14" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="N14" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="O14" s="149" t="s">
-        <v>348</v>
-      </c>
-      <c r="P14" s="149" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q14" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="R14" s="149" t="s">
-        <v>351</v>
-      </c>
-      <c r="S14" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="T14" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="U14" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="V14" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="W14" s="103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="149" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="F15" s="149" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" s="149" t="s">
-        <v>332</v>
-      </c>
-      <c r="H15" s="149" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" s="149" t="s">
-        <v>334</v>
-      </c>
-      <c r="J15" s="149" t="s">
-        <v>335</v>
-      </c>
-      <c r="K15" s="148" t="s">
-        <v>353</v>
-      </c>
-      <c r="L15" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="M15" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="N15" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="O15" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="P15" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q15" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="R15" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="S15" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="T15" s="149" t="s">
-        <v>362</v>
-      </c>
-      <c r="U15" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="V15" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="W15" s="103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="148" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="149" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="149" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="149" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="149" t="s">
-        <v>326</v>
-      </c>
-      <c r="I16" s="149" t="s">
-        <v>327</v>
-      </c>
-      <c r="J16" s="149" t="s">
-        <v>328</v>
-      </c>
-      <c r="K16" s="148" t="s">
-        <v>363</v>
-      </c>
-      <c r="L16" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="M16" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="N16" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="O16" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="P16" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q16" s="149" t="s">
-        <v>369</v>
-      </c>
-      <c r="R16" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="S16" s="149" t="s">
-        <v>371</v>
-      </c>
-      <c r="T16" s="149" t="s">
-        <v>372</v>
-      </c>
-      <c r="U16" s="149" t="s">
-        <v>373</v>
-      </c>
-      <c r="V16" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="W16" s="103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="149" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="149" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="149" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="149" t="s">
-        <v>319</v>
-      </c>
-      <c r="H17" s="149" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="149" t="s">
-        <v>321</v>
-      </c>
-      <c r="J17" s="149" t="s">
-        <v>322</v>
-      </c>
-      <c r="K17" s="148" t="s">
-        <v>374</v>
-      </c>
-      <c r="L17" s="149" t="s">
-        <v>375</v>
-      </c>
-      <c r="M17" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="N17" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="O17" s="150" t="s">
-        <v>378</v>
-      </c>
-      <c r="P17" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q17" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="R17" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="S17" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="T17" s="149" t="s">
-        <v>383</v>
-      </c>
-      <c r="U17" s="149" t="s">
-        <v>384</v>
-      </c>
-      <c r="V17" s="149" t="s">
-        <v>385</v>
-      </c>
-      <c r="W17" s="103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="D19" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="149" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" s="149" t="s">
-        <v>349</v>
-      </c>
-      <c r="H19" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="I19" s="149" t="s">
-        <v>351</v>
-      </c>
-      <c r="J19" s="149" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>353</v>
-      </c>
-      <c r="C20" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="D20" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="E20" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="F20" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="G20" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="H20" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="I20" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="J20" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="K20" s="149" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="E21" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="F21" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="G21" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="H21" s="149" t="s">
-        <v>369</v>
-      </c>
-      <c r="I21" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="J21" s="149" t="s">
-        <v>371</v>
-      </c>
-      <c r="K21" s="149" t="s">
-        <v>372</v>
-      </c>
-      <c r="L21" s="149" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="148" t="s">
-        <v>374</v>
-      </c>
-      <c r="C22" s="149" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="F22" s="150" t="s">
-        <v>378</v>
-      </c>
-      <c r="G22" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="H22" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="I22" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="J22" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="K22" s="149" t="s">
-        <v>383</v>
-      </c>
-      <c r="L22" s="149" t="s">
-        <v>384</v>
-      </c>
-      <c r="M22" s="149" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="103" t="s">
-        <v>387</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="E24" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="H24" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="I24" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="K24" s="103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="103">
-        <v>0</v>
-      </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="148" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>311</v>
-      </c>
-      <c r="E25" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="103">
-        <v>0</v>
-      </c>
-      <c r="I25" s="103">
-        <v>0</v>
-      </c>
-      <c r="J25" s="103">
-        <v>0</v>
-      </c>
-      <c r="K25" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="103">
-        <v>1</v>
-      </c>
-      <c r="B26" s="148" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="149" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="149" t="s">
-        <v>312</v>
-      </c>
-      <c r="E26" s="149" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="103">
-        <v>0</v>
-      </c>
-      <c r="I26" s="103">
-        <v>1</v>
-      </c>
-      <c r="J26" s="103">
-        <v>0</v>
-      </c>
-      <c r="K26" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="103">
-        <v>2</v>
-      </c>
-      <c r="B27" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" s="149" t="s">
-        <v>388</v>
-      </c>
-      <c r="E27" s="149" t="s">
-        <v>389</v>
-      </c>
-      <c r="H27" s="103">
-        <v>1</v>
-      </c>
-      <c r="I27" s="103">
-        <v>0</v>
-      </c>
-      <c r="J27" s="103">
-        <v>1</v>
-      </c>
-      <c r="K27" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="103">
-        <v>3</v>
-      </c>
-      <c r="B28" s="149" t="s">
-        <v>338</v>
-      </c>
-      <c r="C28" s="149" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="148" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="149" t="s">
-        <v>390</v>
-      </c>
-      <c r="H28" s="103">
-        <v>2</v>
-      </c>
-      <c r="I28" s="103">
-        <v>1</v>
-      </c>
-      <c r="J28" s="103">
-        <v>0</v>
-      </c>
-      <c r="K28" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="103">
-        <v>4</v>
-      </c>
-      <c r="B29" s="149" t="s">
-        <v>339</v>
-      </c>
-      <c r="C29" s="149" t="s">
-        <v>331</v>
-      </c>
-      <c r="D29" s="149" t="s">
-        <v>324</v>
-      </c>
-      <c r="E29" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="H29" s="103">
-        <v>3</v>
-      </c>
-      <c r="I29" s="103">
-        <v>2</v>
-      </c>
-      <c r="J29" s="103">
-        <v>1</v>
-      </c>
-      <c r="K29" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="103">
-        <v>5</v>
-      </c>
-      <c r="B30" s="149" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="149" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="149" t="s">
-        <v>325</v>
-      </c>
-      <c r="E30" s="149" t="s">
-        <v>319</v>
-      </c>
-      <c r="H30" s="103">
-        <v>4</v>
-      </c>
-      <c r="I30" s="103">
-        <v>3</v>
-      </c>
-      <c r="J30" s="103">
-        <v>2</v>
-      </c>
-      <c r="K30" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="103">
-        <v>6</v>
-      </c>
-      <c r="B31" s="149" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="149" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="149" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="149" t="s">
-        <v>320</v>
-      </c>
-      <c r="H31" s="103">
-        <v>5</v>
-      </c>
-      <c r="I31" s="103">
-        <v>4</v>
-      </c>
-      <c r="J31" s="103">
-        <v>3</v>
-      </c>
-      <c r="K31" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="103">
-        <v>7</v>
-      </c>
-      <c r="B32" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="149" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" s="149" t="s">
-        <v>327</v>
-      </c>
-      <c r="E32" s="149" t="s">
-        <v>321</v>
-      </c>
-      <c r="H32" s="103">
-        <v>6</v>
-      </c>
-      <c r="I32" s="103">
-        <v>5</v>
-      </c>
-      <c r="J32" s="103">
-        <v>4</v>
-      </c>
-      <c r="K32" s="103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="103">
-        <v>8</v>
-      </c>
-      <c r="B33" s="149" t="s">
-        <v>343</v>
-      </c>
-      <c r="C33" s="149" t="s">
-        <v>335</v>
-      </c>
-      <c r="D33" s="149" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" s="149" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="103">
-        <v>7</v>
-      </c>
-      <c r="I33" s="103">
-        <v>6</v>
-      </c>
-      <c r="J33" s="103">
-        <v>5</v>
-      </c>
-      <c r="K33" s="103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="103">
-        <v>9</v>
-      </c>
-      <c r="B34" s="148" t="s">
-        <v>344</v>
-      </c>
-      <c r="C34" s="148" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="148" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="148" t="s">
-        <v>374</v>
-      </c>
-      <c r="H34" s="103">
-        <v>8</v>
-      </c>
-      <c r="I34" s="103">
-        <v>7</v>
-      </c>
-      <c r="J34" s="103">
-        <v>6</v>
-      </c>
-      <c r="K34" s="103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="103">
-        <v>10</v>
-      </c>
-      <c r="B35" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="C35" s="149" t="s">
-        <v>354</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>364</v>
-      </c>
-      <c r="E35" s="149" t="s">
-        <v>375</v>
-      </c>
-      <c r="H35" s="103">
-        <v>9</v>
-      </c>
-      <c r="I35" s="103">
-        <v>8</v>
-      </c>
-      <c r="J35" s="103">
-        <v>7</v>
-      </c>
-      <c r="K35" s="103">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="103">
-        <v>11</v>
-      </c>
-      <c r="B36" s="149" t="s">
-        <v>346</v>
-      </c>
-      <c r="C36" s="149" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" s="149" t="s">
-        <v>376</v>
-      </c>
-      <c r="H36" s="103">
-        <v>10</v>
-      </c>
-      <c r="I36" s="103">
-        <v>9</v>
-      </c>
-      <c r="J36" s="103">
-        <v>8</v>
-      </c>
-      <c r="K36" s="103">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="103">
-        <v>12</v>
-      </c>
-      <c r="B37" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="C37" s="149" t="s">
-        <v>356</v>
-      </c>
-      <c r="D37" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="E37" s="149" t="s">
-        <v>377</v>
-      </c>
-      <c r="H37" s="103">
-        <v>11</v>
-      </c>
-      <c r="I37" s="103">
-        <v>10</v>
-      </c>
-      <c r="J37" s="103">
-        <v>9</v>
-      </c>
-      <c r="K37" s="103">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="103">
-        <v>13</v>
-      </c>
-      <c r="B38" s="149" t="s">
-        <v>348</v>
-      </c>
-      <c r="C38" s="149" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" s="149" t="s">
-        <v>378</v>
-      </c>
-      <c r="H38" s="103">
-        <v>12</v>
-      </c>
-      <c r="I38" s="103">
-        <v>11</v>
-      </c>
-      <c r="J38" s="103">
-        <v>10</v>
-      </c>
-      <c r="K38" s="103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="103">
-        <v>14</v>
-      </c>
-      <c r="B39" s="149" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="D39" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="149" t="s">
-        <v>379</v>
-      </c>
-      <c r="H39" s="103">
-        <v>13</v>
-      </c>
-      <c r="I39" s="103">
-        <v>12</v>
-      </c>
-      <c r="J39" s="103">
-        <v>11</v>
-      </c>
-      <c r="K39" s="103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="103">
-        <v>15</v>
-      </c>
-      <c r="B40" s="149" t="s">
-        <v>350</v>
-      </c>
-      <c r="C40" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="D40" s="149" t="s">
-        <v>369</v>
-      </c>
-      <c r="E40" s="149" t="s">
-        <v>380</v>
-      </c>
-      <c r="H40" s="103">
-        <v>14</v>
-      </c>
-      <c r="I40" s="103">
-        <v>13</v>
-      </c>
-      <c r="J40" s="103">
-        <v>12</v>
-      </c>
-      <c r="K40" s="103">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="103">
+      <c r="H45" s="102">
+        <v>19</v>
+      </c>
+      <c r="I45" s="102">
+        <v>18</v>
+      </c>
+      <c r="J45" s="102">
+        <v>17</v>
+      </c>
+      <c r="K45" s="102">
         <v>16</v>
       </c>
-      <c r="B41" s="149" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" s="149" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="149" t="s">
-        <v>370</v>
-      </c>
-      <c r="E41" s="149" t="s">
-        <v>381</v>
-      </c>
-      <c r="H41" s="103">
-        <v>15</v>
-      </c>
-      <c r="I41" s="103">
-        <v>14</v>
-      </c>
-      <c r="J41" s="103">
-        <v>13</v>
-      </c>
-      <c r="K41" s="103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="103">
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="102">
+        <v>21</v>
+      </c>
+      <c r="B46" s="150" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="147" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" s="102">
+        <v>20</v>
+      </c>
+      <c r="I46" s="102">
+        <v>19</v>
+      </c>
+      <c r="J46" s="102">
+        <v>18</v>
+      </c>
+      <c r="K46" s="102">
         <v>17</v>
       </c>
-      <c r="B42" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="C42" s="149" t="s">
-        <v>361</v>
-      </c>
-      <c r="D42" s="149" t="s">
-        <v>371</v>
-      </c>
-      <c r="E42" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="H42" s="103">
-        <v>16</v>
-      </c>
-      <c r="I42" s="103">
-        <v>15</v>
-      </c>
-      <c r="J42" s="103">
-        <v>14</v>
-      </c>
-      <c r="K42" s="103">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="103">
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="102">
+        <v>22</v>
+      </c>
+      <c r="B47" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="150" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="150" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" s="102">
+        <v>21</v>
+      </c>
+      <c r="I47" s="102">
+        <v>20</v>
+      </c>
+      <c r="J47" s="102">
+        <v>19</v>
+      </c>
+      <c r="K47" s="102">
         <v>18</v>
       </c>
-      <c r="B43" s="148" t="s">
-        <v>391</v>
-      </c>
-      <c r="C43" s="149" t="s">
-        <v>362</v>
-      </c>
-      <c r="D43" s="149" t="s">
-        <v>372</v>
-      </c>
-      <c r="E43" s="149" t="s">
-        <v>383</v>
-      </c>
-      <c r="H43" s="103">
-        <v>17</v>
-      </c>
-      <c r="I43" s="103">
-        <v>16</v>
-      </c>
-      <c r="J43" s="103">
-        <v>15</v>
-      </c>
-      <c r="K43" s="103">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="103">
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="102">
+        <v>23</v>
+      </c>
+      <c r="B48" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="E48" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="H48" s="102">
+        <v>22</v>
+      </c>
+      <c r="I48" s="102">
+        <v>21</v>
+      </c>
+      <c r="J48" s="102">
+        <v>20</v>
+      </c>
+      <c r="K48" s="102">
         <v>19</v>
       </c>
-      <c r="B44" s="151" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="148" t="s">
-        <v>393</v>
-      </c>
-      <c r="D44" s="149" t="s">
-        <v>373</v>
-      </c>
-      <c r="E44" s="149" t="s">
-        <v>384</v>
-      </c>
-      <c r="H44" s="103">
-        <v>18</v>
-      </c>
-      <c r="I44" s="103">
-        <v>17</v>
-      </c>
-      <c r="J44" s="103">
-        <v>16</v>
-      </c>
-      <c r="K44" s="103">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="103">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="102">
+        <v>24</v>
+      </c>
+      <c r="B49" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="150" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" s="150" t="s">
+        <v>406</v>
+      </c>
+      <c r="H49" s="102">
+        <v>23</v>
+      </c>
+      <c r="I49" s="102">
+        <v>22</v>
+      </c>
+      <c r="J49" s="102">
+        <v>21</v>
+      </c>
+      <c r="K49" s="102">
         <v>20</v>
       </c>
-      <c r="B45" s="151" t="s">
-        <v>394</v>
-      </c>
-      <c r="C45" s="151" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" s="148" t="s">
-        <v>396</v>
-      </c>
-      <c r="E45" s="149" t="s">
-        <v>385</v>
-      </c>
-      <c r="H45" s="103">
-        <v>19</v>
-      </c>
-      <c r="I45" s="103">
-        <v>18</v>
-      </c>
-      <c r="J45" s="103">
-        <v>17</v>
-      </c>
-      <c r="K45" s="103">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="103">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="102">
+        <v>25</v>
+      </c>
+      <c r="B50" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="C50" s="150" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="150" t="s">
+        <v>410</v>
+      </c>
+      <c r="H50" s="102">
+        <v>24</v>
+      </c>
+      <c r="I50" s="102">
+        <v>23</v>
+      </c>
+      <c r="J50" s="102">
+        <v>22</v>
+      </c>
+      <c r="K50" s="102">
         <v>21</v>
       </c>
-      <c r="B46" s="151" t="s">
-        <v>397</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>398</v>
-      </c>
-      <c r="D46" s="151" t="s">
-        <v>399</v>
-      </c>
-      <c r="E46" s="148" t="s">
-        <v>400</v>
-      </c>
-      <c r="H46" s="103">
-        <v>20</v>
-      </c>
-      <c r="I46" s="103">
-        <v>19</v>
-      </c>
-      <c r="J46" s="103">
-        <v>18</v>
-      </c>
-      <c r="K46" s="103">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="103">
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="102">
+        <v>26</v>
+      </c>
+      <c r="B51" s="150" t="s">
+        <v>411</v>
+      </c>
+      <c r="C51" s="150" t="s">
+        <v>412</v>
+      </c>
+      <c r="D51" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" s="150" t="s">
+        <v>414</v>
+      </c>
+      <c r="H51" s="102">
+        <v>25</v>
+      </c>
+      <c r="I51" s="102">
+        <v>24</v>
+      </c>
+      <c r="J51" s="102">
+        <v>23</v>
+      </c>
+      <c r="K51" s="102">
         <v>22</v>
       </c>
-      <c r="B47" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47" s="151" t="s">
-        <v>403</v>
-      </c>
-      <c r="E47" s="151" t="s">
-        <v>404</v>
-      </c>
-      <c r="H47" s="103">
-        <v>21</v>
-      </c>
-      <c r="I47" s="103">
-        <v>20</v>
-      </c>
-      <c r="J47" s="103">
-        <v>19</v>
-      </c>
-      <c r="K47" s="103">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="103">
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="102">
+        <v>27</v>
+      </c>
+      <c r="B52" s="150" t="s">
+        <v>415</v>
+      </c>
+      <c r="C52" s="150" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="150" t="s">
+        <v>417</v>
+      </c>
+      <c r="E52" s="150" t="s">
+        <v>418</v>
+      </c>
+      <c r="H52" s="102">
+        <v>26</v>
+      </c>
+      <c r="I52" s="102">
+        <v>25</v>
+      </c>
+      <c r="J52" s="102">
+        <v>24</v>
+      </c>
+      <c r="K52" s="102">
         <v>23</v>
       </c>
-      <c r="B48" s="151" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="151" t="s">
-        <v>407</v>
-      </c>
-      <c r="E48" s="151" t="s">
-        <v>408</v>
-      </c>
-      <c r="H48" s="103">
-        <v>22</v>
-      </c>
-      <c r="I48" s="103">
-        <v>21</v>
-      </c>
-      <c r="J48" s="103">
-        <v>20</v>
-      </c>
-      <c r="K48" s="103">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="103">
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="102">
+        <v>28</v>
+      </c>
+      <c r="B53" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53" s="150" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" s="150" t="s">
+        <v>421</v>
+      </c>
+      <c r="E53" s="150" t="s">
+        <v>422</v>
+      </c>
+      <c r="H53" s="102">
+        <v>27</v>
+      </c>
+      <c r="I53" s="102">
+        <v>26</v>
+      </c>
+      <c r="J53" s="102">
+        <v>25</v>
+      </c>
+      <c r="K53" s="102">
         <v>24</v>
       </c>
-      <c r="B49" s="151" t="s">
-        <v>409</v>
-      </c>
-      <c r="C49" s="151" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="151" t="s">
-        <v>411</v>
-      </c>
-      <c r="E49" s="151" t="s">
-        <v>412</v>
-      </c>
-      <c r="H49" s="103">
-        <v>23</v>
-      </c>
-      <c r="I49" s="103">
-        <v>22</v>
-      </c>
-      <c r="J49" s="103">
-        <v>21</v>
-      </c>
-      <c r="K49" s="103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="103">
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="102">
+        <v>29</v>
+      </c>
+      <c r="B54" s="150" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="150" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" s="150" t="s">
+        <v>425</v>
+      </c>
+      <c r="E54" s="150" t="s">
+        <v>426</v>
+      </c>
+      <c r="H54" s="102">
+        <v>28</v>
+      </c>
+      <c r="I54" s="102">
+        <v>27</v>
+      </c>
+      <c r="J54" s="102">
+        <v>26</v>
+      </c>
+      <c r="K54" s="102">
         <v>25</v>
       </c>
-      <c r="B50" s="151" t="s">
-        <v>413</v>
-      </c>
-      <c r="C50" s="151" t="s">
-        <v>414</v>
-      </c>
-      <c r="D50" s="151" t="s">
-        <v>415</v>
-      </c>
-      <c r="E50" s="151" t="s">
-        <v>416</v>
-      </c>
-      <c r="H50" s="103">
-        <v>24</v>
-      </c>
-      <c r="I50" s="103">
-        <v>23</v>
-      </c>
-      <c r="J50" s="103">
-        <v>22</v>
-      </c>
-      <c r="K50" s="103">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="103">
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="102">
+        <v>30</v>
+      </c>
+      <c r="B55" s="150" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="150" t="s">
+        <v>428</v>
+      </c>
+      <c r="D55" s="150" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" s="150" t="s">
+        <v>430</v>
+      </c>
+      <c r="H55" s="102">
+        <v>29</v>
+      </c>
+      <c r="I55" s="102">
+        <v>28</v>
+      </c>
+      <c r="J55" s="102">
+        <v>27</v>
+      </c>
+      <c r="K55" s="102">
         <v>26</v>
       </c>
-      <c r="B51" s="151" t="s">
-        <v>417</v>
-      </c>
-      <c r="C51" s="151" t="s">
-        <v>418</v>
-      </c>
-      <c r="D51" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="E51" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H51" s="103">
-        <v>25</v>
-      </c>
-      <c r="I51" s="103">
-        <v>24</v>
-      </c>
-      <c r="J51" s="103">
-        <v>23</v>
-      </c>
-      <c r="K51" s="103">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="103">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="102">
+        <v>31</v>
+      </c>
+      <c r="B56" s="150" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="150" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56" s="150" t="s">
+        <v>433</v>
+      </c>
+      <c r="E56" s="150" t="s">
+        <v>434</v>
+      </c>
+      <c r="H56" s="102">
+        <v>30</v>
+      </c>
+      <c r="I56" s="102">
+        <v>29</v>
+      </c>
+      <c r="J56" s="102">
+        <v>28</v>
+      </c>
+      <c r="K56" s="102">
         <v>27</v>
       </c>
-      <c r="B52" s="151" t="s">
-        <v>421</v>
-      </c>
-      <c r="C52" s="151" t="s">
-        <v>422</v>
-      </c>
-      <c r="D52" s="151" t="s">
-        <v>423</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>424</v>
-      </c>
-      <c r="H52" s="103">
-        <v>26</v>
-      </c>
-      <c r="I52" s="103">
-        <v>25</v>
-      </c>
-      <c r="J52" s="103">
-        <v>24</v>
-      </c>
-      <c r="K52" s="103">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="103">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="102">
+        <v>32</v>
+      </c>
+      <c r="B57" s="150" t="s">
+        <v>435</v>
+      </c>
+      <c r="C57" s="150" t="s">
+        <v>436</v>
+      </c>
+      <c r="D57" s="150" t="s">
+        <v>437</v>
+      </c>
+      <c r="E57" s="150" t="s">
+        <v>438</v>
+      </c>
+      <c r="H57" s="102">
+        <v>31</v>
+      </c>
+      <c r="I57" s="102">
+        <v>30</v>
+      </c>
+      <c r="J57" s="102">
+        <v>29</v>
+      </c>
+      <c r="K57" s="102">
         <v>28</v>
       </c>
-      <c r="B53" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="C53" s="151" t="s">
-        <v>426</v>
-      </c>
-      <c r="D53" s="151" t="s">
-        <v>427</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="H53" s="103">
-        <v>27</v>
-      </c>
-      <c r="I53" s="103">
-        <v>26</v>
-      </c>
-      <c r="J53" s="103">
-        <v>25</v>
-      </c>
-      <c r="K53" s="103">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="103">
-        <v>29</v>
-      </c>
-      <c r="B54" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="C54" s="151" t="s">
-        <v>430</v>
-      </c>
-      <c r="D54" s="151" t="s">
-        <v>431</v>
-      </c>
-      <c r="E54" s="151" t="s">
-        <v>432</v>
-      </c>
-      <c r="H54" s="103">
-        <v>28</v>
-      </c>
-      <c r="I54" s="103">
-        <v>27</v>
-      </c>
-      <c r="J54" s="103">
-        <v>26</v>
-      </c>
-      <c r="K54" s="103">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="103">
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="102">
+        <v>33</v>
+      </c>
+      <c r="B58" s="150" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="150" t="s">
+        <v>441</v>
+      </c>
+      <c r="E58" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H58" s="102">
+        <v>32</v>
+      </c>
+      <c r="I58" s="102">
+        <v>31</v>
+      </c>
+      <c r="J58" s="102">
         <v>30</v>
       </c>
-      <c r="B55" s="151" t="s">
-        <v>433</v>
-      </c>
-      <c r="C55" s="151" t="s">
-        <v>434</v>
-      </c>
-      <c r="D55" s="151" t="s">
-        <v>435</v>
-      </c>
-      <c r="E55" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="H55" s="103">
-        <v>29</v>
-      </c>
-      <c r="I55" s="103">
-        <v>28</v>
-      </c>
-      <c r="J55" s="103">
-        <v>27</v>
-      </c>
-      <c r="K55" s="103">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="103">
-        <v>31</v>
-      </c>
-      <c r="B56" s="151" t="s">
-        <v>437</v>
-      </c>
-      <c r="C56" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="D56" s="151" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="H56" s="103">
-        <v>30</v>
-      </c>
-      <c r="I56" s="103">
-        <v>29</v>
-      </c>
-      <c r="J56" s="103">
-        <v>28</v>
-      </c>
-      <c r="K56" s="103">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="103">
-        <v>32</v>
-      </c>
-      <c r="B57" s="151" t="s">
-        <v>441</v>
-      </c>
-      <c r="C57" s="151" t="s">
-        <v>442</v>
-      </c>
-      <c r="D57" s="151" t="s">
-        <v>443</v>
-      </c>
-      <c r="E57" s="151" t="s">
-        <v>444</v>
-      </c>
-      <c r="H57" s="103">
-        <v>31</v>
-      </c>
-      <c r="I57" s="103">
-        <v>30</v>
-      </c>
-      <c r="J57" s="103">
-        <v>29</v>
-      </c>
-      <c r="K57" s="103">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="103">
-        <v>33</v>
-      </c>
-      <c r="B58" s="151" t="s">
-        <v>445</v>
-      </c>
-      <c r="C58" s="151" t="s">
-        <v>446</v>
-      </c>
-      <c r="D58" s="151" t="s">
-        <v>447</v>
-      </c>
-      <c r="E58" s="151" t="s">
-        <v>448</v>
-      </c>
-      <c r="H58" s="103">
-        <v>32</v>
-      </c>
-      <c r="I58" s="103">
-        <v>31</v>
-      </c>
-      <c r="J58" s="103">
-        <v>30</v>
-      </c>
-      <c r="K58" s="103">
+      <c r="K58" s="102">
         <v>29</v>
       </c>
     </row>
@@ -21248,621 +21234,621 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="152"/>
+    <col min="1" max="16384" width="9.06640625" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="151" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="151" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" s="151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="151">
+        <v>0</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="153" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="153" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="154"/>
+      <c r="G2" s="152">
+        <v>0</v>
+      </c>
+      <c r="H2" s="153">
+        <v>0</v>
+      </c>
+      <c r="I2" s="153">
+        <v>0</v>
+      </c>
+      <c r="J2" s="154"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="151">
+        <v>1</v>
+      </c>
+      <c r="B3" s="155" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="157"/>
+      <c r="G3" s="155">
+        <v>1</v>
+      </c>
+      <c r="H3" s="156">
+        <v>0</v>
+      </c>
+      <c r="I3" s="156">
+        <v>0</v>
+      </c>
+      <c r="J3" s="157"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="151">
+        <v>2</v>
+      </c>
+      <c r="B4" s="158" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="156" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="159"/>
+      <c r="G4" s="158">
+        <v>0</v>
+      </c>
+      <c r="H4" s="156">
+        <v>1</v>
+      </c>
+      <c r="I4" s="156">
+        <v>0</v>
+      </c>
+      <c r="J4" s="159"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A5" s="151">
+        <v>3</v>
+      </c>
+      <c r="B5" s="160" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="C5" s="161" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="D5" s="161" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="162"/>
+      <c r="G5" s="160">
+        <v>0</v>
+      </c>
+      <c r="H5" s="161">
+        <v>0</v>
+      </c>
+      <c r="I5" s="161">
+        <v>1</v>
+      </c>
+      <c r="J5" s="162"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="151">
+        <v>4</v>
+      </c>
+      <c r="B6" s="152" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="C6" s="153" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="153" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="152">
+        <v>0</v>
+      </c>
+      <c r="H6" s="152">
+        <v>0</v>
+      </c>
+      <c r="I6" s="152">
+        <v>0</v>
+      </c>
+      <c r="J6" s="152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="151">
+        <v>5</v>
+      </c>
+      <c r="B7" s="155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="156" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="155">
+        <v>1</v>
+      </c>
+      <c r="H7" s="155">
+        <v>1</v>
+      </c>
+      <c r="I7" s="155">
+        <v>1</v>
+      </c>
+      <c r="J7" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="151">
+        <v>6</v>
+      </c>
+      <c r="B8" s="158" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="C8" s="156" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="156" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="158">
+        <v>2</v>
+      </c>
+      <c r="H8" s="158">
+        <v>2</v>
+      </c>
+      <c r="I8" s="158">
+        <v>2</v>
+      </c>
+      <c r="J8" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A9" s="151">
+        <v>7</v>
+      </c>
+      <c r="B9" s="166" t="s">
         <v>453</v>
       </c>
-      <c r="G1" s="152" t="s">
-        <v>450</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>451</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>452</v>
-      </c>
-      <c r="J1" s="152" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="152">
-        <v>0</v>
-      </c>
-      <c r="B2" s="153" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="154" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>314</v>
-      </c>
-      <c r="E2" s="155"/>
-      <c r="G2" s="153">
-        <v>0</v>
-      </c>
-      <c r="H2" s="154">
-        <v>0</v>
-      </c>
-      <c r="I2" s="154">
-        <v>0</v>
-      </c>
-      <c r="J2" s="155"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="152">
-        <v>1</v>
-      </c>
-      <c r="B3" s="156" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="157" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="158"/>
-      <c r="G3" s="156">
-        <v>1</v>
-      </c>
-      <c r="H3" s="157">
-        <v>0</v>
-      </c>
-      <c r="I3" s="157">
-        <v>0</v>
-      </c>
-      <c r="J3" s="158"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="152">
-        <v>2</v>
-      </c>
-      <c r="B4" s="159" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" s="157" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="160"/>
-      <c r="G4" s="159">
-        <v>0</v>
-      </c>
-      <c r="H4" s="157">
-        <v>1</v>
-      </c>
-      <c r="I4" s="157">
-        <v>0</v>
-      </c>
-      <c r="J4" s="160"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A5" s="152">
+      <c r="C9" s="167" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="168" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="166">
         <v>3</v>
       </c>
-      <c r="B5" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="C5" s="162" t="s">
-        <v>456</v>
-      </c>
-      <c r="D5" s="162" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="163"/>
-      <c r="G5" s="161">
-        <v>0</v>
-      </c>
-      <c r="H5" s="162">
-        <v>0</v>
-      </c>
-      <c r="I5" s="162">
-        <v>1</v>
-      </c>
-      <c r="J5" s="163"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="152">
+      <c r="H9" s="166">
+        <v>3</v>
+      </c>
+      <c r="I9" s="166">
+        <v>3</v>
+      </c>
+      <c r="J9" s="166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="151">
+        <v>8</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="156" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="164" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="152">
         <v>4</v>
       </c>
-      <c r="B6" s="153" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="154" t="s">
+      <c r="H10" s="152">
+        <v>4</v>
+      </c>
+      <c r="I10" s="152">
+        <v>4</v>
+      </c>
+      <c r="J10" s="152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="151">
+        <v>9</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="156" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="156" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="164" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="155">
+        <v>5</v>
+      </c>
+      <c r="H11" s="155">
+        <v>5</v>
+      </c>
+      <c r="I11" s="155">
+        <v>5</v>
+      </c>
+      <c r="J11" s="155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="151">
+        <v>10</v>
+      </c>
+      <c r="B12" s="155" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="156" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="164" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12" s="158">
+        <v>6</v>
+      </c>
+      <c r="H12" s="158">
+        <v>6</v>
+      </c>
+      <c r="I12" s="158">
+        <v>6</v>
+      </c>
+      <c r="J12" s="158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A13" s="151">
+        <v>11</v>
+      </c>
+      <c r="B13" s="160" t="s">
         <v>464</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="C13" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="E6" s="164" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6" s="153">
-        <v>0</v>
-      </c>
-      <c r="H6" s="153">
-        <v>0</v>
-      </c>
-      <c r="I6" s="153">
-        <v>0</v>
-      </c>
-      <c r="J6" s="153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="152">
-        <v>5</v>
-      </c>
-      <c r="B7" s="156" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="157" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="157" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="165" t="s">
+      <c r="D13" s="161" t="s">
         <v>466</v>
       </c>
-      <c r="G7" s="156">
-        <v>1</v>
-      </c>
-      <c r="H7" s="156">
-        <v>1</v>
-      </c>
-      <c r="I7" s="156">
-        <v>1</v>
-      </c>
-      <c r="J7" s="156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="152">
-        <v>6</v>
-      </c>
-      <c r="B8" s="159" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="157" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="157" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8" s="165" t="s">
-        <v>338</v>
-      </c>
-      <c r="G8" s="159">
-        <v>2</v>
-      </c>
-      <c r="H8" s="159">
-        <v>2</v>
-      </c>
-      <c r="I8" s="159">
-        <v>2</v>
-      </c>
-      <c r="J8" s="159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A9" s="152">
+      <c r="E13" s="165" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="166">
         <v>7</v>
       </c>
-      <c r="B9" s="167" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>461</v>
-      </c>
-      <c r="D9" s="168" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9" s="169" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="167">
-        <v>3</v>
-      </c>
-      <c r="H9" s="167">
-        <v>3</v>
-      </c>
-      <c r="I9" s="167">
-        <v>3</v>
-      </c>
-      <c r="J9" s="167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="152">
+      <c r="H13" s="166">
+        <v>7</v>
+      </c>
+      <c r="I13" s="166">
+        <v>7</v>
+      </c>
+      <c r="J13" s="166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="151">
+        <v>12</v>
+      </c>
+      <c r="G14" s="152">
         <v>8</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="157" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="157" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="153">
-        <v>4</v>
-      </c>
-      <c r="H10" s="153">
-        <v>4</v>
-      </c>
-      <c r="I10" s="153">
-        <v>4</v>
-      </c>
-      <c r="J10" s="153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="152">
+      <c r="H14" s="152">
+        <v>8</v>
+      </c>
+      <c r="I14" s="152">
+        <v>8</v>
+      </c>
+      <c r="J14" s="152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="151">
+        <v>13</v>
+      </c>
+      <c r="G15" s="155">
         <v>9</v>
       </c>
-      <c r="B11" s="159" t="s">
-        <v>467</v>
-      </c>
-      <c r="C11" s="157" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="157" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" s="165" t="s">
-        <v>341</v>
-      </c>
-      <c r="G11" s="156">
-        <v>5</v>
-      </c>
-      <c r="H11" s="156">
-        <v>5</v>
-      </c>
-      <c r="I11" s="156">
-        <v>5</v>
-      </c>
-      <c r="J11" s="156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="152">
+      <c r="H15" s="155">
+        <v>9</v>
+      </c>
+      <c r="I15" s="155">
+        <v>9</v>
+      </c>
+      <c r="J15" s="155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="151">
+        <v>14</v>
+      </c>
+      <c r="G16" s="158">
         <v>10</v>
       </c>
-      <c r="B12" s="156" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="157" t="s">
-        <v>469</v>
-      </c>
-      <c r="D12" s="157" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="159">
-        <v>6</v>
-      </c>
-      <c r="H12" s="159">
-        <v>6</v>
-      </c>
-      <c r="I12" s="159">
-        <v>6</v>
-      </c>
-      <c r="J12" s="159">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A13" s="152">
+      <c r="H16" s="158">
+        <v>10</v>
+      </c>
+      <c r="I16" s="158">
+        <v>10</v>
+      </c>
+      <c r="J16" s="158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A17" s="151">
+        <v>15</v>
+      </c>
+      <c r="G17" s="166">
         <v>11</v>
       </c>
-      <c r="B13" s="161" t="s">
-        <v>470</v>
-      </c>
-      <c r="C13" s="162" t="s">
-        <v>471</v>
-      </c>
-      <c r="D13" s="162" t="s">
-        <v>472</v>
-      </c>
-      <c r="E13" s="166" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="167">
-        <v>7</v>
-      </c>
-      <c r="H13" s="167">
-        <v>7</v>
-      </c>
-      <c r="I13" s="167">
-        <v>7</v>
-      </c>
-      <c r="J13" s="167">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="152">
+      <c r="H17" s="166">
+        <v>11</v>
+      </c>
+      <c r="I17" s="166">
+        <v>11</v>
+      </c>
+      <c r="J17" s="166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="151">
+        <v>16</v>
+      </c>
+      <c r="G18" s="152">
         <v>12</v>
       </c>
-      <c r="G14" s="153">
-        <v>8</v>
-      </c>
-      <c r="H14" s="153">
-        <v>8</v>
-      </c>
-      <c r="I14" s="153">
-        <v>8</v>
-      </c>
-      <c r="J14" s="153">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="152">
+      <c r="H18" s="152">
+        <v>12</v>
+      </c>
+      <c r="I18" s="152">
+        <v>12</v>
+      </c>
+      <c r="J18" s="152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="151">
+        <v>17</v>
+      </c>
+      <c r="G19" s="155">
         <v>13</v>
       </c>
-      <c r="G15" s="156">
-        <v>9</v>
-      </c>
-      <c r="H15" s="156">
-        <v>9</v>
-      </c>
-      <c r="I15" s="156">
-        <v>9</v>
-      </c>
-      <c r="J15" s="156">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="152">
+      <c r="H19" s="155">
+        <v>13</v>
+      </c>
+      <c r="I19" s="155">
+        <v>13</v>
+      </c>
+      <c r="J19" s="155">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="151">
+        <v>18</v>
+      </c>
+      <c r="G20" s="158">
         <v>14</v>
       </c>
-      <c r="G16" s="159">
-        <v>10</v>
-      </c>
-      <c r="H16" s="159">
-        <v>10</v>
-      </c>
-      <c r="I16" s="159">
-        <v>10</v>
-      </c>
-      <c r="J16" s="159">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A17" s="152">
+      <c r="H20" s="158">
+        <v>14</v>
+      </c>
+      <c r="I20" s="158">
+        <v>14</v>
+      </c>
+      <c r="J20" s="158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A21" s="151">
+        <v>19</v>
+      </c>
+      <c r="G21" s="166">
         <v>15</v>
       </c>
-      <c r="G17" s="167">
-        <v>11</v>
-      </c>
-      <c r="H17" s="167">
-        <v>11</v>
-      </c>
-      <c r="I17" s="167">
-        <v>11</v>
-      </c>
-      <c r="J17" s="167">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="152">
+      <c r="H21" s="166">
+        <v>15</v>
+      </c>
+      <c r="I21" s="166">
+        <v>15</v>
+      </c>
+      <c r="J21" s="166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="151">
+        <v>20</v>
+      </c>
+      <c r="G22" s="152">
         <v>16</v>
       </c>
-      <c r="G18" s="153">
-        <v>12</v>
-      </c>
-      <c r="H18" s="153">
-        <v>12</v>
-      </c>
-      <c r="I18" s="153">
-        <v>12</v>
-      </c>
-      <c r="J18" s="153">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="152">
+      <c r="H22" s="152">
+        <v>16</v>
+      </c>
+      <c r="I22" s="152">
+        <v>16</v>
+      </c>
+      <c r="J22" s="152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="151">
+        <v>21</v>
+      </c>
+      <c r="G23" s="155">
         <v>17</v>
       </c>
-      <c r="G19" s="156">
-        <v>13</v>
-      </c>
-      <c r="H19" s="156">
-        <v>13</v>
-      </c>
-      <c r="I19" s="156">
-        <v>13</v>
-      </c>
-      <c r="J19" s="156">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="152">
+      <c r="H23" s="155">
+        <v>17</v>
+      </c>
+      <c r="I23" s="155">
+        <v>17</v>
+      </c>
+      <c r="J23" s="155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="151">
+        <v>22</v>
+      </c>
+      <c r="G24" s="158">
         <v>18</v>
       </c>
-      <c r="G20" s="159">
-        <v>14</v>
-      </c>
-      <c r="H20" s="159">
-        <v>14</v>
-      </c>
-      <c r="I20" s="159">
-        <v>14</v>
-      </c>
-      <c r="J20" s="159">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A21" s="152">
+      <c r="H24" s="158">
+        <v>18</v>
+      </c>
+      <c r="I24" s="158">
+        <v>18</v>
+      </c>
+      <c r="J24" s="158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="151">
+        <v>23</v>
+      </c>
+      <c r="G25" s="166">
         <v>19</v>
       </c>
-      <c r="G21" s="167">
-        <v>15</v>
-      </c>
-      <c r="H21" s="167">
-        <v>15</v>
-      </c>
-      <c r="I21" s="167">
-        <v>15</v>
-      </c>
-      <c r="J21" s="167">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="152">
-        <v>20</v>
-      </c>
-      <c r="G22" s="153">
-        <v>16</v>
-      </c>
-      <c r="H22" s="153">
-        <v>16</v>
-      </c>
-      <c r="I22" s="153">
-        <v>16</v>
-      </c>
-      <c r="J22" s="153">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="152">
-        <v>21</v>
-      </c>
-      <c r="G23" s="156">
-        <v>17</v>
-      </c>
-      <c r="H23" s="156">
-        <v>17</v>
-      </c>
-      <c r="I23" s="156">
-        <v>17</v>
-      </c>
-      <c r="J23" s="156">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="152">
-        <v>22</v>
-      </c>
-      <c r="G24" s="159">
-        <v>18</v>
-      </c>
-      <c r="H24" s="159">
-        <v>18</v>
-      </c>
-      <c r="I24" s="159">
-        <v>18</v>
-      </c>
-      <c r="J24" s="159">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="152">
-        <v>23</v>
-      </c>
-      <c r="G25" s="167">
+      <c r="H25" s="166">
         <v>19</v>
       </c>
-      <c r="H25" s="167">
+      <c r="I25" s="166">
         <v>19</v>
       </c>
-      <c r="I25" s="167">
+      <c r="J25" s="166">
         <v>19</v>
       </c>
-      <c r="J25" s="167">
-        <v>19</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="152">
+      <c r="A26" s="151">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="152">
+      <c r="A27" s="151">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="152">
+      <c r="A28" s="151">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="152">
+      <c r="A29" s="151">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="152">
+      <c r="A30" s="151">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="152">
+      <c r="A31" s="151">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="152">
+      <c r="A32" s="151">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="152">
+      <c r="A33" s="151">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="152">
+      <c r="A34" s="151">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="152">
+      <c r="A35" s="151">
         <v>33</v>
       </c>
     </row>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13060A-9770-404B-9287-43AF617FAE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DE970-2620-4400-90B1-A7747B59AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="494">
   <si>
     <t>步骤</t>
   </si>
@@ -1549,10 +1549,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cov(1,2)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cov(1,3)</t>
   </si>
   <si>
@@ -1656,10 +1652,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>UPD_5转置(seq_cnt等待转置完成)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>S是对称矩阵</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1698,6 +1690,31 @@
   <si>
     <t>S, S_inv为对称 可转置</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPD_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>state(1,1)</t>
+  </si>
+  <si>
+    <t>state(2,1)</t>
+  </si>
+  <si>
+    <t>state(3,1)</t>
+  </si>
+  <si>
+    <t>cov(1,1)</t>
+  </si>
+  <si>
+    <t>cov(2,1)</t>
+  </si>
+  <si>
+    <t>cov(3,1)</t>
+  </si>
+  <si>
+    <t>cov(1,2)</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2361,24 +2378,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2876,12 +2882,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2904,6 +2904,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2930,16 +2942,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3889,10 +3913,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="178"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4672,12 +4696,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12269,8 +12293,8 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12598,7 +12622,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -12623,7 +12647,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12644,8 +12668,8 @@
       <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="171" t="s">
-        <v>470</v>
+      <c r="C16" s="169" t="s">
+        <v>469</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12758,8 +12782,8 @@
       <c r="D20" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="171" t="s">
-        <v>470</v>
+      <c r="E20" s="169" t="s">
+        <v>469</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12932,7 +12956,7 @@
         <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -13118,8 +13142,8 @@
       <c r="B34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="171" t="s">
-        <v>470</v>
+      <c r="C34" s="169" t="s">
+        <v>469</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13317,7 +13341,7 @@
         <v>222</v>
       </c>
       <c r="F41" s="92" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -13959,14 +13983,14 @@
       <c r="A66" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="172" t="s">
-        <v>485</v>
+      <c r="B66" s="170" t="s">
+        <v>483</v>
       </c>
       <c r="C66" s="74" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="185"/>
+      <c r="E66" s="175"/>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -13985,13 +14009,13 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D67" s="24"/>
-      <c r="E67" s="186"/>
+      <c r="E67" s="176"/>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -14016,7 +14040,7 @@
         <v>191</v>
       </c>
       <c r="D68" s="42"/>
-      <c r="E68" s="187"/>
+      <c r="E68" s="177"/>
       <c r="F68" s="38"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -14043,7 +14067,7 @@
         <v>176</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="175"/>
+      <c r="E69" s="173"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -14068,7 +14092,7 @@
         <v>177</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="175"/>
+      <c r="E70" s="173"/>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -14093,7 +14117,7 @@
         <v>191</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="175"/>
+      <c r="E71" s="173"/>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -14113,7 +14137,7 @@
       <c r="A72" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="188" t="s">
+      <c r="B72" s="178" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -14205,7 +14229,7 @@
         <v>220</v>
       </c>
       <c r="F75" s="92" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -14223,7 +14247,7 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="151" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>62</v>
@@ -14238,12 +14262,12 @@
         <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G76" s="173"/>
-      <c r="H76" s="174"/>
-      <c r="I76" s="173"/>
-      <c r="J76" s="175"/>
+        <v>476</v>
+      </c>
+      <c r="G76" s="171"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="173"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14269,10 +14293,10 @@
         <v>45</v>
       </c>
       <c r="F77" s="92"/>
-      <c r="G77" s="176"/>
-      <c r="H77" s="174"/>
-      <c r="I77" s="176"/>
-      <c r="J77" s="175"/>
+      <c r="G77" s="174"/>
+      <c r="H77" s="172"/>
+      <c r="I77" s="174"/>
+      <c r="J77" s="173"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14297,10 +14321,10 @@
       <c r="E78" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="176"/>
-      <c r="H78" s="174"/>
-      <c r="I78" s="176"/>
-      <c r="J78" s="175"/>
+      <c r="G78" s="174"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="174"/>
+      <c r="J78" s="173"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14325,10 +14349,10 @@
       <c r="E79" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G79" s="176"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="176"/>
-      <c r="J79" s="175"/>
+      <c r="G79" s="174"/>
+      <c r="H79" s="172"/>
+      <c r="I79" s="174"/>
+      <c r="J79" s="173"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14341,7 +14365,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="17" t="s">
-        <v>477</v>
+        <v>210</v>
       </c>
       <c r="B80" s="58" t="s">
         <v>63</v>
@@ -14418,7 +14442,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B83" s="58" t="s">
         <v>223</v>
@@ -14485,7 +14509,7 @@
         <v>186</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -14514,7 +14538,7 @@
         <v>220</v>
       </c>
       <c r="F86" s="92" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -14708,7 +14732,7 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="90" t="s">
-        <v>211</v>
+        <v>486</v>
       </c>
       <c r="B93" s="93" t="s">
         <v>66</v>
@@ -14806,7 +14830,7 @@
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
       <c r="F96" s="91" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -14845,11 +14869,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="180" t="s">
+      <c r="B98" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="181"/>
-      <c r="D98" s="181"/>
+      <c r="C98" s="183"/>
+      <c r="D98" s="183"/>
       <c r="E98" s="80" t="s">
         <v>202</v>
       </c>
@@ -18541,7 +18565,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D2" s="134"/>
       <c r="E2" s="135" t="s">
@@ -18564,11 +18588,11 @@
       <c r="B4" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18600,11 +18624,11 @@
       <c r="B7" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170" t="s">
+      <c r="D7" s="167"/>
+      <c r="E7" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18636,11 +18660,11 @@
       <c r="B10" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18672,11 +18696,11 @@
       <c r="B13" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="167" t="s">
         <v>186</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="E13" s="170" t="s">
+      <c r="E13" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18712,13 +18736,13 @@
       <c r="B16" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="167" t="s">
         <v>186</v>
       </c>
       <c r="D16" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18754,13 +18778,13 @@
       <c r="B19" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="167" t="s">
         <v>186</v>
       </c>
       <c r="D19" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="170" t="s">
+      <c r="E19" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18769,7 +18793,7 @@
         <v>245</v>
       </c>
       <c r="C20" s="134" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D20" s="134" t="s">
         <v>242</v>
@@ -18787,7 +18811,7 @@
         <v>237</v>
       </c>
       <c r="C21" s="139" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="139" t="s">
         <v>237</v>
@@ -18803,13 +18827,13 @@
       <c r="B22" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="167" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="170" t="s">
+      <c r="E22" s="168" t="s">
         <v>186</v>
       </c>
     </row>
@@ -19002,20 +19026,20 @@
       <c r="O2" s="108"/>
       <c r="P2" s="108"/>
       <c r="Q2" s="107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R2" s="108"/>
       <c r="S2" s="110">
         <v>5</v>
       </c>
       <c r="T2" s="111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U2" s="110">
         <v>4</v>
       </c>
       <c r="V2" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W2" s="109"/>
       <c r="X2" s="107" t="s">
@@ -19027,7 +19051,7 @@
       </c>
       <c r="AA2" s="109"/>
       <c r="AB2" s="113" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AC2" s="114">
         <v>-3</v>
@@ -19036,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="113" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF2" s="114">
         <v>3</v>
@@ -19302,67 +19326,67 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="184" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="182" t="s">
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="184" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="182" t="s">
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="182" t="s">
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="184" t="s">
         <v>298</v>
       </c>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183"/>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="184"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="186"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
@@ -21229,7 +21253,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21271,13 +21295,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>303</v>
+        <v>490</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>305</v>
+        <v>491</v>
       </c>
       <c r="D2" s="153" t="s">
-        <v>308</v>
+        <v>492</v>
       </c>
       <c r="E2" s="154"/>
       <c r="G2" s="152">
@@ -21296,13 +21320,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="155" t="s">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="C3" s="156" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="D3" s="156" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="E3" s="157"/>
       <c r="G3" s="155">
@@ -21324,10 +21348,10 @@
         <v>448</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E4" s="159"/>
       <c r="G4" s="158">
@@ -21345,14 +21369,14 @@
       <c r="A5" s="151">
         <v>3</v>
       </c>
-      <c r="B5" s="160" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="161" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="161" t="s">
-        <v>384</v>
+      <c r="B5" s="187" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="188" t="s">
+        <v>489</v>
       </c>
       <c r="E5" s="162"/>
       <c r="G5" s="160">
@@ -21370,17 +21394,17 @@
       <c r="A6" s="151">
         <v>4</v>
       </c>
-      <c r="B6" s="152" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="153" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="153" t="s">
+      <c r="B6" s="189" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="190" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="190" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="191" t="s">
         <v>459</v>
-      </c>
-      <c r="E6" s="163" t="s">
-        <v>330</v>
       </c>
       <c r="G6" s="152">
         <v>0</v>
@@ -21399,17 +21423,17 @@
       <c r="A7" s="151">
         <v>5</v>
       </c>
-      <c r="B7" s="155" t="s">
-        <v>313</v>
+      <c r="B7" s="158" t="s">
+        <v>451</v>
       </c>
       <c r="C7" s="156" t="s">
-        <v>318</v>
+        <v>453</v>
       </c>
       <c r="D7" s="156" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="E7" s="164" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="G7" s="155">
         <v>1</v>
@@ -21428,7 +21452,7 @@
       <c r="A8" s="151">
         <v>6</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="155" t="s">
         <v>452</v>
       </c>
       <c r="C8" s="156" t="s">
@@ -21438,7 +21462,7 @@
         <v>456</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G8" s="158">
         <v>2</v>
@@ -21457,17 +21481,17 @@
       <c r="A9" s="151">
         <v>7</v>
       </c>
-      <c r="B9" s="166" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="167" t="s">
-        <v>455</v>
-      </c>
-      <c r="D9" s="167" t="s">
+      <c r="B9" s="192" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="193" t="s">
         <v>457</v>
       </c>
-      <c r="E9" s="168" t="s">
-        <v>333</v>
+      <c r="D9" s="193" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="194" t="s">
+        <v>330</v>
       </c>
       <c r="G9" s="166">
         <v>3</v>
@@ -21516,7 +21540,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C11" s="156" t="s">
         <v>322</v>
@@ -21545,10 +21569,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="155" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="156" t="s">
         <v>462</v>
-      </c>
-      <c r="C12" s="156" t="s">
-        <v>463</v>
       </c>
       <c r="D12" s="156" t="s">
         <v>329</v>
@@ -21574,13 +21598,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="160" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="161" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="D13" s="161" t="s">
         <v>465</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>466</v>
       </c>
       <c r="E13" s="165" t="s">
         <v>337</v>
@@ -21615,7 +21639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.25" thickBot="1">
       <c r="A15" s="151">
         <v>13</v>
       </c>
@@ -21635,6 +21659,18 @@
     <row r="16" spans="1:10">
       <c r="A16" s="151">
         <v>14</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="153" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" s="153" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="163" t="s">
+        <v>330</v>
       </c>
       <c r="G16" s="158">
         <v>10</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DE970-2620-4400-90B1-A7747B59AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54029D-2C91-420C-82E7-B38184FFD5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="494">
   <si>
     <t>步骤</t>
   </si>
@@ -1024,13 +1024,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>cov_vl_H_T(3,1)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(3,2)</t>
-  </si>
-  <si>
     <t>cov_l/K(3,1)</t>
   </si>
   <si>
@@ -1715,6 +1708,14 @@
   </si>
   <si>
     <t>cov(1,2)</t>
+  </si>
+  <si>
+    <t>vt(0,1)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt(0,2)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1822,7 +1823,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1917,6 +1918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,7 +2391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2726,9 +2733,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,6 +2922,30 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2942,29 +2970,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3913,10 +3929,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="180"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4696,12 +4712,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12293,8 +12309,8 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12622,7 +12638,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -12647,7 +12663,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12668,8 +12684,8 @@
       <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="169" t="s">
-        <v>469</v>
+      <c r="C16" s="168" t="s">
+        <v>467</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="54" t="s">
@@ -12782,8 +12798,8 @@
       <c r="D20" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="169" t="s">
-        <v>469</v>
+      <c r="E20" s="168" t="s">
+        <v>467</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -12956,7 +12972,7 @@
         <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -13142,8 +13158,8 @@
       <c r="B34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="169" t="s">
-        <v>469</v>
+      <c r="C34" s="168" t="s">
+        <v>467</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="66" t="s">
@@ -13341,7 +13357,7 @@
         <v>222</v>
       </c>
       <c r="F41" s="92" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G41" s="92"/>
       <c r="H41" s="92"/>
@@ -13983,14 +13999,14 @@
       <c r="A66" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="170" t="s">
-        <v>483</v>
+      <c r="B66" s="169" t="s">
+        <v>481</v>
       </c>
       <c r="C66" s="74" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="175"/>
+      <c r="E66" s="174"/>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -14009,13 +14025,13 @@
     <row r="67" spans="1:19">
       <c r="A67" s="39"/>
       <c r="B67" s="46" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>174</v>
       </c>
       <c r="D67" s="24"/>
-      <c r="E67" s="176"/>
+      <c r="E67" s="175"/>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -14040,7 +14056,7 @@
         <v>191</v>
       </c>
       <c r="D68" s="42"/>
-      <c r="E68" s="177"/>
+      <c r="E68" s="176"/>
       <c r="F68" s="38"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -14067,7 +14083,7 @@
         <v>176</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="173"/>
+      <c r="E69" s="172"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -14092,7 +14108,7 @@
         <v>177</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="173"/>
+      <c r="E70" s="172"/>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -14117,7 +14133,7 @@
         <v>191</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="173"/>
+      <c r="E71" s="172"/>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -14137,7 +14153,7 @@
       <c r="A72" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="178" t="s">
+      <c r="B72" s="177" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -14229,7 +14245,7 @@
         <v>220</v>
       </c>
       <c r="F75" s="92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -14246,8 +14262,8 @@
       <c r="S75" s="40"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="151" t="s">
-        <v>475</v>
+      <c r="A76" s="150" t="s">
+        <v>473</v>
       </c>
       <c r="B76" s="60" t="s">
         <v>62</v>
@@ -14262,12 +14278,12 @@
         <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G76" s="171"/>
-      <c r="H76" s="172"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="173"/>
+        <v>474</v>
+      </c>
+      <c r="G76" s="170"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="170"/>
+      <c r="J76" s="172"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14293,10 +14309,10 @@
         <v>45</v>
       </c>
       <c r="F77" s="92"/>
-      <c r="G77" s="174"/>
-      <c r="H77" s="172"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="173"/>
+      <c r="G77" s="173"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="173"/>
+      <c r="J77" s="172"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14321,10 +14337,10 @@
       <c r="E78" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="174"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="173"/>
+      <c r="G78" s="173"/>
+      <c r="H78" s="171"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="172"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14349,10 +14365,10 @@
       <c r="E79" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="172"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="173"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="171"/>
+      <c r="I79" s="173"/>
+      <c r="J79" s="172"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14509,7 +14525,7 @@
         <v>186</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -14538,7 +14554,7 @@
         <v>220</v>
       </c>
       <c r="F86" s="92" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -14732,7 +14748,7 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="90" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B93" s="93" t="s">
         <v>66</v>
@@ -14830,7 +14846,7 @@
       <c r="D96" s="42"/>
       <c r="E96" s="48"/>
       <c r="F96" s="91" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -14869,11 +14885,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="183"/>
-      <c r="D98" s="183"/>
+      <c r="C98" s="190"/>
+      <c r="D98" s="190"/>
       <c r="E98" s="80" t="s">
         <v>202</v>
       </c>
@@ -18561,244 +18577,244 @@
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="134" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135" t="s">
+      <c r="C2" s="133" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="134" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140" t="s">
+      <c r="D6" s="138"/>
+      <c r="E6" s="139" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="168" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="134" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="133" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135" t="s">
+      <c r="D11" s="133"/>
+      <c r="E11" s="134" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="139" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="168" t="s">
+      <c r="D13" s="122"/>
+      <c r="E13" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="133" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="134" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="139" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="168" t="s">
+      <c r="E16" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="131" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="133" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="134" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="139" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="168" t="s">
+      <c r="E19" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="134" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="134" t="s">
+      <c r="C20" s="133" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="134" t="s">
         <v>246</v>
       </c>
       <c r="F20" s="103" t="s">
@@ -18807,16 +18823,16 @@
       <c r="G20" s="103"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="139" t="s">
-        <v>468</v>
-      </c>
-      <c r="D21" s="139" t="s">
+      <c r="C21" s="138" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="138" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="140" t="s">
+      <c r="E21" s="139" t="s">
         <v>237</v>
       </c>
       <c r="F21" s="102" t="s">
@@ -18824,16 +18840,16 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="168" t="s">
+      <c r="E22" s="167" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18848,7 +18864,7 @@
   <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -19026,20 +19042,20 @@
       <c r="O2" s="108"/>
       <c r="P2" s="108"/>
       <c r="Q2" s="107" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R2" s="108"/>
       <c r="S2" s="110">
         <v>5</v>
       </c>
       <c r="T2" s="111" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U2" s="110">
         <v>4</v>
       </c>
       <c r="V2" s="107" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="W2" s="109"/>
       <c r="X2" s="107" t="s">
@@ -19051,7 +19067,7 @@
       </c>
       <c r="AA2" s="109"/>
       <c r="AB2" s="113" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AC2" s="114">
         <v>-3</v>
@@ -19060,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="113" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AF2" s="114">
         <v>3</v>
@@ -19076,10 +19092,10 @@
       <c r="AK2" s="108"/>
       <c r="AL2" s="108"/>
       <c r="AM2" s="108"/>
-      <c r="AN2" s="113" t="s">
+      <c r="AN2" s="194" t="s">
         <v>258</v>
       </c>
-      <c r="AO2" s="115" t="s">
+      <c r="AO2" s="195" t="s">
         <v>259</v>
       </c>
       <c r="AP2" s="107" t="s">
@@ -19105,96 +19121,96 @@
       <c r="A3" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116">
         <v>1</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="117">
+      <c r="E3" s="118"/>
+      <c r="F3" s="116">
         <v>1</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120">
+      <c r="G3" s="116"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119">
         <v>1</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120">
+      <c r="J3" s="120"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119">
         <v>1</v>
       </c>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="123">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="122">
         <v>1</v>
       </c>
-      <c r="S3" s="124">
+      <c r="S3" s="123">
         <v>6</v>
       </c>
-      <c r="T3" s="125">
+      <c r="T3" s="124">
         <v>5</v>
       </c>
-      <c r="U3" s="124">
+      <c r="U3" s="123">
         <v>6</v>
       </c>
-      <c r="V3" s="122"/>
-      <c r="W3" s="126">
+      <c r="V3" s="121"/>
+      <c r="W3" s="125">
         <v>1</v>
       </c>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="127">
+      <c r="X3" s="121"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="126">
         <v>4</v>
       </c>
-      <c r="AC3" s="128">
+      <c r="AC3" s="127">
         <v>-5</v>
       </c>
-      <c r="AD3" s="123">
+      <c r="AD3" s="122">
         <v>-1</v>
       </c>
-      <c r="AE3" s="127">
+      <c r="AE3" s="126">
         <v>-4</v>
       </c>
-      <c r="AF3" s="128">
+      <c r="AF3" s="127">
         <v>5</v>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="119" t="s">
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="AO3" s="121" t="s">
+      <c r="AO3" s="120" t="s">
         <v>269</v>
       </c>
-      <c r="AP3" s="119" t="s">
+      <c r="AP3" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="AQ3" s="121" t="s">
+      <c r="AQ3" s="120" t="s">
         <v>271</v>
       </c>
-      <c r="AR3" s="119" t="s">
+      <c r="AR3" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="AS3" s="121" t="s">
+      <c r="AS3" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="AT3" s="119" t="s">
+      <c r="AT3" s="118" t="s">
         <v>274</v>
       </c>
-      <c r="AU3" s="121" t="s">
+      <c r="AU3" s="120" t="s">
         <v>275</v>
       </c>
     </row>
@@ -19202,73 +19218,73 @@
       <c r="A4" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130">
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129">
         <v>1</v>
       </c>
       <c r="E4" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="130">
+      <c r="G4" s="129">
         <v>1</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="126">
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="125">
         <v>1</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123">
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122">
         <v>2</v>
       </c>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AN4" s="119" t="s">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AN4" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="AO4" s="121" t="s">
+      <c r="AO4" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="AP4" s="119" t="s">
+      <c r="AP4" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="AQ4" s="121" t="s">
+      <c r="AQ4" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="AR4" s="119" t="s">
+      <c r="AR4" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="AS4" s="121" t="s">
+      <c r="AS4" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="AT4" s="119" t="s">
+      <c r="AT4" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="AU4" s="121" t="s">
+      <c r="AU4" s="120" t="s">
         <v>284</v>
       </c>
     </row>
@@ -19276,127 +19292,127 @@
       <c r="A5" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AN5" s="122" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AN5" s="196" t="s">
+        <v>492</v>
+      </c>
+      <c r="AO5" s="197" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP5" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="AO5" s="126" t="s">
+      <c r="AQ5" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="AP5" s="122" t="s">
+      <c r="AR5" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="AQ5" s="126" t="s">
+      <c r="AS5" s="125" t="s">
         <v>289</v>
       </c>
-      <c r="AR5" s="122" t="s">
+      <c r="AT5" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="AS5" s="126" t="s">
+      <c r="AU5" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="AT5" s="122" t="s">
+    </row>
+    <row r="6" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B6" s="191" t="s">
         <v>292</v>
       </c>
-      <c r="AU5" s="126" t="s">
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="191" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="184" t="s">
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" thickBot="1">
+      <c r="B7" s="191" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="184" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="191" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
-    </row>
-    <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="184" t="s">
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="191" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="184" t="s">
-        <v>297</v>
-      </c>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="184" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
-      <c r="AN7" s="185"/>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="186"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="192"/>
+      <c r="AG7" s="192"/>
+      <c r="AH7" s="192"/>
+      <c r="AI7" s="192"/>
+      <c r="AJ7" s="192"/>
+      <c r="AK7" s="192"/>
+      <c r="AL7" s="192"/>
+      <c r="AM7" s="192"/>
+      <c r="AN7" s="192"/>
+      <c r="AO7" s="192"/>
+      <c r="AP7" s="192"/>
+      <c r="AQ7" s="192"/>
+      <c r="AR7" s="193"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19404,7 +19420,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19414,7 +19430,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -19444,794 +19460,794 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="132">
+      <c r="A1" s="131">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="136">
+      <c r="A2" s="135">
         <v>1</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="139"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="135">
+        <v>2</v>
+      </c>
+      <c r="B3" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="140"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="136">
-        <v>2</v>
-      </c>
-      <c r="B3" s="137" t="s">
+      <c r="D3" s="137" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="139"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="135">
+        <v>3</v>
+      </c>
+      <c r="B4" s="136" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="140"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="136">
-        <v>3</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="D4" s="137" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="E4" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="139"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="135">
+        <v>4</v>
+      </c>
+      <c r="B5" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="C5" s="137" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="136">
-        <v>4</v>
-      </c>
-      <c r="B5" s="137" t="s">
+      <c r="D5" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="E5" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="F5" s="137" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="139"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="135">
+        <v>5</v>
+      </c>
+      <c r="B6" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="C6" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="136">
-        <v>5</v>
-      </c>
-      <c r="B6" s="137" t="s">
+      <c r="D6" s="137" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="E6" s="137" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="F6" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="G6" s="137" t="s">
         <v>320</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="135">
+        <v>6</v>
+      </c>
+      <c r="B7" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="C7" s="137" t="s">
         <v>322</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="140"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="136">
-        <v>6</v>
-      </c>
-      <c r="B7" s="137" t="s">
+      <c r="D7" s="137" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="E7" s="137" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="G7" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="H7" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="139"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="135">
+        <v>7</v>
+      </c>
+      <c r="B8" s="136" t="s">
         <v>328</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="C8" s="137" t="s">
         <v>329</v>
       </c>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="136">
-        <v>7</v>
-      </c>
-      <c r="B8" s="137" t="s">
+      <c r="D8" s="137" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="E8" s="137" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="F8" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="G8" s="137" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="H8" s="137" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="I8" s="137" t="s">
         <v>335</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="139"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="135">
+        <v>8</v>
+      </c>
+      <c r="B9" s="136" t="s">
         <v>336</v>
       </c>
-      <c r="I8" s="138" t="s">
+      <c r="C9" s="137" t="s">
         <v>337</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="136">
-        <v>8</v>
-      </c>
-      <c r="B9" s="137" t="s">
+      <c r="D9" s="137" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="E9" s="137" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="F9" s="137" t="s">
         <v>340</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="G9" s="137" t="s">
         <v>341</v>
       </c>
-      <c r="F9" s="138" t="s">
+      <c r="H9" s="137" t="s">
         <v>342</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="I9" s="137" t="s">
         <v>343</v>
       </c>
-      <c r="H9" s="138" t="s">
+      <c r="J9" s="137" t="s">
         <v>344</v>
       </c>
-      <c r="I9" s="138" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="139"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="135">
+        <v>9</v>
+      </c>
+      <c r="B10" s="136" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="C10" s="137" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="140"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="136">
-        <v>9</v>
-      </c>
-      <c r="B10" s="137" t="s">
+      <c r="D10" s="137" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="E10" s="137" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="F10" s="137" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="G10" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="138" t="s">
+      <c r="H10" s="137" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="138" t="s">
+      <c r="I10" s="137" t="s">
         <v>352</v>
       </c>
-      <c r="H10" s="138" t="s">
+      <c r="J10" s="137" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="K10" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="J10" s="138" t="s">
+      <c r="L10" s="138"/>
+      <c r="M10" s="139"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="135">
+        <v>10</v>
+      </c>
+      <c r="B11" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="K10" s="138" t="s">
+      <c r="C11" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="136">
-        <v>10</v>
-      </c>
-      <c r="B11" s="137" t="s">
+      <c r="D11" s="137" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="E11" s="137" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="F11" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="E11" s="138" t="s">
+      <c r="G11" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="F11" s="138" t="s">
+      <c r="H11" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="I11" s="137" t="s">
         <v>362</v>
       </c>
-      <c r="H11" s="138" t="s">
+      <c r="J11" s="137" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="138" t="s">
+      <c r="K11" s="137" t="s">
         <v>364</v>
       </c>
-      <c r="J11" s="138" t="s">
+      <c r="L11" s="137" t="s">
         <v>365</v>
       </c>
-      <c r="K11" s="138" t="s">
+      <c r="M11" s="139"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A12" s="140">
+        <v>11</v>
+      </c>
+      <c r="B12" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="L11" s="138" t="s">
+      <c r="C12" s="142" t="s">
         <v>367</v>
       </c>
-      <c r="M11" s="140"/>
-    </row>
-    <row r="12" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A12" s="141">
-        <v>11</v>
-      </c>
-      <c r="B12" s="142" t="s">
+      <c r="D12" s="142" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="E12" s="142" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="F12" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="G12" s="142" t="s">
         <v>371</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="H12" s="142" t="s">
         <v>372</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="I12" s="142" t="s">
         <v>373</v>
       </c>
-      <c r="H12" s="143" t="s">
+      <c r="J12" s="142" t="s">
         <v>374</v>
       </c>
-      <c r="I12" s="143" t="s">
+      <c r="K12" s="142" t="s">
         <v>375</v>
       </c>
-      <c r="J12" s="143" t="s">
+      <c r="L12" s="142" t="s">
         <v>376</v>
       </c>
-      <c r="K12" s="143" t="s">
+      <c r="M12" s="144" t="s">
         <v>377</v>
-      </c>
-      <c r="L12" s="143" t="s">
-        <v>378</v>
-      </c>
-      <c r="M12" s="145" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="147" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="147" t="s">
         <v>330</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="F14" s="147" t="s">
         <v>331</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="G14" s="147" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="148" t="s">
+      <c r="H14" s="147" t="s">
         <v>333</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="I14" s="147" t="s">
         <v>334</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="J14" s="147" t="s">
         <v>335</v>
       </c>
-      <c r="I14" s="148" t="s">
+      <c r="K14" s="146" t="s">
         <v>336</v>
       </c>
-      <c r="J14" s="148" t="s">
+      <c r="L14" s="147" t="s">
         <v>337</v>
       </c>
-      <c r="K14" s="147" t="s">
+      <c r="M14" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="L14" s="148" t="s">
+      <c r="N14" s="147" t="s">
         <v>339</v>
       </c>
-      <c r="M14" s="148" t="s">
+      <c r="O14" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="N14" s="148" t="s">
+      <c r="P14" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="O14" s="148" t="s">
+      <c r="Q14" s="147" t="s">
         <v>342</v>
       </c>
-      <c r="P14" s="148" t="s">
+      <c r="R14" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="Q14" s="148" t="s">
+      <c r="S14" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="R14" s="148" t="s">
-        <v>345</v>
-      </c>
-      <c r="S14" s="148" t="s">
-        <v>346</v>
-      </c>
       <c r="T14" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U14" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V14" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W14" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="147" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="147" t="s">
+      <c r="B15" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="G15" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="F15" s="148" t="s">
+      <c r="H15" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="G15" s="148" t="s">
+      <c r="I15" s="147" t="s">
         <v>326</v>
       </c>
-      <c r="H15" s="148" t="s">
+      <c r="J15" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="I15" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="147" t="s">
+      <c r="K15" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="L15" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="M15" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="148" t="s">
+      <c r="N15" s="147" t="s">
         <v>348</v>
       </c>
-      <c r="M15" s="148" t="s">
+      <c r="O15" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="N15" s="148" t="s">
+      <c r="P15" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="O15" s="148" t="s">
+      <c r="Q15" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="P15" s="148" t="s">
+      <c r="R15" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="Q15" s="148" t="s">
+      <c r="S15" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="R15" s="148" t="s">
+      <c r="T15" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="S15" s="148" t="s">
-        <v>355</v>
-      </c>
-      <c r="T15" s="148" t="s">
-        <v>356</v>
-      </c>
       <c r="U15" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V15" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W15" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="147" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="148" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="147" t="s">
+      <c r="E16" s="146" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="147" t="s">
         <v>317</v>
       </c>
-      <c r="F16" s="148" t="s">
+      <c r="H16" s="147" t="s">
         <v>318</v>
       </c>
-      <c r="G16" s="148" t="s">
+      <c r="I16" s="147" t="s">
         <v>319</v>
       </c>
-      <c r="H16" s="148" t="s">
+      <c r="J16" s="147" t="s">
         <v>320</v>
       </c>
-      <c r="I16" s="148" t="s">
-        <v>321</v>
-      </c>
-      <c r="J16" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="K16" s="147" t="s">
+      <c r="K16" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="L16" s="147" t="s">
+        <v>356</v>
+      </c>
+      <c r="M16" s="147" t="s">
         <v>357</v>
       </c>
-      <c r="L16" s="148" t="s">
+      <c r="N16" s="147" t="s">
         <v>358</v>
       </c>
-      <c r="M16" s="148" t="s">
+      <c r="O16" s="147" t="s">
         <v>359</v>
       </c>
-      <c r="N16" s="148" t="s">
+      <c r="P16" s="147" t="s">
         <v>360</v>
       </c>
-      <c r="O16" s="148" t="s">
+      <c r="Q16" s="147" t="s">
         <v>361</v>
       </c>
-      <c r="P16" s="148" t="s">
+      <c r="R16" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="Q16" s="148" t="s">
+      <c r="S16" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="R16" s="148" t="s">
+      <c r="T16" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="S16" s="148" t="s">
+      <c r="U16" s="147" t="s">
         <v>365</v>
       </c>
-      <c r="T16" s="148" t="s">
-        <v>366</v>
-      </c>
-      <c r="U16" s="148" t="s">
-        <v>367</v>
-      </c>
       <c r="V16" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W16" s="102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="147" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="E17" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="F17" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="G17" s="147" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="H17" s="147" t="s">
         <v>312</v>
       </c>
-      <c r="G17" s="148" t="s">
+      <c r="I17" s="147" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="148" t="s">
+      <c r="J17" s="147" t="s">
         <v>314</v>
       </c>
-      <c r="I17" s="148" t="s">
-        <v>315</v>
-      </c>
-      <c r="J17" s="148" t="s">
-        <v>316</v>
-      </c>
-      <c r="K17" s="147" t="s">
+      <c r="K17" s="146" t="s">
+        <v>366</v>
+      </c>
+      <c r="L17" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="M17" s="147" t="s">
         <v>368</v>
       </c>
-      <c r="L17" s="148" t="s">
+      <c r="N17" s="147" t="s">
         <v>369</v>
       </c>
-      <c r="M17" s="148" t="s">
+      <c r="O17" s="148" t="s">
         <v>370</v>
       </c>
-      <c r="N17" s="148" t="s">
+      <c r="P17" s="147" t="s">
         <v>371</v>
       </c>
-      <c r="O17" s="149" t="s">
+      <c r="Q17" s="147" t="s">
         <v>372</v>
       </c>
-      <c r="P17" s="148" t="s">
+      <c r="R17" s="147" t="s">
         <v>373</v>
       </c>
-      <c r="Q17" s="148" t="s">
+      <c r="S17" s="147" t="s">
         <v>374</v>
       </c>
-      <c r="R17" s="148" t="s">
+      <c r="T17" s="147" t="s">
         <v>375</v>
       </c>
-      <c r="S17" s="148" t="s">
+      <c r="U17" s="147" t="s">
         <v>376</v>
       </c>
-      <c r="T17" s="148" t="s">
+      <c r="V17" s="147" t="s">
         <v>377</v>
       </c>
-      <c r="U17" s="148" t="s">
+      <c r="W17" s="102" t="s">
         <v>378</v>
-      </c>
-      <c r="V17" s="148" t="s">
-        <v>379</v>
-      </c>
-      <c r="W17" s="102" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="E19" s="147" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="F19" s="147" t="s">
         <v>340</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="G19" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="148" t="s">
+      <c r="H19" s="147" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="148" t="s">
+      <c r="I19" s="147" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="148" t="s">
+      <c r="J19" s="147" t="s">
         <v>344</v>
-      </c>
-      <c r="I19" s="148" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="148" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="E20" s="147" t="s">
         <v>348</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="F20" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="G20" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="F20" s="148" t="s">
+      <c r="H20" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="148" t="s">
+      <c r="I20" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="H20" s="148" t="s">
+      <c r="J20" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="I20" s="148" t="s">
+      <c r="K20" s="147" t="s">
         <v>354</v>
-      </c>
-      <c r="J20" s="148" t="s">
-        <v>355</v>
-      </c>
-      <c r="K20" s="148" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="147" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="147" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="E21" s="147" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="F21" s="147" t="s">
         <v>359</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="G21" s="147" t="s">
         <v>360</v>
       </c>
-      <c r="F21" s="148" t="s">
+      <c r="H21" s="147" t="s">
         <v>361</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="I21" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="H21" s="148" t="s">
+      <c r="J21" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="I21" s="148" t="s">
+      <c r="K21" s="147" t="s">
         <v>364</v>
       </c>
-      <c r="J21" s="148" t="s">
+      <c r="L21" s="147" t="s">
         <v>365</v>
-      </c>
-      <c r="K21" s="148" t="s">
-        <v>366</v>
-      </c>
-      <c r="L21" s="148" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="146" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="147" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="E22" s="147" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="F22" s="148" t="s">
         <v>370</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="G22" s="147" t="s">
         <v>371</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="H22" s="147" t="s">
         <v>372</v>
       </c>
-      <c r="G22" s="148" t="s">
+      <c r="I22" s="147" t="s">
         <v>373</v>
       </c>
-      <c r="H22" s="148" t="s">
+      <c r="J22" s="147" t="s">
         <v>374</v>
       </c>
-      <c r="I22" s="148" t="s">
+      <c r="K22" s="147" t="s">
         <v>375</v>
       </c>
-      <c r="J22" s="148" t="s">
+      <c r="L22" s="147" t="s">
         <v>376</v>
       </c>
-      <c r="K22" s="148" t="s">
+      <c r="M22" s="147" t="s">
         <v>377</v>
-      </c>
-      <c r="L22" s="148" t="s">
-        <v>378</v>
-      </c>
-      <c r="M22" s="148" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B24" s="102" t="s">
         <v>249</v>
@@ -20262,15 +20278,15 @@
       <c r="A25" s="102">
         <v>0</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="D25" s="147" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="147" t="s">
-        <v>308</v>
+      <c r="E25" s="146" t="s">
+        <v>306</v>
       </c>
       <c r="H25" s="102">
         <v>0</v>
@@ -20289,17 +20305,17 @@
       <c r="A26" s="102">
         <v>1</v>
       </c>
-      <c r="B26" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="148" t="s">
+      <c r="B26" s="146" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="147" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="147" t="s">
         <v>304</v>
       </c>
-      <c r="D26" s="148" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" s="148" t="s">
-        <v>309</v>
+      <c r="E26" s="147" t="s">
+        <v>307</v>
       </c>
       <c r="H26" s="102">
         <v>0</v>
@@ -20318,17 +20334,17 @@
       <c r="A27" s="102">
         <v>2</v>
       </c>
-      <c r="B27" s="148" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="147" t="s">
-        <v>323</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>382</v>
-      </c>
-      <c r="E27" s="148" t="s">
-        <v>383</v>
+      <c r="B27" s="147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="147" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="147" t="s">
+        <v>381</v>
       </c>
       <c r="H27" s="102">
         <v>1</v>
@@ -20347,17 +20363,17 @@
       <c r="A28" s="102">
         <v>3</v>
       </c>
-      <c r="B28" s="148" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="148" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="147" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="148" t="s">
-        <v>384</v>
+      <c r="B28" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="146" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="147" t="s">
+        <v>382</v>
       </c>
       <c r="H28" s="102">
         <v>2</v>
@@ -20376,17 +20392,17 @@
       <c r="A29" s="102">
         <v>4</v>
       </c>
-      <c r="B29" s="148" t="s">
-        <v>333</v>
-      </c>
-      <c r="C29" s="148" t="s">
-        <v>325</v>
-      </c>
-      <c r="D29" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="147" t="s">
-        <v>312</v>
+      <c r="B29" s="147" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>310</v>
       </c>
       <c r="H29" s="102">
         <v>3</v>
@@ -20405,17 +20421,17 @@
       <c r="A30" s="102">
         <v>5</v>
       </c>
-      <c r="B30" s="148" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="148" t="s">
-        <v>326</v>
-      </c>
-      <c r="D30" s="148" t="s">
-        <v>319</v>
-      </c>
-      <c r="E30" s="148" t="s">
-        <v>313</v>
+      <c r="B30" s="147" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="147" t="s">
+        <v>311</v>
       </c>
       <c r="H30" s="102">
         <v>4</v>
@@ -20434,17 +20450,17 @@
       <c r="A31" s="102">
         <v>6</v>
       </c>
-      <c r="B31" s="148" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="148" t="s">
-        <v>327</v>
-      </c>
-      <c r="D31" s="148" t="s">
-        <v>320</v>
-      </c>
-      <c r="E31" s="148" t="s">
-        <v>314</v>
+      <c r="B31" s="147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" s="147" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="147" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>312</v>
       </c>
       <c r="H31" s="102">
         <v>5</v>
@@ -20463,17 +20479,17 @@
       <c r="A32" s="102">
         <v>7</v>
       </c>
-      <c r="B32" s="148" t="s">
-        <v>336</v>
-      </c>
-      <c r="C32" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="D32" s="148" t="s">
-        <v>321</v>
-      </c>
-      <c r="E32" s="148" t="s">
-        <v>315</v>
+      <c r="B32" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="147" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>313</v>
       </c>
       <c r="H32" s="102">
         <v>6</v>
@@ -20492,17 +20508,17 @@
       <c r="A33" s="102">
         <v>8</v>
       </c>
-      <c r="B33" s="148" t="s">
-        <v>337</v>
-      </c>
-      <c r="C33" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="D33" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="E33" s="148" t="s">
-        <v>316</v>
+      <c r="B33" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="147" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="147" t="s">
+        <v>314</v>
       </c>
       <c r="H33" s="102">
         <v>7</v>
@@ -20521,17 +20537,17 @@
       <c r="A34" s="102">
         <v>9</v>
       </c>
-      <c r="B34" s="147" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" s="147" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" s="147" t="s">
-        <v>357</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>368</v>
+      <c r="B34" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" s="146" t="s">
+        <v>366</v>
       </c>
       <c r="H34" s="102">
         <v>8</v>
@@ -20550,17 +20566,17 @@
       <c r="A35" s="102">
         <v>10</v>
       </c>
-      <c r="B35" s="148" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="148" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="148" t="s">
-        <v>358</v>
-      </c>
-      <c r="E35" s="148" t="s">
-        <v>369</v>
+      <c r="B35" s="147" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="147" t="s">
+        <v>367</v>
       </c>
       <c r="H35" s="102">
         <v>9</v>
@@ -20579,17 +20595,17 @@
       <c r="A36" s="102">
         <v>11</v>
       </c>
-      <c r="B36" s="148" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" s="148" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="148" t="s">
-        <v>359</v>
-      </c>
-      <c r="E36" s="148" t="s">
-        <v>370</v>
+      <c r="B36" s="147" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="147" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="147" t="s">
+        <v>368</v>
       </c>
       <c r="H36" s="102">
         <v>10</v>
@@ -20608,17 +20624,17 @@
       <c r="A37" s="102">
         <v>12</v>
       </c>
-      <c r="B37" s="148" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" s="148" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="148" t="s">
-        <v>360</v>
-      </c>
-      <c r="E37" s="148" t="s">
-        <v>371</v>
+      <c r="B37" s="147" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="147" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="147" t="s">
+        <v>369</v>
       </c>
       <c r="H37" s="102">
         <v>11</v>
@@ -20637,17 +20653,17 @@
       <c r="A38" s="102">
         <v>13</v>
       </c>
-      <c r="B38" s="148" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" s="148" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" s="148" t="s">
-        <v>361</v>
-      </c>
-      <c r="E38" s="148" t="s">
-        <v>372</v>
+      <c r="B38" s="147" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="147" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>359</v>
+      </c>
+      <c r="E38" s="147" t="s">
+        <v>370</v>
       </c>
       <c r="H38" s="102">
         <v>12</v>
@@ -20666,17 +20682,17 @@
       <c r="A39" s="102">
         <v>14</v>
       </c>
-      <c r="B39" s="148" t="s">
-        <v>343</v>
-      </c>
-      <c r="C39" s="148" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="148" t="s">
-        <v>362</v>
-      </c>
-      <c r="E39" s="148" t="s">
-        <v>373</v>
+      <c r="B39" s="147" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="147" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" s="147" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" s="147" t="s">
+        <v>371</v>
       </c>
       <c r="H39" s="102">
         <v>13</v>
@@ -20695,17 +20711,17 @@
       <c r="A40" s="102">
         <v>15</v>
       </c>
-      <c r="B40" s="148" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="148" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40" s="148" t="s">
-        <v>363</v>
-      </c>
-      <c r="E40" s="148" t="s">
-        <v>374</v>
+      <c r="B40" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="147" t="s">
+        <v>351</v>
+      </c>
+      <c r="D40" s="147" t="s">
+        <v>361</v>
+      </c>
+      <c r="E40" s="147" t="s">
+        <v>372</v>
       </c>
       <c r="H40" s="102">
         <v>14</v>
@@ -20724,17 +20740,17 @@
       <c r="A41" s="102">
         <v>16</v>
       </c>
-      <c r="B41" s="148" t="s">
-        <v>345</v>
-      </c>
-      <c r="C41" s="148" t="s">
-        <v>354</v>
-      </c>
-      <c r="D41" s="148" t="s">
-        <v>364</v>
-      </c>
-      <c r="E41" s="148" t="s">
-        <v>375</v>
+      <c r="B41" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="147" t="s">
+        <v>352</v>
+      </c>
+      <c r="D41" s="147" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="147" t="s">
+        <v>373</v>
       </c>
       <c r="H41" s="102">
         <v>15</v>
@@ -20753,17 +20769,17 @@
       <c r="A42" s="102">
         <v>17</v>
       </c>
-      <c r="B42" s="148" t="s">
-        <v>346</v>
-      </c>
-      <c r="C42" s="148" t="s">
-        <v>355</v>
-      </c>
-      <c r="D42" s="148" t="s">
-        <v>365</v>
-      </c>
-      <c r="E42" s="148" t="s">
-        <v>376</v>
+      <c r="B42" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="147" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" s="147" t="s">
+        <v>363</v>
+      </c>
+      <c r="E42" s="147" t="s">
+        <v>374</v>
       </c>
       <c r="H42" s="102">
         <v>16</v>
@@ -20782,17 +20798,17 @@
       <c r="A43" s="102">
         <v>18</v>
       </c>
-      <c r="B43" s="147" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="148" t="s">
-        <v>356</v>
-      </c>
-      <c r="D43" s="148" t="s">
-        <v>366</v>
-      </c>
-      <c r="E43" s="148" t="s">
-        <v>377</v>
+      <c r="B43" s="146" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="147" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" s="147" t="s">
+        <v>375</v>
       </c>
       <c r="H43" s="102">
         <v>17</v>
@@ -20811,17 +20827,17 @@
       <c r="A44" s="102">
         <v>19</v>
       </c>
-      <c r="B44" s="150" t="s">
-        <v>386</v>
-      </c>
-      <c r="C44" s="147" t="s">
-        <v>387</v>
-      </c>
-      <c r="D44" s="148" t="s">
-        <v>367</v>
-      </c>
-      <c r="E44" s="148" t="s">
-        <v>378</v>
+      <c r="B44" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" s="146" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" s="147" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" s="147" t="s">
+        <v>376</v>
       </c>
       <c r="H44" s="102">
         <v>18</v>
@@ -20840,17 +20856,17 @@
       <c r="A45" s="102">
         <v>20</v>
       </c>
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="149" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="C45" s="150" t="s">
-        <v>389</v>
-      </c>
-      <c r="D45" s="147" t="s">
-        <v>390</v>
-      </c>
-      <c r="E45" s="148" t="s">
-        <v>379</v>
+      <c r="E45" s="147" t="s">
+        <v>377</v>
       </c>
       <c r="H45" s="102">
         <v>19</v>
@@ -20869,17 +20885,17 @@
       <c r="A46" s="102">
         <v>21</v>
       </c>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="149" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="149" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" s="149" t="s">
         <v>391</v>
       </c>
-      <c r="C46" s="150" t="s">
+      <c r="E46" s="146" t="s">
         <v>392</v>
-      </c>
-      <c r="D46" s="150" t="s">
-        <v>393</v>
-      </c>
-      <c r="E46" s="147" t="s">
-        <v>394</v>
       </c>
       <c r="H46" s="102">
         <v>20</v>
@@ -20898,17 +20914,17 @@
       <c r="A47" s="102">
         <v>22</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="149" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="D47" s="149" t="s">
         <v>395</v>
       </c>
-      <c r="C47" s="150" t="s">
+      <c r="E47" s="149" t="s">
         <v>396</v>
-      </c>
-      <c r="D47" s="150" t="s">
-        <v>397</v>
-      </c>
-      <c r="E47" s="150" t="s">
-        <v>398</v>
       </c>
       <c r="H47" s="102">
         <v>21</v>
@@ -20927,17 +20943,17 @@
       <c r="A48" s="102">
         <v>23</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="149" t="s">
+        <v>397</v>
+      </c>
+      <c r="C48" s="149" t="s">
+        <v>398</v>
+      </c>
+      <c r="D48" s="149" t="s">
         <v>399</v>
       </c>
-      <c r="C48" s="150" t="s">
+      <c r="E48" s="149" t="s">
         <v>400</v>
-      </c>
-      <c r="D48" s="150" t="s">
-        <v>401</v>
-      </c>
-      <c r="E48" s="150" t="s">
-        <v>402</v>
       </c>
       <c r="H48" s="102">
         <v>22</v>
@@ -20956,17 +20972,17 @@
       <c r="A49" s="102">
         <v>24</v>
       </c>
-      <c r="B49" s="150" t="s">
+      <c r="B49" s="149" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="149" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="149" t="s">
         <v>403</v>
       </c>
-      <c r="C49" s="150" t="s">
+      <c r="E49" s="149" t="s">
         <v>404</v>
-      </c>
-      <c r="D49" s="150" t="s">
-        <v>405</v>
-      </c>
-      <c r="E49" s="150" t="s">
-        <v>406</v>
       </c>
       <c r="H49" s="102">
         <v>23</v>
@@ -20985,17 +21001,17 @@
       <c r="A50" s="102">
         <v>25</v>
       </c>
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="149" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" s="149" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="149" t="s">
         <v>407</v>
       </c>
-      <c r="C50" s="150" t="s">
+      <c r="E50" s="149" t="s">
         <v>408</v>
-      </c>
-      <c r="D50" s="150" t="s">
-        <v>409</v>
-      </c>
-      <c r="E50" s="150" t="s">
-        <v>410</v>
       </c>
       <c r="H50" s="102">
         <v>24</v>
@@ -21014,17 +21030,17 @@
       <c r="A51" s="102">
         <v>26</v>
       </c>
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="149" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51" s="149" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" s="149" t="s">
         <v>411</v>
       </c>
-      <c r="C51" s="150" t="s">
+      <c r="E51" s="149" t="s">
         <v>412</v>
-      </c>
-      <c r="D51" s="150" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" s="150" t="s">
-        <v>414</v>
       </c>
       <c r="H51" s="102">
         <v>25</v>
@@ -21043,17 +21059,17 @@
       <c r="A52" s="102">
         <v>27</v>
       </c>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="149" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" s="149" t="s">
+        <v>414</v>
+      </c>
+      <c r="D52" s="149" t="s">
         <v>415</v>
       </c>
-      <c r="C52" s="150" t="s">
+      <c r="E52" s="149" t="s">
         <v>416</v>
-      </c>
-      <c r="D52" s="150" t="s">
-        <v>417</v>
-      </c>
-      <c r="E52" s="150" t="s">
-        <v>418</v>
       </c>
       <c r="H52" s="102">
         <v>26</v>
@@ -21072,17 +21088,17 @@
       <c r="A53" s="102">
         <v>28</v>
       </c>
-      <c r="B53" s="150" t="s">
+      <c r="B53" s="149" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="149" t="s">
+        <v>418</v>
+      </c>
+      <c r="D53" s="149" t="s">
         <v>419</v>
       </c>
-      <c r="C53" s="150" t="s">
+      <c r="E53" s="149" t="s">
         <v>420</v>
-      </c>
-      <c r="D53" s="150" t="s">
-        <v>421</v>
-      </c>
-      <c r="E53" s="150" t="s">
-        <v>422</v>
       </c>
       <c r="H53" s="102">
         <v>27</v>
@@ -21101,17 +21117,17 @@
       <c r="A54" s="102">
         <v>29</v>
       </c>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="149" t="s">
+        <v>421</v>
+      </c>
+      <c r="C54" s="149" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" s="149" t="s">
         <v>423</v>
       </c>
-      <c r="C54" s="150" t="s">
+      <c r="E54" s="149" t="s">
         <v>424</v>
-      </c>
-      <c r="D54" s="150" t="s">
-        <v>425</v>
-      </c>
-      <c r="E54" s="150" t="s">
-        <v>426</v>
       </c>
       <c r="H54" s="102">
         <v>28</v>
@@ -21130,17 +21146,17 @@
       <c r="A55" s="102">
         <v>30</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" s="149" t="s">
+        <v>426</v>
+      </c>
+      <c r="D55" s="149" t="s">
         <v>427</v>
       </c>
-      <c r="C55" s="150" t="s">
+      <c r="E55" s="149" t="s">
         <v>428</v>
-      </c>
-      <c r="D55" s="150" t="s">
-        <v>429</v>
-      </c>
-      <c r="E55" s="150" t="s">
-        <v>430</v>
       </c>
       <c r="H55" s="102">
         <v>29</v>
@@ -21159,17 +21175,17 @@
       <c r="A56" s="102">
         <v>31</v>
       </c>
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="149" t="s">
+        <v>429</v>
+      </c>
+      <c r="C56" s="149" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" s="149" t="s">
         <v>431</v>
       </c>
-      <c r="C56" s="150" t="s">
+      <c r="E56" s="149" t="s">
         <v>432</v>
-      </c>
-      <c r="D56" s="150" t="s">
-        <v>433</v>
-      </c>
-      <c r="E56" s="150" t="s">
-        <v>434</v>
       </c>
       <c r="H56" s="102">
         <v>30</v>
@@ -21188,17 +21204,17 @@
       <c r="A57" s="102">
         <v>32</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="149" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57" s="149" t="s">
+        <v>434</v>
+      </c>
+      <c r="D57" s="149" t="s">
         <v>435</v>
       </c>
-      <c r="C57" s="150" t="s">
+      <c r="E57" s="149" t="s">
         <v>436</v>
-      </c>
-      <c r="D57" s="150" t="s">
-        <v>437</v>
-      </c>
-      <c r="E57" s="150" t="s">
-        <v>438</v>
       </c>
       <c r="H57" s="102">
         <v>31</v>
@@ -21217,17 +21233,17 @@
       <c r="A58" s="102">
         <v>33</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="149" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" s="149" t="s">
         <v>439</v>
       </c>
-      <c r="C58" s="150" t="s">
+      <c r="E58" s="149" t="s">
         <v>440</v>
-      </c>
-      <c r="D58" s="150" t="s">
-        <v>441</v>
-      </c>
-      <c r="E58" s="150" t="s">
-        <v>442</v>
       </c>
       <c r="H58" s="102">
         <v>32</v>
@@ -21253,638 +21269,630 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="151"/>
+    <col min="1" max="16384" width="9.06640625" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="150" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="D1" s="150" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="E1" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="G1" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="150" t="s">
+        <v>443</v>
+      </c>
+      <c r="I1" s="150" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1" s="150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="150">
+        <v>0</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="153"/>
+      <c r="G2" s="151">
+        <v>1</v>
+      </c>
+      <c r="H2" s="152">
+        <v>0</v>
+      </c>
+      <c r="I2" s="152">
+        <v>0</v>
+      </c>
+      <c r="J2" s="153"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="150">
+        <v>1</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="155" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="156"/>
+      <c r="G3" s="154">
+        <v>0</v>
+      </c>
+      <c r="H3" s="155">
+        <v>1</v>
+      </c>
+      <c r="I3" s="155">
+        <v>0</v>
+      </c>
+      <c r="J3" s="156"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="150">
+        <v>2</v>
+      </c>
+      <c r="B4" s="157" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="C4" s="155" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="151" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" s="151" t="s">
-        <v>445</v>
-      </c>
-      <c r="I1" s="151" t="s">
-        <v>446</v>
-      </c>
-      <c r="J1" s="151" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="151">
+      <c r="D4" s="155" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="158"/>
+      <c r="G4" s="157">
         <v>0</v>
       </c>
-      <c r="B2" s="152" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="153" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="154"/>
-      <c r="G2" s="152">
+      <c r="H4" s="155">
         <v>0</v>
       </c>
-      <c r="H2" s="153">
+      <c r="I4" s="155">
+        <v>1</v>
+      </c>
+      <c r="J4" s="158"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A5" s="150">
+        <v>3</v>
+      </c>
+      <c r="B5" s="178" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="179" t="s">
+        <v>487</v>
+      </c>
+      <c r="E5" s="161"/>
+      <c r="G5" s="159">
         <v>0</v>
       </c>
-      <c r="I2" s="153">
+      <c r="H5" s="160">
         <v>0</v>
       </c>
-      <c r="J2" s="154"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="151">
+      <c r="I5" s="160">
+        <v>0</v>
+      </c>
+      <c r="J5" s="161"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="150">
+        <v>4</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="181" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="151">
+        <v>0</v>
+      </c>
+      <c r="H6" s="151">
+        <v>0</v>
+      </c>
+      <c r="I6" s="151">
+        <v>0</v>
+      </c>
+      <c r="J6" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="150">
+        <v>5</v>
+      </c>
+      <c r="B7" s="157" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="155" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="163" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="154">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
-        <v>493</v>
-      </c>
-      <c r="C3" s="156" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="156" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="157"/>
-      <c r="G3" s="155">
+      <c r="H7" s="154">
         <v>1</v>
       </c>
-      <c r="H3" s="156">
-        <v>0</v>
-      </c>
-      <c r="I3" s="156">
-        <v>0</v>
-      </c>
-      <c r="J3" s="157"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="151">
+      <c r="I7" s="154">
+        <v>1</v>
+      </c>
+      <c r="J7" s="154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="150">
+        <v>6</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="163" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="157">
         <v>2</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="H8" s="157">
+        <v>2</v>
+      </c>
+      <c r="I8" s="157">
+        <v>2</v>
+      </c>
+      <c r="J8" s="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A9" s="150">
+        <v>7</v>
+      </c>
+      <c r="B9" s="183" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="156" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="156" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="159"/>
-      <c r="G4" s="158">
-        <v>0</v>
-      </c>
-      <c r="H4" s="156">
-        <v>1</v>
-      </c>
-      <c r="I4" s="156">
-        <v>0</v>
-      </c>
-      <c r="J4" s="159"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A5" s="151">
+      <c r="C9" s="184" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="184" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="185" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="165">
         <v>3</v>
       </c>
-      <c r="B5" s="187" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="188" t="s">
-        <v>488</v>
-      </c>
-      <c r="D5" s="188" t="s">
-        <v>489</v>
-      </c>
-      <c r="E5" s="162"/>
-      <c r="G5" s="160">
-        <v>0</v>
-      </c>
-      <c r="H5" s="161">
-        <v>0</v>
-      </c>
-      <c r="I5" s="161">
-        <v>1</v>
-      </c>
-      <c r="J5" s="162"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="151">
+      <c r="H9" s="165">
+        <v>3</v>
+      </c>
+      <c r="I9" s="165">
+        <v>3</v>
+      </c>
+      <c r="J9" s="165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="150">
+        <v>8</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="163" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="151">
         <v>4</v>
       </c>
-      <c r="B6" s="189" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="190" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="190" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="191" t="s">
+      <c r="H10" s="151">
+        <v>4</v>
+      </c>
+      <c r="I10" s="151">
+        <v>4</v>
+      </c>
+      <c r="J10" s="151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="150">
+        <v>9</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="163" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="154">
+        <v>5</v>
+      </c>
+      <c r="H11" s="154">
+        <v>5</v>
+      </c>
+      <c r="I11" s="154">
+        <v>5</v>
+      </c>
+      <c r="J11" s="154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="150">
+        <v>10</v>
+      </c>
+      <c r="B12" s="154" t="s">
         <v>459</v>
       </c>
-      <c r="G6" s="152">
-        <v>0</v>
-      </c>
-      <c r="H6" s="152">
-        <v>0</v>
-      </c>
-      <c r="I6" s="152">
-        <v>0</v>
-      </c>
-      <c r="J6" s="152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="151">
-        <v>5</v>
-      </c>
-      <c r="B7" s="158" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="156" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="156" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="164" t="s">
-        <v>332</v>
-      </c>
-      <c r="G7" s="155">
-        <v>1</v>
-      </c>
-      <c r="H7" s="155">
-        <v>1</v>
-      </c>
-      <c r="I7" s="155">
-        <v>1</v>
-      </c>
-      <c r="J7" s="155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="151">
+      <c r="C12" s="155" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="163" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" s="157">
         <v>6</v>
       </c>
-      <c r="B8" s="155" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="156" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="156" t="s">
-        <v>456</v>
-      </c>
-      <c r="E8" s="164" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="158">
-        <v>2</v>
-      </c>
-      <c r="H8" s="158">
-        <v>2</v>
-      </c>
-      <c r="I8" s="158">
-        <v>2</v>
-      </c>
-      <c r="J8" s="158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A9" s="151">
+      <c r="H12" s="157">
+        <v>6</v>
+      </c>
+      <c r="I12" s="157">
+        <v>6</v>
+      </c>
+      <c r="J12" s="157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A13" s="150">
+        <v>11</v>
+      </c>
+      <c r="B13" s="159" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" s="160" t="s">
+        <v>463</v>
+      </c>
+      <c r="E13" s="164" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="165">
         <v>7</v>
       </c>
-      <c r="B9" s="192" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="193" t="s">
-        <v>458</v>
-      </c>
-      <c r="E9" s="194" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="166">
-        <v>3</v>
-      </c>
-      <c r="H9" s="166">
-        <v>3</v>
-      </c>
-      <c r="I9" s="166">
-        <v>3</v>
-      </c>
-      <c r="J9" s="166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="151">
+      <c r="H13" s="165">
+        <v>7</v>
+      </c>
+      <c r="I13" s="165">
+        <v>7</v>
+      </c>
+      <c r="J13" s="165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="150">
+        <v>12</v>
+      </c>
+      <c r="G14" s="151">
         <v>8</v>
       </c>
-      <c r="B10" s="155" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="156" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="156" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="164" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="152">
-        <v>4</v>
-      </c>
-      <c r="H10" s="152">
-        <v>4</v>
-      </c>
-      <c r="I10" s="152">
-        <v>4</v>
-      </c>
-      <c r="J10" s="152">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="151">
+      <c r="H14" s="151">
+        <v>8</v>
+      </c>
+      <c r="I14" s="151">
+        <v>8</v>
+      </c>
+      <c r="J14" s="151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A15" s="150">
+        <v>13</v>
+      </c>
+      <c r="G15" s="154">
         <v>9</v>
       </c>
-      <c r="B11" s="158" t="s">
-        <v>460</v>
-      </c>
-      <c r="C11" s="156" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="156" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="164" t="s">
-        <v>335</v>
-      </c>
-      <c r="G11" s="155">
-        <v>5</v>
-      </c>
-      <c r="H11" s="155">
-        <v>5</v>
-      </c>
-      <c r="I11" s="155">
-        <v>5</v>
-      </c>
-      <c r="J11" s="155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="151">
+      <c r="H15" s="154">
+        <v>9</v>
+      </c>
+      <c r="I15" s="154">
+        <v>9</v>
+      </c>
+      <c r="J15" s="154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="150">
+        <v>14</v>
+      </c>
+      <c r="B16" s="151"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="162"/>
+      <c r="G16" s="157">
         <v>10</v>
       </c>
-      <c r="B12" s="155" t="s">
-        <v>461</v>
-      </c>
-      <c r="C12" s="156" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="164" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12" s="158">
-        <v>6</v>
-      </c>
-      <c r="H12" s="158">
-        <v>6</v>
-      </c>
-      <c r="I12" s="158">
-        <v>6</v>
-      </c>
-      <c r="J12" s="158">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A13" s="151">
+      <c r="H16" s="157">
+        <v>10</v>
+      </c>
+      <c r="I16" s="157">
+        <v>10</v>
+      </c>
+      <c r="J16" s="157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A17" s="150">
+        <v>15</v>
+      </c>
+      <c r="G17" s="165">
         <v>11</v>
       </c>
-      <c r="B13" s="160" t="s">
-        <v>463</v>
-      </c>
-      <c r="C13" s="161" t="s">
-        <v>464</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>465</v>
-      </c>
-      <c r="E13" s="165" t="s">
-        <v>337</v>
-      </c>
-      <c r="G13" s="166">
-        <v>7</v>
-      </c>
-      <c r="H13" s="166">
-        <v>7</v>
-      </c>
-      <c r="I13" s="166">
-        <v>7</v>
-      </c>
-      <c r="J13" s="166">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="151">
+      <c r="H17" s="165">
+        <v>11</v>
+      </c>
+      <c r="I17" s="165">
+        <v>11</v>
+      </c>
+      <c r="J17" s="165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="150">
+        <v>16</v>
+      </c>
+      <c r="G18" s="151">
         <v>12</v>
       </c>
-      <c r="G14" s="152">
-        <v>8</v>
-      </c>
-      <c r="H14" s="152">
-        <v>8</v>
-      </c>
-      <c r="I14" s="152">
-        <v>8</v>
-      </c>
-      <c r="J14" s="152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A15" s="151">
+      <c r="H18" s="151">
+        <v>12</v>
+      </c>
+      <c r="I18" s="151">
+        <v>12</v>
+      </c>
+      <c r="J18" s="151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="150">
+        <v>17</v>
+      </c>
+      <c r="G19" s="154">
         <v>13</v>
       </c>
-      <c r="G15" s="155">
-        <v>9</v>
-      </c>
-      <c r="H15" s="155">
-        <v>9</v>
-      </c>
-      <c r="I15" s="155">
-        <v>9</v>
-      </c>
-      <c r="J15" s="155">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="151">
+      <c r="H19" s="154">
+        <v>13</v>
+      </c>
+      <c r="I19" s="154">
+        <v>13</v>
+      </c>
+      <c r="J19" s="154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="150">
+        <v>18</v>
+      </c>
+      <c r="G20" s="157">
         <v>14</v>
       </c>
-      <c r="B16" s="152" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" s="153" t="s">
-        <v>457</v>
-      </c>
-      <c r="D16" s="153" t="s">
-        <v>458</v>
-      </c>
-      <c r="E16" s="163" t="s">
-        <v>330</v>
-      </c>
-      <c r="G16" s="158">
-        <v>10</v>
-      </c>
-      <c r="H16" s="158">
-        <v>10</v>
-      </c>
-      <c r="I16" s="158">
-        <v>10</v>
-      </c>
-      <c r="J16" s="158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A17" s="151">
+      <c r="H20" s="157">
+        <v>14</v>
+      </c>
+      <c r="I20" s="157">
+        <v>14</v>
+      </c>
+      <c r="J20" s="157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A21" s="150">
+        <v>19</v>
+      </c>
+      <c r="G21" s="165">
         <v>15</v>
       </c>
-      <c r="G17" s="166">
-        <v>11</v>
-      </c>
-      <c r="H17" s="166">
-        <v>11</v>
-      </c>
-      <c r="I17" s="166">
-        <v>11</v>
-      </c>
-      <c r="J17" s="166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="151">
+      <c r="H21" s="165">
+        <v>15</v>
+      </c>
+      <c r="I21" s="165">
+        <v>15</v>
+      </c>
+      <c r="J21" s="165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="150">
+        <v>20</v>
+      </c>
+      <c r="G22" s="151">
         <v>16</v>
       </c>
-      <c r="G18" s="152">
-        <v>12</v>
-      </c>
-      <c r="H18" s="152">
-        <v>12</v>
-      </c>
-      <c r="I18" s="152">
-        <v>12</v>
-      </c>
-      <c r="J18" s="152">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="151">
+      <c r="H22" s="151">
+        <v>16</v>
+      </c>
+      <c r="I22" s="151">
+        <v>16</v>
+      </c>
+      <c r="J22" s="151">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="150">
+        <v>21</v>
+      </c>
+      <c r="G23" s="154">
         <v>17</v>
       </c>
-      <c r="G19" s="155">
-        <v>13</v>
-      </c>
-      <c r="H19" s="155">
-        <v>13</v>
-      </c>
-      <c r="I19" s="155">
-        <v>13</v>
-      </c>
-      <c r="J19" s="155">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="151">
+      <c r="H23" s="154">
+        <v>17</v>
+      </c>
+      <c r="I23" s="154">
+        <v>17</v>
+      </c>
+      <c r="J23" s="154">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="150">
+        <v>22</v>
+      </c>
+      <c r="G24" s="157">
         <v>18</v>
       </c>
-      <c r="G20" s="158">
-        <v>14</v>
-      </c>
-      <c r="H20" s="158">
-        <v>14</v>
-      </c>
-      <c r="I20" s="158">
-        <v>14</v>
-      </c>
-      <c r="J20" s="158">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A21" s="151">
+      <c r="H24" s="157">
+        <v>18</v>
+      </c>
+      <c r="I24" s="157">
+        <v>18</v>
+      </c>
+      <c r="J24" s="157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="150">
+        <v>23</v>
+      </c>
+      <c r="G25" s="165">
         <v>19</v>
       </c>
-      <c r="G21" s="166">
-        <v>15</v>
-      </c>
-      <c r="H21" s="166">
-        <v>15</v>
-      </c>
-      <c r="I21" s="166">
-        <v>15</v>
-      </c>
-      <c r="J21" s="166">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="151">
-        <v>20</v>
-      </c>
-      <c r="G22" s="152">
-        <v>16</v>
-      </c>
-      <c r="H22" s="152">
-        <v>16</v>
-      </c>
-      <c r="I22" s="152">
-        <v>16</v>
-      </c>
-      <c r="J22" s="152">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="151">
-        <v>21</v>
-      </c>
-      <c r="G23" s="155">
-        <v>17</v>
-      </c>
-      <c r="H23" s="155">
-        <v>17</v>
-      </c>
-      <c r="I23" s="155">
-        <v>17</v>
-      </c>
-      <c r="J23" s="155">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="151">
-        <v>22</v>
-      </c>
-      <c r="G24" s="158">
-        <v>18</v>
-      </c>
-      <c r="H24" s="158">
-        <v>18</v>
-      </c>
-      <c r="I24" s="158">
-        <v>18</v>
-      </c>
-      <c r="J24" s="158">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="151">
-        <v>23</v>
-      </c>
-      <c r="G25" s="166">
+      <c r="H25" s="165">
         <v>19</v>
       </c>
-      <c r="H25" s="166">
+      <c r="I25" s="165">
         <v>19</v>
       </c>
-      <c r="I25" s="166">
+      <c r="J25" s="165">
         <v>19</v>
       </c>
-      <c r="J25" s="166">
-        <v>19</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="151">
+      <c r="A26" s="150">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="151">
+      <c r="A27" s="150">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="151">
+      <c r="A28" s="150">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="151">
+      <c r="A29" s="150">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="151">
+      <c r="A30" s="150">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="151">
+      <c r="A31" s="150">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="151">
+      <c r="A32" s="150">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="151">
+      <c r="A33" s="150">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="151">
+      <c r="A34" s="150">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="151">
+      <c r="A35" s="150">
         <v>33</v>
       </c>
     </row>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54029D-2C91-420C-82E7-B38184FFD5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06395DC-59B7-43A9-A531-7BAF3A087E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="513">
   <si>
     <t>步骤</t>
   </si>
@@ -1716,6 +1716,63 @@
   <si>
     <t>vt(0,2)</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(8,1)</t>
+  </si>
+  <si>
+    <t>cov(9,1)</t>
+  </si>
+  <si>
+    <t>cov(10,1)</t>
+  </si>
+  <si>
+    <t>cov(11,1)</t>
+  </si>
+  <si>
+    <t>cov(8,9)</t>
+  </si>
+  <si>
+    <t>cov(8,10)</t>
+  </si>
+  <si>
+    <t>cov(9,10)</t>
+  </si>
+  <si>
+    <t>cov(8,11)</t>
+  </si>
+  <si>
+    <t>cov(9,11)</t>
+  </si>
+  <si>
+    <t>cov(10,11)</t>
+  </si>
+  <si>
+    <t>cov(12,1)</t>
+  </si>
+  <si>
+    <t>cov(12,2)</t>
+  </si>
+  <si>
+    <t>state(12,1)</t>
+  </si>
+  <si>
+    <t>cov(12,13)</t>
+  </si>
+  <si>
+    <t>cov(12,14)</t>
+  </si>
+  <si>
+    <t>cov(13,14)</t>
+  </si>
+  <si>
+    <t>cov(12,15)</t>
+  </si>
+  <si>
+    <t>cov(13,15)</t>
+  </si>
+  <si>
+    <t>cov(14,15)</t>
   </si>
 </sst>
 </file>
@@ -2391,7 +2448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2874,9 +2931,6 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2946,6 +3000,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2969,18 +3035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3929,10 +3983,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="187"/>
+      <c r="B5" s="190"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4712,12 +4766,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12308,7 +12362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
@@ -12684,7 +12738,7 @@
       <c r="B16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="167" t="s">
         <v>467</v>
       </c>
       <c r="D16" s="19"/>
@@ -12798,7 +12852,7 @@
       <c r="D20" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="168" t="s">
+      <c r="E20" s="167" t="s">
         <v>467</v>
       </c>
       <c r="F20" s="3"/>
@@ -13158,7 +13212,7 @@
       <c r="B34" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="167" t="s">
         <v>467</v>
       </c>
       <c r="D34" s="25"/>
@@ -13999,14 +14053,14 @@
       <c r="A66" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B66" s="169" t="s">
+      <c r="B66" s="168" t="s">
         <v>481</v>
       </c>
       <c r="C66" s="74" t="s">
         <v>175</v>
       </c>
       <c r="D66" s="41"/>
-      <c r="E66" s="174"/>
+      <c r="E66" s="173"/>
       <c r="F66" s="38"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
@@ -14031,7 +14085,7 @@
         <v>174</v>
       </c>
       <c r="D67" s="24"/>
-      <c r="E67" s="175"/>
+      <c r="E67" s="174"/>
       <c r="F67" s="38"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
@@ -14056,7 +14110,7 @@
         <v>191</v>
       </c>
       <c r="D68" s="42"/>
-      <c r="E68" s="176"/>
+      <c r="E68" s="175"/>
       <c r="F68" s="38"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
@@ -14083,7 +14137,7 @@
         <v>176</v>
       </c>
       <c r="D69" s="24"/>
-      <c r="E69" s="172"/>
+      <c r="E69" s="171"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -14108,7 +14162,7 @@
         <v>177</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="172"/>
+      <c r="E70" s="171"/>
       <c r="F70" s="7"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -14133,7 +14187,7 @@
         <v>191</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="172"/>
+      <c r="E71" s="171"/>
       <c r="F71" s="3"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -14153,7 +14207,7 @@
       <c r="A72" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="177" t="s">
+      <c r="B72" s="176" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -14280,10 +14334,10 @@
       <c r="F76" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G76" s="170"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="170"/>
-      <c r="J76" s="172"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="171"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -14309,10 +14363,10 @@
         <v>45</v>
       </c>
       <c r="F77" s="92"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="173"/>
-      <c r="J77" s="172"/>
+      <c r="G77" s="172"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="171"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -14337,10 +14391,10 @@
       <c r="E78" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="173"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="173"/>
-      <c r="J78" s="172"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="171"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -14365,10 +14419,10 @@
       <c r="E79" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G79" s="173"/>
-      <c r="H79" s="171"/>
-      <c r="I79" s="173"/>
-      <c r="J79" s="172"/>
+      <c r="G79" s="172"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="172"/>
+      <c r="J79" s="171"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -14885,11 +14939,11 @@
     </row>
     <row r="98" spans="1:19" ht="14.25" thickBot="1">
       <c r="A98" s="7"/>
-      <c r="B98" s="189" t="s">
+      <c r="B98" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="190"/>
-      <c r="D98" s="190"/>
+      <c r="C98" s="193"/>
+      <c r="D98" s="193"/>
       <c r="E98" s="80" t="s">
         <v>202</v>
       </c>
@@ -18604,11 +18658,11 @@
       <c r="B4" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="167" t="s">
+      <c r="D4" s="165"/>
+      <c r="E4" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18640,11 +18694,11 @@
       <c r="B7" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="167" t="s">
+      <c r="D7" s="165"/>
+      <c r="E7" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18676,11 +18730,11 @@
       <c r="B10" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167" t="s">
+      <c r="D10" s="165"/>
+      <c r="E10" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18712,11 +18766,11 @@
       <c r="B13" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="165" t="s">
         <v>186</v>
       </c>
       <c r="D13" s="122"/>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18752,13 +18806,13 @@
       <c r="B16" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="165" t="s">
         <v>186</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18794,13 +18848,13 @@
       <c r="B19" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="166" t="s">
+      <c r="C19" s="165" t="s">
         <v>186</v>
       </c>
       <c r="D19" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="167" t="s">
+      <c r="E19" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -18843,13 +18897,13 @@
       <c r="B22" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="166" t="s">
+      <c r="C22" s="165" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="167" t="s">
+      <c r="E22" s="166" t="s">
         <v>186</v>
       </c>
     </row>
@@ -19092,10 +19146,10 @@
       <c r="AK2" s="108"/>
       <c r="AL2" s="108"/>
       <c r="AM2" s="108"/>
-      <c r="AN2" s="194" t="s">
+      <c r="AN2" s="185" t="s">
         <v>258</v>
       </c>
-      <c r="AO2" s="195" t="s">
+      <c r="AO2" s="186" t="s">
         <v>259</v>
       </c>
       <c r="AP2" s="107" t="s">
@@ -19316,10 +19370,10 @@
       <c r="AF5" s="130"/>
       <c r="AG5" s="130"/>
       <c r="AH5" s="130"/>
-      <c r="AN5" s="196" t="s">
+      <c r="AN5" s="187" t="s">
         <v>492</v>
       </c>
-      <c r="AO5" s="197" t="s">
+      <c r="AO5" s="188" t="s">
         <v>493</v>
       </c>
       <c r="AP5" s="121" t="s">
@@ -19342,67 +19396,67 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="191" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="196"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="194" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="191" t="s">
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="194" t="s">
         <v>295</v>
       </c>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="191" t="s">
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="194" t="s">
         <v>296</v>
       </c>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="192"/>
-      <c r="AF7" s="192"/>
-      <c r="AG7" s="192"/>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="192"/>
-      <c r="AJ7" s="192"/>
-      <c r="AK7" s="192"/>
-      <c r="AL7" s="192"/>
-      <c r="AM7" s="192"/>
-      <c r="AN7" s="192"/>
-      <c r="AO7" s="192"/>
-      <c r="AP7" s="192"/>
-      <c r="AQ7" s="192"/>
-      <c r="AR7" s="193"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="195"/>
+      <c r="AE7" s="195"/>
+      <c r="AF7" s="195"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="195"/>
+      <c r="AI7" s="195"/>
+      <c r="AJ7" s="195"/>
+      <c r="AK7" s="195"/>
+      <c r="AL7" s="195"/>
+      <c r="AM7" s="195"/>
+      <c r="AN7" s="195"/>
+      <c r="AO7" s="195"/>
+      <c r="AP7" s="195"/>
+      <c r="AQ7" s="195"/>
+      <c r="AR7" s="196"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="52"/>
@@ -21266,10 +21320,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21385,13 +21439,13 @@
       <c r="A5" s="150">
         <v>3</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="177" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="178" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="178" t="s">
         <v>487</v>
       </c>
       <c r="E5" s="161"/>
@@ -21410,29 +21464,29 @@
       <c r="A6" s="150">
         <v>4</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="180" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="180" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="182" t="s">
+      <c r="E6" s="181" t="s">
         <v>457</v>
       </c>
       <c r="G6" s="151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21448,20 +21502,20 @@
       <c r="D7" s="155" t="s">
         <v>453</v>
       </c>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="162" t="s">
         <v>330</v>
       </c>
       <c r="G7" s="154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21477,49 +21531,49 @@
       <c r="D8" s="155" t="s">
         <v>454</v>
       </c>
-      <c r="E8" s="163" t="s">
+      <c r="E8" s="162" t="s">
         <v>331</v>
       </c>
       <c r="G8" s="157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="A9" s="150">
         <v>7</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="182" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="183" t="s">
         <v>455</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="183" t="s">
         <v>456</v>
       </c>
-      <c r="E9" s="185" t="s">
+      <c r="E9" s="184" t="s">
         <v>328</v>
       </c>
-      <c r="G9" s="165">
-        <v>3</v>
-      </c>
-      <c r="H9" s="165">
-        <v>3</v>
-      </c>
-      <c r="I9" s="165">
-        <v>3</v>
-      </c>
-      <c r="J9" s="165">
-        <v>3</v>
+      <c r="G9" s="164">
+        <v>0</v>
+      </c>
+      <c r="H9" s="164">
+        <v>0</v>
+      </c>
+      <c r="I9" s="164">
+        <v>0</v>
+      </c>
+      <c r="J9" s="164">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21535,7 +21589,7 @@
       <c r="D10" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="162" t="s">
         <v>332</v>
       </c>
       <c r="G10" s="151">
@@ -21564,7 +21618,7 @@
       <c r="D11" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="162" t="s">
         <v>333</v>
       </c>
       <c r="G11" s="154">
@@ -21593,7 +21647,7 @@
       <c r="D12" s="155" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="162" t="s">
         <v>334</v>
       </c>
       <c r="G12" s="157">
@@ -21622,19 +21676,19 @@
       <c r="D13" s="160" t="s">
         <v>463</v>
       </c>
-      <c r="E13" s="164" t="s">
+      <c r="E13" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="165">
+      <c r="G13" s="164">
         <v>7</v>
       </c>
-      <c r="H13" s="165">
+      <c r="H13" s="164">
         <v>7</v>
       </c>
-      <c r="I13" s="165">
+      <c r="I13" s="164">
         <v>7</v>
       </c>
-      <c r="J13" s="165">
+      <c r="J13" s="164">
         <v>7</v>
       </c>
     </row>
@@ -21642,6 +21696,18 @@
       <c r="A14" s="150">
         <v>12</v>
       </c>
+      <c r="B14" s="179" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>495</v>
+      </c>
+      <c r="D14" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="E14" s="181" t="s">
+        <v>497</v>
+      </c>
       <c r="G14" s="151">
         <v>8</v>
       </c>
@@ -21655,9 +21721,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" thickBot="1">
+    <row r="15" spans="1:10">
       <c r="A15" s="150">
         <v>13</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="162" t="s">
+        <v>368</v>
       </c>
       <c r="G15" s="154">
         <v>9</v>
@@ -21676,10 +21754,18 @@
       <c r="A16" s="150">
         <v>14</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="162"/>
+      <c r="B16" s="154" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="162" t="s">
+        <v>369</v>
+      </c>
       <c r="G16" s="157">
         <v>10</v>
       </c>
@@ -21697,16 +21783,28 @@
       <c r="A17" s="150">
         <v>15</v>
       </c>
-      <c r="G17" s="165">
+      <c r="B17" s="182" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="183" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="184" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="164">
         <v>11</v>
       </c>
-      <c r="H17" s="165">
+      <c r="H17" s="164">
         <v>11</v>
       </c>
-      <c r="I17" s="165">
+      <c r="I17" s="164">
         <v>11</v>
       </c>
-      <c r="J17" s="165">
+      <c r="J17" s="164">
         <v>11</v>
       </c>
     </row>
@@ -21714,6 +21812,18 @@
       <c r="A18" s="150">
         <v>16</v>
       </c>
+      <c r="B18" s="154" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="155" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="162" t="s">
+        <v>370</v>
+      </c>
       <c r="G18" s="151">
         <v>12</v>
       </c>
@@ -21731,6 +21841,18 @@
       <c r="A19" s="150">
         <v>17</v>
       </c>
+      <c r="B19" s="157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="155" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="162" t="s">
+        <v>371</v>
+      </c>
       <c r="G19" s="154">
         <v>13</v>
       </c>
@@ -21748,6 +21870,18 @@
       <c r="A20" s="150">
         <v>18</v>
       </c>
+      <c r="B20" s="154" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="155" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="162" t="s">
+        <v>372</v>
+      </c>
       <c r="G20" s="157">
         <v>14</v>
       </c>
@@ -21765,16 +21899,28 @@
       <c r="A21" s="150">
         <v>19</v>
       </c>
-      <c r="G21" s="165">
+      <c r="B21" s="159" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="163" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" s="164">
         <v>15</v>
       </c>
-      <c r="H21" s="165">
+      <c r="H21" s="164">
         <v>15</v>
       </c>
-      <c r="I21" s="165">
+      <c r="I21" s="164">
         <v>15</v>
       </c>
-      <c r="J21" s="165">
+      <c r="J21" s="164">
         <v>15</v>
       </c>
     </row>
@@ -21782,6 +21928,18 @@
       <c r="A22" s="150">
         <v>20</v>
       </c>
+      <c r="B22" s="154" t="s">
+        <v>344</v>
+      </c>
+      <c r="C22" s="155" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="162" t="s">
+        <v>374</v>
+      </c>
       <c r="G22" s="151">
         <v>16</v>
       </c>
@@ -21799,6 +21957,18 @@
       <c r="A23" s="150">
         <v>21</v>
       </c>
+      <c r="B23" s="157" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="162" t="s">
+        <v>375</v>
+      </c>
       <c r="G23" s="154">
         <v>17</v>
       </c>
@@ -21816,6 +21986,18 @@
       <c r="A24" s="150">
         <v>22</v>
       </c>
+      <c r="B24" s="154" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="155" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="162" t="s">
+        <v>376</v>
+      </c>
       <c r="G24" s="157">
         <v>18</v>
       </c>
@@ -21829,20 +22011,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.25" thickBot="1">
       <c r="A25" s="150">
         <v>23</v>
       </c>
-      <c r="G25" s="165">
+      <c r="B25" s="159" t="s">
+        <v>501</v>
+      </c>
+      <c r="C25" s="160" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" s="160" t="s">
+        <v>503</v>
+      </c>
+      <c r="E25" s="163" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" s="164">
         <v>19</v>
       </c>
-      <c r="H25" s="165">
+      <c r="H25" s="164">
         <v>19</v>
       </c>
-      <c r="I25" s="165">
+      <c r="I25" s="164">
         <v>19</v>
       </c>
-      <c r="J25" s="165">
+      <c r="J25" s="164">
         <v>19</v>
       </c>
     </row>
@@ -21850,50 +22044,494 @@
       <c r="A26" s="150">
         <v>24</v>
       </c>
+      <c r="B26" s="179" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="180" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="180" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="181" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="151">
+        <v>20</v>
+      </c>
+      <c r="H26" s="151">
+        <v>20</v>
+      </c>
+      <c r="I26" s="151">
+        <v>20</v>
+      </c>
+      <c r="J26" s="151">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="150">
         <v>25</v>
       </c>
+      <c r="B27" s="157" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="155" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="154">
+        <v>21</v>
+      </c>
+      <c r="H27" s="154">
+        <v>21</v>
+      </c>
+      <c r="I27" s="154">
+        <v>21</v>
+      </c>
+      <c r="J27" s="154">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="150">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="B28" s="154" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>394</v>
+      </c>
+      <c r="E28" s="162" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" s="157">
+        <v>22</v>
+      </c>
+      <c r="H28" s="157">
+        <v>22</v>
+      </c>
+      <c r="I28" s="157">
+        <v>22</v>
+      </c>
+      <c r="J28" s="157">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" thickBot="1">
       <c r="A29" s="150">
         <v>27</v>
+      </c>
+      <c r="B29" s="182" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="183" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="184" t="s">
+        <v>383</v>
+      </c>
+      <c r="G29" s="164">
+        <v>23</v>
+      </c>
+      <c r="H29" s="164">
+        <v>23</v>
+      </c>
+      <c r="I29" s="164">
+        <v>23</v>
+      </c>
+      <c r="J29" s="164">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="150">
         <v>28</v>
       </c>
+      <c r="B30" s="154" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" s="155" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" s="162" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="151">
+        <v>24</v>
+      </c>
+      <c r="H30" s="151">
+        <v>24</v>
+      </c>
+      <c r="I30" s="151">
+        <v>24</v>
+      </c>
+      <c r="J30" s="151">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="150">
         <v>29</v>
       </c>
+      <c r="B31" s="157" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="155" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="155" t="s">
+        <v>402</v>
+      </c>
+      <c r="E31" s="162" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="154">
+        <v>25</v>
+      </c>
+      <c r="H31" s="154">
+        <v>25</v>
+      </c>
+      <c r="I31" s="154">
+        <v>25</v>
+      </c>
+      <c r="J31" s="154">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="150">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="154" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="155" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="155" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="162" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" s="157">
+        <v>26</v>
+      </c>
+      <c r="H32" s="157">
+        <v>26</v>
+      </c>
+      <c r="I32" s="157">
+        <v>26</v>
+      </c>
+      <c r="J32" s="157">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" thickBot="1">
       <c r="A33" s="150">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="159" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="160" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" s="160" t="s">
+        <v>410</v>
+      </c>
+      <c r="E33" s="163" t="s">
+        <v>405</v>
+      </c>
+      <c r="G33" s="164">
+        <v>27</v>
+      </c>
+      <c r="H33" s="164">
+        <v>27</v>
+      </c>
+      <c r="I33" s="164">
+        <v>27</v>
+      </c>
+      <c r="J33" s="164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="150">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="154" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="155" t="s">
+        <v>419</v>
+      </c>
+      <c r="D34" s="155" t="s">
+        <v>414</v>
+      </c>
+      <c r="E34" s="162" t="s">
+        <v>409</v>
+      </c>
+      <c r="G34" s="151">
+        <v>28</v>
+      </c>
+      <c r="H34" s="151">
+        <v>28</v>
+      </c>
+      <c r="I34" s="151">
+        <v>28</v>
+      </c>
+      <c r="J34" s="151">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="150">
         <v>33</v>
+      </c>
+      <c r="B35" s="157" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="155" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="155" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="162" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35" s="154">
+        <v>29</v>
+      </c>
+      <c r="H35" s="154">
+        <v>29</v>
+      </c>
+      <c r="I35" s="154">
+        <v>29</v>
+      </c>
+      <c r="J35" s="154">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="150">
+        <v>34</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="155" t="s">
+        <v>427</v>
+      </c>
+      <c r="D36" s="155" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" s="162" t="s">
+        <v>417</v>
+      </c>
+      <c r="G36" s="157">
+        <v>30</v>
+      </c>
+      <c r="H36" s="157">
+        <v>30</v>
+      </c>
+      <c r="I36" s="157">
+        <v>30</v>
+      </c>
+      <c r="J36" s="157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A37" s="150">
+        <v>35</v>
+      </c>
+      <c r="B37" s="159" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="160" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="163" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" s="164">
+        <v>31</v>
+      </c>
+      <c r="H37" s="164">
+        <v>31</v>
+      </c>
+      <c r="I37" s="164">
+        <v>31</v>
+      </c>
+      <c r="J37" s="164">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="150">
+        <v>36</v>
+      </c>
+      <c r="B38" s="154" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" s="155" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" s="155" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="162" t="s">
+        <v>425</v>
+      </c>
+      <c r="G38" s="151">
+        <v>32</v>
+      </c>
+      <c r="H38" s="151">
+        <v>32</v>
+      </c>
+      <c r="I38" s="151">
+        <v>32</v>
+      </c>
+      <c r="J38" s="151">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="150">
+        <v>37</v>
+      </c>
+      <c r="B39" s="157" t="s">
+        <v>507</v>
+      </c>
+      <c r="C39" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="D39" s="155" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="162" t="s">
+        <v>429</v>
+      </c>
+      <c r="G39" s="154">
+        <v>33</v>
+      </c>
+      <c r="H39" s="154">
+        <v>33</v>
+      </c>
+      <c r="I39" s="154">
+        <v>33</v>
+      </c>
+      <c r="J39" s="154">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="150">
+        <v>38</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>508</v>
+      </c>
+      <c r="C40" s="155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D40" s="155" t="s">
+        <v>438</v>
+      </c>
+      <c r="E40" s="162" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="157">
+        <v>34</v>
+      </c>
+      <c r="H40" s="157">
+        <v>34</v>
+      </c>
+      <c r="I40" s="157">
+        <v>34</v>
+      </c>
+      <c r="J40" s="157">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A41" s="150">
+        <v>39</v>
+      </c>
+      <c r="B41" s="159" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41" s="160" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="E41" s="163" t="s">
+        <v>437</v>
+      </c>
+      <c r="G41" s="164">
+        <v>35</v>
+      </c>
+      <c r="H41" s="164">
+        <v>35</v>
+      </c>
+      <c r="I41" s="164">
+        <v>35</v>
+      </c>
+      <c r="J41" s="164">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="150">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="150">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="150">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="150">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06395DC-59B7-43A9-A531-7BAF3A087E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481FD2F-11B3-447E-B307-2A2EB3A02CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481FD2F-11B3-447E-B307-2A2EB3A02CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB9EA76-91B4-4775-A708-2896411C6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB9EA76-91B4-4775-A708-2896411C6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D502F-22D3-4CA5-9A23-9D4A0E18C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="16200" windowHeight="9397" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D502F-22D3-4CA5-9A23-9D4A0E18C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D12116-8271-4F7F-A05B-1429B42A10B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="16200" windowHeight="9397" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -18917,8 +18917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK32" sqref="AK32"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21322,8 +21322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D12116-8271-4F7F-A05B-1429B42A10B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5855A-91FB-4E46-AE80-7D92E70601AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="353" yWindow="338" windowWidth="9584" windowHeight="5400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="514">
   <si>
     <t>步骤</t>
   </si>
@@ -1773,6 +1773,10 @@
   </si>
   <si>
     <t>cov(14,15)</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -18608,15 +18612,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696DFE49-C43E-4BC5-A72A-A7713F047E7F}">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1">
+    <row r="1" spans="2:9" ht="14.25" thickBot="1">
       <c r="B1" s="102" t="s">
         <v>226</v>
       </c>
@@ -18629,8 +18633,17 @@
       <c r="E1" s="102" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="G1" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="131" t="s">
         <v>230</v>
       </c>
@@ -18642,7 +18655,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:9">
       <c r="B3" s="135" t="s">
         <v>232</v>
       </c>
@@ -18653,8 +18666,17 @@
       <c r="E3" s="139" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" thickBot="1">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="14.25" thickBot="1">
       <c r="B4" s="140" t="s">
         <v>185</v>
       </c>
@@ -18666,7 +18688,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:9">
       <c r="B5" s="131" t="s">
         <v>230</v>
       </c>
@@ -18678,7 +18700,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:9">
       <c r="B6" s="135" t="s">
         <v>232</v>
       </c>
@@ -18689,8 +18711,17 @@
       <c r="E6" s="139" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.25" thickBot="1">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="14.25" thickBot="1">
       <c r="B7" s="140" t="s">
         <v>185</v>
       </c>
@@ -18702,7 +18733,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:9">
       <c r="B8" s="131" t="s">
         <v>238</v>
       </c>
@@ -18714,7 +18745,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:9">
       <c r="B9" s="135" t="s">
         <v>237</v>
       </c>
@@ -18725,8 +18756,17 @@
       <c r="E9" s="139" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25" thickBot="1">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14.25" thickBot="1">
       <c r="B10" s="140" t="s">
         <v>185</v>
       </c>
@@ -18738,7 +18778,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:9">
       <c r="B11" s="131" t="s">
         <v>235</v>
       </c>
@@ -18750,7 +18790,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:9">
       <c r="B12" s="135" t="s">
         <v>237</v>
       </c>
@@ -18761,8 +18801,17 @@
       <c r="E12" s="139" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="14.25" thickBot="1">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="14.25" thickBot="1">
       <c r="B13" s="140" t="s">
         <v>185</v>
       </c>
@@ -18774,7 +18823,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:9">
       <c r="B14" s="131" t="s">
         <v>231</v>
       </c>
@@ -18788,7 +18837,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:9">
       <c r="B15" s="135" t="s">
         <v>232</v>
       </c>
@@ -18801,8 +18850,17 @@
       <c r="E15" s="139" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.4" customHeight="1" thickBot="1">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.4" customHeight="1" thickBot="1">
       <c r="B16" s="140" t="s">
         <v>185</v>
       </c>
@@ -18816,7 +18874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:9">
       <c r="B17" s="131" t="s">
         <v>240</v>
       </c>
@@ -18830,7 +18888,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:9">
       <c r="B18" s="135" t="s">
         <v>237</v>
       </c>
@@ -18843,8 +18901,17 @@
       <c r="E18" s="139" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" thickBot="1">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="14.25" thickBot="1">
       <c r="B19" s="140" t="s">
         <v>185</v>
       </c>
@@ -18858,7 +18925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:9">
       <c r="B20" s="131" t="s">
         <v>245</v>
       </c>
@@ -18874,9 +18941,8 @@
       <c r="F20" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="G20" s="103"/>
-    </row>
-    <row r="21" spans="2:7">
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="135" t="s">
         <v>237</v>
       </c>
@@ -18892,8 +18958,17 @@
       <c r="F21" s="102" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="14.25" thickBot="1">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" thickBot="1">
       <c r="B22" s="140" t="s">
         <v>185</v>
       </c>
@@ -18917,7 +18992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5855A-91FB-4E46-AE80-7D92E70601AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13893578-51DB-40D2-8686-5CBB613EFF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="353" yWindow="338" windowWidth="9584" windowHeight="5400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="514">
   <si>
     <t>步骤</t>
   </si>
@@ -2452,7 +2452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3038,6 +3038,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18614,7 +18617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696DFE49-C43E-4BC5-A72A-A7713F047E7F}">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -19577,10 +19580,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31A2A6-BB98-4ABD-94E7-4BC4F8C140C1}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E29"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -20157,7 +20160,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:26">
       <c r="A17" s="102" t="s">
         <v>285</v>
       </c>
@@ -20228,7 +20231,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:26">
       <c r="A19" s="102" t="s">
         <v>249</v>
       </c>
@@ -20260,7 +20263,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:26">
       <c r="A20" s="102" t="s">
         <v>266</v>
       </c>
@@ -20295,7 +20298,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:26">
       <c r="A21" s="102" t="s">
         <v>276</v>
       </c>
@@ -20333,7 +20336,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:26">
       <c r="A22" s="102" t="s">
         <v>285</v>
       </c>
@@ -20374,7 +20377,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:26">
       <c r="A24" s="102" t="s">
         <v>379</v>
       </c>
@@ -20402,8 +20405,36 @@
       <c r="K24" s="102" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="Q24" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="R24" s="146"/>
+      <c r="S24" s="149" t="s">
+        <v>328</v>
+      </c>
+      <c r="T24" s="147" t="s">
+        <v>329</v>
+      </c>
+      <c r="U24" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="V24" s="147" t="s">
+        <v>331</v>
+      </c>
+      <c r="W24" s="147" t="s">
+        <v>332</v>
+      </c>
+      <c r="X24" s="147" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y24" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z24" s="147" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="102">
         <v>0</v>
       </c>
@@ -20429,8 +20460,38 @@
       <c r="K25" s="102">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="Q25" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="R25" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="S25" s="197" t="s">
+        <v>302</v>
+      </c>
+      <c r="T25" s="149" t="s">
+        <v>321</v>
+      </c>
+      <c r="U25" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="V25" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="W25" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="X25" s="147" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y25" s="147" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z25" s="147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="102">
         <v>1</v>
       </c>
@@ -20458,8 +20519,38 @@
       <c r="K26" s="102">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="Q26" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="R26" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="S26" s="197" t="s">
+        <v>304</v>
+      </c>
+      <c r="T26" s="197" t="s">
+        <v>305</v>
+      </c>
+      <c r="U26" s="149" t="s">
+        <v>315</v>
+      </c>
+      <c r="V26" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="W26" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="X26" s="147" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y26" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z26" s="147" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="102">
         <v>2</v>
       </c>
@@ -20487,8 +20578,38 @@
       <c r="K27" s="102">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="Q27" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="R27" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="S27" s="197" t="s">
+        <v>307</v>
+      </c>
+      <c r="T27" s="197" t="s">
+        <v>308</v>
+      </c>
+      <c r="U27" s="197" t="s">
+        <v>309</v>
+      </c>
+      <c r="V27" s="149" t="s">
+        <v>310</v>
+      </c>
+      <c r="W27" s="147" t="s">
+        <v>311</v>
+      </c>
+      <c r="X27" s="147" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y27" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z27" s="147" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="102">
         <v>3</v>
       </c>
@@ -20517,7 +20638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26">
       <c r="A29" s="102">
         <v>4</v>
       </c>
@@ -20546,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:26">
       <c r="A30" s="102">
         <v>5</v>
       </c>
@@ -20575,7 +20696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:26">
       <c r="A31" s="102">
         <v>6</v>
       </c>
@@ -20604,7 +20725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:26">
       <c r="A32" s="102">
         <v>7</v>
       </c>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB0570-F7AE-450C-884A-9C31D4C7AD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D407CB-303E-42E7-95BE-1B82588BE403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="TEMP_BANK" sheetId="4" r:id="rId4"/>
     <sheet name="COV_BANK" sheetId="5" r:id="rId5"/>
     <sheet name="NEW_COV_BANK" sheetId="6" r:id="rId6"/>
+    <sheet name="PRD" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="549">
   <si>
     <t>步骤</t>
   </si>
@@ -1800,6 +1801,117 @@
   </si>
   <si>
     <t>UPD_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlr</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>prd_cur</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_cur</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_addra_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA2Non_m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non2RSA_m</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_i_hat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_i_hat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta_i_hat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_xi_13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_xi_23</t>
+  </si>
+  <si>
+    <t>TB_addra_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_NL_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_NL_2</t>
+  </si>
+  <si>
+    <t>PRD_NL_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_NL_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_1</t>
+  </si>
+  <si>
+    <t>PRD_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_2</t>
+  </si>
+  <si>
+    <t>PRD_3</t>
+  </si>
+  <si>
+    <t>PRD_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3022,30 +3134,6 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3074,6 +3162,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4023,10 +4135,10 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4806,12 +4918,12 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="184"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -12402,7 +12514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
@@ -12471,7 +12583,7 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="183" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="13"/>
@@ -12494,7 +12606,7 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="184" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="13"/>
@@ -12630,7 +12742,7 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" s="65" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="193" t="s">
+      <c r="A10" s="185" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="63"/>
@@ -12724,7 +12836,7 @@
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="186" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="17"/>
@@ -12998,7 +13110,7 @@
       <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:19" ht="39.75" customHeight="1">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="187" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="61" t="s">
@@ -13110,7 +13222,7 @@
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="188" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="33"/>
@@ -13133,7 +13245,7 @@
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" s="65" customFormat="1">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="189" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="66"/>
@@ -13248,7 +13360,7 @@
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" ht="33" customHeight="1">
-      <c r="A34" s="198"/>
+      <c r="A34" s="190"/>
       <c r="B34" s="54" t="s">
         <v>34</v>
       </c>
@@ -13275,7 +13387,7 @@
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="198"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="26" t="s">
         <v>36</v>
       </c>
@@ -13302,7 +13414,7 @@
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="198"/>
+      <c r="A36" s="190"/>
       <c r="B36" s="26" t="s">
         <v>185</v>
       </c>
@@ -13329,7 +13441,7 @@
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="198"/>
+      <c r="A37" s="190"/>
       <c r="B37" s="26" t="s">
         <v>219</v>
       </c>
@@ -13356,7 +13468,7 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="198"/>
+      <c r="A38" s="190"/>
       <c r="B38" s="54" t="s">
         <v>34</v>
       </c>
@@ -13383,7 +13495,7 @@
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="198"/>
+      <c r="A39" s="190"/>
       <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
@@ -13410,7 +13522,7 @@
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="198"/>
+      <c r="A40" s="190"/>
       <c r="B40" s="46" t="s">
         <v>185</v>
       </c>
@@ -13439,7 +13551,7 @@
       <c r="S40" s="4"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="198"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="46" t="s">
         <v>219</v>
       </c>
@@ -13468,7 +13580,7 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="198"/>
+      <c r="A42" s="190"/>
       <c r="B42" s="88" t="s">
         <v>35</v>
       </c>
@@ -13495,7 +13607,7 @@
       <c r="S42" s="4"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="198"/>
+      <c r="A43" s="190"/>
       <c r="B43" s="43" t="s">
         <v>36</v>
       </c>
@@ -13522,7 +13634,7 @@
       <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="198"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="43" t="s">
         <v>187</v>
       </c>
@@ -13549,7 +13661,7 @@
       <c r="S44" s="4"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="198"/>
+      <c r="A45" s="190"/>
       <c r="B45" s="44" t="s">
         <v>221</v>
       </c>
@@ -13576,7 +13688,7 @@
       <c r="S45" s="37"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="198"/>
+      <c r="A46" s="190"/>
       <c r="B46" s="84" t="s">
         <v>46</v>
       </c>
@@ -13603,7 +13715,7 @@
       <c r="S46" s="4"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="198"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="43" t="s">
         <v>45</v>
       </c>
@@ -13630,7 +13742,7 @@
       <c r="S47" s="4"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="198"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="43" t="s">
         <v>185</v>
       </c>
@@ -13657,7 +13769,7 @@
       <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="198"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="43" t="s">
         <v>219</v>
       </c>
@@ -13684,7 +13796,7 @@
       <c r="S49" s="37"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="198"/>
+      <c r="A50" s="190"/>
       <c r="B50" s="84" t="s">
         <v>48</v>
       </c>
@@ -13713,7 +13825,7 @@
       <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="198"/>
+      <c r="A51" s="190"/>
       <c r="B51" s="43" t="s">
         <v>45</v>
       </c>
@@ -13742,7 +13854,7 @@
       <c r="S51" s="4"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="198"/>
+      <c r="A52" s="190"/>
       <c r="B52" s="43" t="s">
         <v>185</v>
       </c>
@@ -13771,7 +13883,7 @@
       <c r="S52" s="4"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="198"/>
+      <c r="A53" s="190"/>
       <c r="B53" s="44" t="s">
         <v>219</v>
       </c>
@@ -13800,7 +13912,7 @@
       <c r="S53" s="37"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="198"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -13823,7 +13935,7 @@
       <c r="S54" s="4"/>
     </row>
     <row r="55" spans="1:19" s="65" customFormat="1">
-      <c r="A55" s="197" t="s">
+      <c r="A55" s="189" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="66"/>
@@ -14883,7 +14995,7 @@
       <c r="S94" s="4"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="198"/>
+      <c r="A95" s="190"/>
       <c r="B95" s="26" t="s">
         <v>22</v>
       </c>
@@ -14945,7 +15057,7 @@
       <c r="S96" s="4"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="198"/>
+      <c r="A97" s="190"/>
       <c r="B97" s="43" t="s">
         <v>75</v>
       </c>
@@ -14974,7 +15086,7 @@
       <c r="S97" s="4"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="198"/>
+      <c r="A98" s="190"/>
       <c r="B98" s="43" t="s">
         <v>185</v>
       </c>
@@ -15027,11 +15139,11 @@
     </row>
     <row r="100" spans="1:19" ht="14.25" thickBot="1">
       <c r="A100" s="18"/>
-      <c r="B100" s="186" t="s">
+      <c r="B100" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="187"/>
-      <c r="D100" s="187"/>
+      <c r="C100" s="197"/>
+      <c r="D100" s="197"/>
       <c r="E100" s="73" t="s">
         <v>202</v>
       </c>
@@ -15076,7 +15188,7 @@
       <c r="S101" s="4"/>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="199" t="s">
+      <c r="A102" s="191" t="s">
         <v>196</v>
       </c>
       <c r="B102" s="70" t="s">
@@ -15104,7 +15216,7 @@
       <c r="S102" s="37"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="200" t="s">
+      <c r="A103" s="192" t="s">
         <v>197</v>
       </c>
       <c r="B103" s="71"/>
@@ -15130,7 +15242,7 @@
       <c r="S103" s="37"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="199" t="s">
+      <c r="A104" s="191" t="s">
         <v>198</v>
       </c>
       <c r="B104" s="71" t="s">
@@ -15160,7 +15272,7 @@
       <c r="S104" s="4"/>
     </row>
     <row r="105" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A105" s="199" t="s">
+      <c r="A105" s="191" t="s">
         <v>200</v>
       </c>
       <c r="B105" s="72"/>
@@ -15188,7 +15300,7 @@
       <c r="S105" s="4"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="198"/>
+      <c r="A106" s="190"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="18"/>
@@ -15210,7 +15322,7 @@
       <c r="S106" s="4"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="198"/>
+      <c r="A107" s="190"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
@@ -15231,7 +15343,7 @@
       <c r="S107" s="4"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="198"/>
+      <c r="A108" s="190"/>
       <c r="B108" s="18" t="s">
         <v>212</v>
       </c>
@@ -15256,7 +15368,7 @@
       <c r="S108" s="4"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="198"/>
+      <c r="A109" s="190"/>
       <c r="B109" s="48" t="s">
         <v>216</v>
       </c>
@@ -15281,7 +15393,7 @@
       <c r="S109" s="4"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="198"/>
+      <c r="A110" s="190"/>
       <c r="B110" s="18" t="s">
         <v>214</v>
       </c>
@@ -15306,7 +15418,7 @@
       <c r="S110" s="4"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="198"/>
+      <c r="A111" s="190"/>
       <c r="B111" s="18" t="s">
         <v>178</v>
       </c>
@@ -15331,7 +15443,7 @@
       <c r="S111" s="4"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="198"/>
+      <c r="A112" s="190"/>
       <c r="B112" s="18" t="s">
         <v>218</v>
       </c>
@@ -15356,7 +15468,7 @@
       <c r="S112" s="4"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="198"/>
+      <c r="A113" s="190"/>
       <c r="B113" s="18" t="s">
         <v>214</v>
       </c>
@@ -15381,7 +15493,7 @@
       <c r="S113" s="4"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="198"/>
+      <c r="A114" s="190"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -15402,7 +15514,7 @@
       <c r="S114" s="4"/>
     </row>
     <row r="115" spans="1:19">
-      <c r="A115" s="198"/>
+      <c r="A115" s="190"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -15423,7 +15535,7 @@
       <c r="S115" s="4"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="198"/>
+      <c r="A116" s="190"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -15444,7 +15556,7 @@
       <c r="S116" s="4"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="198"/>
+      <c r="A117" s="190"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -15465,7 +15577,7 @@
       <c r="S117" s="4"/>
     </row>
     <row r="118" spans="1:19">
-      <c r="A118" s="198"/>
+      <c r="A118" s="190"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -15486,7 +15598,7 @@
       <c r="S118" s="4"/>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="198"/>
+      <c r="A119" s="190"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -15507,7 +15619,7 @@
       <c r="S119" s="4"/>
     </row>
     <row r="120" spans="1:19">
-      <c r="A120" s="198"/>
+      <c r="A120" s="190"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -15528,7 +15640,7 @@
       <c r="S120" s="4"/>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="198"/>
+      <c r="A121" s="190"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -15549,7 +15661,7 @@
       <c r="S121" s="4"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="A122" s="198"/>
+      <c r="A122" s="190"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -15570,7 +15682,7 @@
       <c r="S122" s="4"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="198"/>
+      <c r="A123" s="190"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -15591,7 +15703,7 @@
       <c r="S123" s="4"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="198"/>
+      <c r="A124" s="190"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -15612,7 +15724,7 @@
       <c r="S124" s="4"/>
     </row>
     <row r="125" spans="1:19">
-      <c r="A125" s="198"/>
+      <c r="A125" s="190"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -15633,7 +15745,7 @@
       <c r="S125" s="4"/>
     </row>
     <row r="126" spans="1:19">
-      <c r="A126" s="198"/>
+      <c r="A126" s="190"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -15654,7 +15766,7 @@
       <c r="S126" s="4"/>
     </row>
     <row r="127" spans="1:19">
-      <c r="A127" s="198"/>
+      <c r="A127" s="190"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -15675,7 +15787,7 @@
       <c r="S127" s="4"/>
     </row>
     <row r="128" spans="1:19">
-      <c r="A128" s="198"/>
+      <c r="A128" s="190"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -15696,7 +15808,7 @@
       <c r="S128" s="4"/>
     </row>
     <row r="129" spans="1:19">
-      <c r="A129" s="198"/>
+      <c r="A129" s="190"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -15717,7 +15829,7 @@
       <c r="S129" s="4"/>
     </row>
     <row r="130" spans="1:19">
-      <c r="A130" s="198"/>
+      <c r="A130" s="190"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -15738,7 +15850,7 @@
       <c r="S130" s="4"/>
     </row>
     <row r="131" spans="1:19">
-      <c r="A131" s="198"/>
+      <c r="A131" s="190"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -15759,7 +15871,7 @@
       <c r="S131" s="4"/>
     </row>
     <row r="132" spans="1:19">
-      <c r="A132" s="198"/>
+      <c r="A132" s="190"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -15780,7 +15892,7 @@
       <c r="S132" s="4"/>
     </row>
     <row r="133" spans="1:19">
-      <c r="A133" s="198"/>
+      <c r="A133" s="190"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -15801,7 +15913,7 @@
       <c r="S133" s="4"/>
     </row>
     <row r="134" spans="1:19">
-      <c r="A134" s="198"/>
+      <c r="A134" s="190"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
@@ -15822,7 +15934,7 @@
       <c r="S134" s="4"/>
     </row>
     <row r="135" spans="1:19">
-      <c r="A135" s="198"/>
+      <c r="A135" s="190"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -15843,7 +15955,7 @@
       <c r="S135" s="4"/>
     </row>
     <row r="136" spans="1:19">
-      <c r="A136" s="198"/>
+      <c r="A136" s="190"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -15864,7 +15976,7 @@
       <c r="S136" s="4"/>
     </row>
     <row r="137" spans="1:19">
-      <c r="A137" s="198"/>
+      <c r="A137" s="190"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -15885,7 +15997,7 @@
       <c r="S137" s="4"/>
     </row>
     <row r="138" spans="1:19">
-      <c r="A138" s="198"/>
+      <c r="A138" s="190"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -15906,7 +16018,7 @@
       <c r="S138" s="4"/>
     </row>
     <row r="139" spans="1:19">
-      <c r="A139" s="198"/>
+      <c r="A139" s="190"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -15927,7 +16039,7 @@
       <c r="S139" s="4"/>
     </row>
     <row r="140" spans="1:19">
-      <c r="A140" s="198"/>
+      <c r="A140" s="190"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
@@ -15948,7 +16060,7 @@
       <c r="S140" s="4"/>
     </row>
     <row r="141" spans="1:19">
-      <c r="A141" s="198"/>
+      <c r="A141" s="190"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
@@ -15969,7 +16081,7 @@
       <c r="S141" s="4"/>
     </row>
     <row r="142" spans="1:19">
-      <c r="A142" s="198"/>
+      <c r="A142" s="190"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
@@ -15990,7 +16102,7 @@
       <c r="S142" s="4"/>
     </row>
     <row r="143" spans="1:19">
-      <c r="A143" s="198"/>
+      <c r="A143" s="190"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
@@ -16011,7 +16123,7 @@
       <c r="S143" s="4"/>
     </row>
     <row r="144" spans="1:19">
-      <c r="A144" s="198"/>
+      <c r="A144" s="190"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
@@ -16032,7 +16144,7 @@
       <c r="S144" s="4"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="198"/>
+      <c r="A145" s="190"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
@@ -16053,7 +16165,7 @@
       <c r="S145" s="4"/>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="198"/>
+      <c r="A146" s="190"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
@@ -16074,7 +16186,7 @@
       <c r="S146" s="4"/>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="198"/>
+      <c r="A147" s="190"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
@@ -16095,7 +16207,7 @@
       <c r="S147" s="4"/>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="198"/>
+      <c r="A148" s="190"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
@@ -16116,7 +16228,7 @@
       <c r="S148" s="4"/>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="198"/>
+      <c r="A149" s="190"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
@@ -16137,7 +16249,7 @@
       <c r="S149" s="4"/>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="198"/>
+      <c r="A150" s="190"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
@@ -16158,7 +16270,7 @@
       <c r="S150" s="4"/>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="198"/>
+      <c r="A151" s="190"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
@@ -16179,7 +16291,7 @@
       <c r="S151" s="4"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="198"/>
+      <c r="A152" s="190"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
@@ -16200,7 +16312,7 @@
       <c r="S152" s="4"/>
     </row>
     <row r="153" spans="1:19">
-      <c r="A153" s="198"/>
+      <c r="A153" s="190"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
@@ -16221,7 +16333,7 @@
       <c r="S153" s="4"/>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="198"/>
+      <c r="A154" s="190"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
@@ -16242,7 +16354,7 @@
       <c r="S154" s="4"/>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="198"/>
+      <c r="A155" s="190"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
@@ -16263,7 +16375,7 @@
       <c r="S155" s="4"/>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="198"/>
+      <c r="A156" s="190"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
@@ -16284,7 +16396,7 @@
       <c r="S156" s="4"/>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="198"/>
+      <c r="A157" s="190"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
@@ -16305,7 +16417,7 @@
       <c r="S157" s="4"/>
     </row>
     <row r="158" spans="1:19">
-      <c r="A158" s="198"/>
+      <c r="A158" s="190"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
@@ -16326,7 +16438,7 @@
       <c r="S158" s="4"/>
     </row>
     <row r="159" spans="1:19">
-      <c r="A159" s="198"/>
+      <c r="A159" s="190"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
@@ -16347,7 +16459,7 @@
       <c r="S159" s="4"/>
     </row>
     <row r="160" spans="1:19">
-      <c r="A160" s="198"/>
+      <c r="A160" s="190"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
@@ -16368,7 +16480,7 @@
       <c r="S160" s="4"/>
     </row>
     <row r="161" spans="1:19">
-      <c r="A161" s="198"/>
+      <c r="A161" s="190"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
@@ -16389,7 +16501,7 @@
       <c r="S161" s="4"/>
     </row>
     <row r="162" spans="1:19">
-      <c r="A162" s="198"/>
+      <c r="A162" s="190"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
@@ -16410,7 +16522,7 @@
       <c r="S162" s="4"/>
     </row>
     <row r="163" spans="1:19">
-      <c r="A163" s="198"/>
+      <c r="A163" s="190"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
@@ -16431,7 +16543,7 @@
       <c r="S163" s="4"/>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="198"/>
+      <c r="A164" s="190"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
@@ -16452,7 +16564,7 @@
       <c r="S164" s="4"/>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="198"/>
+      <c r="A165" s="190"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
@@ -16473,7 +16585,7 @@
       <c r="S165" s="4"/>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="198"/>
+      <c r="A166" s="190"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
@@ -16494,7 +16606,7 @@
       <c r="S166" s="4"/>
     </row>
     <row r="167" spans="1:19">
-      <c r="A167" s="198"/>
+      <c r="A167" s="190"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
@@ -16515,7 +16627,7 @@
       <c r="S167" s="4"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="198"/>
+      <c r="A168" s="190"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
@@ -16536,7 +16648,7 @@
       <c r="S168" s="4"/>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="198"/>
+      <c r="A169" s="190"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
@@ -16557,7 +16669,7 @@
       <c r="S169" s="4"/>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="198"/>
+      <c r="A170" s="190"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
@@ -16578,7 +16690,7 @@
       <c r="S170" s="4"/>
     </row>
     <row r="171" spans="1:19">
-      <c r="A171" s="198"/>
+      <c r="A171" s="190"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
@@ -16599,7 +16711,7 @@
       <c r="S171" s="4"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="198"/>
+      <c r="A172" s="190"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
@@ -16620,7 +16732,7 @@
       <c r="S172" s="4"/>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="198"/>
+      <c r="A173" s="190"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
@@ -16641,7 +16753,7 @@
       <c r="S173" s="4"/>
     </row>
     <row r="174" spans="1:19">
-      <c r="A174" s="198"/>
+      <c r="A174" s="190"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
@@ -16662,7 +16774,7 @@
       <c r="S174" s="4"/>
     </row>
     <row r="175" spans="1:19">
-      <c r="A175" s="198"/>
+      <c r="A175" s="190"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
@@ -16683,7 +16795,7 @@
       <c r="S175" s="4"/>
     </row>
     <row r="176" spans="1:19">
-      <c r="A176" s="198"/>
+      <c r="A176" s="190"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
@@ -16704,7 +16816,7 @@
       <c r="S176" s="4"/>
     </row>
     <row r="177" spans="1:19">
-      <c r="A177" s="198"/>
+      <c r="A177" s="190"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
@@ -16725,7 +16837,7 @@
       <c r="S177" s="4"/>
     </row>
     <row r="178" spans="1:19">
-      <c r="A178" s="198"/>
+      <c r="A178" s="190"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
@@ -16746,7 +16858,7 @@
       <c r="S178" s="4"/>
     </row>
     <row r="179" spans="1:19">
-      <c r="A179" s="198"/>
+      <c r="A179" s="190"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
@@ -16767,7 +16879,7 @@
       <c r="S179" s="4"/>
     </row>
     <row r="180" spans="1:19">
-      <c r="A180" s="198"/>
+      <c r="A180" s="190"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="18"/>
@@ -16788,7 +16900,7 @@
       <c r="S180" s="4"/>
     </row>
     <row r="181" spans="1:19">
-      <c r="A181" s="198"/>
+      <c r="A181" s="190"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="18"/>
@@ -16809,7 +16921,7 @@
       <c r="S181" s="4"/>
     </row>
     <row r="182" spans="1:19">
-      <c r="A182" s="198"/>
+      <c r="A182" s="190"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="18"/>
@@ -16830,7 +16942,7 @@
       <c r="S182" s="4"/>
     </row>
     <row r="183" spans="1:19">
-      <c r="A183" s="198"/>
+      <c r="A183" s="190"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
@@ -16851,7 +16963,7 @@
       <c r="S183" s="4"/>
     </row>
     <row r="184" spans="1:19">
-      <c r="A184" s="198"/>
+      <c r="A184" s="190"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
@@ -16872,7 +16984,7 @@
       <c r="S184" s="4"/>
     </row>
     <row r="185" spans="1:19">
-      <c r="A185" s="198"/>
+      <c r="A185" s="190"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
@@ -16893,7 +17005,7 @@
       <c r="S185" s="4"/>
     </row>
     <row r="186" spans="1:19">
-      <c r="A186" s="198"/>
+      <c r="A186" s="190"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
@@ -16914,7 +17026,7 @@
       <c r="S186" s="4"/>
     </row>
     <row r="187" spans="1:19">
-      <c r="A187" s="198"/>
+      <c r="A187" s="190"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
@@ -16935,7 +17047,7 @@
       <c r="S187" s="4"/>
     </row>
     <row r="188" spans="1:19">
-      <c r="A188" s="198"/>
+      <c r="A188" s="190"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
       <c r="D188" s="18"/>
@@ -16956,7 +17068,7 @@
       <c r="S188" s="4"/>
     </row>
     <row r="189" spans="1:19">
-      <c r="A189" s="198"/>
+      <c r="A189" s="190"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
       <c r="D189" s="18"/>
@@ -16977,7 +17089,7 @@
       <c r="S189" s="4"/>
     </row>
     <row r="190" spans="1:19">
-      <c r="A190" s="198"/>
+      <c r="A190" s="190"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="18"/>
@@ -16998,7 +17110,7 @@
       <c r="S190" s="4"/>
     </row>
     <row r="191" spans="1:19">
-      <c r="A191" s="198"/>
+      <c r="A191" s="190"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
@@ -17019,7 +17131,7 @@
       <c r="S191" s="4"/>
     </row>
     <row r="192" spans="1:19">
-      <c r="A192" s="198"/>
+      <c r="A192" s="190"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
@@ -17040,7 +17152,7 @@
       <c r="S192" s="4"/>
     </row>
     <row r="193" spans="1:19">
-      <c r="A193" s="198"/>
+      <c r="A193" s="190"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
@@ -17061,7 +17173,7 @@
       <c r="S193" s="4"/>
     </row>
     <row r="194" spans="1:19">
-      <c r="A194" s="198"/>
+      <c r="A194" s="190"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
@@ -17082,7 +17194,7 @@
       <c r="S194" s="4"/>
     </row>
     <row r="195" spans="1:19">
-      <c r="A195" s="198"/>
+      <c r="A195" s="190"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
@@ -17103,7 +17215,7 @@
       <c r="S195" s="4"/>
     </row>
     <row r="196" spans="1:19">
-      <c r="A196" s="198"/>
+      <c r="A196" s="190"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
@@ -17124,7 +17236,7 @@
       <c r="S196" s="4"/>
     </row>
     <row r="197" spans="1:19">
-      <c r="A197" s="198"/>
+      <c r="A197" s="190"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
@@ -17145,7 +17257,7 @@
       <c r="S197" s="4"/>
     </row>
     <row r="198" spans="1:19">
-      <c r="A198" s="198"/>
+      <c r="A198" s="190"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
@@ -17166,7 +17278,7 @@
       <c r="S198" s="4"/>
     </row>
     <row r="199" spans="1:19">
-      <c r="A199" s="198"/>
+      <c r="A199" s="190"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
@@ -17187,7 +17299,7 @@
       <c r="S199" s="4"/>
     </row>
     <row r="200" spans="1:19">
-      <c r="A200" s="198"/>
+      <c r="A200" s="190"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
       <c r="D200" s="18"/>
@@ -17208,7 +17320,7 @@
       <c r="S200" s="4"/>
     </row>
     <row r="201" spans="1:19">
-      <c r="A201" s="198"/>
+      <c r="A201" s="190"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
@@ -17229,7 +17341,7 @@
       <c r="S201" s="4"/>
     </row>
     <row r="202" spans="1:19">
-      <c r="A202" s="198"/>
+      <c r="A202" s="190"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
       <c r="D202" s="18"/>
@@ -17250,7 +17362,7 @@
       <c r="S202" s="4"/>
     </row>
     <row r="203" spans="1:19">
-      <c r="A203" s="198"/>
+      <c r="A203" s="190"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
       <c r="D203" s="18"/>
@@ -17271,7 +17383,7 @@
       <c r="S203" s="4"/>
     </row>
     <row r="204" spans="1:19">
-      <c r="A204" s="198"/>
+      <c r="A204" s="190"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
       <c r="D204" s="18"/>
@@ -17292,7 +17404,7 @@
       <c r="S204" s="4"/>
     </row>
     <row r="205" spans="1:19">
-      <c r="A205" s="198"/>
+      <c r="A205" s="190"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
       <c r="D205" s="18"/>
@@ -17313,7 +17425,7 @@
       <c r="S205" s="4"/>
     </row>
     <row r="206" spans="1:19">
-      <c r="A206" s="198"/>
+      <c r="A206" s="190"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="18"/>
@@ -17334,7 +17446,7 @@
       <c r="S206" s="4"/>
     </row>
     <row r="207" spans="1:19">
-      <c r="A207" s="198"/>
+      <c r="A207" s="190"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
       <c r="D207" s="18"/>
@@ -17355,7 +17467,7 @@
       <c r="S207" s="4"/>
     </row>
     <row r="208" spans="1:19">
-      <c r="A208" s="198"/>
+      <c r="A208" s="190"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
       <c r="D208" s="18"/>
@@ -17376,7 +17488,7 @@
       <c r="S208" s="4"/>
     </row>
     <row r="209" spans="1:19">
-      <c r="A209" s="198"/>
+      <c r="A209" s="190"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
@@ -17397,7 +17509,7 @@
       <c r="S209" s="4"/>
     </row>
     <row r="210" spans="1:19">
-      <c r="A210" s="198"/>
+      <c r="A210" s="190"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
@@ -17418,7 +17530,7 @@
       <c r="S210" s="4"/>
     </row>
     <row r="211" spans="1:19">
-      <c r="A211" s="198"/>
+      <c r="A211" s="190"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
@@ -17439,7 +17551,7 @@
       <c r="S211" s="4"/>
     </row>
     <row r="212" spans="1:19">
-      <c r="A212" s="198"/>
+      <c r="A212" s="190"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
       <c r="D212" s="18"/>
@@ -17460,7 +17572,7 @@
       <c r="S212" s="4"/>
     </row>
     <row r="213" spans="1:19">
-      <c r="A213" s="198"/>
+      <c r="A213" s="190"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="18"/>
@@ -17481,7 +17593,7 @@
       <c r="S213" s="4"/>
     </row>
     <row r="214" spans="1:19">
-      <c r="A214" s="198"/>
+      <c r="A214" s="190"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="18"/>
@@ -17502,7 +17614,7 @@
       <c r="S214" s="4"/>
     </row>
     <row r="215" spans="1:19">
-      <c r="A215" s="198"/>
+      <c r="A215" s="190"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="18"/>
@@ -17523,7 +17635,7 @@
       <c r="S215" s="4"/>
     </row>
     <row r="216" spans="1:19">
-      <c r="A216" s="198"/>
+      <c r="A216" s="190"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
       <c r="D216" s="18"/>
@@ -17544,7 +17656,7 @@
       <c r="S216" s="4"/>
     </row>
     <row r="217" spans="1:19">
-      <c r="A217" s="198"/>
+      <c r="A217" s="190"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
       <c r="D217" s="18"/>
@@ -17565,7 +17677,7 @@
       <c r="S217" s="4"/>
     </row>
     <row r="218" spans="1:19">
-      <c r="A218" s="198"/>
+      <c r="A218" s="190"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
       <c r="D218" s="18"/>
@@ -17586,7 +17698,7 @@
       <c r="S218" s="4"/>
     </row>
     <row r="219" spans="1:19">
-      <c r="A219" s="198"/>
+      <c r="A219" s="190"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
       <c r="D219" s="18"/>
@@ -17607,7 +17719,7 @@
       <c r="S219" s="4"/>
     </row>
     <row r="220" spans="1:19">
-      <c r="A220" s="198"/>
+      <c r="A220" s="190"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
       <c r="D220" s="18"/>
@@ -17628,7 +17740,7 @@
       <c r="S220" s="4"/>
     </row>
     <row r="221" spans="1:19">
-      <c r="A221" s="198"/>
+      <c r="A221" s="190"/>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
       <c r="D221" s="18"/>
@@ -17649,7 +17761,7 @@
       <c r="S221" s="4"/>
     </row>
     <row r="222" spans="1:19">
-      <c r="A222" s="198"/>
+      <c r="A222" s="190"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
       <c r="D222" s="18"/>
@@ -17670,7 +17782,7 @@
       <c r="S222" s="4"/>
     </row>
     <row r="223" spans="1:19">
-      <c r="A223" s="198"/>
+      <c r="A223" s="190"/>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
       <c r="D223" s="18"/>
@@ -17691,7 +17803,7 @@
       <c r="S223" s="4"/>
     </row>
     <row r="224" spans="1:19">
-      <c r="A224" s="198"/>
+      <c r="A224" s="190"/>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
       <c r="D224" s="18"/>
@@ -17712,7 +17824,7 @@
       <c r="S224" s="4"/>
     </row>
     <row r="225" spans="1:19">
-      <c r="A225" s="198"/>
+      <c r="A225" s="190"/>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="18"/>
@@ -17733,7 +17845,7 @@
       <c r="S225" s="4"/>
     </row>
     <row r="226" spans="1:19">
-      <c r="A226" s="198"/>
+      <c r="A226" s="190"/>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="18"/>
@@ -17754,7 +17866,7 @@
       <c r="S226" s="4"/>
     </row>
     <row r="227" spans="1:19">
-      <c r="A227" s="198"/>
+      <c r="A227" s="190"/>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="18"/>
@@ -17775,7 +17887,7 @@
       <c r="S227" s="4"/>
     </row>
     <row r="228" spans="1:19">
-      <c r="A228" s="198"/>
+      <c r="A228" s="190"/>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="18"/>
@@ -17796,7 +17908,7 @@
       <c r="S228" s="4"/>
     </row>
     <row r="229" spans="1:19">
-      <c r="A229" s="198"/>
+      <c r="A229" s="190"/>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
       <c r="D229" s="18"/>
@@ -17817,7 +17929,7 @@
       <c r="S229" s="4"/>
     </row>
     <row r="230" spans="1:19">
-      <c r="A230" s="198"/>
+      <c r="A230" s="190"/>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
       <c r="D230" s="18"/>
@@ -17838,7 +17950,7 @@
       <c r="S230" s="4"/>
     </row>
     <row r="231" spans="1:19">
-      <c r="A231" s="198"/>
+      <c r="A231" s="190"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
       <c r="D231" s="18"/>
@@ -17859,7 +17971,7 @@
       <c r="S231" s="4"/>
     </row>
     <row r="232" spans="1:19">
-      <c r="A232" s="198"/>
+      <c r="A232" s="190"/>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
       <c r="D232" s="18"/>
@@ -17880,7 +17992,7 @@
       <c r="S232" s="4"/>
     </row>
     <row r="233" spans="1:19">
-      <c r="A233" s="198"/>
+      <c r="A233" s="190"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
       <c r="D233" s="18"/>
@@ -17901,7 +18013,7 @@
       <c r="S233" s="4"/>
     </row>
     <row r="234" spans="1:19">
-      <c r="A234" s="198"/>
+      <c r="A234" s="190"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
       <c r="D234" s="18"/>
@@ -17922,7 +18034,7 @@
       <c r="S234" s="4"/>
     </row>
     <row r="235" spans="1:19">
-      <c r="A235" s="198"/>
+      <c r="A235" s="190"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
       <c r="D235" s="18"/>
@@ -17943,7 +18055,7 @@
       <c r="S235" s="4"/>
     </row>
     <row r="236" spans="1:19">
-      <c r="A236" s="198"/>
+      <c r="A236" s="190"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
       <c r="D236" s="18"/>
@@ -17964,7 +18076,7 @@
       <c r="S236" s="4"/>
     </row>
     <row r="237" spans="1:19">
-      <c r="A237" s="198"/>
+      <c r="A237" s="190"/>
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
       <c r="D237" s="18"/>
@@ -17985,7 +18097,7 @@
       <c r="S237" s="4"/>
     </row>
     <row r="238" spans="1:19">
-      <c r="A238" s="198"/>
+      <c r="A238" s="190"/>
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
       <c r="D238" s="18"/>
@@ -18006,7 +18118,7 @@
       <c r="S238" s="4"/>
     </row>
     <row r="239" spans="1:19">
-      <c r="A239" s="198"/>
+      <c r="A239" s="190"/>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
       <c r="D239" s="18"/>
@@ -18027,7 +18139,7 @@
       <c r="S239" s="4"/>
     </row>
     <row r="240" spans="1:19">
-      <c r="A240" s="198"/>
+      <c r="A240" s="190"/>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
       <c r="D240" s="18"/>
@@ -18048,7 +18160,7 @@
       <c r="S240" s="4"/>
     </row>
     <row r="241" spans="1:19">
-      <c r="A241" s="198"/>
+      <c r="A241" s="190"/>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
       <c r="D241" s="18"/>
@@ -18069,7 +18181,7 @@
       <c r="S241" s="4"/>
     </row>
     <row r="242" spans="1:19">
-      <c r="A242" s="198"/>
+      <c r="A242" s="190"/>
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
       <c r="D242" s="18"/>
@@ -18090,7 +18202,7 @@
       <c r="S242" s="4"/>
     </row>
     <row r="243" spans="1:19">
-      <c r="A243" s="198"/>
+      <c r="A243" s="190"/>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
       <c r="D243" s="18"/>
@@ -18111,7 +18223,7 @@
       <c r="S243" s="4"/>
     </row>
     <row r="244" spans="1:19">
-      <c r="A244" s="198"/>
+      <c r="A244" s="190"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
       <c r="D244" s="18"/>
@@ -18132,7 +18244,7 @@
       <c r="S244" s="4"/>
     </row>
     <row r="245" spans="1:19">
-      <c r="A245" s="198"/>
+      <c r="A245" s="190"/>
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
       <c r="D245" s="18"/>
@@ -18153,7 +18265,7 @@
       <c r="S245" s="4"/>
     </row>
     <row r="246" spans="1:19">
-      <c r="A246" s="198"/>
+      <c r="A246" s="190"/>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
       <c r="D246" s="18"/>
@@ -18174,7 +18286,7 @@
       <c r="S246" s="4"/>
     </row>
     <row r="247" spans="1:19">
-      <c r="A247" s="198"/>
+      <c r="A247" s="190"/>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
       <c r="D247" s="18"/>
@@ -18195,7 +18307,7 @@
       <c r="S247" s="4"/>
     </row>
     <row r="248" spans="1:19">
-      <c r="A248" s="198"/>
+      <c r="A248" s="190"/>
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
       <c r="D248" s="18"/>
@@ -18216,7 +18328,7 @@
       <c r="S248" s="4"/>
     </row>
     <row r="249" spans="1:19">
-      <c r="A249" s="198"/>
+      <c r="A249" s="190"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
@@ -18237,7 +18349,7 @@
       <c r="S249" s="4"/>
     </row>
     <row r="250" spans="1:19">
-      <c r="A250" s="198"/>
+      <c r="A250" s="190"/>
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
       <c r="D250" s="18"/>
@@ -18258,7 +18370,7 @@
       <c r="S250" s="4"/>
     </row>
     <row r="251" spans="1:19">
-      <c r="A251" s="198"/>
+      <c r="A251" s="190"/>
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
       <c r="D251" s="18"/>
@@ -18279,7 +18391,7 @@
       <c r="S251" s="4"/>
     </row>
     <row r="252" spans="1:19">
-      <c r="A252" s="198"/>
+      <c r="A252" s="190"/>
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
       <c r="D252" s="18"/>
@@ -18300,7 +18412,7 @@
       <c r="S252" s="4"/>
     </row>
     <row r="253" spans="1:19">
-      <c r="A253" s="198"/>
+      <c r="A253" s="190"/>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
       <c r="D253" s="18"/>
@@ -18321,7 +18433,7 @@
       <c r="S253" s="4"/>
     </row>
     <row r="254" spans="1:19">
-      <c r="A254" s="198"/>
+      <c r="A254" s="190"/>
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
       <c r="D254" s="18"/>
@@ -18342,7 +18454,7 @@
       <c r="S254" s="4"/>
     </row>
     <row r="255" spans="1:19">
-      <c r="A255" s="198"/>
+      <c r="A255" s="190"/>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
       <c r="D255" s="18"/>
@@ -18363,7 +18475,7 @@
       <c r="S255" s="4"/>
     </row>
     <row r="256" spans="1:19">
-      <c r="A256" s="198"/>
+      <c r="A256" s="190"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
       <c r="D256" s="18"/>
@@ -18384,7 +18496,7 @@
       <c r="S256" s="4"/>
     </row>
     <row r="257" spans="1:19">
-      <c r="A257" s="198"/>
+      <c r="A257" s="190"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
@@ -18400,7 +18512,7 @@
       <c r="S257" s="4"/>
     </row>
     <row r="258" spans="1:19">
-      <c r="A258" s="198"/>
+      <c r="A258" s="190"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
@@ -18415,7 +18527,7 @@
       <c r="S258" s="4"/>
     </row>
     <row r="259" spans="1:19">
-      <c r="A259" s="198"/>
+      <c r="A259" s="190"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
@@ -18430,7 +18542,7 @@
       <c r="S259" s="4"/>
     </row>
     <row r="260" spans="1:19">
-      <c r="A260" s="198"/>
+      <c r="A260" s="190"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
@@ -18445,7 +18557,7 @@
       <c r="S260" s="4"/>
     </row>
     <row r="261" spans="1:19">
-      <c r="A261" s="198"/>
+      <c r="A261" s="190"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
@@ -18460,7 +18572,7 @@
       <c r="S261" s="4"/>
     </row>
     <row r="262" spans="1:19">
-      <c r="A262" s="198"/>
+      <c r="A262" s="190"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
@@ -18475,7 +18587,7 @@
       <c r="S262" s="4"/>
     </row>
     <row r="263" spans="1:19">
-      <c r="A263" s="198"/>
+      <c r="A263" s="190"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
@@ -18490,7 +18602,7 @@
       <c r="S263" s="4"/>
     </row>
     <row r="264" spans="1:19">
-      <c r="A264" s="198"/>
+      <c r="A264" s="190"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
@@ -18505,7 +18617,7 @@
       <c r="S264" s="4"/>
     </row>
     <row r="265" spans="1:19">
-      <c r="A265" s="198"/>
+      <c r="A265" s="190"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
@@ -18520,7 +18632,7 @@
       <c r="S265" s="4"/>
     </row>
     <row r="266" spans="1:19">
-      <c r="A266" s="198"/>
+      <c r="A266" s="190"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
@@ -18535,7 +18647,7 @@
       <c r="S266" s="4"/>
     </row>
     <row r="267" spans="1:19">
-      <c r="A267" s="198"/>
+      <c r="A267" s="190"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
@@ -18550,7 +18662,7 @@
       <c r="S267" s="4"/>
     </row>
     <row r="268" spans="1:19">
-      <c r="A268" s="198"/>
+      <c r="A268" s="190"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
@@ -18565,7 +18677,7 @@
       <c r="S268" s="4"/>
     </row>
     <row r="269" spans="1:19">
-      <c r="A269" s="198"/>
+      <c r="A269" s="190"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
@@ -18580,7 +18692,7 @@
       <c r="S269" s="4"/>
     </row>
     <row r="270" spans="1:19">
-      <c r="A270" s="198"/>
+      <c r="A270" s="190"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
@@ -18595,7 +18707,7 @@
       <c r="S270" s="4"/>
     </row>
     <row r="271" spans="1:19">
-      <c r="A271" s="198"/>
+      <c r="A271" s="190"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
@@ -18610,7 +18722,7 @@
       <c r="S271" s="4"/>
     </row>
     <row r="272" spans="1:19">
-      <c r="A272" s="198"/>
+      <c r="A272" s="190"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
@@ -18625,7 +18737,7 @@
       <c r="S272" s="4"/>
     </row>
     <row r="273" spans="1:19">
-      <c r="A273" s="198"/>
+      <c r="A273" s="190"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
@@ -18640,7 +18752,7 @@
       <c r="S273" s="4"/>
     </row>
     <row r="274" spans="1:19">
-      <c r="A274" s="198"/>
+      <c r="A274" s="190"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
@@ -18655,7 +18767,7 @@
       <c r="S274" s="4"/>
     </row>
     <row r="275" spans="1:19">
-      <c r="A275" s="198"/>
+      <c r="A275" s="190"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
@@ -18670,7 +18782,7 @@
       <c r="S275" s="4"/>
     </row>
     <row r="276" spans="1:19">
-      <c r="A276" s="198"/>
+      <c r="A276" s="190"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
@@ -19091,7 +19203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
@@ -19570,67 +19682,67 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="188" t="s">
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="198" t="s">
         <v>292</v>
       </c>
-      <c r="F6" s="189"/>
-      <c r="G6" s="190"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="200"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="198" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="188" t="s">
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="189"/>
-      <c r="AJ7" s="189"/>
-      <c r="AK7" s="189"/>
-      <c r="AL7" s="189"/>
-      <c r="AM7" s="189"/>
-      <c r="AN7" s="189"/>
-      <c r="AO7" s="189"/>
-      <c r="AP7" s="189"/>
-      <c r="AQ7" s="189"/>
-      <c r="AR7" s="190"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="199"/>
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="199"/>
+      <c r="AO7" s="199"/>
+      <c r="AP7" s="199"/>
+      <c r="AQ7" s="199"/>
+      <c r="AR7" s="200"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="48"/>
@@ -22831,4 +22943,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB68D4-AE4C-4EA8-9D6F-F0CE5AE78C02}">
+  <dimension ref="A1:R59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="6" width="9.06640625" style="48"/>
+    <col min="7" max="7" width="11.53125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.46484375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.06640625" style="48"/>
+    <col min="12" max="12" width="11.53125" style="48" customWidth="1"/>
+    <col min="13" max="14" width="9.06640625" style="48"/>
+    <col min="15" max="15" width="10" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.06640625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="H4" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="48">
+        <v>15</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="H16" s="48">
+        <v>3</v>
+      </c>
+      <c r="R16" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="48">
+        <v>16</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="R17" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="48">
+        <v>17</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="R18" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="48">
+        <v>18</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="48">
+        <v>19</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="48">
+        <v>20</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="48">
+        <v>21</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="48">
+        <v>23</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="48">
+        <v>24</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="48">
+        <v>25</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="48">
+        <v>26</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="48">
+        <v>29</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="48">
+        <v>30</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="48">
+        <v>31</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="48">
+        <v>32</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="48">
+        <v>33</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="48">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="48">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="48">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="48">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D407CB-303E-42E7-95BE-1B82588BE403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96759B6C-945E-4EEE-B9A0-E4F3876D7D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非线性运算" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="549">
   <si>
     <t>步骤</t>
   </si>
@@ -230,9 +230,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>(2*5)</t>
-  </si>
-  <si>
     <t>S_inv</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
   </si>
   <si>
     <t>(4+2n * 2)</t>
-  </si>
-  <si>
-    <t>(2 * 4+2n)</t>
   </si>
   <si>
     <t>（4+2n * 4+2n)</t>
@@ -1912,6 +1906,14 @@
   </si>
   <si>
     <t>PRD_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2*5)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2 * 4+2n)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3966,53 +3968,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -4073,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
@@ -4171,7 +4173,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -4208,7 +4210,7 @@
     </row>
     <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4219,10 +4221,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4242,7 +4244,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -4259,7 +4261,7 @@
     </row>
     <row r="8" spans="1:31" ht="15">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -4267,13 +4269,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4310,7 +4312,7 @@
     </row>
     <row r="9" spans="1:31" ht="15">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -4318,13 +4320,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4361,20 +4363,20 @@
     </row>
     <row r="10" spans="1:31" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4416,25 +4418,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4465,21 +4467,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -4510,25 +4512,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -4559,21 +4561,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -4604,25 +4606,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -4653,25 +4655,25 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -4698,31 +4700,31 @@
     </row>
     <row r="17" spans="1:31" ht="15">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -4749,31 +4751,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -4804,21 +4806,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -4851,15 +4853,15 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -4919,7 +4921,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="195" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="194"/>
       <c r="C22" s="194"/>
@@ -4954,7 +4956,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -4989,7 +4991,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5024,7 +5026,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -5032,10 +5034,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -5075,14 +5077,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -5124,10 +5126,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -5161,14 +5163,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -5198,25 +5200,25 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -5247,19 +5249,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5286,31 +5288,31 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5341,21 +5343,21 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5382,7 +5384,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5417,31 +5419,31 @@
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5451,7 +5453,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -5477,22 +5479,22 @@
         <v>62</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5519,7 +5521,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
@@ -5534,16 +5536,16 @@
         <v>63</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -5578,17 +5580,17 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5619,25 +5621,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -5664,26 +5666,26 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I39" s="7">
         <v>1</v>
@@ -5717,14 +5719,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D40" s="7">
         <v>5.9</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -5787,7 +5789,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5826,21 +5828,21 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5871,21 +5873,21 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="7">
@@ -5920,25 +5922,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5971,15 +5973,15 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="7">
@@ -6020,15 +6022,15 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -6061,25 +6063,25 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="E48" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -6110,21 +6112,21 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -6155,25 +6157,25 @@
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -6204,25 +6206,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -6282,7 +6284,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6321,25 +6323,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="I54" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="7"/>
@@ -6370,25 +6372,25 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="7"/>
@@ -6419,25 +6421,25 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="7"/>
@@ -6468,21 +6470,21 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="7"/>
@@ -6513,25 +6515,25 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="7"/>
@@ -6562,25 +6564,25 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6611,25 +6613,25 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -12515,8 +12517,8 @@
   <dimension ref="A1:S277"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12584,7 +12586,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="183" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12607,7 +12609,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -12837,14 +12839,14 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="186" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -12869,7 +12871,7 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12891,7 +12893,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="50" t="s">
@@ -12942,14 +12944,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -12969,14 +12971,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F19" s="83"/>
       <c r="G19" s="37"/>
@@ -13002,10 +13004,10 @@
         <v>23</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" s="158" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -13054,16 +13056,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -13083,16 +13085,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="37"/>
@@ -13168,17 +13170,17 @@
     <row r="26" spans="1:19">
       <c r="A26" s="17"/>
       <c r="B26" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -13197,14 +13199,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="17"/>
       <c r="B27" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -13365,7 +13367,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="158" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="60" t="s">
@@ -13416,14 +13418,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="190"/>
       <c r="B36" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
@@ -13443,14 +13445,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="190"/>
       <c r="B37" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F37" s="83"/>
       <c r="G37" s="37"/>
@@ -13524,14 +13526,14 @@
     <row r="40" spans="1:19">
       <c r="A40" s="190"/>
       <c r="B40" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>187</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>41</v>
@@ -13553,17 +13555,17 @@
     <row r="41" spans="1:19">
       <c r="A41" s="190"/>
       <c r="B41" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G41" s="83"/>
       <c r="H41" s="83"/>
@@ -13589,7 +13591,7 @@
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -13636,14 +13638,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="190"/>
       <c r="B44" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -13663,14 +13665,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="190"/>
       <c r="B45" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
@@ -13744,14 +13746,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="190"/>
       <c r="B48" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="4"/>
@@ -13771,14 +13773,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="190"/>
       <c r="B49" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F49" s="82"/>
       <c r="G49" s="37"/>
@@ -13807,7 +13809,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -13856,16 +13858,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="190"/>
       <c r="B52" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="40" t="s">
         <v>186</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>188</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="4"/>
@@ -13885,16 +13887,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="190"/>
       <c r="B53" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="45" t="s">
         <v>219</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>221</v>
       </c>
       <c r="F53" s="82"/>
       <c r="G53" s="37"/>
@@ -14120,20 +14122,20 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" s="90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="38"/>
       <c r="E63" s="91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F63" s="67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
@@ -14152,17 +14154,17 @@
     <row r="64" spans="1:19">
       <c r="A64" s="17"/>
       <c r="B64" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
@@ -14181,17 +14183,17 @@
     <row r="65" spans="1:19">
       <c r="A65" s="17"/>
       <c r="B65" s="44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
@@ -14209,13 +14211,13 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B66" s="159" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="40"/>
@@ -14237,10 +14239,10 @@
     <row r="67" spans="1:19">
       <c r="A67" s="17"/>
       <c r="B67" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="40"/>
@@ -14262,10 +14264,10 @@
     <row r="68" spans="1:19">
       <c r="A68" s="17"/>
       <c r="B68" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="40"/>
@@ -14286,13 +14288,13 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B69" s="159" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="164"/>
@@ -14314,10 +14316,10 @@
     <row r="70" spans="1:19">
       <c r="A70" s="17"/>
       <c r="B70" s="43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="165"/>
@@ -14339,10 +14341,10 @@
     <row r="71" spans="1:19">
       <c r="A71" s="17"/>
       <c r="B71" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D71" s="39"/>
       <c r="E71" s="166"/>
@@ -14363,13 +14365,13 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B72" s="84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="162"/>
@@ -14391,10 +14393,10 @@
     <row r="73" spans="1:19">
       <c r="A73" s="17"/>
       <c r="B73" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="162"/>
@@ -14416,10 +14418,10 @@
     <row r="74" spans="1:19">
       <c r="A74" s="17"/>
       <c r="B74" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="162"/>
@@ -14440,17 +14442,17 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B75" s="167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="58" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="37"/>
@@ -14470,10 +14472,10 @@
     <row r="76" spans="1:19">
       <c r="A76" s="17"/>
       <c r="B76" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="40" t="s">
@@ -14497,14 +14499,14 @@
     <row r="77" spans="1:19">
       <c r="A77" s="17"/>
       <c r="B77" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="37"/>
@@ -14523,14 +14525,14 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F78" s="181"/>
       <c r="G78" s="37"/>
@@ -14550,7 +14552,7 @@
     <row r="79" spans="1:19">
       <c r="A79" s="17"/>
       <c r="B79" s="40" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="17" t="s">
@@ -14574,11 +14576,11 @@
     <row r="80" spans="1:19">
       <c r="A80" s="17"/>
       <c r="B80" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F80" s="181"/>
       <c r="G80" s="37"/>
@@ -14597,13 +14599,13 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="141" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B81" s="56" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D81" s="59" t="s">
         <v>47</v>
@@ -14612,7 +14614,7 @@
         <v>63</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
@@ -14631,7 +14633,7 @@
     <row r="82" spans="1:19">
       <c r="A82" s="17"/>
       <c r="B82" s="26" t="s">
-        <v>64</v>
+        <v>547</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>60</v>
@@ -14660,16 +14662,16 @@
     <row r="83" spans="1:19">
       <c r="A83" s="17"/>
       <c r="B83" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G83" s="163"/>
       <c r="H83" s="161"/>
@@ -14687,7 +14689,7 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B84" s="54" t="s">
         <v>63</v>
@@ -14695,7 +14697,7 @@
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
       <c r="E84" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="163"/>
@@ -14740,12 +14742,12 @@
     <row r="86" spans="1:19">
       <c r="A86" s="17"/>
       <c r="B86" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="4"/>
@@ -14764,17 +14766,17 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="37"/>
@@ -14804,7 +14806,7 @@
         <v>61</v>
       </c>
       <c r="F88" s="83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -14823,17 +14825,17 @@
     <row r="89" spans="1:19">
       <c r="A89" s="17"/>
       <c r="B89" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -14852,16 +14854,16 @@
     <row r="90" spans="1:19">
       <c r="A90" s="17"/>
       <c r="B90" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>68</v>
-      </c>
       <c r="E90" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="37"/>
@@ -14884,13 +14886,13 @@
         <v>61</v>
       </c>
       <c r="C91" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="3"/>
@@ -14939,16 +14941,16 @@
     <row r="93" spans="1:19">
       <c r="A93" s="17"/>
       <c r="B93" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D93" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="4"/>
@@ -14971,13 +14973,13 @@
         <v>61</v>
       </c>
       <c r="C94" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E94" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="4"/>
@@ -15009,7 +15011,7 @@
         <v>22</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -15027,19 +15029,19 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="81" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B96" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D96" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E96" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="4"/>
@@ -15059,16 +15061,16 @@
     <row r="97" spans="1:19">
       <c r="A97" s="190"/>
       <c r="B97" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D97" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C97" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="E97" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="4"/>
@@ -15088,19 +15090,19 @@
     <row r="98" spans="1:19">
       <c r="A98" s="190"/>
       <c r="B98" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="E98" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D98" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>188</v>
-      </c>
       <c r="F98" s="82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -15140,12 +15142,12 @@
     <row r="100" spans="1:19" ht="14.25" thickBot="1">
       <c r="A100" s="18"/>
       <c r="B100" s="196" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" s="197"/>
       <c r="D100" s="197"/>
       <c r="E100" s="73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -15164,16 +15166,16 @@
     <row r="101" spans="1:19" ht="14.25" thickBot="1">
       <c r="A101" s="18"/>
       <c r="B101" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="78" t="s">
         <v>203</v>
-      </c>
-      <c r="C101" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="E101" s="78" t="s">
-        <v>205</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -15189,19 +15191,19 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="191" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B102" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C102" s="74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D102" s="74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E102" s="74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I102" s="37"/>
       <c r="J102" s="37"/>
@@ -15217,15 +15219,15 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="192" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D103" s="75"/>
       <c r="E103" s="75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -15243,19 +15245,19 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B104" s="71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C104" s="75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E104" s="75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
@@ -15273,18 +15275,18 @@
     </row>
     <row r="105" spans="1:19" ht="14.25" thickBot="1">
       <c r="A105" s="191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B105" s="72"/>
       <c r="C105" s="79"/>
       <c r="D105" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E105" s="76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -15307,7 +15309,7 @@
       <c r="E106" s="18"/>
       <c r="F106" s="7"/>
       <c r="G106" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -15345,10 +15347,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="190"/>
       <c r="B108" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -15370,10 +15372,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="190"/>
       <c r="B109" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -15395,10 +15397,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="190"/>
       <c r="B110" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -15420,10 +15422,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="190"/>
       <c r="B111" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -15445,10 +15447,10 @@
     <row r="112" spans="1:19">
       <c r="A112" s="190"/>
       <c r="B112" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
@@ -15470,10 +15472,10 @@
     <row r="113" spans="1:19">
       <c r="A113" s="190"/>
       <c r="B113" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
@@ -18833,49 +18835,49 @@
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" thickBot="1">
       <c r="B1" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>228</v>
-      </c>
       <c r="G1" s="93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H1" s="93" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" s="129"/>
       <c r="E3" s="130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -18889,38 +18891,38 @@
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
       <c r="B4" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="156" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="156" t="s">
-        <v>187</v>
       </c>
       <c r="D4" s="156"/>
       <c r="E4" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="124"/>
       <c r="E5" s="125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" s="129"/>
       <c r="E6" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -18934,38 +18936,38 @@
     </row>
     <row r="7" spans="2:9" ht="14.25" thickBot="1">
       <c r="B7" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="156" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" s="156" t="s">
-        <v>187</v>
       </c>
       <c r="D7" s="156"/>
       <c r="E7" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -18979,38 +18981,38 @@
     </row>
     <row r="10" spans="2:9" ht="14.25" thickBot="1">
       <c r="B10" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="156" t="s">
         <v>185</v>
-      </c>
-      <c r="C10" s="156" t="s">
-        <v>187</v>
       </c>
       <c r="D10" s="156"/>
       <c r="E10" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="124"/>
       <c r="E11" s="125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="129"/>
       <c r="E12" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -19024,42 +19026,42 @@
     </row>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
       <c r="B13" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" s="113"/>
       <c r="E13" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D14" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="125" t="s">
         <v>241</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E15" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -19073,44 +19075,44 @@
     </row>
     <row r="16" spans="2:9" ht="15.4" customHeight="1" thickBot="1">
       <c r="B16" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="122" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="124" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>241</v>
-      </c>
       <c r="E17" s="125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -19124,50 +19126,50 @@
     </row>
     <row r="19" spans="2:9" ht="14.25" thickBot="1">
       <c r="B19" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="94" t="s">
         <v>244</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="94" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E21" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F21" s="93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -19181,16 +19183,16 @@
     </row>
     <row r="22" spans="2:9" ht="14.25" thickBot="1">
       <c r="B22" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" s="131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -19203,8 +19205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -19352,14 +19354,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="95">
         <v>1</v>
       </c>
       <c r="C2" s="96"/>
       <c r="D2" s="97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="95">
         <v>1</v>
@@ -19367,47 +19369,47 @@
       <c r="F2" s="96"/>
       <c r="G2" s="96"/>
       <c r="H2" s="98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I2" s="99"/>
       <c r="J2" s="100"/>
       <c r="K2" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
       <c r="N2" s="98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O2" s="99"/>
       <c r="P2" s="99"/>
       <c r="Q2" s="98" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R2" s="99"/>
       <c r="S2" s="101">
         <v>5</v>
       </c>
       <c r="T2" s="102" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U2" s="101">
         <v>4</v>
       </c>
       <c r="V2" s="98" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W2" s="100"/>
       <c r="X2" s="98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Y2" s="100"/>
       <c r="Z2" s="103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AA2" s="100"/>
       <c r="AB2" s="104" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AC2" s="105">
         <v>-3</v>
@@ -19416,57 +19418,57 @@
         <v>0</v>
       </c>
       <c r="AE2" s="104" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF2" s="105">
         <v>3</v>
       </c>
       <c r="AG2" s="98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AH2" s="100"/>
       <c r="AI2" s="98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AJ2" s="99"/>
       <c r="AK2" s="99"/>
       <c r="AL2" s="99"/>
       <c r="AM2" s="99"/>
       <c r="AN2" s="176" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO2" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP2" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="AO2" s="177" t="s">
+      <c r="AQ2" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="AP2" s="98" t="s">
+      <c r="AR2" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="AQ2" s="100" t="s">
+      <c r="AS2" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="AR2" s="98" t="s">
+      <c r="AT2" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="AS2" s="100" t="s">
+      <c r="AU2" s="100" t="s">
         <v>262</v>
-      </c>
-      <c r="AT2" s="98" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU2" s="100" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="106"/>
       <c r="C3" s="107">
         <v>1</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="107">
@@ -19530,33 +19532,33 @@
       <c r="AL3" s="113"/>
       <c r="AM3" s="113"/>
       <c r="AN3" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO3" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP3" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="AO3" s="111" t="s">
+      <c r="AQ3" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="AP3" s="109" t="s">
+      <c r="AR3" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="AQ3" s="111" t="s">
+      <c r="AS3" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="AR3" s="109" t="s">
+      <c r="AT3" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="AS3" s="111" t="s">
+      <c r="AU3" s="111" t="s">
         <v>272</v>
-      </c>
-      <c r="AT3" s="109" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU3" s="111" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B4" s="119"/>
       <c r="C4" s="120"/>
@@ -19564,10 +19566,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4" s="120">
         <v>1</v>
@@ -19604,33 +19606,33 @@
       <c r="AG4" s="121"/>
       <c r="AH4" s="121"/>
       <c r="AN4" s="109" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO4" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP4" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="AO4" s="111" t="s">
+      <c r="AQ4" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="AP4" s="109" t="s">
+      <c r="AR4" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="AQ4" s="111" t="s">
+      <c r="AS4" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="AR4" s="109" t="s">
+      <c r="AT4" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="AS4" s="111" t="s">
+      <c r="AU4" s="111" t="s">
         <v>281</v>
-      </c>
-      <c r="AT4" s="109" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU4" s="111" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E5" s="119"/>
       <c r="F5" s="120"/>
@@ -19657,45 +19659,45 @@
       <c r="AG5" s="121"/>
       <c r="AH5" s="121"/>
       <c r="AN5" s="178" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AO5" s="179" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AP5" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ5" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR5" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="AQ5" s="116" t="s">
+      <c r="AS5" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="AR5" s="112" t="s">
+      <c r="AT5" s="112" t="s">
         <v>287</v>
       </c>
-      <c r="AS5" s="116" t="s">
+      <c r="AU5" s="116" t="s">
         <v>288</v>
-      </c>
-      <c r="AT5" s="112" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU5" s="116" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="198" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="199"/>
       <c r="D6" s="200"/>
       <c r="E6" s="198" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F6" s="199"/>
       <c r="G6" s="200"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="198" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="199"/>
       <c r="D7" s="199"/>
@@ -19712,7 +19714,7 @@
       <c r="O7" s="199"/>
       <c r="P7" s="200"/>
       <c r="Q7" s="198" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R7" s="199"/>
       <c r="S7" s="199"/>
@@ -19725,7 +19727,7 @@
       <c r="Z7" s="199"/>
       <c r="AA7" s="200"/>
       <c r="AB7" s="198" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC7" s="199"/>
       <c r="AD7" s="199"/>
@@ -19749,10 +19751,10 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AM9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -19760,7 +19762,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -19770,7 +19772,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -19821,10 +19823,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
@@ -19842,13 +19844,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="128" t="s">
         <v>302</v>
-      </c>
-      <c r="C3" s="128" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="128" t="s">
-        <v>304</v>
       </c>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
@@ -19865,16 +19867,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="E4" s="128" t="s">
         <v>306</v>
-      </c>
-      <c r="D4" s="128" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>308</v>
       </c>
       <c r="F4" s="129"/>
       <c r="G4" s="129"/>
@@ -19890,19 +19892,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="128" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="E5" s="128" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="F5" s="128" t="s">
         <v>311</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="128" t="s">
-        <v>313</v>
       </c>
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
@@ -19917,22 +19919,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="E6" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="F6" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="G6" s="128" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="128" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="128" t="s">
-        <v>319</v>
       </c>
       <c r="H6" s="129"/>
       <c r="I6" s="129"/>
@@ -19946,25 +19948,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="E7" s="128" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="F7" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="G7" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="128" t="s">
+      <c r="H7" s="128" t="s">
         <v>324</v>
-      </c>
-      <c r="G7" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="128" t="s">
-        <v>326</v>
       </c>
       <c r="I7" s="129"/>
       <c r="J7" s="129"/>
@@ -19977,28 +19979,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="E8" s="128" t="s">
         <v>328</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="F8" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="G8" s="128" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="H8" s="128" t="s">
         <v>331</v>
       </c>
-      <c r="G8" s="128" t="s">
+      <c r="I8" s="128" t="s">
         <v>332</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="I8" s="128" t="s">
-        <v>334</v>
       </c>
       <c r="J8" s="129"/>
       <c r="K8" s="129"/>
@@ -20010,31 +20012,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="128" t="s">
         <v>335</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="E9" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="F9" s="128" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="G9" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="H9" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="128" t="s">
+      <c r="I9" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="128" t="s">
+      <c r="J9" s="128" t="s">
         <v>341</v>
-      </c>
-      <c r="I9" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>343</v>
       </c>
       <c r="K9" s="129"/>
       <c r="L9" s="129"/>
@@ -20045,34 +20047,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="127" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="128" t="s">
         <v>344</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="E10" s="128" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="F10" s="128" t="s">
         <v>346</v>
       </c>
-      <c r="E10" s="128" t="s">
+      <c r="G10" s="128" t="s">
         <v>347</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="H10" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="I10" s="128" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="128" t="s">
+      <c r="J10" s="128" t="s">
         <v>350</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="K10" s="128" t="s">
         <v>351</v>
-      </c>
-      <c r="J10" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="128" t="s">
-        <v>353</v>
       </c>
       <c r="L10" s="129"/>
       <c r="M10" s="130"/>
@@ -20082,37 +20084,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="128" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="128" t="s">
         <v>354</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="E11" s="128" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="F11" s="128" t="s">
         <v>356</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="G11" s="128" t="s">
         <v>357</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="H11" s="128" t="s">
         <v>358</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="I11" s="128" t="s">
         <v>359</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="J11" s="128" t="s">
         <v>360</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="K11" s="128" t="s">
         <v>361</v>
       </c>
-      <c r="J11" s="128" t="s">
+      <c r="L11" s="128" t="s">
         <v>362</v>
-      </c>
-      <c r="K11" s="128" t="s">
-        <v>363</v>
-      </c>
-      <c r="L11" s="128" t="s">
-        <v>364</v>
       </c>
       <c r="M11" s="130"/>
     </row>
@@ -20121,525 +20123,525 @@
         <v>11</v>
       </c>
       <c r="B12" s="132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" s="133" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="E12" s="133" t="s">
         <v>366</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="F12" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="133" t="s">
+      <c r="G12" s="133" t="s">
         <v>368</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="H12" s="133" t="s">
         <v>369</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="I12" s="133" t="s">
         <v>370</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="J12" s="133" t="s">
         <v>371</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="K12" s="133" t="s">
         <v>372</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="L12" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="M12" s="135" t="s">
         <v>374</v>
-      </c>
-      <c r="L12" s="133" t="s">
-        <v>375</v>
-      </c>
-      <c r="M12" s="135" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="136"/>
       <c r="C14" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="F14" s="138" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="G14" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="138" t="s">
+      <c r="H14" s="138" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="I14" s="138" t="s">
         <v>331</v>
       </c>
-      <c r="H14" s="138" t="s">
+      <c r="J14" s="138" t="s">
         <v>332</v>
       </c>
-      <c r="I14" s="138" t="s">
+      <c r="K14" s="137" t="s">
         <v>333</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="L14" s="138" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="137" t="s">
+      <c r="M14" s="138" t="s">
         <v>335</v>
       </c>
-      <c r="L14" s="138" t="s">
+      <c r="N14" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="M14" s="138" t="s">
+      <c r="O14" s="138" t="s">
         <v>337</v>
       </c>
-      <c r="N14" s="138" t="s">
+      <c r="P14" s="138" t="s">
         <v>338</v>
       </c>
-      <c r="O14" s="138" t="s">
+      <c r="Q14" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="P14" s="138" t="s">
+      <c r="R14" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="Q14" s="138" t="s">
+      <c r="S14" s="138" t="s">
         <v>341</v>
       </c>
-      <c r="R14" s="138" t="s">
-        <v>342</v>
-      </c>
-      <c r="S14" s="138" t="s">
-        <v>343</v>
-      </c>
       <c r="T14" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U14" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V14" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W14" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D15" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="138" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="G15" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="H15" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="I15" s="138" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="J15" s="138" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="138" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" s="138" t="s">
-        <v>326</v>
-      </c>
       <c r="K15" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="L15" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="M15" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="L15" s="138" t="s">
+      <c r="N15" s="138" t="s">
         <v>345</v>
       </c>
-      <c r="M15" s="138" t="s">
+      <c r="O15" s="138" t="s">
         <v>346</v>
       </c>
-      <c r="N15" s="138" t="s">
+      <c r="P15" s="138" t="s">
         <v>347</v>
       </c>
-      <c r="O15" s="138" t="s">
+      <c r="Q15" s="138" t="s">
         <v>348</v>
       </c>
-      <c r="P15" s="138" t="s">
+      <c r="R15" s="138" t="s">
         <v>349</v>
       </c>
-      <c r="Q15" s="138" t="s">
+      <c r="S15" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="R15" s="138" t="s">
+      <c r="T15" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="S15" s="138" t="s">
-        <v>352</v>
-      </c>
-      <c r="T15" s="138" t="s">
-        <v>353</v>
-      </c>
       <c r="U15" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="V15" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W15" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="138" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="138" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="138" t="s">
-        <v>304</v>
-      </c>
       <c r="E16" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="138" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="138" t="s">
+      <c r="H16" s="138" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="138" t="s">
+      <c r="I16" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="138" t="s">
+      <c r="J16" s="138" t="s">
         <v>317</v>
       </c>
-      <c r="I16" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="J16" s="138" t="s">
-        <v>319</v>
-      </c>
       <c r="K16" s="137" t="s">
+        <v>352</v>
+      </c>
+      <c r="L16" s="138" t="s">
+        <v>353</v>
+      </c>
+      <c r="M16" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="L16" s="138" t="s">
+      <c r="N16" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="M16" s="138" t="s">
+      <c r="O16" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="N16" s="138" t="s">
+      <c r="P16" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="O16" s="138" t="s">
+      <c r="Q16" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="P16" s="138" t="s">
+      <c r="R16" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="Q16" s="138" t="s">
+      <c r="S16" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="R16" s="138" t="s">
+      <c r="T16" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="S16" s="138" t="s">
+      <c r="U16" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="T16" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="U16" s="138" t="s">
-        <v>364</v>
-      </c>
       <c r="V16" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W16" s="93" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B17" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="138" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="E17" s="138" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="F17" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="G17" s="138" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="H17" s="138" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="138" t="s">
+      <c r="I17" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="J17" s="138" t="s">
         <v>311</v>
       </c>
-      <c r="I17" s="138" t="s">
-        <v>312</v>
-      </c>
-      <c r="J17" s="138" t="s">
-        <v>313</v>
-      </c>
       <c r="K17" s="137" t="s">
+        <v>363</v>
+      </c>
+      <c r="L17" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="M17" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="L17" s="138" t="s">
+      <c r="N17" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="M17" s="138" t="s">
+      <c r="O17" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="N17" s="138" t="s">
+      <c r="P17" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="O17" s="139" t="s">
+      <c r="Q17" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="P17" s="138" t="s">
+      <c r="R17" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="Q17" s="138" t="s">
+      <c r="S17" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="R17" s="138" t="s">
+      <c r="T17" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="S17" s="138" t="s">
+      <c r="U17" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="T17" s="138" t="s">
+      <c r="V17" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="U17" s="138" t="s">
+      <c r="W17" s="93" t="s">
         <v>375</v>
-      </c>
-      <c r="V17" s="138" t="s">
-        <v>376</v>
-      </c>
-      <c r="W17" s="93" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B19" s="137" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="138" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="138" t="s">
+      <c r="E19" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="F19" s="138" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="138" t="s">
+      <c r="G19" s="138" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="138" t="s">
+      <c r="H19" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="I19" s="138" t="s">
         <v>340</v>
       </c>
-      <c r="H19" s="138" t="s">
+      <c r="J19" s="138" t="s">
         <v>341</v>
-      </c>
-      <c r="I19" s="138" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="138" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="E20" s="138" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="F20" s="138" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="138" t="s">
+      <c r="G20" s="138" t="s">
         <v>347</v>
       </c>
-      <c r="F20" s="138" t="s">
+      <c r="H20" s="138" t="s">
         <v>348</v>
       </c>
-      <c r="G20" s="138" t="s">
+      <c r="I20" s="138" t="s">
         <v>349</v>
       </c>
-      <c r="H20" s="138" t="s">
+      <c r="J20" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="I20" s="138" t="s">
+      <c r="K20" s="138" t="s">
         <v>351</v>
-      </c>
-      <c r="J20" s="138" t="s">
-        <v>352</v>
-      </c>
-      <c r="K20" s="138" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B21" s="137" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="E21" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="F21" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="E21" s="138" t="s">
+      <c r="G21" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="138" t="s">
+      <c r="H21" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="I21" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="H21" s="138" t="s">
+      <c r="J21" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="I21" s="138" t="s">
+      <c r="K21" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="138" t="s">
+      <c r="L21" s="138" t="s">
         <v>362</v>
-      </c>
-      <c r="K21" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="L21" s="138" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B22" s="137" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="E22" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="F22" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="G22" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="139" t="s">
+      <c r="H22" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="I22" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="H22" s="138" t="s">
+      <c r="J22" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="K22" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="J22" s="138" t="s">
+      <c r="L22" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="K22" s="138" t="s">
+      <c r="M22" s="138" t="s">
         <v>374</v>
-      </c>
-      <c r="L22" s="138" t="s">
-        <v>375</v>
-      </c>
-      <c r="M22" s="138" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H24" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I24" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J24" s="93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K24" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R24" s="137"/>
       <c r="S24" s="140" t="s">
+        <v>325</v>
+      </c>
+      <c r="T24" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="T24" s="138" t="s">
+      <c r="V24" s="138" t="s">
         <v>328</v>
       </c>
-      <c r="U24" s="138" t="s">
+      <c r="W24" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="V24" s="138" t="s">
+      <c r="X24" s="138" t="s">
         <v>330</v>
       </c>
-      <c r="W24" s="138" t="s">
+      <c r="Y24" s="138" t="s">
         <v>331</v>
       </c>
-      <c r="X24" s="138" t="s">
+      <c r="Z24" s="138" t="s">
         <v>332</v>
-      </c>
-      <c r="Y24" s="138" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z24" s="138" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -20648,13 +20650,13 @@
       </c>
       <c r="B25" s="136"/>
       <c r="C25" s="137" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="137" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="137" t="s">
-        <v>302</v>
-      </c>
       <c r="E25" s="137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H25" s="93">
         <v>0</v>
@@ -20669,34 +20671,34 @@
         <v>0</v>
       </c>
       <c r="Q25" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R25" s="137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S25" s="182" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T25" s="140" t="s">
+        <v>318</v>
+      </c>
+      <c r="U25" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="V25" s="138" t="s">
         <v>320</v>
       </c>
-      <c r="U25" s="138" t="s">
+      <c r="W25" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="V25" s="138" t="s">
+      <c r="X25" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="W25" s="138" t="s">
+      <c r="Y25" s="138" t="s">
         <v>323</v>
       </c>
-      <c r="X25" s="138" t="s">
+      <c r="Z25" s="138" t="s">
         <v>324</v>
-      </c>
-      <c r="Y25" s="138" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z25" s="138" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -20704,16 +20706,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C26" s="138" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="138" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="138" t="s">
-        <v>303</v>
-      </c>
       <c r="E26" s="138" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H26" s="93">
         <v>0</v>
@@ -20728,34 +20730,34 @@
         <v>0</v>
       </c>
       <c r="Q26" s="93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R26" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="S26" s="182" t="s">
+        <v>301</v>
+      </c>
+      <c r="T26" s="182" t="s">
         <v>302</v>
       </c>
-      <c r="S26" s="182" t="s">
-        <v>303</v>
-      </c>
-      <c r="T26" s="182" t="s">
-        <v>304</v>
-      </c>
       <c r="U26" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="V26" s="138" t="s">
+        <v>313</v>
+      </c>
+      <c r="W26" s="138" t="s">
         <v>314</v>
       </c>
-      <c r="V26" s="138" t="s">
+      <c r="X26" s="138" t="s">
         <v>315</v>
       </c>
-      <c r="W26" s="138" t="s">
+      <c r="Y26" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="X26" s="138" t="s">
+      <c r="Z26" s="138" t="s">
         <v>317</v>
-      </c>
-      <c r="Y26" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z26" s="138" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -20763,16 +20765,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E27" s="138" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H27" s="93">
         <v>1</v>
@@ -20787,34 +20789,34 @@
         <v>0</v>
       </c>
       <c r="Q27" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R27" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="S27" s="182" t="s">
+        <v>304</v>
+      </c>
+      <c r="T27" s="182" t="s">
         <v>305</v>
       </c>
-      <c r="S27" s="182" t="s">
+      <c r="U27" s="182" t="s">
         <v>306</v>
       </c>
-      <c r="T27" s="182" t="s">
+      <c r="V27" s="140" t="s">
         <v>307</v>
       </c>
-      <c r="U27" s="182" t="s">
+      <c r="W27" s="138" t="s">
         <v>308</v>
       </c>
-      <c r="V27" s="140" t="s">
+      <c r="X27" s="138" t="s">
         <v>309</v>
       </c>
-      <c r="W27" s="138" t="s">
+      <c r="Y27" s="138" t="s">
         <v>310</v>
       </c>
-      <c r="X27" s="138" t="s">
+      <c r="Z27" s="138" t="s">
         <v>311</v>
-      </c>
-      <c r="Y27" s="138" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z27" s="138" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -20822,16 +20824,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="138" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C28" s="138" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E28" s="138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H28" s="93">
         <v>2</v>
@@ -20851,16 +20853,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="138" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C29" s="138" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E29" s="137" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H29" s="93">
         <v>3</v>
@@ -20880,16 +20882,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="138" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E30" s="138" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H30" s="93">
         <v>4</v>
@@ -20909,16 +20911,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C31" s="138" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E31" s="138" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H31" s="93">
         <v>5</v>
@@ -20938,16 +20940,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E32" s="138" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H32" s="93">
         <v>6</v>
@@ -20967,16 +20969,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E33" s="138" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H33" s="93">
         <v>7</v>
@@ -20996,16 +20998,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E34" s="137" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H34" s="93">
         <v>8</v>
@@ -21025,16 +21027,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C35" s="138" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D35" s="138" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E35" s="138" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H35" s="93">
         <v>9</v>
@@ -21054,16 +21056,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E36" s="138" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H36" s="93">
         <v>10</v>
@@ -21083,16 +21085,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C37" s="138" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D37" s="138" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E37" s="138" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H37" s="93">
         <v>11</v>
@@ -21112,16 +21114,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H38" s="93">
         <v>12</v>
@@ -21141,16 +21143,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H39" s="93">
         <v>13</v>
@@ -21170,16 +21172,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C40" s="138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D40" s="138" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E40" s="138" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H40" s="93">
         <v>14</v>
@@ -21199,16 +21201,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C41" s="138" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H41" s="93">
         <v>15</v>
@@ -21228,16 +21230,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C42" s="138" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H42" s="93">
         <v>16</v>
@@ -21257,16 +21259,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D43" s="138" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H43" s="93">
         <v>17</v>
@@ -21286,16 +21288,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="140" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C44" s="137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E44" s="138" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H44" s="93">
         <v>18</v>
@@ -21315,16 +21317,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="C45" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="137" t="s">
-        <v>387</v>
-      </c>
       <c r="E45" s="138" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H45" s="93">
         <v>19</v>
@@ -21344,16 +21346,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="C46" s="140" t="s">
+        <v>387</v>
+      </c>
+      <c r="D46" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="E46" s="137" t="s">
         <v>389</v>
-      </c>
-      <c r="D46" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="137" t="s">
-        <v>391</v>
       </c>
       <c r="H46" s="93">
         <v>20</v>
@@ -21373,16 +21375,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="C47" s="140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="C47" s="140" t="s">
+      <c r="E47" s="140" t="s">
         <v>393</v>
-      </c>
-      <c r="D47" s="140" t="s">
-        <v>394</v>
-      </c>
-      <c r="E47" s="140" t="s">
-        <v>395</v>
       </c>
       <c r="H47" s="93">
         <v>21</v>
@@ -21402,16 +21404,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="140" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="140" t="s">
+        <v>395</v>
+      </c>
+      <c r="D48" s="140" t="s">
         <v>396</v>
       </c>
-      <c r="C48" s="140" t="s">
+      <c r="E48" s="140" t="s">
         <v>397</v>
-      </c>
-      <c r="D48" s="140" t="s">
-        <v>398</v>
-      </c>
-      <c r="E48" s="140" t="s">
-        <v>399</v>
       </c>
       <c r="H48" s="93">
         <v>22</v>
@@ -21431,16 +21433,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="140" t="s">
+        <v>398</v>
+      </c>
+      <c r="C49" s="140" t="s">
+        <v>399</v>
+      </c>
+      <c r="D49" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="E49" s="140" t="s">
         <v>401</v>
-      </c>
-      <c r="D49" s="140" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="140" t="s">
-        <v>403</v>
       </c>
       <c r="H49" s="93">
         <v>23</v>
@@ -21460,16 +21462,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="140" t="s">
         <v>404</v>
       </c>
-      <c r="C50" s="140" t="s">
+      <c r="E50" s="140" t="s">
         <v>405</v>
-      </c>
-      <c r="D50" s="140" t="s">
-        <v>406</v>
-      </c>
-      <c r="E50" s="140" t="s">
-        <v>407</v>
       </c>
       <c r="H50" s="93">
         <v>24</v>
@@ -21489,16 +21491,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="140" t="s">
+        <v>406</v>
+      </c>
+      <c r="C51" s="140" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="140" t="s">
         <v>408</v>
       </c>
-      <c r="C51" s="140" t="s">
+      <c r="E51" s="140" t="s">
         <v>409</v>
-      </c>
-      <c r="D51" s="140" t="s">
-        <v>410</v>
-      </c>
-      <c r="E51" s="140" t="s">
-        <v>411</v>
       </c>
       <c r="H51" s="93">
         <v>25</v>
@@ -21518,16 +21520,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="140" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="140" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="140" t="s">
         <v>412</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="E52" s="140" t="s">
         <v>413</v>
-      </c>
-      <c r="D52" s="140" t="s">
-        <v>414</v>
-      </c>
-      <c r="E52" s="140" t="s">
-        <v>415</v>
       </c>
       <c r="H52" s="93">
         <v>26</v>
@@ -21547,16 +21549,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="140" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="140" t="s">
+        <v>415</v>
+      </c>
+      <c r="D53" s="140" t="s">
         <v>416</v>
       </c>
-      <c r="C53" s="140" t="s">
+      <c r="E53" s="140" t="s">
         <v>417</v>
-      </c>
-      <c r="D53" s="140" t="s">
-        <v>418</v>
-      </c>
-      <c r="E53" s="140" t="s">
-        <v>419</v>
       </c>
       <c r="H53" s="93">
         <v>27</v>
@@ -21576,16 +21578,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="140" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" s="140" t="s">
+        <v>419</v>
+      </c>
+      <c r="D54" s="140" t="s">
         <v>420</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="E54" s="140" t="s">
         <v>421</v>
-      </c>
-      <c r="D54" s="140" t="s">
-        <v>422</v>
-      </c>
-      <c r="E54" s="140" t="s">
-        <v>423</v>
       </c>
       <c r="H54" s="93">
         <v>28</v>
@@ -21605,16 +21607,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="140" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55" s="140" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="140" t="s">
         <v>424</v>
       </c>
-      <c r="C55" s="140" t="s">
+      <c r="E55" s="140" t="s">
         <v>425</v>
-      </c>
-      <c r="D55" s="140" t="s">
-        <v>426</v>
-      </c>
-      <c r="E55" s="140" t="s">
-        <v>427</v>
       </c>
       <c r="H55" s="93">
         <v>29</v>
@@ -21634,16 +21636,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="140" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="140" t="s">
+        <v>427</v>
+      </c>
+      <c r="D56" s="140" t="s">
         <v>428</v>
       </c>
-      <c r="C56" s="140" t="s">
+      <c r="E56" s="140" t="s">
         <v>429</v>
-      </c>
-      <c r="D56" s="140" t="s">
-        <v>430</v>
-      </c>
-      <c r="E56" s="140" t="s">
-        <v>431</v>
       </c>
       <c r="H56" s="93">
         <v>30</v>
@@ -21663,16 +21665,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="140" t="s">
+        <v>430</v>
+      </c>
+      <c r="C57" s="140" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="140" t="s">
         <v>432</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="E57" s="140" t="s">
         <v>433</v>
-      </c>
-      <c r="D57" s="140" t="s">
-        <v>434</v>
-      </c>
-      <c r="E57" s="140" t="s">
-        <v>435</v>
       </c>
       <c r="H57" s="93">
         <v>31</v>
@@ -21692,16 +21694,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="140" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" s="140" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="140" t="s">
         <v>436</v>
       </c>
-      <c r="C58" s="140" t="s">
+      <c r="E58" s="140" t="s">
         <v>437</v>
-      </c>
-      <c r="D58" s="140" t="s">
-        <v>438</v>
-      </c>
-      <c r="E58" s="140" t="s">
-        <v>439</v>
       </c>
       <c r="H58" s="93">
         <v>32</v>
@@ -21724,10 +21726,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -21735,47 +21737,62 @@
     <col min="1" max="16384" width="9.06640625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" thickBot="1">
+    <row r="1" spans="1:17" ht="14.25" thickBot="1">
       <c r="A1" s="141" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="141" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="D1" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="E1" s="141" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="141" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="141" t="s">
-        <v>444</v>
-      </c>
       <c r="G1" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>440</v>
+      </c>
+      <c r="I1" s="141" t="s">
         <v>441</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="J1" s="141" t="s">
         <v>442</v>
       </c>
-      <c r="I1" s="141" t="s">
-        <v>443</v>
-      </c>
-      <c r="J1" s="141" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="141" t="s">
+        <v>438</v>
+      </c>
+      <c r="N1" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" s="141" t="s">
+        <v>440</v>
+      </c>
+      <c r="P1" s="141" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q1" s="141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" thickBot="1">
       <c r="A2" s="141">
         <v>0</v>
       </c>
       <c r="B2" s="142" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="143" t="s">
         <v>486</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>487</v>
-      </c>
-      <c r="D2" s="143" t="s">
-        <v>488</v>
       </c>
       <c r="E2" s="144"/>
       <c r="G2" s="142">
@@ -21788,19 +21805,32 @@
         <v>0</v>
       </c>
       <c r="J2" s="144"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" s="141">
+        <v>0</v>
+      </c>
+      <c r="N2" s="168" t="s">
+        <v>481</v>
+      </c>
+      <c r="O2" s="169" t="s">
+        <v>482</v>
+      </c>
+      <c r="P2" s="169" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q2" s="144"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="141">
         <v>1</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D3" s="146" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E3" s="147"/>
       <c r="G3" s="145">
@@ -21813,19 +21843,32 @@
         <v>0</v>
       </c>
       <c r="J3" s="147"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" s="141">
+        <v>1</v>
+      </c>
+      <c r="N3" s="142" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" s="143" t="s">
+        <v>485</v>
+      </c>
+      <c r="P3" s="143" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q3" s="147"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="141">
         <v>2</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C4" s="146" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D4" s="146" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E4" s="149"/>
       <c r="G4" s="148">
@@ -21838,19 +21881,32 @@
         <v>1</v>
       </c>
       <c r="J4" s="149"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" thickBot="1">
+      <c r="M4" s="141">
+        <v>2</v>
+      </c>
+      <c r="N4" s="145" t="s">
+        <v>487</v>
+      </c>
+      <c r="O4" s="146" t="s">
+        <v>377</v>
+      </c>
+      <c r="P4" s="146" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q4" s="149"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" thickBot="1">
       <c r="A5" s="141">
         <v>3</v>
       </c>
       <c r="B5" s="168" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="169" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="169" t="s">
         <v>483</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="169" t="s">
-        <v>485</v>
       </c>
       <c r="E5" s="152"/>
       <c r="G5" s="150">
@@ -21863,22 +21919,35 @@
         <v>0</v>
       </c>
       <c r="J5" s="152"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" s="141">
+        <v>3</v>
+      </c>
+      <c r="N5" s="148" t="s">
+        <v>443</v>
+      </c>
+      <c r="O5" s="146" t="s">
+        <v>444</v>
+      </c>
+      <c r="P5" s="146" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q5" s="152"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="141">
         <v>4</v>
       </c>
       <c r="B6" s="170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E6" s="172" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G6" s="142">
         <v>1</v>
@@ -21893,21 +21962,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:17">
       <c r="A7" s="141">
         <v>5</v>
       </c>
       <c r="B7" s="148" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="146" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="D7" s="146" t="s">
         <v>450</v>
       </c>
-      <c r="D7" s="146" t="s">
-        <v>452</v>
-      </c>
       <c r="E7" s="153" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G7" s="145">
         <v>2</v>
@@ -21922,21 +21991,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:17">
       <c r="A8" s="141">
         <v>6</v>
       </c>
       <c r="B8" s="145" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="146" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="D8" s="146" t="s">
         <v>451</v>
       </c>
-      <c r="D8" s="146" t="s">
-        <v>453</v>
-      </c>
       <c r="E8" s="153" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G8" s="148">
         <v>3</v>
@@ -21951,21 +22020,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1">
+    <row r="9" spans="1:17" ht="14.25" thickBot="1">
       <c r="A9" s="141">
         <v>7</v>
       </c>
       <c r="B9" s="173" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C9" s="174" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D9" s="174" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E9" s="175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" s="155">
         <v>0</v>
@@ -21980,21 +22049,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:17">
       <c r="A10" s="141">
         <v>8</v>
       </c>
       <c r="B10" s="145" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C10" s="146" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D10" s="146" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E10" s="153" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G10" s="142">
         <v>4</v>
@@ -22009,21 +22078,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:17">
       <c r="A11" s="141">
         <v>9</v>
       </c>
       <c r="B11" s="148" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C11" s="146" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E11" s="153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G11" s="145">
         <v>5</v>
@@ -22038,21 +22107,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:17">
       <c r="A12" s="141">
         <v>10</v>
       </c>
       <c r="B12" s="145" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C12" s="146" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D12" s="146" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G12" s="148">
         <v>6</v>
@@ -22067,21 +22136,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" thickBot="1">
+    <row r="13" spans="1:17" ht="14.25" thickBot="1">
       <c r="A13" s="141">
         <v>11</v>
       </c>
       <c r="B13" s="150" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="151" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="151" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13" s="151" t="s">
-        <v>462</v>
-      </c>
       <c r="E13" s="154" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G13" s="155">
         <v>7</v>
@@ -22096,21 +22165,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:17">
       <c r="A14" s="141">
         <v>12</v>
       </c>
       <c r="B14" s="170" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="171" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="171" t="s">
         <v>492</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="E14" s="172" t="s">
         <v>493</v>
-      </c>
-      <c r="D14" s="171" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" s="172" t="s">
-        <v>495</v>
       </c>
       <c r="G14" s="142">
         <v>8</v>
@@ -22125,21 +22194,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:17">
       <c r="A15" s="141">
         <v>13</v>
       </c>
       <c r="B15" s="148" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C15" s="146" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D15" s="146" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E15" s="153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G15" s="145">
         <v>9</v>
@@ -22154,21 +22223,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:17">
       <c r="A16" s="141">
         <v>14</v>
       </c>
       <c r="B16" s="145" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="146" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D16" s="146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E16" s="153" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G16" s="148">
         <v>10</v>
@@ -22188,16 +22257,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D17" s="174" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G17" s="155">
         <v>11</v>
@@ -22217,16 +22286,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" s="146" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D18" s="146" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E18" s="153" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G18" s="142">
         <v>12</v>
@@ -22246,16 +22315,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D19" s="146" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G19" s="145">
         <v>13</v>
@@ -22275,16 +22344,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C20" s="146" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E20" s="153" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G20" s="148">
         <v>14</v>
@@ -22304,16 +22373,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D21" s="151" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E21" s="154" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G21" s="155">
         <v>15</v>
@@ -22333,16 +22402,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C22" s="146" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E22" s="153" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G22" s="142">
         <v>16</v>
@@ -22362,16 +22431,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="148" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C23" s="146" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D23" s="146" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E23" s="153" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G23" s="145">
         <v>17</v>
@@ -22391,16 +22460,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="145" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C24" s="146" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D24" s="146" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E24" s="153" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G24" s="148">
         <v>18</v>
@@ -22420,16 +22489,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="150" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="151" t="s">
+        <v>498</v>
+      </c>
+      <c r="D25" s="151" t="s">
         <v>499</v>
       </c>
-      <c r="C25" s="151" t="s">
-        <v>500</v>
-      </c>
-      <c r="D25" s="151" t="s">
-        <v>501</v>
-      </c>
       <c r="E25" s="154" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G25" s="155">
         <v>19</v>
@@ -22449,16 +22518,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="170" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C26" s="171" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D26" s="171" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E26" s="172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G26" s="142">
         <v>20</v>
@@ -22478,16 +22547,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="148" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C27" s="146" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D27" s="146" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E27" s="153" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G27" s="145">
         <v>21</v>
@@ -22507,16 +22576,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C28" s="146" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E28" s="153" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G28" s="148">
         <v>22</v>
@@ -22536,16 +22605,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="173" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C29" s="174" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D29" s="174" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E29" s="175" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G29" s="155">
         <v>23</v>
@@ -22565,16 +22634,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="145" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C30" s="146" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D30" s="146" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E30" s="153" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G30" s="142">
         <v>24</v>
@@ -22594,16 +22663,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="148" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C31" s="146" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D31" s="146" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E31" s="153" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G31" s="145">
         <v>25</v>
@@ -22623,16 +22692,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="145" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C32" s="146" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D32" s="146" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E32" s="153" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G32" s="148">
         <v>26</v>
@@ -22652,16 +22721,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="150" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C33" s="151" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D33" s="151" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E33" s="154" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G33" s="155">
         <v>27</v>
@@ -22681,16 +22750,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="145" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C34" s="146" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D34" s="146" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E34" s="153" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G34" s="142">
         <v>28</v>
@@ -22710,16 +22779,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="148" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C35" s="146" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D35" s="146" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E35" s="153" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G35" s="145">
         <v>29</v>
@@ -22739,16 +22808,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="145" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D36" s="146" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E36" s="153" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G36" s="148">
         <v>30</v>
@@ -22768,16 +22837,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="150" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C37" s="151" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D37" s="151" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E37" s="154" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G37" s="155">
         <v>31</v>
@@ -22797,16 +22866,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="145" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C38" s="146" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D38" s="146" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E38" s="153" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G38" s="142">
         <v>32</v>
@@ -22826,16 +22895,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="148" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C39" s="146" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D39" s="146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E39" s="153" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G39" s="145">
         <v>33</v>
@@ -22855,16 +22924,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="145" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C40" s="146" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D40" s="146" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E40" s="153" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G40" s="148">
         <v>34</v>
@@ -22884,16 +22953,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="150" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>507</v>
+      </c>
+      <c r="D41" s="151" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="151" t="s">
-        <v>509</v>
-      </c>
-      <c r="D41" s="151" t="s">
-        <v>510</v>
-      </c>
       <c r="E41" s="154" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G41" s="155">
         <v>35</v>
@@ -22949,7 +23018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB68D4-AE4C-4EA8-9D6F-F0CE5AE78C02}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -22967,25 +23036,25 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="48" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G1" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>532</v>
-      </c>
       <c r="R1" s="48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -22993,19 +23062,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -23013,10 +23082,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -23024,7 +23093,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H4" s="48">
         <v>3</v>
@@ -23035,7 +23104,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -23043,19 +23112,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G6" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="J6" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="K6" s="48" t="s">
         <v>527</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -23063,7 +23132,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -23071,7 +23140,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -23079,7 +23148,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -23087,7 +23156,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -23095,7 +23164,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -23103,7 +23172,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -23111,7 +23180,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -23119,7 +23188,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -23127,25 +23196,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M15" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="O15" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="N15" s="48" t="s">
+      <c r="P15" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="O15" s="48" t="s">
+      <c r="Q15" s="48" t="s">
         <v>535</v>
-      </c>
-      <c r="P15" s="48" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q15" s="48" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -23153,7 +23222,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H16" s="48">
         <v>3</v>
@@ -23167,7 +23236,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R17" s="48">
         <v>3</v>
@@ -23178,7 +23247,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R18" s="48">
         <v>4</v>
@@ -23189,7 +23258,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -23197,7 +23266,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -23205,7 +23274,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -23213,7 +23282,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -23221,7 +23290,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -23229,7 +23298,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -23237,7 +23306,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -23245,7 +23314,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -23253,7 +23322,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -23261,7 +23330,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -23269,7 +23338,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -23277,7 +23346,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -23285,7 +23354,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -23293,7 +23362,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -23301,7 +23370,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -23309,7 +23378,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -23317,10 +23386,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -23328,10 +23397,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:3">

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C039B8F-708B-4784-B504-9E2570968E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E8555-91BD-47AB-B52C-10FC312885D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="2123" windowWidth="9585" windowHeight="6000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -10158,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10745,7 +10745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -13964,5 +13964,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E8555-91BD-47AB-B52C-10FC312885D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015675-123C-4D42-A3A7-C450E3CA8071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="2123" windowWidth="9585" windowHeight="6000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -10158,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10745,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10927,13 +10927,13 @@
       </c>
       <c r="E5" s="143"/>
       <c r="G5" s="141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="143"/>
       <c r="M5" s="132">

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015675-123C-4D42-A3A7-C450E3CA8071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04473B4E-A490-44C0-81F1-5C40A7B0003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="422">
   <si>
     <t>步骤</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>1c)预测机器人-机器人协方差矩阵</t>
-  </si>
-  <si>
-    <t>F_xi</t>
-  </si>
-  <si>
-    <t>F_xi_cov_vv</t>
   </si>
   <si>
     <t>3*3</t>
@@ -571,10 +565,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>t_cov_PRD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>F_cov</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1486,6 +1476,18 @@
   </si>
   <si>
     <t>(2 * 4+2n)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_PRD(1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_xi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_cov</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2155,7 +2157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2717,6 +2719,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3469,9 +3486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3539,7 +3556,7 @@
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1">
       <c r="A3" s="174" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3562,7 +3579,7 @@
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
       <c r="A4" s="175" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3792,14 +3809,14 @@
     </row>
     <row r="14" spans="1:19" ht="15">
       <c r="A14" s="177" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3824,7 +3841,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3843,14 +3860,14 @@
     <row r="16" spans="1:19" ht="36" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="40" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="C16" s="149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="41" t="s">
-        <v>17</v>
+        <v>421</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3870,14 +3887,14 @@
     <row r="17" spans="1:19" ht="13.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
@@ -3897,14 +3914,14 @@
     <row r="18" spans="1:19" ht="11.25" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -3924,14 +3941,14 @@
     <row r="19" spans="1:19" ht="11.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F19" s="74"/>
       <c r="G19" s="28"/>
@@ -3951,16 +3968,16 @@
     <row r="20" spans="1:19" ht="38.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="42" t="s">
-        <v>17</v>
+        <v>421</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3980,16 +3997,16 @@
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
@@ -4009,16 +4026,16 @@
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
@@ -4038,16 +4055,16 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" s="73"/>
       <c r="G23" s="28"/>
@@ -4066,17 +4083,17 @@
     </row>
     <row r="24" spans="1:19" ht="39.75" customHeight="1">
       <c r="A24" s="178" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4096,14 +4113,14 @@
     <row r="25" spans="1:19">
       <c r="A25" s="8"/>
       <c r="B25" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
@@ -4123,17 +4140,17 @@
     <row r="26" spans="1:19">
       <c r="A26" s="8"/>
       <c r="B26" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -4152,14 +4169,14 @@
     <row r="27" spans="1:19">
       <c r="A27" s="8"/>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
@@ -4178,7 +4195,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="179" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -4201,7 +4218,7 @@
     </row>
     <row r="29" spans="1:19" s="56" customFormat="1">
       <c r="A29" s="180" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
@@ -4224,7 +4241,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4247,7 +4264,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4270,7 +4287,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4293,7 +4310,7 @@
     </row>
     <row r="33" spans="1:19" ht="33" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4317,14 +4334,14 @@
     <row r="34" spans="1:19" ht="33" customHeight="1">
       <c r="A34" s="181"/>
       <c r="B34" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -4344,14 +4361,14 @@
     <row r="35" spans="1:19">
       <c r="A35" s="181"/>
       <c r="B35" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
@@ -4371,14 +4388,14 @@
     <row r="36" spans="1:19">
       <c r="A36" s="181"/>
       <c r="B36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
@@ -4398,14 +4415,14 @@
     <row r="37" spans="1:19">
       <c r="A37" s="181"/>
       <c r="B37" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" s="74"/>
       <c r="G37" s="28"/>
@@ -4425,14 +4442,14 @@
     <row r="38" spans="1:19">
       <c r="A38" s="181"/>
       <c r="B38" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4452,14 +4469,14 @@
     <row r="39" spans="1:19">
       <c r="A39" s="181"/>
       <c r="B39" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -4479,17 +4496,17 @@
     <row r="40" spans="1:19">
       <c r="A40" s="181"/>
       <c r="B40" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4508,17 +4525,17 @@
     <row r="41" spans="1:19">
       <c r="A41" s="181"/>
       <c r="B41" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" s="74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G41" s="74"/>
       <c r="H41" s="74"/>
@@ -4537,14 +4554,14 @@
     <row r="42" spans="1:19">
       <c r="A42" s="181"/>
       <c r="B42" s="79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4564,14 +4581,14 @@
     <row r="43" spans="1:19">
       <c r="A43" s="181"/>
       <c r="B43" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4591,14 +4608,14 @@
     <row r="44" spans="1:19">
       <c r="A44" s="181"/>
       <c r="B44" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4618,14 +4635,14 @@
     <row r="45" spans="1:19">
       <c r="A45" s="181"/>
       <c r="B45" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
@@ -4645,14 +4662,14 @@
     <row r="46" spans="1:19">
       <c r="A46" s="181"/>
       <c r="B46" s="75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4672,14 +4689,14 @@
     <row r="47" spans="1:19">
       <c r="A47" s="181"/>
       <c r="B47" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
@@ -4699,14 +4716,14 @@
     <row r="48" spans="1:19">
       <c r="A48" s="181"/>
       <c r="B48" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
@@ -4726,14 +4743,14 @@
     <row r="49" spans="1:19">
       <c r="A49" s="181"/>
       <c r="B49" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F49" s="73"/>
       <c r="G49" s="28"/>
@@ -4753,16 +4770,16 @@
     <row r="50" spans="1:19">
       <c r="A50" s="181"/>
       <c r="B50" s="75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50" s="78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4782,16 +4799,16 @@
     <row r="51" spans="1:19">
       <c r="A51" s="181"/>
       <c r="B51" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
@@ -4811,16 +4828,16 @@
     <row r="52" spans="1:19">
       <c r="A52" s="181"/>
       <c r="B52" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
@@ -4840,16 +4857,16 @@
     <row r="53" spans="1:19">
       <c r="A53" s="181"/>
       <c r="B53" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>121</v>
       </c>
       <c r="F53" s="73"/>
       <c r="G53" s="28"/>
@@ -4873,7 +4890,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4891,7 +4908,7 @@
     </row>
     <row r="55" spans="1:19" s="56" customFormat="1">
       <c r="A55" s="180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -4914,7 +4931,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4937,7 +4954,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4960,7 +4977,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4983,7 +5000,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="26"/>
@@ -5006,7 +5023,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="26"/>
@@ -5029,7 +5046,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="26"/>
@@ -5052,7 +5069,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5075,20 +5092,20 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
@@ -5107,17 +5124,17 @@
     <row r="64" spans="1:19">
       <c r="A64" s="8"/>
       <c r="B64" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
@@ -5136,17 +5153,17 @@
     <row r="65" spans="1:19">
       <c r="A65" s="8"/>
       <c r="B65" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
@@ -5164,13 +5181,13 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" s="150" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="31"/>
@@ -5192,10 +5209,10 @@
     <row r="67" spans="1:19">
       <c r="A67" s="8"/>
       <c r="B67" s="34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="31"/>
@@ -5217,10 +5234,10 @@
     <row r="68" spans="1:19">
       <c r="A68" s="8"/>
       <c r="B68" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="31"/>
@@ -5241,13 +5258,13 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B69" s="150" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="155"/>
@@ -5269,10 +5286,10 @@
     <row r="70" spans="1:19">
       <c r="A70" s="8"/>
       <c r="B70" s="34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="156"/>
@@ -5294,10 +5311,10 @@
     <row r="71" spans="1:19">
       <c r="A71" s="8"/>
       <c r="B71" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="157"/>
@@ -5318,13 +5335,13 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="153"/>
@@ -5346,10 +5363,10 @@
     <row r="73" spans="1:19">
       <c r="A73" s="8"/>
       <c r="B73" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="153"/>
@@ -5371,10 +5388,10 @@
     <row r="74" spans="1:19">
       <c r="A74" s="8"/>
       <c r="B74" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="153"/>
@@ -5395,17 +5412,17 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B75" s="158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="28"/>
@@ -5425,14 +5442,14 @@
     <row r="76" spans="1:19">
       <c r="A76" s="8"/>
       <c r="B76" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="28"/>
@@ -5452,14 +5469,14 @@
     <row r="77" spans="1:19">
       <c r="A77" s="8"/>
       <c r="B77" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="28"/>
@@ -5478,14 +5495,14 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F78" s="172"/>
       <c r="G78" s="28"/>
@@ -5505,11 +5522,11 @@
     <row r="79" spans="1:19">
       <c r="A79" s="8"/>
       <c r="B79" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F79" s="172"/>
       <c r="G79" s="28"/>
@@ -5529,11 +5546,11 @@
     <row r="80" spans="1:19">
       <c r="A80" s="8"/>
       <c r="B80" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F80" s="172"/>
       <c r="G80" s="28"/>
@@ -5552,22 +5569,22 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -5586,16 +5603,16 @@
     <row r="82" spans="1:19">
       <c r="A82" s="8"/>
       <c r="B82" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F82" s="74"/>
       <c r="G82" s="151"/>
@@ -5615,16 +5632,16 @@
     <row r="83" spans="1:19">
       <c r="A83" s="8"/>
       <c r="B83" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G83" s="154"/>
       <c r="H83" s="152"/>
@@ -5642,15 +5659,15 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="154"/>
@@ -5670,12 +5687,12 @@
     <row r="85" spans="1:19">
       <c r="A85" s="8"/>
       <c r="B85" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
@@ -5695,12 +5712,12 @@
     <row r="86" spans="1:19">
       <c r="A86" s="8"/>
       <c r="B86" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="2"/>
@@ -5719,17 +5736,17 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="28"/>
@@ -5749,17 +5766,17 @@
     <row r="88" spans="1:19">
       <c r="A88" s="8"/>
       <c r="B88" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F88" s="74" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5778,17 +5795,17 @@
     <row r="89" spans="1:19">
       <c r="A89" s="8"/>
       <c r="B89" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -5807,16 +5824,16 @@
     <row r="90" spans="1:19">
       <c r="A90" s="8"/>
       <c r="B90" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="28"/>
@@ -5836,16 +5853,16 @@
     <row r="91" spans="1:19">
       <c r="A91" s="8"/>
       <c r="B91" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
@@ -5865,16 +5882,16 @@
     <row r="92" spans="1:19">
       <c r="A92" s="8"/>
       <c r="B92" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
@@ -5894,16 +5911,16 @@
     <row r="93" spans="1:19">
       <c r="A93" s="8"/>
       <c r="B93" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="2"/>
@@ -5923,16 +5940,16 @@
     <row r="94" spans="1:19">
       <c r="A94" s="8"/>
       <c r="B94" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
@@ -5952,19 +5969,19 @@
     <row r="95" spans="1:19">
       <c r="A95" s="181"/>
       <c r="B95" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="D95" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -5982,19 +5999,19 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C96" s="76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D96" s="77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E96" s="78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
@@ -6014,16 +6031,16 @@
     <row r="97" spans="1:19">
       <c r="A97" s="181"/>
       <c r="B97" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
@@ -6043,19 +6060,19 @@
     <row r="98" spans="1:19">
       <c r="A98" s="181"/>
       <c r="B98" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="E98" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D98" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="F98" s="73" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -6095,12 +6112,12 @@
     <row r="100" spans="1:19" ht="14.25" thickBot="1">
       <c r="A100" s="9"/>
       <c r="B100" s="184" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" s="185"/>
       <c r="D100" s="185"/>
       <c r="E100" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -6119,16 +6136,16 @@
     <row r="101" spans="1:19" ht="14.25" thickBot="1">
       <c r="A101" s="9"/>
       <c r="B101" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="69" t="s">
         <v>103</v>
-      </c>
-      <c r="C101" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E101" s="69" t="s">
-        <v>105</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -6144,19 +6161,19 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="182" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" s="61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D102" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I102" s="28"/>
       <c r="J102" s="28"/>
@@ -6172,15 +6189,15 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="183" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" s="62"/>
       <c r="C103" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D103" s="66"/>
       <c r="E103" s="66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -6198,19 +6215,19 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="182" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E104" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
@@ -6228,18 +6245,18 @@
     </row>
     <row r="105" spans="1:19" ht="14.25" thickBot="1">
       <c r="A105" s="182" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B105" s="63"/>
       <c r="C105" s="70"/>
       <c r="D105" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E105" s="67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -6262,7 +6279,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="3"/>
       <c r="G106" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -6300,10 +6317,10 @@
     <row r="108" spans="1:19">
       <c r="A108" s="181"/>
       <c r="B108" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -6325,10 +6342,10 @@
     <row r="109" spans="1:19">
       <c r="A109" s="181"/>
       <c r="B109" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -6350,10 +6367,10 @@
     <row r="110" spans="1:19">
       <c r="A110" s="181"/>
       <c r="B110" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -6375,10 +6392,10 @@
     <row r="111" spans="1:19">
       <c r="A111" s="181"/>
       <c r="B111" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -6400,10 +6417,10 @@
     <row r="112" spans="1:19">
       <c r="A112" s="181"/>
       <c r="B112" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -6425,10 +6442,10 @@
     <row r="113" spans="1:19">
       <c r="A113" s="181"/>
       <c r="B113" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -9788,49 +9805,49 @@
   <sheetData>
     <row r="1" spans="2:9" ht="14.25" thickBot="1">
       <c r="B1" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="E1" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>128</v>
-      </c>
       <c r="G1" s="84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="120"/>
       <c r="E3" s="121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -9844,38 +9861,38 @@
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
       <c r="B4" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="147" t="s">
         <v>85</v>
-      </c>
-      <c r="C4" s="147" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="147"/>
       <c r="E4" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="115"/>
       <c r="E5" s="116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="120"/>
       <c r="E6" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9889,38 +9906,38 @@
     </row>
     <row r="7" spans="2:9" ht="14.25" thickBot="1">
       <c r="B7" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="147" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="147" t="s">
-        <v>87</v>
       </c>
       <c r="D7" s="147"/>
       <c r="E7" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="120"/>
       <c r="E9" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -9934,38 +9951,38 @@
     </row>
     <row r="10" spans="2:9" ht="14.25" thickBot="1">
       <c r="B10" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="147" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="147" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="147"/>
       <c r="E10" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="115"/>
       <c r="E11" s="116" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="120"/>
       <c r="E12" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9979,42 +9996,42 @@
     </row>
     <row r="13" spans="2:9" ht="14.25" thickBot="1">
       <c r="B13" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="104"/>
       <c r="E13" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="116" t="s">
         <v>141</v>
-      </c>
-      <c r="E14" s="116" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -10028,44 +10045,44 @@
     </row>
     <row r="16" spans="2:9" ht="15.4" customHeight="1" thickBot="1">
       <c r="B16" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="115" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>141</v>
-      </c>
       <c r="E17" s="116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10079,50 +10096,50 @@
     </row>
     <row r="19" spans="2:9" ht="14.25" thickBot="1">
       <c r="B19" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="85" t="s">
         <v>144</v>
-      </c>
-      <c r="C20" s="115" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="117" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D21" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -10136,16 +10153,16 @@
     </row>
     <row r="22" spans="2:9" ht="14.25" thickBot="1">
       <c r="B22" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="147" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="148" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10159,11 +10176,12 @@
   <dimension ref="A1:AU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="35" max="35" width="11.9296875" customWidth="1"/>
     <col min="36" max="36" width="9.3984375" customWidth="1"/>
     <col min="37" max="37" width="9.1328125" customWidth="1"/>
@@ -10175,6 +10193,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
       <c r="B1">
         <v>0</v>
       </c>
@@ -10307,14 +10328,14 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="86">
         <v>1</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="86">
         <v>1</v>
@@ -10322,47 +10343,44 @@
       <c r="F2" s="87"/>
       <c r="G2" s="87"/>
       <c r="H2" s="89" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="91"/>
-      <c r="K2" s="90" t="s">
-        <v>151</v>
-      </c>
       <c r="L2" s="90"/>
       <c r="M2" s="90"/>
       <c r="N2" s="89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O2" s="90"/>
       <c r="P2" s="90"/>
       <c r="Q2" s="89" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="R2" s="90"/>
       <c r="S2" s="92">
         <v>5</v>
       </c>
       <c r="T2" s="93" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U2" s="92">
         <v>4</v>
       </c>
       <c r="V2" s="89" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="W2" s="91"/>
       <c r="X2" s="89" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="91"/>
       <c r="Z2" s="94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="91"/>
       <c r="AB2" s="95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AC2" s="96">
         <v>-3</v>
@@ -10371,57 +10389,57 @@
         <v>0</v>
       </c>
       <c r="AE2" s="95" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="96">
         <v>3</v>
       </c>
       <c r="AG2" s="89" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AH2" s="91"/>
       <c r="AI2" s="89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AJ2" s="90"/>
       <c r="AK2" s="90"/>
       <c r="AL2" s="90"/>
       <c r="AM2" s="90"/>
       <c r="AN2" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO2" s="168" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP2" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ2" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="AO2" s="168" t="s">
+      <c r="AR2" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="AP2" s="89" t="s">
+      <c r="AS2" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="AQ2" s="91" t="s">
+      <c r="AT2" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="AR2" s="89" t="s">
+      <c r="AU2" s="91" t="s">
         <v>161</v>
-      </c>
-      <c r="AS2" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT2" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU2" s="91" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="98">
         <v>1</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="98">
@@ -10485,33 +10503,33 @@
       <c r="AL3" s="104"/>
       <c r="AM3" s="104"/>
       <c r="AN3" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO3" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP3" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ3" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="AO3" s="102" t="s">
+      <c r="AR3" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="AP3" s="100" t="s">
+      <c r="AS3" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AQ3" s="102" t="s">
+      <c r="AT3" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="AR3" s="100" t="s">
+      <c r="AU3" s="102" t="s">
         <v>171</v>
-      </c>
-      <c r="AS3" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT3" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU3" s="102" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
@@ -10519,10 +10537,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="111">
         <v>1</v>
@@ -10559,33 +10577,33 @@
       <c r="AG4" s="112"/>
       <c r="AH4" s="112"/>
       <c r="AN4" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO4" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP4" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ4" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="AO4" s="102" t="s">
+      <c r="AR4" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="AP4" s="100" t="s">
+      <c r="AS4" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="AQ4" s="102" t="s">
+      <c r="AT4" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="AR4" s="100" t="s">
+      <c r="AU4" s="102" t="s">
         <v>180</v>
-      </c>
-      <c r="AS4" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT4" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU4" s="102" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="111"/>
@@ -10612,45 +10630,53 @@
       <c r="AG5" s="112"/>
       <c r="AH5" s="112"/>
       <c r="AN5" s="169" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AO5" s="170" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AP5" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ5" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR5" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS5" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="AQ5" s="107" t="s">
+      <c r="AT5" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="AR5" s="103" t="s">
+      <c r="AU5" s="107" t="s">
         <v>187</v>
-      </c>
-      <c r="AS5" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT5" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU5" s="107" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="186" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="187"/>
       <c r="D6" s="188"/>
       <c r="E6" s="186" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" s="187"/>
       <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="190"/>
+      <c r="M6" s="190"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="186" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="187"/>
       <c r="D7" s="187"/>
@@ -10667,7 +10693,7 @@
       <c r="O7" s="187"/>
       <c r="P7" s="188"/>
       <c r="Q7" s="186" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R7" s="187"/>
       <c r="S7" s="187"/>
@@ -10680,7 +10706,7 @@
       <c r="Z7" s="187"/>
       <c r="AA7" s="188"/>
       <c r="AB7" s="186" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AC7" s="187"/>
       <c r="AD7" s="187"/>
@@ -10704,10 +10730,10 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -10715,7 +10741,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -10725,16 +10751,18 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:P7"/>
     <mergeCell ref="Q7:AA7"/>
     <mergeCell ref="AB7:AR7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10743,10 +10771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C72A8-6F35-4983-A50F-4303D71F9B39}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10754,62 +10782,53 @@
     <col min="1" max="16384" width="9.06640625" style="132"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1">
+    <row r="1" spans="1:18" ht="14.25" thickBot="1">
       <c r="A1" s="132" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="132" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="E1" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="132" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" s="132" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>344</v>
-      </c>
       <c r="G1" s="132" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="132" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="132" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="132" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="132" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="132" t="s">
-        <v>340</v>
-      </c>
-      <c r="N1" s="132" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" s="132" t="s">
-        <v>342</v>
-      </c>
-      <c r="P1" s="132" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q1" s="132" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" thickBot="1">
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="132">
         <v>0</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D2" s="134" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E2" s="135"/>
       <c r="G2" s="133">
@@ -10822,32 +10841,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="135"/>
-      <c r="M2" s="132">
-        <v>0</v>
-      </c>
-      <c r="N2" s="159" t="s">
-        <v>383</v>
-      </c>
-      <c r="O2" s="160" t="s">
-        <v>384</v>
-      </c>
-      <c r="P2" s="160" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q2" s="135"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="191"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="132">
         <v>1</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E3" s="138"/>
       <c r="G3" s="136">
@@ -10860,32 +10872,25 @@
         <v>0</v>
       </c>
       <c r="J3" s="138"/>
-      <c r="M3" s="132">
-        <v>1</v>
-      </c>
-      <c r="N3" s="133" t="s">
-        <v>386</v>
-      </c>
-      <c r="O3" s="134" t="s">
-        <v>387</v>
-      </c>
-      <c r="P3" s="134" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q3" s="138"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="191"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="132">
         <v>2</v>
       </c>
       <c r="B4" s="139" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E4" s="140"/>
       <c r="G4" s="139">
@@ -10898,32 +10903,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="140"/>
-      <c r="M4" s="132">
-        <v>2</v>
-      </c>
-      <c r="N4" s="136" t="s">
-        <v>389</v>
-      </c>
-      <c r="O4" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="P4" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q4" s="140"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1">
+      <c r="M4" s="191"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="191"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" thickBot="1">
       <c r="A5" s="132">
         <v>3</v>
       </c>
       <c r="B5" s="159" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D5" s="160" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E5" s="143"/>
       <c r="G5" s="141">
@@ -10936,35 +10934,28 @@
         <v>4</v>
       </c>
       <c r="J5" s="143"/>
-      <c r="M5" s="132">
-        <v>3</v>
-      </c>
-      <c r="N5" s="139" t="s">
-        <v>345</v>
-      </c>
-      <c r="O5" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="P5" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="143"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="M5" s="191"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="191"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="132">
         <v>4</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E6" s="163" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G6" s="133">
         <v>1</v>
@@ -10978,22 +10969,23 @@
       <c r="J6" s="133">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="193"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="132">
         <v>5</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G7" s="136">
         <v>2</v>
@@ -11007,22 +10999,23 @@
       <c r="J7" s="136">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" s="193"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="132">
         <v>6</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G8" s="139">
         <v>3</v>
@@ -11037,21 +11030,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" thickBot="1">
+    <row r="9" spans="1:18" ht="14.25" thickBot="1">
       <c r="A9" s="132">
         <v>7</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C9" s="165" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D9" s="165" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E9" s="166" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G9" s="146">
         <v>0</v>
@@ -11066,21 +11059,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="132">
         <v>8</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E10" s="144" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="133">
         <v>4</v>
@@ -11095,21 +11088,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="132">
         <v>9</v>
       </c>
       <c r="B11" s="139" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" s="144" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G11" s="136">
         <v>5</v>
@@ -11124,21 +11117,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="132">
         <v>10</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E12" s="144" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G12" s="139">
         <v>6</v>
@@ -11153,21 +11146,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.25" thickBot="1">
+    <row r="13" spans="1:18" ht="14.25" thickBot="1">
       <c r="A13" s="132">
         <v>11</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E13" s="145" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G13" s="146">
         <v>7</v>
@@ -11182,21 +11175,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="132">
         <v>12</v>
       </c>
       <c r="B14" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="162" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="163" t="s">
         <v>392</v>
-      </c>
-      <c r="C14" s="162" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="163" t="s">
-        <v>395</v>
       </c>
       <c r="G14" s="133">
         <v>8</v>
@@ -11211,21 +11204,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="132">
         <v>13</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E15" s="144" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G15" s="136">
         <v>9</v>
@@ -11240,21 +11233,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="132">
         <v>14</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E16" s="144" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G16" s="139">
         <v>10</v>
@@ -11274,16 +11267,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="164" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C17" s="165" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D17" s="165" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E17" s="166" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G17" s="146">
         <v>11</v>
@@ -11303,16 +11296,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E18" s="144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G18" s="133">
         <v>12</v>
@@ -11332,16 +11325,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G19" s="136">
         <v>13</v>
@@ -11361,16 +11354,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E20" s="144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G20" s="139">
         <v>14</v>
@@ -11390,16 +11383,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="141" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E21" s="145" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G21" s="146">
         <v>15</v>
@@ -11419,16 +11412,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="136" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C22" s="137" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D22" s="137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E22" s="144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G22" s="133">
         <v>16</v>
@@ -11448,16 +11441,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E23" s="144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G23" s="136">
         <v>17</v>
@@ -11477,16 +11470,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D24" s="137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E24" s="144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G24" s="139">
         <v>18</v>
@@ -11506,16 +11499,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E25" s="145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G25" s="146">
         <v>19</v>
@@ -11535,16 +11528,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="161" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C26" s="162" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D26" s="162" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E26" s="163" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G26" s="133">
         <v>20</v>
@@ -11564,16 +11557,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E27" s="144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G27" s="136">
         <v>21</v>
@@ -11593,16 +11586,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E28" s="144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G28" s="139">
         <v>22</v>
@@ -11622,16 +11615,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C29" s="165" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G29" s="146">
         <v>23</v>
@@ -11651,16 +11644,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D30" s="137" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E30" s="144" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G30" s="133">
         <v>24</v>
@@ -11680,16 +11673,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E31" s="144" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G31" s="136">
         <v>25</v>
@@ -11709,16 +11702,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="136" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E32" s="144" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G32" s="139">
         <v>26</v>
@@ -11738,16 +11731,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="141" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D33" s="142" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E33" s="145" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G33" s="146">
         <v>27</v>
@@ -11767,16 +11760,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="136" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E34" s="144" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G34" s="133">
         <v>28</v>
@@ -11796,16 +11789,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E35" s="144" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G35" s="136">
         <v>29</v>
@@ -11825,16 +11818,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C36" s="137" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E36" s="144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G36" s="139">
         <v>30</v>
@@ -11854,16 +11847,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="141" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D37" s="142" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E37" s="145" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G37" s="146">
         <v>31</v>
@@ -11883,16 +11876,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="136" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C38" s="137" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E38" s="144" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G38" s="133">
         <v>32</v>
@@ -11912,16 +11905,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E39" s="144" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G39" s="136">
         <v>33</v>
@@ -11941,16 +11934,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E40" s="144" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G40" s="139">
         <v>34</v>
@@ -11970,16 +11963,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="141" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D41" s="142" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E41" s="145" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G41" s="146">
         <v>35</v>
@@ -12066,10 +12059,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="120"/>
       <c r="E2" s="120"/>
@@ -12087,13 +12080,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
@@ -12110,16 +12103,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="119" t="s">
         <v>205</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>208</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="120"/>
@@ -12135,19 +12128,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="118" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="F5" s="119" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="119" t="s">
-        <v>213</v>
       </c>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
@@ -12162,22 +12155,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="F6" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="G6" s="119" t="s">
         <v>216</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>219</v>
       </c>
       <c r="H6" s="120"/>
       <c r="I6" s="120"/>
@@ -12191,25 +12184,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="F7" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="G7" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="H7" s="119" t="s">
         <v>223</v>
-      </c>
-      <c r="F7" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="119" t="s">
-        <v>226</v>
       </c>
       <c r="I7" s="120"/>
       <c r="J7" s="120"/>
@@ -12222,28 +12215,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="F8" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="G8" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="H8" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="I8" s="119" t="s">
         <v>231</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="119" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>234</v>
       </c>
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
@@ -12255,31 +12248,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="F9" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="G9" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="H9" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="I9" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="J9" s="119" t="s">
         <v>240</v>
-      </c>
-      <c r="H9" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="119" t="s">
-        <v>243</v>
       </c>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
@@ -12290,34 +12283,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="F10" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="G10" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="H10" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="I10" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="J10" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="K10" s="119" t="s">
         <v>250</v>
-      </c>
-      <c r="I10" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="J10" s="119" t="s">
-        <v>252</v>
-      </c>
-      <c r="K10" s="119" t="s">
-        <v>253</v>
       </c>
       <c r="L10" s="120"/>
       <c r="M10" s="121"/>
@@ -12327,37 +12320,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="F11" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="G11" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="H11" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="I11" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="J11" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="119" t="s">
+      <c r="K11" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="L11" s="119" t="s">
         <v>261</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="119" t="s">
-        <v>264</v>
       </c>
       <c r="M11" s="121"/>
     </row>
@@ -12366,525 +12359,525 @@
         <v>11</v>
       </c>
       <c r="B12" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="F12" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="G12" s="124" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="H12" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="I12" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="124" t="s">
+      <c r="J12" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="124" t="s">
+      <c r="K12" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="L12" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="M12" s="126" t="s">
         <v>273</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="M12" s="126" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="127"/>
       <c r="C14" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="G14" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="129" t="s">
+      <c r="H14" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="I14" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="J14" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="K14" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="L14" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="J14" s="129" t="s">
+      <c r="M14" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="K14" s="128" t="s">
+      <c r="N14" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="129" t="s">
+      <c r="O14" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="129" t="s">
+      <c r="P14" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="129" t="s">
+      <c r="Q14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="O14" s="129" t="s">
+      <c r="R14" s="129" t="s">
         <v>239</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="S14" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="Q14" s="129" t="s">
-        <v>241</v>
-      </c>
-      <c r="R14" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="S14" s="129" t="s">
-        <v>243</v>
-      </c>
       <c r="T14" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U14" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="V14" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W14" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="H15" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="I15" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="J15" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="129" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="129" t="s">
-        <v>226</v>
-      </c>
       <c r="K15" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="129" t="s">
+        <v>242</v>
+      </c>
+      <c r="M15" s="129" t="s">
+        <v>243</v>
+      </c>
+      <c r="N15" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="129" t="s">
+      <c r="O15" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="M15" s="129" t="s">
+      <c r="P15" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="N15" s="129" t="s">
+      <c r="Q15" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="O15" s="129" t="s">
+      <c r="R15" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="S15" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="Q15" s="129" t="s">
+      <c r="T15" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="R15" s="129" t="s">
-        <v>251</v>
-      </c>
-      <c r="S15" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="T15" s="129" t="s">
-        <v>253</v>
-      </c>
       <c r="U15" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="V15" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W15" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="128" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" s="129" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D16" s="129" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E16" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="I16" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="J16" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="H16" s="129" t="s">
-        <v>217</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="J16" s="129" t="s">
-        <v>219</v>
-      </c>
       <c r="K16" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="129" t="s">
+        <v>252</v>
+      </c>
+      <c r="M16" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="N16" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="O16" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="M16" s="129" t="s">
+      <c r="P16" s="129" t="s">
         <v>256</v>
       </c>
-      <c r="N16" s="129" t="s">
+      <c r="Q16" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="O16" s="129" t="s">
+      <c r="R16" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="P16" s="129" t="s">
+      <c r="S16" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="Q16" s="129" t="s">
+      <c r="T16" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="R16" s="129" t="s">
+      <c r="U16" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="S16" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="T16" s="129" t="s">
-        <v>263</v>
-      </c>
-      <c r="U16" s="129" t="s">
-        <v>264</v>
-      </c>
       <c r="V16" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W16" s="84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="F17" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="G17" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="129" t="s">
+      <c r="H17" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="I17" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="G17" s="129" t="s">
+      <c r="J17" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="129" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" s="129" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="129" t="s">
-        <v>213</v>
-      </c>
       <c r="K17" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="129" t="s">
+        <v>264</v>
+      </c>
+      <c r="N17" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="L17" s="129" t="s">
+      <c r="O17" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="M17" s="129" t="s">
+      <c r="P17" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="N17" s="129" t="s">
+      <c r="Q17" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="O17" s="130" t="s">
+      <c r="R17" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="S17" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="Q17" s="129" t="s">
+      <c r="T17" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="R17" s="129" t="s">
+      <c r="U17" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="S17" s="129" t="s">
+      <c r="V17" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="T17" s="129" t="s">
+      <c r="W17" s="84" t="s">
         <v>274</v>
-      </c>
-      <c r="U17" s="129" t="s">
-        <v>275</v>
-      </c>
-      <c r="V17" s="129" t="s">
-        <v>276</v>
-      </c>
-      <c r="W17" s="84" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="F19" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="G19" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="H19" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="I19" s="129" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="J19" s="129" t="s">
         <v>240</v>
-      </c>
-      <c r="H19" s="129" t="s">
-        <v>241</v>
-      </c>
-      <c r="I19" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="J19" s="129" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="F20" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="G20" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="H20" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="I20" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="J20" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="K20" s="129" t="s">
         <v>250</v>
-      </c>
-      <c r="I20" s="129" t="s">
-        <v>251</v>
-      </c>
-      <c r="J20" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="129" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B21" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="F21" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="G21" s="129" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="H21" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="I21" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="J21" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="129" t="s">
+      <c r="K21" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="I21" s="129" t="s">
+      <c r="L21" s="129" t="s">
         <v>261</v>
-      </c>
-      <c r="J21" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="K21" s="129" t="s">
-        <v>263</v>
-      </c>
-      <c r="L21" s="129" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B22" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="129" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="F22" s="130" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="G22" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="H22" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="I22" s="129" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="J22" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="H22" s="129" t="s">
+      <c r="K22" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="I22" s="129" t="s">
+      <c r="L22" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="J22" s="129" t="s">
+      <c r="M22" s="129" t="s">
         <v>273</v>
-      </c>
-      <c r="K22" s="129" t="s">
-        <v>274</v>
-      </c>
-      <c r="L22" s="129" t="s">
-        <v>275</v>
-      </c>
-      <c r="M22" s="129" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="84" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="84" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R24" s="128"/>
       <c r="S24" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="T24" s="129" t="s">
+        <v>225</v>
+      </c>
+      <c r="U24" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="V24" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="T24" s="129" t="s">
+      <c r="W24" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="U24" s="129" t="s">
+      <c r="X24" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="V24" s="129" t="s">
+      <c r="Y24" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="W24" s="129" t="s">
+      <c r="Z24" s="129" t="s">
         <v>231</v>
-      </c>
-      <c r="X24" s="129" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y24" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z24" s="129" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -12893,13 +12886,13 @@
       </c>
       <c r="B25" s="127"/>
       <c r="C25" s="128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D25" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="128" t="s">
         <v>202</v>
-      </c>
-      <c r="E25" s="128" t="s">
-        <v>205</v>
       </c>
       <c r="H25" s="84">
         <v>0</v>
@@ -12914,34 +12907,34 @@
         <v>0</v>
       </c>
       <c r="Q25" s="84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R25" s="128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S25" s="173" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T25" s="131" t="s">
+        <v>217</v>
+      </c>
+      <c r="U25" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="V25" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="W25" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="U25" s="129" t="s">
+      <c r="X25" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="129" t="s">
+      <c r="Y25" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="W25" s="129" t="s">
+      <c r="Z25" s="129" t="s">
         <v>223</v>
-      </c>
-      <c r="X25" s="129" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y25" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z25" s="129" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -12949,16 +12942,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C26" s="129" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D26" s="129" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="129" t="s">
         <v>203</v>
-      </c>
-      <c r="E26" s="129" t="s">
-        <v>206</v>
       </c>
       <c r="H26" s="84">
         <v>0</v>
@@ -12973,34 +12966,34 @@
         <v>0</v>
       </c>
       <c r="Q26" s="84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R26" s="128" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S26" s="173" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T26" s="173" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="U26" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="V26" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="W26" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="X26" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="V26" s="129" t="s">
+      <c r="Y26" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="W26" s="129" t="s">
+      <c r="Z26" s="129" t="s">
         <v>216</v>
-      </c>
-      <c r="X26" s="129" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y26" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z26" s="129" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -13008,16 +13001,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="129" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D27" s="129" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E27" s="129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H27" s="84">
         <v>1</v>
@@ -13032,34 +13025,34 @@
         <v>0</v>
       </c>
       <c r="Q27" s="84" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R27" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="S27" s="173" t="s">
+        <v>203</v>
+      </c>
+      <c r="T27" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="U27" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="173" t="s">
+      <c r="V27" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="T27" s="173" t="s">
+      <c r="W27" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="U27" s="173" t="s">
+      <c r="X27" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="V27" s="131" t="s">
+      <c r="Y27" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="W27" s="129" t="s">
+      <c r="Z27" s="129" t="s">
         <v>210</v>
-      </c>
-      <c r="X27" s="129" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y27" s="129" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z27" s="129" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -13067,16 +13060,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="129" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" s="129" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E28" s="129" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H28" s="84">
         <v>2</v>
@@ -13096,16 +13089,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="129" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C29" s="129" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D29" s="129" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" s="128" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H29" s="84">
         <v>3</v>
@@ -13125,16 +13118,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="129" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C30" s="129" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D30" s="129" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E30" s="129" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H30" s="84">
         <v>4</v>
@@ -13154,16 +13147,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="129" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C31" s="129" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D31" s="129" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31" s="129" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H31" s="84">
         <v>5</v>
@@ -13183,16 +13176,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="129" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D32" s="129" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E32" s="129" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H32" s="84">
         <v>6</v>
@@ -13212,16 +13205,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C33" s="129" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D33" s="129" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E33" s="129" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H33" s="84">
         <v>7</v>
@@ -13241,16 +13234,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="128" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D34" s="128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E34" s="128" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H34" s="84">
         <v>8</v>
@@ -13270,16 +13263,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C35" s="129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D35" s="129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E35" s="129" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H35" s="84">
         <v>9</v>
@@ -13299,16 +13292,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C36" s="129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D36" s="129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E36" s="129" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H36" s="84">
         <v>10</v>
@@ -13328,16 +13321,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="129" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" s="129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D37" s="129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E37" s="129" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H37" s="84">
         <v>11</v>
@@ -13357,16 +13350,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C38" s="129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D38" s="129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E38" s="129" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H38" s="84">
         <v>12</v>
@@ -13386,16 +13379,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C39" s="129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D39" s="129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E39" s="129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H39" s="84">
         <v>13</v>
@@ -13415,16 +13408,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C40" s="129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" s="129" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E40" s="129" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H40" s="84">
         <v>14</v>
@@ -13444,16 +13437,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C41" s="129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D41" s="129" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E41" s="129" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H41" s="84">
         <v>15</v>
@@ -13473,16 +13466,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C42" s="129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D42" s="129" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E42" s="129" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H42" s="84">
         <v>16</v>
@@ -13502,16 +13495,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C43" s="129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D43" s="129" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E43" s="129" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H43" s="84">
         <v>17</v>
@@ -13531,16 +13524,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="131" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C44" s="128" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D44" s="129" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E44" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H44" s="84">
         <v>18</v>
@@ -13560,16 +13553,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="131" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C45" s="131" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D45" s="128" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E45" s="129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H45" s="84">
         <v>19</v>
@@ -13589,16 +13582,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="128" t="s">
         <v>288</v>
-      </c>
-      <c r="C46" s="131" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="131" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="128" t="s">
-        <v>291</v>
       </c>
       <c r="H46" s="84">
         <v>20</v>
@@ -13618,16 +13611,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="131" t="s">
         <v>292</v>
-      </c>
-      <c r="C47" s="131" t="s">
-        <v>293</v>
-      </c>
-      <c r="D47" s="131" t="s">
-        <v>294</v>
-      </c>
-      <c r="E47" s="131" t="s">
-        <v>295</v>
       </c>
       <c r="H47" s="84">
         <v>21</v>
@@ -13647,16 +13640,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="131" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>294</v>
+      </c>
+      <c r="D48" s="131" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="131" t="s">
         <v>296</v>
-      </c>
-      <c r="C48" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="131" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" s="131" t="s">
-        <v>299</v>
       </c>
       <c r="H48" s="84">
         <v>22</v>
@@ -13676,16 +13669,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="131" t="s">
         <v>300</v>
-      </c>
-      <c r="C49" s="131" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="131" t="s">
-        <v>302</v>
-      </c>
-      <c r="E49" s="131" t="s">
-        <v>303</v>
       </c>
       <c r="H49" s="84">
         <v>23</v>
@@ -13705,16 +13698,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="131" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="131" t="s">
         <v>304</v>
-      </c>
-      <c r="C50" s="131" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="E50" s="131" t="s">
-        <v>307</v>
       </c>
       <c r="H50" s="84">
         <v>24</v>
@@ -13734,16 +13727,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="131" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="131" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="131" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51" s="131" t="s">
         <v>308</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>309</v>
-      </c>
-      <c r="D51" s="131" t="s">
-        <v>310</v>
-      </c>
-      <c r="E51" s="131" t="s">
-        <v>311</v>
       </c>
       <c r="H51" s="84">
         <v>25</v>
@@ -13763,16 +13756,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="131" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="131" t="s">
         <v>312</v>
-      </c>
-      <c r="C52" s="131" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="131" t="s">
-        <v>314</v>
-      </c>
-      <c r="E52" s="131" t="s">
-        <v>315</v>
       </c>
       <c r="H52" s="84">
         <v>26</v>
@@ -13792,16 +13785,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="131" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="131" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="131" t="s">
+        <v>315</v>
+      </c>
+      <c r="E53" s="131" t="s">
         <v>316</v>
-      </c>
-      <c r="C53" s="131" t="s">
-        <v>317</v>
-      </c>
-      <c r="D53" s="131" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="131" t="s">
-        <v>319</v>
       </c>
       <c r="H53" s="84">
         <v>27</v>
@@ -13821,16 +13814,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="131" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="131" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" s="131" t="s">
         <v>320</v>
-      </c>
-      <c r="C54" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="D54" s="131" t="s">
-        <v>322</v>
-      </c>
-      <c r="E54" s="131" t="s">
-        <v>323</v>
       </c>
       <c r="H54" s="84">
         <v>28</v>
@@ -13850,16 +13843,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="D55" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="131" t="s">
         <v>324</v>
-      </c>
-      <c r="C55" s="131" t="s">
-        <v>325</v>
-      </c>
-      <c r="D55" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="E55" s="131" t="s">
-        <v>327</v>
       </c>
       <c r="H55" s="84">
         <v>29</v>
@@ -13879,16 +13872,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="131" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" s="131" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" s="131" t="s">
         <v>328</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>329</v>
-      </c>
-      <c r="D56" s="131" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="131" t="s">
-        <v>331</v>
       </c>
       <c r="H56" s="84">
         <v>30</v>
@@ -13908,16 +13901,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="131" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="131" t="s">
         <v>332</v>
-      </c>
-      <c r="C57" s="131" t="s">
-        <v>333</v>
-      </c>
-      <c r="D57" s="131" t="s">
-        <v>334</v>
-      </c>
-      <c r="E57" s="131" t="s">
-        <v>335</v>
       </c>
       <c r="H57" s="84">
         <v>31</v>
@@ -13937,16 +13930,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="131" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" s="131" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="131" t="s">
+        <v>335</v>
+      </c>
+      <c r="E58" s="131" t="s">
         <v>336</v>
-      </c>
-      <c r="C58" s="131" t="s">
-        <v>337</v>
-      </c>
-      <c r="D58" s="131" t="s">
-        <v>338</v>
-      </c>
-      <c r="E58" s="131" t="s">
-        <v>339</v>
       </c>
       <c r="H58" s="84">
         <v>32</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04473B4E-A490-44C0-81F1-5C40A7B0003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8CAD3-8829-4A38-87B0-08E309938A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="421">
   <si>
     <t>步骤</t>
   </si>
@@ -585,18 +585,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>t_cov_vl_H_T</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(0,1) = vt(1,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(0,2) = vt(2,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>cov_l/K(0,1) = 0</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -604,14 +592,6 @@
     <t>cov_l/K(0,2) = 0</t>
   </si>
   <si>
-    <t>cov_vl_H_T(7,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(7,2)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>cov_l/K(7,1)</t>
   </si>
   <si>
@@ -626,25 +606,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>cov_vl_H_T(1,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(1,2)</t>
-  </si>
-  <si>
     <t>cov_l/K(1,1)</t>
   </si>
   <si>
     <t>cov_l/K(1,2)</t>
-  </si>
-  <si>
-    <t>cov_vl_H_T(6,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(6,2)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>cov_l/K(6,1)</t>
@@ -657,25 +622,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>cov_vl_H_T(2,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(2,2)</t>
-  </si>
-  <si>
     <t>cov_l/K(2,1)</t>
   </si>
   <si>
     <t>cov_l/K(2,2)</t>
-  </si>
-  <si>
-    <t>cov_vl_H_T(5,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(5,2)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>cov_l/K(5,1)</t>
@@ -694,14 +644,6 @@
     <t>cov_l/K(3,2)</t>
   </si>
   <si>
-    <t>cov_vl_H_T(4,1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vl_H_T(4,2)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>cov_l/K(4,1)</t>
   </si>
   <si>
@@ -1337,10 +1279,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>(3+2n * 3)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>S, S_inv为对称 可转置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1439,14 +1377,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>cov_mm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cov_vm</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>(3 * 3)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1488,6 +1418,61 @@
   </si>
   <si>
     <t>F_cov</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_mv</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2n * 3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov_HT</t>
+  </si>
+  <si>
+    <t>cov_HT(7,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(7,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(1,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(1,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(6,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(6,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(2,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(2,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(5,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(5,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(4,1)</t>
+  </si>
+  <si>
+    <t>cov_HT(4,2)</t>
+  </si>
+  <si>
+    <t>cov_HT(0,1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT(0,2)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3486,9 +3471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3816,7 +3801,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3841,7 +3826,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3860,14 +3845,14 @@
     <row r="16" spans="1:19" ht="36" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="40" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C16" s="149" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="41" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3968,7 +3953,7 @@
     <row r="20" spans="1:19" ht="38.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="42" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>19</v>
@@ -3977,7 +3962,7 @@
         <v>81</v>
       </c>
       <c r="E20" s="149" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -4150,7 +4135,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -4337,7 +4322,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="149" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="51" t="s">
@@ -4535,7 +4520,7 @@
         <v>119</v>
       </c>
       <c r="F41" s="74" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G41" s="74"/>
       <c r="H41" s="74"/>
@@ -5163,7 +5148,7 @@
         <v>84</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
@@ -5184,7 +5169,7 @@
         <v>105</v>
       </c>
       <c r="B66" s="150" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>73</v>
@@ -5209,7 +5194,7 @@
     <row r="67" spans="1:19">
       <c r="A67" s="8"/>
       <c r="B67" s="34" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>72</v>
@@ -5237,7 +5222,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="31"/>
@@ -5261,7 +5246,7 @@
         <v>106</v>
       </c>
       <c r="B69" s="150" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>73</v>
@@ -5286,7 +5271,7 @@
     <row r="70" spans="1:19">
       <c r="A70" s="8"/>
       <c r="B70" s="34" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>72</v>
@@ -5314,7 +5299,7 @@
         <v>85</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="157"/>
@@ -5391,7 +5376,7 @@
         <v>83</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="153"/>
@@ -5412,7 +5397,7 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="8" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B75" s="158" t="s">
         <v>76</v>
@@ -5422,7 +5407,7 @@
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="49" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="28"/>
@@ -5472,7 +5457,7 @@
         <v>83</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="31" t="s">
@@ -5498,7 +5483,7 @@
         <v>108</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="59" t="s">
@@ -5522,7 +5507,7 @@
     <row r="79" spans="1:19">
       <c r="A79" s="8"/>
       <c r="B79" s="31" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="8" t="s">
@@ -5550,7 +5535,7 @@
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F80" s="172"/>
       <c r="G80" s="28"/>
@@ -5584,7 +5569,7 @@
         <v>58</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -5603,7 +5588,7 @@
     <row r="82" spans="1:19">
       <c r="A82" s="8"/>
       <c r="B82" s="17" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>55</v>
@@ -5635,7 +5620,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>83</v>
@@ -5659,7 +5644,7 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="8" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>58</v>
@@ -5736,7 +5721,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="8" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>120</v>
@@ -5776,7 +5761,7 @@
         <v>56</v>
       </c>
       <c r="F88" s="74" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5805,7 +5790,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -5999,7 +5984,7 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="72" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B96" s="75" t="s">
         <v>60</v>
@@ -6034,7 +6019,7 @@
         <v>69</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>70</v>
@@ -6072,7 +6057,7 @@
         <v>86</v>
       </c>
       <c r="F98" s="73" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -9820,7 +9805,7 @@
         <v>81</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="I1" s="84" t="s">
         <v>80</v>
@@ -9831,7 +9816,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D2" s="115"/>
       <c r="E2" s="116" t="s">
@@ -10113,7 +10098,7 @@
         <v>142</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D20" s="115" t="s">
         <v>139</v>
@@ -10130,7 +10115,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D21" s="120" t="s">
         <v>134</v>
@@ -10175,8 +10160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10187,14 +10172,16 @@
     <col min="37" max="37" width="9.1328125" customWidth="1"/>
     <col min="38" max="38" width="8.796875" customWidth="1"/>
     <col min="39" max="39" width="7" customWidth="1"/>
-    <col min="40" max="40" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" thickBot="1">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -10343,7 +10330,7 @@
       <c r="F2" s="87"/>
       <c r="G2" s="87"/>
       <c r="H2" s="89" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="91"/>
@@ -10355,20 +10342,20 @@
       <c r="O2" s="90"/>
       <c r="P2" s="90"/>
       <c r="Q2" s="89" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="R2" s="90"/>
       <c r="S2" s="92">
         <v>5</v>
       </c>
       <c r="T2" s="93" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="U2" s="92">
         <v>4</v>
       </c>
       <c r="V2" s="89" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="W2" s="91"/>
       <c r="X2" s="89" t="s">
@@ -10380,7 +10367,7 @@
       </c>
       <c r="AA2" s="91"/>
       <c r="AB2" s="95" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AC2" s="96">
         <v>-3</v>
@@ -10389,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="95" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AF2" s="96">
         <v>3</v>
@@ -10399,47 +10386,47 @@
       </c>
       <c r="AH2" s="91"/>
       <c r="AI2" s="89" t="s">
-        <v>153</v>
+        <v>406</v>
       </c>
       <c r="AJ2" s="90"/>
       <c r="AK2" s="90"/>
       <c r="AL2" s="90"/>
       <c r="AM2" s="90"/>
       <c r="AN2" s="167" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO2" s="168" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP2" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="AO2" s="168" t="s">
+      <c r="AR2" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS2" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="AT2" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="AP2" s="89" t="s">
+      <c r="AU2" s="91" t="s">
         <v>156</v>
-      </c>
-      <c r="AQ2" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR2" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS2" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT2" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU2" s="91" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="14.25" thickBot="1">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="98">
         <v>1</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="100"/>
       <c r="F3" s="98">
@@ -10503,33 +10490,33 @@
       <c r="AL3" s="104"/>
       <c r="AM3" s="104"/>
       <c r="AN3" s="100" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="AO3" s="102" t="s">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="AP3" s="100" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AQ3" s="102" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AR3" s="100" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="AS3" s="102" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="AT3" s="100" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AU3" s="102" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
@@ -10540,7 +10527,7 @@
         <v>147</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G4" s="111">
         <v>1</v>
@@ -10577,33 +10564,33 @@
       <c r="AG4" s="112"/>
       <c r="AH4" s="112"/>
       <c r="AN4" s="100" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="AO4" s="102" t="s">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AP4" s="100" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AQ4" s="102" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AR4" s="100" t="s">
-        <v>177</v>
+        <v>415</v>
       </c>
       <c r="AS4" s="102" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="AT4" s="100" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AU4" s="102" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E5" s="110"/>
       <c r="F5" s="111"/>
@@ -10630,38 +10617,38 @@
       <c r="AG5" s="112"/>
       <c r="AH5" s="112"/>
       <c r="AN5" s="169" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AO5" s="170" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="AP5" s="103" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AQ5" s="107" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AR5" s="103" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
       <c r="AS5" s="107" t="s">
-        <v>185</v>
+        <v>418</v>
       </c>
       <c r="AT5" s="103" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="AU5" s="107" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
       <c r="B6" s="186" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C6" s="187"/>
       <c r="D6" s="188"/>
       <c r="E6" s="186" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F6" s="187"/>
       <c r="G6" s="188"/>
@@ -10676,7 +10663,7 @@
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
       <c r="B7" s="186" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C7" s="187"/>
       <c r="D7" s="187"/>
@@ -10693,7 +10680,7 @@
       <c r="O7" s="187"/>
       <c r="P7" s="188"/>
       <c r="Q7" s="186" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="R7" s="187"/>
       <c r="S7" s="187"/>
@@ -10706,7 +10693,7 @@
       <c r="Z7" s="187"/>
       <c r="AA7" s="188"/>
       <c r="AB7" s="186" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AC7" s="187"/>
       <c r="AD7" s="187"/>
@@ -10730,10 +10717,10 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AM9" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -10741,7 +10728,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -10751,7 +10738,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="AB15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -10774,7 +10761,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10784,31 +10771,31 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" thickBot="1">
       <c r="A1" s="132" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B1" s="132" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C1" s="132" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D1" s="132" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E1" s="132" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G1" s="132" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H1" s="132" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I1" s="132" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="M1" s="191"/>
       <c r="N1" s="191"/>
@@ -10822,13 +10809,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D2" s="134" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E2" s="135"/>
       <c r="G2" s="133">
@@ -10853,13 +10840,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="136" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E3" s="138"/>
       <c r="G3" s="136">
@@ -10884,13 +10871,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="139" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E4" s="140"/>
       <c r="G4" s="139">
@@ -10915,13 +10902,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="159" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D5" s="160" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E5" s="143"/>
       <c r="G5" s="141">
@@ -10946,16 +10933,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E6" s="163" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G6" s="133">
         <v>1</v>
@@ -10976,16 +10963,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G7" s="136">
         <v>2</v>
@@ -11006,16 +10993,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D8" s="137" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G8" s="139">
         <v>3</v>
@@ -11035,16 +11022,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C9" s="165" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D9" s="165" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E9" s="166" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G9" s="146">
         <v>0</v>
@@ -11064,16 +11051,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D10" s="137" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E10" s="144" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G10" s="133">
         <v>4</v>
@@ -11093,16 +11080,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="139" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C11" s="137" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E11" s="144" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G11" s="136">
         <v>5</v>
@@ -11122,16 +11109,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E12" s="144" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G12" s="139">
         <v>6</v>
@@ -11151,16 +11138,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E13" s="145" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G13" s="146">
         <v>7</v>
@@ -11180,16 +11167,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="161" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C14" s="162" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D14" s="162" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E14" s="163" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G14" s="133">
         <v>8</v>
@@ -11209,16 +11196,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="139" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E15" s="144" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G15" s="136">
         <v>9</v>
@@ -11238,16 +11225,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E16" s="144" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G16" s="139">
         <v>10</v>
@@ -11267,16 +11254,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="164" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C17" s="165" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D17" s="165" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E17" s="166" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G17" s="146">
         <v>11</v>
@@ -11296,16 +11283,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D18" s="137" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E18" s="144" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G18" s="133">
         <v>12</v>
@@ -11325,16 +11312,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="139" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C19" s="137" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D19" s="137" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G19" s="136">
         <v>13</v>
@@ -11354,16 +11341,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C20" s="137" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E20" s="144" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G20" s="139">
         <v>14</v>
@@ -11383,16 +11370,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="141" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E21" s="145" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G21" s="146">
         <v>15</v>
@@ -11412,16 +11399,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="136" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C22" s="137" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D22" s="137" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E22" s="144" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G22" s="133">
         <v>16</v>
@@ -11441,16 +11428,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="139" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E23" s="144" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G23" s="136">
         <v>17</v>
@@ -11470,16 +11457,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D24" s="137" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E24" s="144" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G24" s="139">
         <v>18</v>
@@ -11499,16 +11486,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E25" s="145" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G25" s="146">
         <v>19</v>
@@ -11528,16 +11515,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="161" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C26" s="162" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D26" s="162" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E26" s="163" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G26" s="133">
         <v>20</v>
@@ -11557,16 +11544,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="139" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E27" s="144" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="G27" s="136">
         <v>21</v>
@@ -11586,16 +11573,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E28" s="144" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G28" s="139">
         <v>22</v>
@@ -11615,16 +11602,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C29" s="165" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D29" s="165" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G29" s="146">
         <v>23</v>
@@ -11644,16 +11631,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D30" s="137" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E30" s="144" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G30" s="133">
         <v>24</v>
@@ -11673,16 +11660,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="139" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E31" s="144" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G31" s="136">
         <v>25</v>
@@ -11702,16 +11689,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="136" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E32" s="144" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G32" s="139">
         <v>26</v>
@@ -11731,16 +11718,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="141" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D33" s="142" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E33" s="145" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G33" s="146">
         <v>27</v>
@@ -11760,16 +11747,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="136" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C34" s="137" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D34" s="137" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E34" s="144" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G34" s="133">
         <v>28</v>
@@ -11789,16 +11776,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="139" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E35" s="144" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G35" s="136">
         <v>29</v>
@@ -11818,16 +11805,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C36" s="137" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E36" s="144" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G36" s="139">
         <v>30</v>
@@ -11847,16 +11834,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="141" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D37" s="142" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E37" s="145" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G37" s="146">
         <v>31</v>
@@ -11876,16 +11863,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="136" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C38" s="137" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D38" s="137" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E38" s="144" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="G38" s="133">
         <v>32</v>
@@ -11905,16 +11892,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="139" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C39" s="137" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D39" s="137" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E39" s="144" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G39" s="136">
         <v>33</v>
@@ -11934,16 +11921,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D40" s="137" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E40" s="144" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="G40" s="139">
         <v>34</v>
@@ -11963,16 +11950,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="141" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D41" s="142" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E41" s="145" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="G41" s="146">
         <v>35</v>
@@ -12059,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="118" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D2" s="120"/>
       <c r="E2" s="120"/>
@@ -12080,13 +12067,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E3" s="120"/>
       <c r="F3" s="120"/>
@@ -12103,16 +12090,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E4" s="119" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="120"/>
@@ -12128,19 +12115,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
@@ -12155,22 +12142,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G6" s="119" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H6" s="120"/>
       <c r="I6" s="120"/>
@@ -12184,25 +12171,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H7" s="119" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="I7" s="120"/>
       <c r="J7" s="120"/>
@@ -12215,28 +12202,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G8" s="119" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H8" s="119" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
@@ -12248,31 +12235,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E9" s="119" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F9" s="119" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G9" s="119" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H9" s="119" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I9" s="119" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J9" s="119" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
@@ -12283,34 +12270,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E10" s="119" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F10" s="119" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H10" s="119" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I10" s="119" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J10" s="119" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="K10" s="119" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="L10" s="120"/>
       <c r="M10" s="121"/>
@@ -12320,37 +12307,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F11" s="119" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G11" s="119" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H11" s="119" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="J11" s="119" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K11" s="119" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M11" s="121"/>
     </row>
@@ -12359,40 +12346,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C12" s="124" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G12" s="124" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H12" s="124" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I12" s="124" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="K12" s="124" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="L12" s="124" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -12401,280 +12388,280 @@
       </c>
       <c r="B14" s="127"/>
       <c r="C14" s="128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="129" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="M14" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" s="129" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="129" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="R14" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="S14" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="129" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="129" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="N14" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="O14" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="P14" s="129" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="R14" s="129" t="s">
-        <v>239</v>
-      </c>
-      <c r="S14" s="129" t="s">
-        <v>240</v>
-      </c>
       <c r="T14" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="U14" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="V14" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="W14" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B15" s="128" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D15" s="128" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E15" s="129" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F15" s="129" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G15" s="129" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H15" s="129" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="I15" s="129" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="K15" s="128" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L15" s="129" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="M15" s="129" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="O15" s="129" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P15" s="129" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="129" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="R15" s="129" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="S15" s="129" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="T15" s="129" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="U15" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="V15" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="W15" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B16" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="I16" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="J16" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="129" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="129" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J16" s="129" t="s">
-        <v>216</v>
-      </c>
       <c r="K16" s="128" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="L16" s="129" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="M16" s="129" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="O16" s="129" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="P16" s="129" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="129" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="R16" s="129" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="S16" s="129" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="U16" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="V16" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="T16" s="129" t="s">
-        <v>260</v>
-      </c>
-      <c r="U16" s="129" t="s">
-        <v>261</v>
-      </c>
-      <c r="V16" s="84" t="s">
-        <v>274</v>
-      </c>
       <c r="W16" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B17" s="128" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D17" s="129" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E17" s="129" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F17" s="128" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G17" s="129" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H17" s="129" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I17" s="129" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J17" s="129" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K17" s="128" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L17" s="129" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M17" s="129" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="O17" s="130" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="P17" s="129" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="129" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="R17" s="129" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="S17" s="129" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="T17" s="129" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="U17" s="129" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="V17" s="129" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="W17" s="84" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -12682,202 +12669,202 @@
         <v>146</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E19" s="129" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F19" s="129" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G19" s="129" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H19" s="129" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I19" s="129" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="J19" s="129" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B20" s="128" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E20" s="129" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F20" s="129" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G20" s="129" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H20" s="129" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I20" s="129" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J20" s="129" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="K20" s="129" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B21" s="128" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C21" s="129" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E21" s="129" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F21" s="129" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G21" s="129" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H21" s="129" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I21" s="129" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="J21" s="129" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K21" s="129" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L21" s="129" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B22" s="128" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C22" s="129" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D22" s="129" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E22" s="129" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G22" s="129" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H22" s="129" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I22" s="129" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="J22" s="129" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="K22" s="129" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="L22" s="129" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="M22" s="129" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="84" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B24" s="84" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H24" s="84" t="s">
         <v>146</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="84" t="s">
         <v>146</v>
       </c>
       <c r="R24" s="128"/>
       <c r="S24" s="131" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="T24" s="129" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="U24" s="129" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="V24" s="129" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="W24" s="129" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="X24" s="129" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Y24" s="129" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="Z24" s="129" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -12886,13 +12873,13 @@
       </c>
       <c r="B25" s="127"/>
       <c r="C25" s="128" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D25" s="128" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E25" s="128" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H25" s="84">
         <v>0</v>
@@ -12907,34 +12894,34 @@
         <v>0</v>
       </c>
       <c r="Q25" s="84" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R25" s="128" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="S25" s="173" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="T25" s="131" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="U25" s="129" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="V25" s="129" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="W25" s="129" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="X25" s="129" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Y25" s="129" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="Z25" s="129" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -12942,16 +12929,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="128" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C26" s="129" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D26" s="129" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E26" s="129" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H26" s="84">
         <v>0</v>
@@ -12966,34 +12953,34 @@
         <v>0</v>
       </c>
       <c r="Q26" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R26" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="S26" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="T26" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="U26" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="V26" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="W26" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="X26" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="S26" s="173" t="s">
+      <c r="Y26" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="T26" s="173" t="s">
+      <c r="Z26" s="129" t="s">
         <v>201</v>
-      </c>
-      <c r="U26" s="131" t="s">
-        <v>211</v>
-      </c>
-      <c r="V26" s="129" t="s">
-        <v>212</v>
-      </c>
-      <c r="W26" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="X26" s="129" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y26" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z26" s="129" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -13001,16 +12988,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="129" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D27" s="129" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E27" s="129" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H27" s="84">
         <v>1</v>
@@ -13025,34 +13012,34 @@
         <v>0</v>
       </c>
       <c r="Q27" s="84" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="R27" s="128" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="S27" s="173" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="T27" s="173" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="U27" s="173" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="V27" s="131" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="W27" s="129" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="X27" s="129" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="Y27" s="129" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Z27" s="129" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -13060,16 +13047,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="129" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C28" s="129" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E28" s="129" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H28" s="84">
         <v>2</v>
@@ -13089,16 +13076,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="129" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C29" s="129" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D29" s="129" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E29" s="128" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H29" s="84">
         <v>3</v>
@@ -13118,16 +13105,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="129" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C30" s="129" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D30" s="129" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E30" s="129" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H30" s="84">
         <v>4</v>
@@ -13147,16 +13134,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="129" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C31" s="129" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D31" s="129" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E31" s="129" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H31" s="84">
         <v>5</v>
@@ -13176,16 +13163,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="129" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C32" s="129" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D32" s="129" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E32" s="129" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H32" s="84">
         <v>6</v>
@@ -13205,16 +13192,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="129" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C33" s="129" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D33" s="129" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E33" s="129" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H33" s="84">
         <v>7</v>
@@ -13234,16 +13221,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="128" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D34" s="128" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E34" s="128" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H34" s="84">
         <v>8</v>
@@ -13263,16 +13250,16 @@
         <v>10</v>
       </c>
       <c r="B35" s="129" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C35" s="129" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D35" s="129" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E35" s="129" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H35" s="84">
         <v>9</v>
@@ -13292,16 +13279,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C36" s="129" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D36" s="129" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E36" s="129" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H36" s="84">
         <v>10</v>
@@ -13321,16 +13308,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="129" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C37" s="129" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D37" s="129" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E37" s="129" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H37" s="84">
         <v>11</v>
@@ -13350,16 +13337,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C38" s="129" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D38" s="129" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E38" s="129" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H38" s="84">
         <v>12</v>
@@ -13379,16 +13366,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="129" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C39" s="129" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D39" s="129" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E39" s="129" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H39" s="84">
         <v>13</v>
@@ -13408,16 +13395,16 @@
         <v>15</v>
       </c>
       <c r="B40" s="129" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C40" s="129" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D40" s="129" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E40" s="129" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H40" s="84">
         <v>14</v>
@@ -13437,16 +13424,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="129" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C41" s="129" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D41" s="129" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E41" s="129" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H41" s="84">
         <v>15</v>
@@ -13466,16 +13453,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="129" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C42" s="129" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D42" s="129" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E42" s="129" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H42" s="84">
         <v>16</v>
@@ -13495,16 +13482,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C43" s="129" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D43" s="129" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E43" s="129" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H43" s="84">
         <v>17</v>
@@ -13524,16 +13511,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="131" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C44" s="128" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D44" s="129" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E44" s="129" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H44" s="84">
         <v>18</v>
@@ -13553,16 +13540,16 @@
         <v>20</v>
       </c>
       <c r="B45" s="131" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C45" s="131" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D45" s="128" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E45" s="129" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="H45" s="84">
         <v>19</v>
@@ -13582,16 +13569,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="131" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E46" s="128" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="H46" s="84">
         <v>20</v>
@@ -13611,16 +13598,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C47" s="131" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D47" s="131" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E47" s="131" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H47" s="84">
         <v>21</v>
@@ -13640,16 +13627,16 @@
         <v>23</v>
       </c>
       <c r="B48" s="131" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C48" s="131" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D48" s="131" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E48" s="131" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H48" s="84">
         <v>22</v>
@@ -13669,16 +13656,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="131" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C49" s="131" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D49" s="131" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E49" s="131" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="H49" s="84">
         <v>23</v>
@@ -13698,16 +13685,16 @@
         <v>25</v>
       </c>
       <c r="B50" s="131" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C50" s="131" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D50" s="131" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E50" s="131" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H50" s="84">
         <v>24</v>
@@ -13727,16 +13714,16 @@
         <v>26</v>
       </c>
       <c r="B51" s="131" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C51" s="131" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D51" s="131" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E51" s="131" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H51" s="84">
         <v>25</v>
@@ -13756,16 +13743,16 @@
         <v>27</v>
       </c>
       <c r="B52" s="131" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C52" s="131" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D52" s="131" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E52" s="131" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H52" s="84">
         <v>26</v>
@@ -13785,16 +13772,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="131" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D53" s="131" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E53" s="131" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H53" s="84">
         <v>27</v>
@@ -13814,16 +13801,16 @@
         <v>29</v>
       </c>
       <c r="B54" s="131" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C54" s="131" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D54" s="131" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E54" s="131" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H54" s="84">
         <v>28</v>
@@ -13843,16 +13830,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="131" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C55" s="131" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D55" s="131" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E55" s="131" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H55" s="84">
         <v>29</v>
@@ -13872,16 +13859,16 @@
         <v>31</v>
       </c>
       <c r="B56" s="131" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D56" s="131" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E56" s="131" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H56" s="84">
         <v>30</v>
@@ -13901,16 +13888,16 @@
         <v>32</v>
       </c>
       <c r="B57" s="131" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C57" s="131" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D57" s="131" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E57" s="131" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H57" s="84">
         <v>31</v>
@@ -13930,16 +13917,16 @@
         <v>33</v>
       </c>
       <c r="B58" s="131" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C58" s="131" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D58" s="131" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E58" s="131" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H58" s="84">
         <v>32</v>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8CAD3-8829-4A38-87B0-08E309938A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CF5FE-C7F0-47CA-90F3-CBE3FB833E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -3471,9 +3471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="30" t="s">
         <v>394</v>
@@ -5454,7 +5454,7 @@
     <row r="77" spans="1:19">
       <c r="A77" s="8"/>
       <c r="B77" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" s="30" t="s">
         <v>394</v>
@@ -10160,8 +10160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10311,6 +10311,15 @@
       </c>
       <c r="AR1">
         <v>42</v>
+      </c>
+      <c r="AS1">
+        <v>43</v>
+      </c>
+      <c r="AT1">
+        <v>44</v>
+      </c>
+      <c r="AU1">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:47">
@@ -10761,7 +10770,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B14" sqref="B14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -12016,7 +12025,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CF5FE-C7F0-47CA-90F3-CBE3FB833E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD520B-F3EE-4515-832A-047C4E7D2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3472,8 +3472,8 @@
   <dimension ref="A1:S277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -5482,7 +5482,7 @@
       <c r="A78" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="C78" s="49" t="s">
         <v>395</v>
       </c>
       <c r="D78" s="33"/>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="8"/>
-      <c r="B79" s="31" t="s">
+      <c r="C79" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D79" s="15"/>
@@ -5530,8 +5530,8 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="8"/>
-      <c r="B80" s="31" t="s">
-        <v>83</v>
+      <c r="C80" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="30" t="s">
@@ -5646,10 +5646,9 @@
       <c r="A84" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="C84" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="46" t="s">
         <v>59</v>
@@ -5671,10 +5670,9 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="8"/>
-      <c r="B85" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="18" t="s">
         <v>41</v>
@@ -5696,10 +5694,9 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="8"/>
-      <c r="B86" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="18" t="s">
         <v>84</v>
@@ -10770,7 +10767,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E16"/>
+      <selection activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD520B-F3EE-4515-832A-047C4E7D2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E85CC7-547B-4BEF-AA16-7F0AABC209FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2142,7 +2142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2719,6 +2719,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3472,8 +3475,8 @@
   <dimension ref="A1:S277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -5141,11 +5144,11 @@
         <v>86</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="30"/>
       <c r="E65" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="30" t="s">
         <v>394</v>
@@ -5482,7 +5485,7 @@
       <c r="A78" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="B78" s="49" t="s">
         <v>395</v>
       </c>
       <c r="D78" s="33"/>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="8"/>
-      <c r="C79" s="31" t="s">
+      <c r="B79" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D79" s="15"/>
@@ -5530,8 +5533,8 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="8"/>
-      <c r="C80" s="31" t="s">
-        <v>84</v>
+      <c r="B80" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="30" t="s">
@@ -5646,11 +5649,11 @@
       <c r="A84" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="B84" s="45" t="s">
         <v>58</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="194" t="s">
         <v>59</v>
       </c>
       <c r="F84" s="3"/>
@@ -5670,7 +5673,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="8"/>
-      <c r="C85" s="17" t="s">
+      <c r="B85" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D85" s="8"/>
@@ -5694,12 +5697,12 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="8"/>
-      <c r="C86" s="17" t="s">
-        <v>84</v>
+      <c r="B86" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="18" t="s">
-        <v>84</v>
+      <c r="E86" s="30" t="s">
+        <v>394</v>
       </c>
       <c r="F86" s="27"/>
       <c r="G86" s="2"/>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E85CC7-547B-4BEF-AA16-7F0AABC209FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D105DBC-F832-4B41-81AC-D8D7077A63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
@@ -3474,9 +3474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10160,7 +10160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AQ1" sqref="AQ1:AU1"/>
     </sheetView>
   </sheetViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D105DBC-F832-4B41-81AC-D8D7077A63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CBAA9-E274-4144-BD69-3907387F3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
     <sheet name="数据关联" sheetId="3" r:id="rId2"/>
     <sheet name="TEMP_BANK" sheetId="4" r:id="rId3"/>
     <sheet name="COV_BANK" sheetId="6" r:id="rId4"/>
-    <sheet name="(old)COV_BANK" sheetId="5" r:id="rId5"/>
+    <sheet name="COV_example" sheetId="7" r:id="rId5"/>
+    <sheet name="(old)COV_BANK" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="425">
   <si>
     <t>步骤</t>
   </si>
@@ -1475,12 +1476,29 @@
     <t>cov_HT(0,2)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>hat_state</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat_sigma</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK2</t>
+  </si>
+  <si>
+    <t>BANK3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1568,6 +1586,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1679,7 +1713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2136,13 +2170,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2691,6 +2736,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,17 +2769,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5653,7 +5737,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="194" t="s">
+      <c r="E84" s="187" t="s">
         <v>59</v>
       </c>
       <c r="F84" s="3"/>
@@ -6096,11 +6180,11 @@
     </row>
     <row r="100" spans="1:19" ht="14.25" thickBot="1">
       <c r="A100" s="9"/>
-      <c r="B100" s="184" t="s">
+      <c r="B100" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="185"/>
-      <c r="D100" s="185"/>
+      <c r="C100" s="189"/>
+      <c r="D100" s="189"/>
       <c r="E100" s="64" t="s">
         <v>100</v>
       </c>
@@ -10160,7 +10244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE525808-D087-4D79-9C47-22478BDACE0A}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AQ1" sqref="AQ1:AU1"/>
     </sheetView>
   </sheetViews>
@@ -10651,75 +10735,75 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="190" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="186" t="s">
+      <c r="C6" s="191"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190" t="s">
+      <c r="F6" s="191"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="190" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="186" t="s">
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="187"/>
-      <c r="Z7" s="187"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="186" t="s">
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="192"/>
+      <c r="AB7" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="AC7" s="187"/>
-      <c r="AD7" s="187"/>
-      <c r="AE7" s="187"/>
-      <c r="AF7" s="187"/>
-      <c r="AG7" s="187"/>
-      <c r="AH7" s="187"/>
-      <c r="AI7" s="187"/>
-      <c r="AJ7" s="187"/>
-      <c r="AK7" s="187"/>
-      <c r="AL7" s="187"/>
-      <c r="AM7" s="187"/>
-      <c r="AN7" s="187"/>
-      <c r="AO7" s="187"/>
-      <c r="AP7" s="187"/>
-      <c r="AQ7" s="187"/>
-      <c r="AR7" s="188"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="191"/>
+      <c r="AF7" s="191"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="191"/>
+      <c r="AK7" s="191"/>
+      <c r="AL7" s="191"/>
+      <c r="AM7" s="191"/>
+      <c r="AN7" s="191"/>
+      <c r="AO7" s="191"/>
+      <c r="AP7" s="191"/>
+      <c r="AQ7" s="191"/>
+      <c r="AR7" s="192"/>
     </row>
     <row r="9" spans="1:47">
       <c r="E9" s="39"/>
@@ -10770,7 +10854,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C21"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -10806,12 +10890,12 @@
       <c r="J1" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="132">
@@ -10837,12 +10921,12 @@
         <v>0</v>
       </c>
       <c r="J2" s="135"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="191"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="184"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="132">
@@ -10868,12 +10952,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="138"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="191"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="184"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="132">
@@ -10899,12 +10983,12 @@
         <v>1</v>
       </c>
       <c r="J4" s="140"/>
-      <c r="M4" s="191"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="137"/>
       <c r="O4" s="137"/>
       <c r="P4" s="137"/>
       <c r="Q4" s="137"/>
-      <c r="R4" s="191"/>
+      <c r="R4" s="184"/>
     </row>
     <row r="5" spans="1:18" ht="14.25" thickBot="1">
       <c r="A5" s="132">
@@ -10930,12 +11014,12 @@
         <v>4</v>
       </c>
       <c r="J5" s="143"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="192"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="185"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
       <c r="Q5" s="137"/>
-      <c r="R5" s="191"/>
+      <c r="R5" s="184"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="132">
@@ -10965,7 +11049,7 @@
       <c r="J6" s="133">
         <v>1</v>
       </c>
-      <c r="Q6" s="193"/>
+      <c r="Q6" s="186"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="132">
@@ -10995,7 +11079,7 @@
       <c r="J7" s="136">
         <v>2</v>
       </c>
-      <c r="Q7" s="193"/>
+      <c r="Q7" s="186"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="132">
@@ -12021,6 +12105,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC085BC2-4F5E-4FDE-A992-D60BF52E4672}">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="25" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15">
+      <c r="B1" s="205" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" thickBot="1">
+      <c r="B2" s="100">
+        <v>0</v>
+      </c>
+      <c r="C2" s="101">
+        <v>1</v>
+      </c>
+      <c r="D2" s="101">
+        <v>2</v>
+      </c>
+      <c r="E2" s="112">
+        <v>3</v>
+      </c>
+      <c r="F2" s="100">
+        <v>4</v>
+      </c>
+      <c r="G2" s="101">
+        <v>5</v>
+      </c>
+      <c r="H2" s="101">
+        <v>6</v>
+      </c>
+      <c r="I2" s="112">
+        <v>7</v>
+      </c>
+      <c r="J2" s="101">
+        <v>8</v>
+      </c>
+      <c r="K2" s="101">
+        <v>9</v>
+      </c>
+      <c r="L2" s="101">
+        <v>10</v>
+      </c>
+      <c r="M2" s="112">
+        <v>11</v>
+      </c>
+      <c r="N2" s="100">
+        <v>12</v>
+      </c>
+      <c r="O2" s="101">
+        <v>13</v>
+      </c>
+      <c r="P2" s="101">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="112">
+        <v>15</v>
+      </c>
+      <c r="R2" s="101">
+        <v>16</v>
+      </c>
+      <c r="S2" s="101">
+        <v>17</v>
+      </c>
+      <c r="T2" s="101">
+        <v>18</v>
+      </c>
+      <c r="U2" s="101">
+        <v>19</v>
+      </c>
+      <c r="V2" s="101">
+        <v>20</v>
+      </c>
+      <c r="W2" s="101">
+        <v>21</v>
+      </c>
+      <c r="X2" s="101">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="207">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="195">
+        <v>2.57066E-2</v>
+      </c>
+      <c r="C3" s="196">
+        <v>-1.43443E-3</v>
+      </c>
+      <c r="D3" s="196">
+        <v>1.14122E-4</v>
+      </c>
+      <c r="E3" s="197">
+        <v>1.52742E-16</v>
+      </c>
+      <c r="F3" s="195">
+        <v>1.66695E-2</v>
+      </c>
+      <c r="G3" s="196">
+        <v>-8.4224400000000002E-4</v>
+      </c>
+      <c r="H3" s="196">
+        <v>6.2616699999999996E-4</v>
+      </c>
+      <c r="I3" s="197">
+        <v>20.434100000000001</v>
+      </c>
+      <c r="J3" s="195">
+        <v>0.14232700000000001</v>
+      </c>
+      <c r="K3" s="196">
+        <v>9.18929E-2</v>
+      </c>
+      <c r="L3" s="196">
+        <v>1.10495E-2</v>
+      </c>
+      <c r="M3" s="197">
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="N3" s="195">
+        <v>1.60701E-2</v>
+      </c>
+      <c r="O3" s="196">
+        <v>2.8933600000000001E-4</v>
+      </c>
+      <c r="P3" s="196">
+        <v>-4.5249000000000001E-3</v>
+      </c>
+      <c r="Q3" s="197">
+        <v>27.1313</v>
+      </c>
+      <c r="R3" s="196">
+        <v>7.9215699999999993E-3</v>
+      </c>
+      <c r="S3" s="196">
+        <v>-6.7892999999999995E-2</v>
+      </c>
+      <c r="T3" s="196">
+        <v>1.95199E-2</v>
+      </c>
+      <c r="U3" s="197">
+        <v>-9.8136500000000002E-2</v>
+      </c>
+      <c r="V3" s="195">
+        <v>0.48695500000000003</v>
+      </c>
+      <c r="W3" s="196">
+        <v>-1.0168200000000001</v>
+      </c>
+      <c r="X3" s="196">
+        <v>2.8707E-2</v>
+      </c>
+      <c r="Y3" s="197">
+        <v>-3.8772599999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="199">
+        <v>-1.43443E-3</v>
+      </c>
+      <c r="C4" s="200">
+        <v>2.8123499999999999E-2</v>
+      </c>
+      <c r="D4" s="200">
+        <v>-2.1550399999999999E-4</v>
+      </c>
+      <c r="E4" s="204">
+        <v>-8.6733400000000004E-18</v>
+      </c>
+      <c r="F4" s="199">
+        <v>4.4881700000000001E-4</v>
+      </c>
+      <c r="G4" s="200">
+        <v>1.5610000000000001E-2</v>
+      </c>
+      <c r="H4" s="200">
+        <v>9.9144799999999998E-3</v>
+      </c>
+      <c r="I4" s="204">
+        <v>-1.1603399999999999</v>
+      </c>
+      <c r="J4" s="199">
+        <v>9.18929E-2</v>
+      </c>
+      <c r="K4" s="200">
+        <v>1.75088</v>
+      </c>
+      <c r="L4" s="200">
+        <v>-1.6714099999999999E-2</v>
+      </c>
+      <c r="M4" s="204">
+        <v>0.22678000000000001</v>
+      </c>
+      <c r="N4" s="199">
+        <v>8.3126599999999999E-4</v>
+      </c>
+      <c r="O4" s="200">
+        <v>1.48886E-2</v>
+      </c>
+      <c r="P4" s="200">
+        <v>1.3199199999999999E-2</v>
+      </c>
+      <c r="Q4" s="204">
+        <v>9.3420699999999997</v>
+      </c>
+      <c r="R4" s="200">
+        <v>1.16696E-2</v>
+      </c>
+      <c r="S4" s="200">
+        <v>0.20938100000000001</v>
+      </c>
+      <c r="T4" s="200">
+        <v>-2.2115300000000001E-2</v>
+      </c>
+      <c r="U4" s="204">
+        <v>0.29747800000000002</v>
+      </c>
+      <c r="V4" s="199">
+        <v>-1.0168200000000001</v>
+      </c>
+      <c r="W4" s="200">
+        <v>3.0904400000000001</v>
+      </c>
+      <c r="X4" s="200">
+        <v>-4.8876299999999998E-2</v>
+      </c>
+      <c r="Y4" s="204">
+        <v>0.124556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="199">
+        <v>1.14122E-4</v>
+      </c>
+      <c r="C5" s="200">
+        <v>-2.1550399999999999E-4</v>
+      </c>
+      <c r="D5" s="200">
+        <v>7.5246600000000003E-4</v>
+      </c>
+      <c r="E5" s="204">
+        <v>0.62831899999999996</v>
+      </c>
+      <c r="F5" s="199">
+        <v>1.6470700000000001E-2</v>
+      </c>
+      <c r="G5" s="200">
+        <v>-4.6690499999999999E-4</v>
+      </c>
+      <c r="H5" s="200">
+        <v>-1.0823199999999999E-3</v>
+      </c>
+      <c r="I5" s="204">
+        <v>29.517399999999999</v>
+      </c>
+      <c r="J5" s="199">
+        <v>1.10495E-2</v>
+      </c>
+      <c r="K5" s="200">
+        <v>-1.6714099999999999E-2</v>
+      </c>
+      <c r="L5" s="200">
+        <v>0.158638</v>
+      </c>
+      <c r="M5" s="204">
+        <v>-0.27535999999999999</v>
+      </c>
+      <c r="N5" s="199">
+        <v>1.63132E-2</v>
+      </c>
+      <c r="O5" s="200">
+        <v>-1.6958399999999999E-4</v>
+      </c>
+      <c r="P5" s="200">
+        <v>-2.4356099999999999E-3</v>
+      </c>
+      <c r="Q5" s="204">
+        <v>11.6883</v>
+      </c>
+      <c r="R5" s="200">
+        <v>9.8198899999999995E-3</v>
+      </c>
+      <c r="S5" s="200">
+        <v>-3.6832700000000003E-2</v>
+      </c>
+      <c r="T5" s="200">
+        <v>1.6084299999999999E-2</v>
+      </c>
+      <c r="U5" s="204">
+        <v>-5.3167600000000002E-2</v>
+      </c>
+      <c r="V5" s="199">
+        <v>2.8707E-2</v>
+      </c>
+      <c r="W5" s="200">
+        <v>-4.8876299999999998E-2</v>
+      </c>
+      <c r="X5" s="200">
+        <v>0.224522</v>
+      </c>
+      <c r="Y5" s="204">
+        <v>-0.20158300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="201">
+        <v>0</v>
+      </c>
+      <c r="C6" s="202">
+        <v>0</v>
+      </c>
+      <c r="D6" s="202">
+        <v>0</v>
+      </c>
+      <c r="E6" s="203">
+        <v>0</v>
+      </c>
+      <c r="F6" s="201">
+        <v>9.6713300000000001E-4</v>
+      </c>
+      <c r="G6" s="202">
+        <v>1.46312E-2</v>
+      </c>
+      <c r="H6" s="202">
+        <v>1.43695E-2</v>
+      </c>
+      <c r="I6" s="203">
+        <v>2.3230599999999999</v>
+      </c>
+      <c r="J6" s="201">
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="K6" s="202">
+        <v>0.22678000000000001</v>
+      </c>
+      <c r="L6" s="202">
+        <v>-0.27535999999999999</v>
+      </c>
+      <c r="M6" s="203">
+        <v>3.641</v>
+      </c>
+      <c r="N6" s="201">
+        <v>-5.01223E-5</v>
+      </c>
+      <c r="O6" s="202">
+        <v>1.6552399999999998E-2</v>
+      </c>
+      <c r="P6" s="202">
+        <v>5.6249200000000003E-3</v>
+      </c>
+      <c r="Q6" s="203">
+        <v>5.0822099999999999</v>
+      </c>
+      <c r="R6" s="202">
+        <v>4.7876000000000004E-3</v>
+      </c>
+      <c r="S6" s="202">
+        <v>9.6779500000000004E-2</v>
+      </c>
+      <c r="T6" s="202">
+        <v>-9.6602500000000004E-3</v>
+      </c>
+      <c r="U6" s="203">
+        <v>0.13445299999999999</v>
+      </c>
+      <c r="V6" s="201">
+        <v>-3.8772599999999997E-2</v>
+      </c>
+      <c r="W6" s="202">
+        <v>0.124556</v>
+      </c>
+      <c r="X6" s="202">
+        <v>-0.20158300000000001</v>
+      </c>
+      <c r="Y6" s="203">
+        <v>0.60057300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" thickBot="1"/>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="195" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="D14" s="100">
+        <v>0</v>
+      </c>
+      <c r="E14" s="101">
+        <v>1</v>
+      </c>
+      <c r="F14" s="101">
+        <v>2</v>
+      </c>
+      <c r="G14" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="198">
+        <v>1.52742E-16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="199">
+        <v>2.57066E-2</v>
+      </c>
+      <c r="E15" s="200">
+        <v>-1.43443E-3</v>
+      </c>
+      <c r="F15" s="200">
+        <v>1.14122E-4</v>
+      </c>
+      <c r="G15" s="198">
+        <v>1.52742E-16</v>
+      </c>
+      <c r="H15" s="198">
+        <v>1.66695E-2</v>
+      </c>
+      <c r="I15" s="198">
+        <v>4.4881700000000001E-4</v>
+      </c>
+      <c r="J15" s="198">
+        <v>1.6470700000000001E-2</v>
+      </c>
+      <c r="K15" s="198">
+        <v>9.6713300000000001E-4</v>
+      </c>
+      <c r="L15" s="198">
+        <v>1.60701E-2</v>
+      </c>
+      <c r="M15" s="198">
+        <v>8.3126599999999999E-4</v>
+      </c>
+      <c r="N15" s="198">
+        <v>1.63132E-2</v>
+      </c>
+      <c r="O15" s="198">
+        <v>-5.01223E-5</v>
+      </c>
+      <c r="P15" s="198">
+        <v>1.5893600000000001E-2</v>
+      </c>
+      <c r="Q15" s="198">
+        <v>4.52232E-4</v>
+      </c>
+      <c r="R15" s="198">
+        <v>1.5532199999999999E-2</v>
+      </c>
+      <c r="S15" s="198">
+        <v>1.89476E-4</v>
+      </c>
+      <c r="T15" s="198">
+        <v>1.6008399999999999E-2</v>
+      </c>
+      <c r="U15" s="198">
+        <v>-3.0460099999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="198">
+        <v>-8.6733400000000004E-18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="199">
+        <v>-1.43443E-3</v>
+      </c>
+      <c r="E16" s="200">
+        <v>2.8123499999999999E-2</v>
+      </c>
+      <c r="F16" s="200">
+        <v>-2.1550399999999999E-4</v>
+      </c>
+      <c r="G16" s="198">
+        <v>-8.6733400000000004E-18</v>
+      </c>
+      <c r="H16" s="198">
+        <v>-8.4224400000000002E-4</v>
+      </c>
+      <c r="I16" s="198">
+        <v>1.5610000000000001E-2</v>
+      </c>
+      <c r="J16" s="198">
+        <v>-4.6690499999999999E-4</v>
+      </c>
+      <c r="K16" s="198">
+        <v>1.46312E-2</v>
+      </c>
+      <c r="L16" s="198">
+        <v>2.8933600000000001E-4</v>
+      </c>
+      <c r="M16" s="198">
+        <v>1.48886E-2</v>
+      </c>
+      <c r="N16" s="198">
+        <v>-1.6958399999999999E-4</v>
+      </c>
+      <c r="O16" s="198">
+        <v>1.6552399999999998E-2</v>
+      </c>
+      <c r="P16" s="198">
+        <v>6.2245499999999995E-4</v>
+      </c>
+      <c r="Q16" s="198">
+        <v>1.5604099999999999E-2</v>
+      </c>
+      <c r="R16" s="198">
+        <v>1.3045999999999999E-3</v>
+      </c>
+      <c r="S16" s="198">
+        <v>1.6100199999999999E-2</v>
+      </c>
+      <c r="T16" s="198">
+        <v>4.05652E-4</v>
+      </c>
+      <c r="U16" s="198">
+        <v>1.7032800000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="198">
+        <v>0.62831899999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="199">
+        <v>1.14122E-4</v>
+      </c>
+      <c r="E17" s="200">
+        <v>-2.1550399999999999E-4</v>
+      </c>
+      <c r="F17" s="200">
+        <v>7.5246600000000003E-4</v>
+      </c>
+      <c r="G17" s="198">
+        <v>0.62831899999999996</v>
+      </c>
+      <c r="H17" s="198">
+        <v>6.2616699999999996E-4</v>
+      </c>
+      <c r="I17" s="198">
+        <v>9.9144799999999998E-3</v>
+      </c>
+      <c r="J17" s="198">
+        <v>-1.0823199999999999E-3</v>
+      </c>
+      <c r="K17" s="198">
+        <v>1.43695E-2</v>
+      </c>
+      <c r="L17" s="198">
+        <v>-4.5249000000000001E-3</v>
+      </c>
+      <c r="M17" s="198">
+        <v>1.3199199999999999E-2</v>
+      </c>
+      <c r="N17" s="198">
+        <v>-2.4356099999999999E-3</v>
+      </c>
+      <c r="O17" s="198">
+        <v>5.6249200000000003E-3</v>
+      </c>
+      <c r="P17" s="198">
+        <v>-6.0412199999999999E-3</v>
+      </c>
+      <c r="Q17" s="198">
+        <v>9.9418400000000004E-3</v>
+      </c>
+      <c r="R17" s="198">
+        <v>-9.1472800000000007E-3</v>
+      </c>
+      <c r="S17" s="198">
+        <v>7.6842500000000001E-3</v>
+      </c>
+      <c r="T17" s="198">
+        <v>-5.0545E-3</v>
+      </c>
+      <c r="U17" s="198">
+        <v>3.4382100000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" thickBot="1">
+      <c r="A18" s="198"/>
+      <c r="C18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D18" s="201">
+        <v>0</v>
+      </c>
+      <c r="E18" s="202">
+        <v>0</v>
+      </c>
+      <c r="F18" s="202">
+        <v>0</v>
+      </c>
+      <c r="G18" s="203">
+        <v>0</v>
+      </c>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="198"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
+      <c r="U18" s="198"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="198">
+        <v>20.434100000000001</v>
+      </c>
+      <c r="D19" s="195">
+        <v>1.66695E-2</v>
+      </c>
+      <c r="E19" s="196">
+        <v>-8.4224400000000002E-4</v>
+      </c>
+      <c r="F19" s="196">
+        <v>6.2616699999999996E-4</v>
+      </c>
+      <c r="G19" s="198">
+        <v>20.434100000000001</v>
+      </c>
+      <c r="H19" s="195">
+        <v>0.14232700000000001</v>
+      </c>
+      <c r="I19" s="196">
+        <v>9.18929E-2</v>
+      </c>
+      <c r="J19" s="196">
+        <v>1.10495E-2</v>
+      </c>
+      <c r="K19" s="197">
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="L19" s="198">
+        <v>7.9215699999999993E-3</v>
+      </c>
+      <c r="M19" s="198">
+        <v>1.16696E-2</v>
+      </c>
+      <c r="N19" s="198">
+        <v>9.8198899999999995E-3</v>
+      </c>
+      <c r="O19" s="198">
+        <v>4.7876000000000004E-3</v>
+      </c>
+      <c r="P19" s="198">
+        <v>6.5438299999999996E-3</v>
+      </c>
+      <c r="Q19" s="198">
+        <v>8.7099699999999992E-3</v>
+      </c>
+      <c r="R19" s="198">
+        <v>3.7216699999999998E-3</v>
+      </c>
+      <c r="S19" s="198">
+        <v>6.6586900000000001E-3</v>
+      </c>
+      <c r="T19" s="198">
+        <v>7.4403500000000001E-3</v>
+      </c>
+      <c r="U19" s="198">
+        <v>2.8007399999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="198">
+        <v>-1.1603399999999999</v>
+      </c>
+      <c r="D20" s="199">
+        <v>4.4881700000000001E-4</v>
+      </c>
+      <c r="E20" s="200">
+        <v>1.5610000000000001E-2</v>
+      </c>
+      <c r="F20" s="200">
+        <v>9.9144799999999998E-3</v>
+      </c>
+      <c r="G20" s="198">
+        <v>-1.1603399999999999</v>
+      </c>
+      <c r="H20" s="199">
+        <v>9.18929E-2</v>
+      </c>
+      <c r="I20" s="200">
+        <v>1.75088</v>
+      </c>
+      <c r="J20" s="200">
+        <v>-1.6714099999999999E-2</v>
+      </c>
+      <c r="K20" s="204">
+        <v>0.22678000000000001</v>
+      </c>
+      <c r="L20" s="198">
+        <v>-6.7892999999999995E-2</v>
+      </c>
+      <c r="M20" s="198">
+        <v>0.20938100000000001</v>
+      </c>
+      <c r="N20" s="198">
+        <v>-3.6832700000000003E-2</v>
+      </c>
+      <c r="O20" s="198">
+        <v>9.6779500000000004E-2</v>
+      </c>
+      <c r="P20" s="198">
+        <v>-9.0435299999999996E-2</v>
+      </c>
+      <c r="Q20" s="198">
+        <v>0.16095699999999999</v>
+      </c>
+      <c r="R20" s="198">
+        <v>-0.13661100000000001</v>
+      </c>
+      <c r="S20" s="198">
+        <v>0.12739400000000001</v>
+      </c>
+      <c r="T20" s="198">
+        <v>-7.5766299999999995E-2</v>
+      </c>
+      <c r="U20" s="198">
+        <v>6.4270900000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="198">
+        <v>29.517399999999999</v>
+      </c>
+      <c r="D21" s="199">
+        <v>1.6470700000000001E-2</v>
+      </c>
+      <c r="E21" s="200">
+        <v>-4.6690499999999999E-4</v>
+      </c>
+      <c r="F21" s="200">
+        <v>-1.0823199999999999E-3</v>
+      </c>
+      <c r="G21" s="198">
+        <v>29.517399999999999</v>
+      </c>
+      <c r="H21" s="199">
+        <v>1.10495E-2</v>
+      </c>
+      <c r="I21" s="200">
+        <v>-1.6714099999999999E-2</v>
+      </c>
+      <c r="J21" s="200">
+        <v>0.158638</v>
+      </c>
+      <c r="K21" s="204">
+        <v>-0.27535999999999999</v>
+      </c>
+      <c r="L21" s="198">
+        <v>1.95199E-2</v>
+      </c>
+      <c r="M21" s="198">
+        <v>-2.2115300000000001E-2</v>
+      </c>
+      <c r="N21" s="198">
+        <v>1.6084299999999999E-2</v>
+      </c>
+      <c r="O21" s="198">
+        <v>-9.6602500000000004E-3</v>
+      </c>
+      <c r="P21" s="198">
+        <v>2.20133E-2</v>
+      </c>
+      <c r="Q21" s="198">
+        <v>-1.6759E-2</v>
+      </c>
+      <c r="R21" s="198">
+        <v>2.7120999999999999E-2</v>
+      </c>
+      <c r="S21" s="198">
+        <v>-1.30466E-2</v>
+      </c>
+      <c r="T21" s="198">
+        <v>2.0390800000000001E-2</v>
+      </c>
+      <c r="U21" s="198">
+        <v>-6.0644399999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14.25" thickBot="1">
+      <c r="A22" s="198">
+        <v>2.3230599999999999</v>
+      </c>
+      <c r="D22" s="201">
+        <v>9.6713300000000001E-4</v>
+      </c>
+      <c r="E22" s="202">
+        <v>1.46312E-2</v>
+      </c>
+      <c r="F22" s="202">
+        <v>1.43695E-2</v>
+      </c>
+      <c r="G22" s="198">
+        <v>2.3230599999999999</v>
+      </c>
+      <c r="H22" s="201">
+        <v>1.2732800000000001E-2</v>
+      </c>
+      <c r="I22" s="202">
+        <v>0.22678000000000001</v>
+      </c>
+      <c r="J22" s="202">
+        <v>-0.27535999999999999</v>
+      </c>
+      <c r="K22" s="203">
+        <v>3.641</v>
+      </c>
+      <c r="L22" s="198">
+        <v>-9.8136500000000002E-2</v>
+      </c>
+      <c r="M22" s="198">
+        <v>0.29747800000000002</v>
+      </c>
+      <c r="N22" s="198">
+        <v>-5.3167600000000002E-2</v>
+      </c>
+      <c r="O22" s="198">
+        <v>0.13445299999999999</v>
+      </c>
+      <c r="P22" s="198">
+        <v>-0.130773</v>
+      </c>
+      <c r="Q22" s="198">
+        <v>0.22736899999999999</v>
+      </c>
+      <c r="R22" s="198">
+        <v>-0.197627</v>
+      </c>
+      <c r="S22" s="198">
+        <v>0.17877699999999999</v>
+      </c>
+      <c r="T22" s="198">
+        <v>-0.10953499999999999</v>
+      </c>
+      <c r="U22" s="198">
+        <v>8.7387500000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="198">
+        <v>27.1313</v>
+      </c>
+      <c r="D23" s="195">
+        <v>1.60701E-2</v>
+      </c>
+      <c r="E23" s="196">
+        <v>2.8933600000000001E-4</v>
+      </c>
+      <c r="F23" s="196">
+        <v>-4.5249000000000001E-3</v>
+      </c>
+      <c r="G23" s="198">
+        <v>27.1313</v>
+      </c>
+      <c r="H23" s="195">
+        <v>7.9215699999999993E-3</v>
+      </c>
+      <c r="I23" s="196">
+        <v>-6.7892999999999995E-2</v>
+      </c>
+      <c r="J23" s="196">
+        <v>1.95199E-2</v>
+      </c>
+      <c r="K23" s="197">
+        <v>-9.8136500000000002E-2</v>
+      </c>
+      <c r="L23" s="195">
+        <v>0.48695500000000003</v>
+      </c>
+      <c r="M23" s="196">
+        <v>-1.0168200000000001</v>
+      </c>
+      <c r="N23" s="196">
+        <v>2.8707E-2</v>
+      </c>
+      <c r="O23" s="197">
+        <v>-3.8772599999999997E-2</v>
+      </c>
+      <c r="P23" s="198">
+        <v>5.3184200000000001E-2</v>
+      </c>
+      <c r="Q23" s="198">
+        <v>-6.8078700000000006E-2</v>
+      </c>
+      <c r="R23" s="198">
+        <v>7.4270199999999995E-2</v>
+      </c>
+      <c r="S23" s="198">
+        <v>-5.2752599999999997E-2</v>
+      </c>
+      <c r="T23" s="198">
+        <v>4.6485699999999998E-2</v>
+      </c>
+      <c r="U23" s="198">
+        <v>-2.39277E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="198">
+        <v>9.3420699999999997</v>
+      </c>
+      <c r="D24" s="199">
+        <v>8.3126599999999999E-4</v>
+      </c>
+      <c r="E24" s="200">
+        <v>1.48886E-2</v>
+      </c>
+      <c r="F24" s="200">
+        <v>1.3199199999999999E-2</v>
+      </c>
+      <c r="G24" s="198">
+        <v>9.3420699999999997</v>
+      </c>
+      <c r="H24" s="199">
+        <v>1.16696E-2</v>
+      </c>
+      <c r="I24" s="200">
+        <v>0.20938100000000001</v>
+      </c>
+      <c r="J24" s="200">
+        <v>-2.2115300000000001E-2</v>
+      </c>
+      <c r="K24" s="204">
+        <v>0.29747800000000002</v>
+      </c>
+      <c r="L24" s="199">
+        <v>-1.0168200000000001</v>
+      </c>
+      <c r="M24" s="200">
+        <v>3.0904400000000001</v>
+      </c>
+      <c r="N24" s="200">
+        <v>-4.8876299999999998E-2</v>
+      </c>
+      <c r="O24" s="204">
+        <v>0.124556</v>
+      </c>
+      <c r="P24" s="198">
+        <v>-0.12017600000000001</v>
+      </c>
+      <c r="Q24" s="198">
+        <v>0.209923</v>
+      </c>
+      <c r="R24" s="198">
+        <v>-0.18159800000000001</v>
+      </c>
+      <c r="S24" s="198">
+        <v>0.16527900000000001</v>
+      </c>
+      <c r="T24" s="198">
+        <v>-0.100664</v>
+      </c>
+      <c r="U24" s="198">
+        <v>8.1314899999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="198">
+        <v>11.6883</v>
+      </c>
+      <c r="D25" s="199">
+        <v>1.63132E-2</v>
+      </c>
+      <c r="E25" s="200">
+        <v>-1.6958399999999999E-4</v>
+      </c>
+      <c r="F25" s="200">
+        <v>-2.4356099999999999E-3</v>
+      </c>
+      <c r="G25" s="198">
+        <v>11.6883</v>
+      </c>
+      <c r="H25" s="199">
+        <v>9.8198899999999995E-3</v>
+      </c>
+      <c r="I25" s="200">
+        <v>-3.6832700000000003E-2</v>
+      </c>
+      <c r="J25" s="200">
+        <v>1.6084299999999999E-2</v>
+      </c>
+      <c r="K25" s="204">
+        <v>-5.3167600000000002E-2</v>
+      </c>
+      <c r="L25" s="199">
+        <v>2.8707E-2</v>
+      </c>
+      <c r="M25" s="200">
+        <v>-4.8876299999999998E-2</v>
+      </c>
+      <c r="N25" s="200">
+        <v>0.224522</v>
+      </c>
+      <c r="O25" s="204">
+        <v>-0.20158300000000001</v>
+      </c>
+      <c r="P25" s="198">
+        <v>3.4266699999999997E-2</v>
+      </c>
+      <c r="Q25" s="198">
+        <v>-3.6933000000000001E-2</v>
+      </c>
+      <c r="R25" s="198">
+        <v>4.5655500000000002E-2</v>
+      </c>
+      <c r="S25" s="198">
+        <v>-2.8655199999999999E-2</v>
+      </c>
+      <c r="T25" s="198">
+        <v>3.06488E-2</v>
+      </c>
+      <c r="U25" s="198">
+        <v>-1.30866E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14.25" thickBot="1">
+      <c r="A26" s="198">
+        <v>5.0822099999999999</v>
+      </c>
+      <c r="D26" s="201">
+        <v>-5.01223E-5</v>
+      </c>
+      <c r="E26" s="202">
+        <v>1.6552399999999998E-2</v>
+      </c>
+      <c r="F26" s="202">
+        <v>5.6249200000000003E-3</v>
+      </c>
+      <c r="G26" s="198">
+        <v>5.0822099999999999</v>
+      </c>
+      <c r="H26" s="201">
+        <v>4.7876000000000004E-3</v>
+      </c>
+      <c r="I26" s="202">
+        <v>9.6779500000000004E-2</v>
+      </c>
+      <c r="J26" s="202">
+        <v>-9.6602500000000004E-3</v>
+      </c>
+      <c r="K26" s="203">
+        <v>0.13445299999999999</v>
+      </c>
+      <c r="L26" s="201">
+        <v>-3.8772599999999997E-2</v>
+      </c>
+      <c r="M26" s="202">
+        <v>0.124556</v>
+      </c>
+      <c r="N26" s="202">
+        <v>-0.20158300000000001</v>
+      </c>
+      <c r="O26" s="203">
+        <v>0.60057300000000002</v>
+      </c>
+      <c r="P26" s="198">
+        <v>-5.15954E-2</v>
+      </c>
+      <c r="Q26" s="198">
+        <v>9.7011E-2</v>
+      </c>
+      <c r="R26" s="198">
+        <v>-7.7862000000000001E-2</v>
+      </c>
+      <c r="S26" s="198">
+        <v>7.7919600000000006E-2</v>
+      </c>
+      <c r="T26" s="198">
+        <v>-4.3251199999999997E-2</v>
+      </c>
+      <c r="U26" s="198">
+        <v>4.2012800000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="198">
+        <v>20.49</v>
+      </c>
+      <c r="D27" s="198">
+        <v>1.5893600000000001E-2</v>
+      </c>
+      <c r="E27" s="198">
+        <v>6.2245499999999995E-4</v>
+      </c>
+      <c r="F27" s="198">
+        <v>-6.0412199999999999E-3</v>
+      </c>
+      <c r="G27" s="198">
+        <v>20.49</v>
+      </c>
+      <c r="H27" s="198">
+        <v>6.5438299999999996E-3</v>
+      </c>
+      <c r="I27" s="198">
+        <v>-9.0435299999999996E-2</v>
+      </c>
+      <c r="J27" s="198">
+        <v>2.20133E-2</v>
+      </c>
+      <c r="K27" s="198">
+        <v>-0.130773</v>
+      </c>
+      <c r="L27" s="198">
+        <v>5.3184200000000001E-2</v>
+      </c>
+      <c r="M27" s="198">
+        <v>-0.12017600000000001</v>
+      </c>
+      <c r="N27" s="198">
+        <v>3.4266699999999997E-2</v>
+      </c>
+      <c r="O27" s="198">
+        <v>-5.15954E-2</v>
+      </c>
+      <c r="P27" s="198">
+        <v>0.74693200000000004</v>
+      </c>
+      <c r="Q27" s="198">
+        <v>-1.00532</v>
+      </c>
+      <c r="R27" s="198">
+        <v>9.50376E-2</v>
+      </c>
+      <c r="S27" s="198">
+        <v>-7.0241499999999998E-2</v>
+      </c>
+      <c r="T27" s="198">
+        <v>5.7979500000000003E-2</v>
+      </c>
+      <c r="U27" s="198">
+        <v>-3.1795799999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="198">
+        <v>12.4336</v>
+      </c>
+      <c r="D28" s="198">
+        <v>4.52232E-4</v>
+      </c>
+      <c r="E28" s="198">
+        <v>1.5604099999999999E-2</v>
+      </c>
+      <c r="F28" s="198">
+        <v>9.9418400000000004E-3</v>
+      </c>
+      <c r="G28" s="198">
+        <v>12.4336</v>
+      </c>
+      <c r="H28" s="198">
+        <v>8.7099699999999992E-3</v>
+      </c>
+      <c r="I28" s="198">
+        <v>0.16095699999999999</v>
+      </c>
+      <c r="J28" s="198">
+        <v>-1.6759E-2</v>
+      </c>
+      <c r="K28" s="198">
+        <v>0.22736899999999999</v>
+      </c>
+      <c r="L28" s="198">
+        <v>-6.8078700000000006E-2</v>
+      </c>
+      <c r="M28" s="198">
+        <v>0.209923</v>
+      </c>
+      <c r="N28" s="198">
+        <v>-3.6933000000000001E-2</v>
+      </c>
+      <c r="O28" s="198">
+        <v>9.7011E-2</v>
+      </c>
+      <c r="P28" s="198">
+        <v>-1.00532</v>
+      </c>
+      <c r="Q28" s="198">
+        <v>1.7936300000000001</v>
+      </c>
+      <c r="R28" s="198">
+        <v>-0.136986</v>
+      </c>
+      <c r="S28" s="198">
+        <v>0.12770999999999999</v>
+      </c>
+      <c r="T28" s="198">
+        <v>-7.5973700000000005E-2</v>
+      </c>
+      <c r="U28" s="198">
+        <v>6.4412999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="198">
+        <v>15.887</v>
+      </c>
+      <c r="D29" s="198">
+        <v>1.5532199999999999E-2</v>
+      </c>
+      <c r="E29" s="198">
+        <v>1.3045999999999999E-3</v>
+      </c>
+      <c r="F29" s="198">
+        <v>-9.1472800000000007E-3</v>
+      </c>
+      <c r="G29" s="198">
+        <v>15.887</v>
+      </c>
+      <c r="H29" s="198">
+        <v>3.7216699999999998E-3</v>
+      </c>
+      <c r="I29" s="198">
+        <v>-0.13661100000000001</v>
+      </c>
+      <c r="J29" s="198">
+        <v>2.7120999999999999E-2</v>
+      </c>
+      <c r="K29" s="198">
+        <v>-0.197627</v>
+      </c>
+      <c r="L29" s="198">
+        <v>7.4270199999999995E-2</v>
+      </c>
+      <c r="M29" s="198">
+        <v>-0.18159800000000001</v>
+      </c>
+      <c r="N29" s="198">
+        <v>4.5655500000000002E-2</v>
+      </c>
+      <c r="O29" s="198">
+        <v>-7.7862000000000001E-2</v>
+      </c>
+      <c r="P29" s="198">
+        <v>9.50376E-2</v>
+      </c>
+      <c r="Q29" s="198">
+        <v>-0.136986</v>
+      </c>
+      <c r="R29" s="198">
+        <v>1.53078</v>
+      </c>
+      <c r="S29" s="198">
+        <v>-1.17967</v>
+      </c>
+      <c r="T29" s="198">
+        <v>8.1523600000000002E-2</v>
+      </c>
+      <c r="U29" s="198">
+        <v>-4.7912999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="198">
+        <v>18.766500000000001</v>
+      </c>
+      <c r="D30" s="198">
+        <v>1.89476E-4</v>
+      </c>
+      <c r="E30" s="198">
+        <v>1.6100199999999999E-2</v>
+      </c>
+      <c r="F30" s="198">
+        <v>7.6842500000000001E-3</v>
+      </c>
+      <c r="G30" s="198">
+        <v>18.766500000000001</v>
+      </c>
+      <c r="H30" s="198">
+        <v>6.6586900000000001E-3</v>
+      </c>
+      <c r="I30" s="198">
+        <v>0.12739400000000001</v>
+      </c>
+      <c r="J30" s="198">
+        <v>-1.30466E-2</v>
+      </c>
+      <c r="K30" s="198">
+        <v>0.17877699999999999</v>
+      </c>
+      <c r="L30" s="198">
+        <v>-5.2752599999999997E-2</v>
+      </c>
+      <c r="M30" s="198">
+        <v>0.16527900000000001</v>
+      </c>
+      <c r="N30" s="198">
+        <v>-2.8655199999999999E-2</v>
+      </c>
+      <c r="O30" s="198">
+        <v>7.7919600000000006E-2</v>
+      </c>
+      <c r="P30" s="198">
+        <v>-7.0241499999999998E-2</v>
+      </c>
+      <c r="Q30" s="198">
+        <v>0.12770999999999999</v>
+      </c>
+      <c r="R30" s="198">
+        <v>-1.17967</v>
+      </c>
+      <c r="S30" s="198">
+        <v>1.13554</v>
+      </c>
+      <c r="T30" s="198">
+        <v>-5.8860999999999997E-2</v>
+      </c>
+      <c r="U30" s="198">
+        <v>5.2698599999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="198">
+        <v>7.2298600000000004</v>
+      </c>
+      <c r="D31" s="198">
+        <v>1.6008399999999999E-2</v>
+      </c>
+      <c r="E31" s="198">
+        <v>4.05652E-4</v>
+      </c>
+      <c r="F31" s="198">
+        <v>-5.0545E-3</v>
+      </c>
+      <c r="G31" s="198">
+        <v>7.2298600000000004</v>
+      </c>
+      <c r="H31" s="198">
+        <v>7.4403500000000001E-3</v>
+      </c>
+      <c r="I31" s="198">
+        <v>-7.5766299999999995E-2</v>
+      </c>
+      <c r="J31" s="198">
+        <v>2.0390800000000001E-2</v>
+      </c>
+      <c r="K31" s="198">
+        <v>-0.10953499999999999</v>
+      </c>
+      <c r="L31" s="198">
+        <v>4.6485699999999998E-2</v>
+      </c>
+      <c r="M31" s="198">
+        <v>-0.100664</v>
+      </c>
+      <c r="N31" s="198">
+        <v>3.06488E-2</v>
+      </c>
+      <c r="O31" s="198">
+        <v>-4.3251199999999997E-2</v>
+      </c>
+      <c r="P31" s="198">
+        <v>5.7979500000000003E-2</v>
+      </c>
+      <c r="Q31" s="198">
+        <v>-7.5973700000000005E-2</v>
+      </c>
+      <c r="R31" s="198">
+        <v>8.1523600000000002E-2</v>
+      </c>
+      <c r="S31" s="198">
+        <v>-5.8860999999999997E-2</v>
+      </c>
+      <c r="T31" s="198">
+        <v>0.50468900000000005</v>
+      </c>
+      <c r="U31" s="198">
+        <v>-0.25503900000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="198">
+        <v>10.421799999999999</v>
+      </c>
+      <c r="D32" s="198">
+        <v>-3.0460099999999999E-4</v>
+      </c>
+      <c r="E32" s="198">
+        <v>1.7032800000000001E-2</v>
+      </c>
+      <c r="F32" s="198">
+        <v>3.4382100000000001E-3</v>
+      </c>
+      <c r="G32" s="198">
+        <v>10.421799999999999</v>
+      </c>
+      <c r="H32" s="198">
+        <v>2.8007399999999999E-3</v>
+      </c>
+      <c r="I32" s="198">
+        <v>6.4270900000000006E-2</v>
+      </c>
+      <c r="J32" s="198">
+        <v>-6.0644399999999999E-3</v>
+      </c>
+      <c r="K32" s="198">
+        <v>8.7387500000000007E-2</v>
+      </c>
+      <c r="L32" s="198">
+        <v>-2.39277E-2</v>
+      </c>
+      <c r="M32" s="198">
+        <v>8.1314899999999996E-2</v>
+      </c>
+      <c r="N32" s="198">
+        <v>-1.30866E-2</v>
+      </c>
+      <c r="O32" s="198">
+        <v>4.2012800000000003E-2</v>
+      </c>
+      <c r="P32" s="198">
+        <v>-3.1795799999999999E-2</v>
+      </c>
+      <c r="Q32" s="198">
+        <v>6.4412999999999998E-2</v>
+      </c>
+      <c r="R32" s="198">
+        <v>-4.7912999999999997E-2</v>
+      </c>
+      <c r="S32" s="198">
+        <v>5.2698599999999998E-2</v>
+      </c>
+      <c r="T32" s="198">
+        <v>-0.25503900000000002</v>
+      </c>
+      <c r="U32" s="198">
+        <v>0.31408599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31A2A6-BB98-4ABD-94E7-4BC4F8C140C1}">
   <dimension ref="A1:Z58"/>
   <sheetViews>

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6323235A-732A-4951-8B32-02DC0F599CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05E48F-EFF5-4721-A635-B51B3B6E5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2777,21 +2777,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2820,9 +2805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2838,6 +2820,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3963,14 +3963,14 @@
     </row>
     <row r="16" spans="1:19" ht="36" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="196" t="s">
         <v>390</v>
       </c>
       <c r="C16" s="142" t="s">
         <v>337</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="213" t="s">
+      <c r="E16" s="207" t="s">
         <v>391</v>
       </c>
       <c r="F16" s="1"/>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="20" spans="1:19" ht="38.25" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="214" t="s">
+      <c r="B20" s="208" t="s">
         <v>391</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -4437,7 +4437,7 @@
     </row>
     <row r="34" spans="1:19" ht="33" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="197" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="142" t="s">
@@ -4545,7 +4545,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="174"/>
-      <c r="B38" s="202" t="s">
+      <c r="B38" s="197" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="49" t="s">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="174"/>
-      <c r="B46" s="203" t="s">
+      <c r="B46" s="198" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="72" t="s">
@@ -4873,7 +4873,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="174"/>
-      <c r="B50" s="203" t="s">
+      <c r="B50" s="198" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="76" t="s">
@@ -5201,12 +5201,12 @@
       <c r="B63" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="204"/>
+      <c r="C63" s="199"/>
       <c r="D63" s="29"/>
       <c r="E63" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="204"/>
+      <c r="F63" s="199"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -5838,7 +5838,7 @@
         <v>59</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="216" t="s">
+      <c r="E87" s="210" t="s">
         <v>60</v>
       </c>
       <c r="F87" s="1"/>
@@ -6070,7 +6070,7 @@
       <c r="A96" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="B96" s="215" t="s">
+      <c r="B96" s="209" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="72" t="s">
@@ -6447,11 +6447,11 @@
     </row>
     <row r="113" spans="1:19" ht="14.25" thickBot="1">
       <c r="A113" s="9"/>
-      <c r="B113" s="196" t="s">
+      <c r="B113" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="197"/>
-      <c r="D113" s="197"/>
+      <c r="C113" s="212"/>
+      <c r="D113" s="212"/>
       <c r="E113" s="60" t="s">
         <v>98</v>
       </c>
@@ -9921,7 +9921,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -9953,14 +9953,14 @@
       <c r="A2" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="202" t="s">
         <v>334</v>
       </c>
       <c r="D2" s="108"/>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="203" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10001,14 +10001,14 @@
       <c r="A5" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="202" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="108"/>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="203" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10046,14 +10046,14 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="202" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="108"/>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="203" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10091,14 +10091,14 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="201" t="s">
         <v>130</v>
       </c>
       <c r="D11" s="108"/>
-      <c r="E11" s="208" t="s">
+      <c r="E11" s="203" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10136,16 +10136,16 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="206" t="s">
+      <c r="C14" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="210" t="s">
+      <c r="D14" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="203" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10187,16 +10187,16 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="206" t="s">
+      <c r="C17" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="210" t="s">
+      <c r="D17" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="208" t="s">
+      <c r="E17" s="203" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10238,16 +10238,16 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="201" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="208" t="s">
+      <c r="D20" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="208" t="s">
+      <c r="E20" s="203" t="s">
         <v>135</v>
       </c>
       <c r="F20" s="80" t="s">
@@ -10295,7 +10295,7 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="204" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10625,60 +10625,60 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1">
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="198" t="s">
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="199"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="198" t="s">
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="214"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="AC7" s="199"/>
-      <c r="AD7" s="199"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="199"/>
-      <c r="AG7" s="199"/>
-      <c r="AH7" s="199"/>
-      <c r="AI7" s="199"/>
-      <c r="AJ7" s="199"/>
-      <c r="AK7" s="199"/>
-      <c r="AL7" s="199"/>
-      <c r="AM7" s="199"/>
-      <c r="AN7" s="199"/>
-      <c r="AO7" s="199"/>
-      <c r="AP7" s="199"/>
-      <c r="AQ7" s="199"/>
-      <c r="AR7" s="200"/>
+      <c r="AC7" s="214"/>
+      <c r="AD7" s="214"/>
+      <c r="AE7" s="214"/>
+      <c r="AF7" s="214"/>
+      <c r="AG7" s="214"/>
+      <c r="AH7" s="214"/>
+      <c r="AI7" s="214"/>
+      <c r="AJ7" s="214"/>
+      <c r="AK7" s="214"/>
+      <c r="AL7" s="214"/>
+      <c r="AM7" s="214"/>
+      <c r="AN7" s="214"/>
+      <c r="AO7" s="214"/>
+      <c r="AP7" s="214"/>
+      <c r="AQ7" s="214"/>
+      <c r="AR7" s="215"/>
     </row>
     <row r="9" spans="1:44">
       <c r="E9" s="39"/>
@@ -12128,9 +12128,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/EKF-SLAMv5.0运算统计.xlsx
+++ b/EKF-SLAMv5.0运算统计.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05E48F-EFF5-4721-A635-B51B3B6E5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78930E56-094D-4834-A8D9-E64B5D02E014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="矩阵运算" sheetId="2" r:id="rId1"/>
-    <sheet name="数据关联" sheetId="3" r:id="rId2"/>
-    <sheet name="TEMP_BANK" sheetId="4" r:id="rId3"/>
-    <sheet name="COV_BANK" sheetId="6" r:id="rId4"/>
-    <sheet name="CACHE" sheetId="8" r:id="rId5"/>
-    <sheet name="COV_example" sheetId="7" r:id="rId6"/>
-    <sheet name="(old)COV_BANK" sheetId="5" r:id="rId7"/>
+    <sheet name="old_矩阵运算" sheetId="9" r:id="rId2"/>
+    <sheet name="数据关联" sheetId="3" r:id="rId3"/>
+    <sheet name="TEMP_BANK" sheetId="4" r:id="rId4"/>
+    <sheet name="COV_BANK" sheetId="6" r:id="rId5"/>
+    <sheet name="CACHE" sheetId="8" r:id="rId6"/>
+    <sheet name="COV_example" sheetId="7" r:id="rId7"/>
+    <sheet name="(old)COV_BANK" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="433">
   <si>
     <t>步骤</t>
   </si>
@@ -1481,6 +1482,46 @@
   </si>
   <si>
     <t>ASSOC_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_T</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5*2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cov</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3*3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2*3+2n)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在dinb完成转置运算</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是输出</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2192,7 +2233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2820,6 +2861,238 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3291,6 +3564,440 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1538288" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="attachment-1647339354594-b5bf4ceb288e0530" descr="attachment-1647339354594-b5bf4ceb288e0530">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE8E380-A20A-4D82-8C17-B6DBB8670D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295276" y="16416336"/>
+          <a:ext cx="1538288" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1657350" cy="533400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="attachment-1647339392594-83edded77792936a" descr="attachment-1647339392594-83edded77792936a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C27023-80A8-420B-9BC4-C8D75B84AAC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="17830800"/>
+          <a:ext cx="1657350" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1866900" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="attachment-1647311344042-55cf992c4abea7f7" descr="attachment-1647311344042-55cf992c4abea7f7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0C5AEE-97F0-4099-8317-CEF0116C2C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="4338638"/>
+          <a:ext cx="1866900" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533400" cy="371475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="attachment-1647336951598-da86122dd1a02ebb" descr="attachment-1647336951598-da86122dd1a02ebb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043993E2-A318-4F7E-92CE-F79B07FF7686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="7748588"/>
+          <a:ext cx="533400" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="361950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="attachment-1647266584042-1782ef1c00fd0ccf" descr="attachment-1647266584042-1782ef1c00fd0ccf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0ED5BB4-224C-4F99-B859-23AB9A938F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="3414713"/>
+          <a:ext cx="561975" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695325" cy="409575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="attachment-1647339296096-4796a83c85a47145" descr="attachment-1647339296096-4796a83c85a47145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570110D1-8829-40AB-9073-92B0E50F3524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="7729538"/>
+          <a:ext cx="695325" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1495425" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="attachment-1647339370595-50603b637d2881ba" descr="attachment-1647339370595-50603b637d2881ba">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C7DCFF-2557-406D-87CC-1F6B101A4B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="17445038"/>
+          <a:ext cx="1495425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="338138"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="attachment-1647339334594-2d16b7a892b9bae2" descr="attachment-1647339334594-2d16b7a892b9bae2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C2D76C-0C70-492E-8C0B-62C05AAD2459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733426" y="14849475"/>
+          <a:ext cx="495300" cy="338138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266825" cy="428625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="attachment-1647267341041-cafcc4f1350e9438" descr="attachment-1647267341041-cafcc4f1350e9438">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28264B40-6408-4E6F-B44C-4A9C7D8438D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="5881688"/>
+          <a:ext cx="1266825" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1971675" cy="381000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="attachment-1647339435094-96d2214acdb55707" descr="attachment-1647339435094-96d2214acdb55707">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B461F54-F863-4153-93EB-D52040D81DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="18483263"/>
+          <a:ext cx="1971675" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1914525" cy="309563"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="attachment-1648113773855-8000625aad661167" descr="attachment-1648113773855-8000625aad661167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E1513-C026-47DE-8CDF-1F59CBD87E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42862" y="9372600"/>
+          <a:ext cx="1914525" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
@@ -6447,11 +7154,11 @@
     </row>
     <row r="113" spans="1:19" ht="14.25" thickBot="1">
       <c r="A113" s="9"/>
-      <c r="B113" s="211" t="s">
+      <c r="B113" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="212"/>
-      <c r="D113" s="212"/>
+      <c r="C113" s="290"/>
+      <c r="D113" s="290"/>
       <c r="E113" s="60" t="s">
         <v>98</v>
       </c>
@@ -9917,10 +10624,6321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CA38F-6482-48C3-9742-824270BAD855}">
+  <dimension ref="A1:S277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="29.73046875" style="211" customWidth="1"/>
+    <col min="2" max="2" width="11" style="211" customWidth="1"/>
+    <col min="3" max="5" width="13" style="211" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15">
+      <c r="A1" s="212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="213" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A2" s="213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A3" s="216" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A4" s="217" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+    </row>
+    <row r="5" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A5" s="212"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A6" s="212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="218"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="215"/>
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A8" s="213"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="218"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A9" s="213"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+    </row>
+    <row r="10" spans="1:19" s="52" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="221"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
+      <c r="N10" s="222"/>
+      <c r="O10" s="222"/>
+      <c r="P10" s="222"/>
+      <c r="Q10" s="222"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+    </row>
+    <row r="11" spans="1:19" ht="15">
+      <c r="A11" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="223"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="A12" s="213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="223"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="A13" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="223"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="224" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="219"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="218" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="215"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215"/>
+      <c r="L14" s="215"/>
+      <c r="M14" s="215"/>
+      <c r="N14" s="215"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="215"/>
+      <c r="S14" s="215"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="219" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="219"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="214" t="s">
+        <v>348</v>
+      </c>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
+      <c r="M15" s="215"/>
+      <c r="N15" s="215"/>
+      <c r="O15" s="215"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="215"/>
+      <c r="S15" s="215"/>
+    </row>
+    <row r="16" spans="1:19" ht="36" customHeight="1">
+      <c r="A16" s="219"/>
+      <c r="B16" s="225" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="226" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="227"/>
+      <c r="E16" s="228" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="215"/>
+      <c r="N16" s="215"/>
+      <c r="O16" s="215"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="215"/>
+      <c r="R16" s="215"/>
+      <c r="S16" s="215"/>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A17" s="219"/>
+      <c r="B17" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="219"/>
+      <c r="E17" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="218"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="215"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="215"/>
+    </row>
+    <row r="18" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A18" s="219"/>
+      <c r="B18" s="229" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="214"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="215"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="215"/>
+      <c r="R18" s="215"/>
+      <c r="S18" s="215"/>
+    </row>
+    <row r="19" spans="1:19" ht="11.25" customHeight="1">
+      <c r="A19" s="219"/>
+      <c r="B19" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="219"/>
+      <c r="E19" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="214"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+    </row>
+    <row r="20" spans="1:19" ht="38.25" customHeight="1">
+      <c r="A20" s="219"/>
+      <c r="B20" s="231" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="233" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="226" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="215"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="219"/>
+      <c r="B21" s="229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="214"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="215"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="219"/>
+      <c r="B22" s="234" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="235" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="235" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="218"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="215"/>
+      <c r="N22" s="215"/>
+      <c r="O22" s="215"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="215"/>
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A23" s="219"/>
+      <c r="B23" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="218"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="215"/>
+      <c r="S23" s="215"/>
+    </row>
+    <row r="24" spans="1:19" ht="39.75" customHeight="1">
+      <c r="A24" s="236" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="227"/>
+      <c r="E24" s="238" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="219"/>
+      <c r="B25" s="229" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="219"/>
+      <c r="E25" s="230" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="218"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="215"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="215"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="215"/>
+      <c r="R25" s="215"/>
+      <c r="S25" s="215"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="219"/>
+      <c r="B26" s="234" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="235" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="235"/>
+      <c r="E26" s="239" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="214" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="215"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="215"/>
+      <c r="R26" s="215"/>
+      <c r="S26" s="215"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="219"/>
+      <c r="B27" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="223"/>
+      <c r="E27" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="214"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="218"/>
+      <c r="Q27" s="218"/>
+      <c r="R27" s="218"/>
+      <c r="S27" s="218"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="242"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="242"/>
+      <c r="O28" s="242"/>
+      <c r="P28" s="242"/>
+      <c r="Q28" s="242"/>
+      <c r="R28" s="242"/>
+      <c r="S28" s="242"/>
+    </row>
+    <row r="29" spans="1:19" s="52" customFormat="1">
+      <c r="A29" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="244"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="222"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="222"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
+      <c r="O29" s="222"/>
+      <c r="P29" s="222"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="219" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="219"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="215"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="219" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="219"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="215"/>
+      <c r="R32" s="215"/>
+      <c r="S32" s="215"/>
+    </row>
+    <row r="33" spans="1:19" ht="33" customHeight="1">
+      <c r="A33" s="219" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="215"/>
+      <c r="M33" s="215"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="215"/>
+      <c r="R33" s="215"/>
+      <c r="S33" s="215"/>
+    </row>
+    <row r="34" spans="1:19" ht="33" customHeight="1">
+      <c r="A34" s="245"/>
+      <c r="B34" s="225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="226" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="227"/>
+      <c r="E34" s="238" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
+      <c r="Q34" s="215"/>
+      <c r="R34" s="215"/>
+      <c r="S34" s="215"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="245"/>
+      <c r="B35" s="229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="219" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="219"/>
+      <c r="E35" s="230" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="218"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
+      <c r="Q35" s="215"/>
+      <c r="R35" s="215"/>
+      <c r="S35" s="215"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="245"/>
+      <c r="B36" s="229" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="219"/>
+      <c r="E36" s="230" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="214"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
+      <c r="S36" s="215"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="245"/>
+      <c r="B37" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="229" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="219"/>
+      <c r="E37" s="230" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="214"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="215"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="215"/>
+      <c r="Q37" s="215"/>
+      <c r="R37" s="215"/>
+      <c r="S37" s="215"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="245"/>
+      <c r="B38" s="225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="247"/>
+      <c r="E38" s="238" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="215"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="215"/>
+      <c r="P38" s="215"/>
+      <c r="Q38" s="215"/>
+      <c r="R38" s="215"/>
+      <c r="S38" s="215"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="245"/>
+      <c r="B39" s="229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="223"/>
+      <c r="E39" s="230" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="215"/>
+      <c r="M39" s="215"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="215"/>
+      <c r="P39" s="215"/>
+      <c r="Q39" s="215"/>
+      <c r="R39" s="215"/>
+      <c r="S39" s="215"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="245"/>
+      <c r="B40" s="248" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="223" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="223"/>
+      <c r="E40" s="249" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="214" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="215"/>
+      <c r="P40" s="215"/>
+      <c r="Q40" s="215"/>
+      <c r="R40" s="215"/>
+      <c r="S40" s="215"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="245"/>
+      <c r="B41" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="223" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="223"/>
+      <c r="E41" s="249" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" s="214"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="215"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="245"/>
+      <c r="B42" s="250" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="251" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="252"/>
+      <c r="E42" s="253" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="215"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="215"/>
+      <c r="P42" s="215"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="215"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="245"/>
+      <c r="B43" s="254" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="219" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="219"/>
+      <c r="E43" s="255" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="215"/>
+      <c r="N43" s="215"/>
+      <c r="O43" s="215"/>
+      <c r="P43" s="215"/>
+      <c r="Q43" s="215"/>
+      <c r="R43" s="215"/>
+      <c r="S43" s="215"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="245"/>
+      <c r="B44" s="254" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="219"/>
+      <c r="E44" s="255" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="215"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="215"/>
+      <c r="P44" s="215"/>
+      <c r="Q44" s="215"/>
+      <c r="R44" s="215"/>
+      <c r="S44" s="215"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="245"/>
+      <c r="B45" s="256" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="257"/>
+      <c r="E45" s="258" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="215"/>
+      <c r="K45" s="215"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="215"/>
+      <c r="O45" s="215"/>
+      <c r="P45" s="215"/>
+      <c r="Q45" s="215"/>
+      <c r="R45" s="215"/>
+      <c r="S45" s="215"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="245"/>
+      <c r="B46" s="259" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="251" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="252"/>
+      <c r="E46" s="253" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="214"/>
+      <c r="G46" s="214"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="215"/>
+      <c r="N46" s="215"/>
+      <c r="O46" s="215"/>
+      <c r="P46" s="215"/>
+      <c r="Q46" s="215"/>
+      <c r="R46" s="215"/>
+      <c r="S46" s="215"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="245"/>
+      <c r="B47" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="219"/>
+      <c r="E47" s="255" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="218"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="215"/>
+      <c r="P47" s="215"/>
+      <c r="Q47" s="215"/>
+      <c r="R47" s="215"/>
+      <c r="S47" s="215"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="245"/>
+      <c r="B48" s="254" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="219"/>
+      <c r="E48" s="255" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="218"/>
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="215"/>
+      <c r="N48" s="215"/>
+      <c r="O48" s="215"/>
+      <c r="P48" s="215"/>
+      <c r="Q48" s="215"/>
+      <c r="R48" s="215"/>
+      <c r="S48" s="215"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="245"/>
+      <c r="B49" s="254" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="219"/>
+      <c r="E49" s="255" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="218"/>
+      <c r="G49" s="215"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="215"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="215"/>
+      <c r="P49" s="215"/>
+      <c r="Q49" s="215"/>
+      <c r="R49" s="215"/>
+      <c r="S49" s="215"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="245"/>
+      <c r="B50" s="259" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="260" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="251" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="261" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="214"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="215"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="215"/>
+      <c r="R50" s="215"/>
+      <c r="S50" s="215"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="245"/>
+      <c r="B51" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="255" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="218"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="215"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="215"/>
+      <c r="P51" s="215"/>
+      <c r="Q51" s="215"/>
+      <c r="R51" s="215"/>
+      <c r="S51" s="215"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="245"/>
+      <c r="B52" s="254" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="219" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="255" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="218"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="215"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
+      <c r="Q52" s="215"/>
+      <c r="R52" s="215"/>
+      <c r="S52" s="215"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="245"/>
+      <c r="B53" s="256" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="258" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="218"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="215"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="215"/>
+      <c r="P53" s="215"/>
+      <c r="Q53" s="215"/>
+      <c r="R53" s="215"/>
+      <c r="S53" s="215"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="245"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="214" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="215"/>
+      <c r="H54" s="215"/>
+      <c r="I54" s="215"/>
+      <c r="J54" s="215"/>
+      <c r="K54" s="215"/>
+      <c r="L54" s="215"/>
+      <c r="M54" s="215"/>
+      <c r="N54" s="215"/>
+      <c r="O54" s="215"/>
+      <c r="P54" s="215"/>
+      <c r="Q54" s="215"/>
+      <c r="R54" s="215"/>
+      <c r="S54" s="215"/>
+    </row>
+    <row r="55" spans="1:19" s="52" customFormat="1">
+      <c r="A55" s="243" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="244"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="222"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="222"/>
+      <c r="I55" s="222"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="222"/>
+      <c r="L55" s="222"/>
+      <c r="M55" s="222"/>
+      <c r="N55" s="222"/>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
+      <c r="R55" s="222"/>
+      <c r="S55" s="222"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="219" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="223"/>
+      <c r="C56" s="223"/>
+      <c r="D56" s="223"/>
+      <c r="E56" s="223"/>
+      <c r="F56" s="218"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="215"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="215"/>
+      <c r="P56" s="215"/>
+      <c r="Q56" s="215"/>
+      <c r="R56" s="215"/>
+      <c r="S56" s="215"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="223"/>
+      <c r="C57" s="223"/>
+      <c r="D57" s="223"/>
+      <c r="E57" s="223"/>
+      <c r="F57" s="218"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="215"/>
+      <c r="N57" s="215"/>
+      <c r="O57" s="215"/>
+      <c r="P57" s="215"/>
+      <c r="Q57" s="215"/>
+      <c r="R57" s="215"/>
+      <c r="S57" s="215"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="219" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="223"/>
+      <c r="C58" s="223"/>
+      <c r="D58" s="223"/>
+      <c r="E58" s="223"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="215"/>
+      <c r="N58" s="215"/>
+      <c r="O58" s="215"/>
+      <c r="P58" s="215"/>
+      <c r="Q58" s="215"/>
+      <c r="R58" s="215"/>
+      <c r="S58" s="215"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="219"/>
+      <c r="C59" s="262"/>
+      <c r="D59" s="219"/>
+      <c r="E59" s="219"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="215"/>
+      <c r="N59" s="215"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
+      <c r="Q59" s="215"/>
+      <c r="R59" s="215"/>
+      <c r="S59" s="215"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="219"/>
+      <c r="C60" s="262"/>
+      <c r="D60" s="219"/>
+      <c r="E60" s="219"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="215"/>
+      <c r="H60" s="215"/>
+      <c r="I60" s="215"/>
+      <c r="J60" s="215"/>
+      <c r="K60" s="215"/>
+      <c r="L60" s="215"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="215"/>
+      <c r="O60" s="215"/>
+      <c r="P60" s="215"/>
+      <c r="Q60" s="215"/>
+      <c r="R60" s="215"/>
+      <c r="S60" s="215"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="219" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="219"/>
+      <c r="C61" s="262"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="215"/>
+      <c r="S61" s="215"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="219" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="219"/>
+      <c r="C62" s="219"/>
+      <c r="D62" s="219"/>
+      <c r="E62" s="219"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="215"/>
+      <c r="H62" s="215"/>
+      <c r="I62" s="215"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="215"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="215"/>
+      <c r="P62" s="215"/>
+      <c r="Q62" s="215"/>
+      <c r="R62" s="215"/>
+      <c r="S62" s="215"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="250" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="263" t="s">
+        <v>423</v>
+      </c>
+      <c r="D63" s="252"/>
+      <c r="E63" s="264" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="265" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" s="215"/>
+      <c r="H63" s="215"/>
+      <c r="I63" s="215"/>
+      <c r="J63" s="215"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="215"/>
+      <c r="M63" s="215"/>
+      <c r="N63" s="215"/>
+      <c r="O63" s="215"/>
+      <c r="P63" s="215"/>
+      <c r="Q63" s="215"/>
+      <c r="R63" s="215"/>
+      <c r="S63" s="215"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="219"/>
+      <c r="B64" s="254" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="219" t="s">
+        <v>424</v>
+      </c>
+      <c r="D64" s="219"/>
+      <c r="E64" s="266" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="219" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="215"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="215"/>
+      <c r="Q64" s="215"/>
+      <c r="R64" s="215"/>
+      <c r="S64" s="215"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="219"/>
+      <c r="B65" s="256" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="257" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="257"/>
+      <c r="E65" s="258" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="G65" s="215"/>
+      <c r="H65" s="215"/>
+      <c r="I65" s="215"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="215"/>
+      <c r="M65" s="215"/>
+      <c r="N65" s="215"/>
+      <c r="O65" s="215"/>
+      <c r="P65" s="215"/>
+      <c r="Q65" s="215"/>
+      <c r="R65" s="215"/>
+      <c r="S65" s="215"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="219" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="267" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="265" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="219"/>
+      <c r="E66" s="255"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="215"/>
+      <c r="H66" s="215"/>
+      <c r="I66" s="215"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
+      <c r="M66" s="215"/>
+      <c r="N66" s="215"/>
+      <c r="O66" s="215"/>
+      <c r="P66" s="215"/>
+      <c r="Q66" s="215"/>
+      <c r="R66" s="215"/>
+      <c r="S66" s="215"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="219"/>
+      <c r="B67" s="254" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="219" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="219"/>
+      <c r="E67" s="255"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="215"/>
+      <c r="N67" s="215"/>
+      <c r="O67" s="215"/>
+      <c r="P67" s="215"/>
+      <c r="Q67" s="215"/>
+      <c r="R67" s="215"/>
+      <c r="S67" s="215"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="219"/>
+      <c r="B68" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="D68" s="219"/>
+      <c r="E68" s="255"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="215"/>
+      <c r="H68" s="215"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="215"/>
+      <c r="M68" s="215"/>
+      <c r="N68" s="215"/>
+      <c r="O68" s="215"/>
+      <c r="P68" s="215"/>
+      <c r="Q68" s="215"/>
+      <c r="R68" s="215"/>
+      <c r="S68" s="215"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="219" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="267" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="265" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="252"/>
+      <c r="E69" s="268"/>
+      <c r="F69" s="218"/>
+      <c r="G69" s="215"/>
+      <c r="H69" s="215"/>
+      <c r="I69" s="215"/>
+      <c r="J69" s="215"/>
+      <c r="K69" s="215"/>
+      <c r="L69" s="215"/>
+      <c r="M69" s="215"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="215"/>
+      <c r="P69" s="215"/>
+      <c r="Q69" s="215"/>
+      <c r="R69" s="215"/>
+      <c r="S69" s="215"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="219"/>
+      <c r="B70" s="254" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" s="219" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="219"/>
+      <c r="E70" s="255"/>
+      <c r="F70" s="218"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="215"/>
+      <c r="P70" s="215"/>
+      <c r="Q70" s="215"/>
+      <c r="R70" s="215"/>
+      <c r="S70" s="215"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="219"/>
+      <c r="B71" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="D71" s="257"/>
+      <c r="E71" s="258"/>
+      <c r="F71" s="218"/>
+      <c r="G71" s="215"/>
+      <c r="H71" s="215"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="215"/>
+      <c r="K71" s="215"/>
+      <c r="L71" s="215"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="215"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="215"/>
+      <c r="Q71" s="215"/>
+      <c r="R71" s="215"/>
+      <c r="S71" s="215"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="219" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="259" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="265" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="219"/>
+      <c r="E72" s="230"/>
+      <c r="F72" s="214"/>
+      <c r="G72" s="214"/>
+      <c r="H72" s="214"/>
+      <c r="I72" s="215"/>
+      <c r="J72" s="215"/>
+      <c r="K72" s="215"/>
+      <c r="L72" s="215"/>
+      <c r="M72" s="215"/>
+      <c r="N72" s="215"/>
+      <c r="O72" s="215"/>
+      <c r="P72" s="215"/>
+      <c r="Q72" s="215"/>
+      <c r="R72" s="215"/>
+      <c r="S72" s="215"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="219"/>
+      <c r="B73" s="254" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="219" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="219"/>
+      <c r="E73" s="230"/>
+      <c r="F73" s="218"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="215"/>
+      <c r="O73" s="215"/>
+      <c r="P73" s="215"/>
+      <c r="Q73" s="215"/>
+      <c r="R73" s="215"/>
+      <c r="S73" s="215"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="219"/>
+      <c r="B74" s="254" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" s="219"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="214"/>
+      <c r="G74" s="215"/>
+      <c r="H74" s="215"/>
+      <c r="I74" s="215"/>
+      <c r="J74" s="215"/>
+      <c r="K74" s="215"/>
+      <c r="L74" s="215"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="215"/>
+      <c r="O74" s="215"/>
+      <c r="P74" s="215"/>
+      <c r="Q74" s="215"/>
+      <c r="R74" s="215"/>
+      <c r="S74" s="215"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="219" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="269" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="265" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="252"/>
+      <c r="E75" s="253" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="214"/>
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="215"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="215"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="219"/>
+      <c r="B76" s="254" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="219" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="219"/>
+      <c r="E76" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="214"/>
+      <c r="G76" s="215"/>
+      <c r="H76" s="215"/>
+      <c r="I76" s="215"/>
+      <c r="J76" s="215"/>
+      <c r="K76" s="215"/>
+      <c r="L76" s="215"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="215"/>
+      <c r="O76" s="215"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="215"/>
+      <c r="S76" s="215"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="219"/>
+      <c r="B77" s="254" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" s="219"/>
+      <c r="E77" s="255" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="214"/>
+      <c r="G77" s="215"/>
+      <c r="H77" s="215"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="215"/>
+      <c r="K77" s="215"/>
+      <c r="L77" s="215"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="215"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="215"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="219" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="253" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="252"/>
+      <c r="E78" s="270" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="214"/>
+      <c r="G78" s="215"/>
+      <c r="H78" s="215"/>
+      <c r="I78" s="215"/>
+      <c r="J78" s="215"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="215"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="215"/>
+      <c r="O78" s="215"/>
+      <c r="P78" s="215"/>
+      <c r="Q78" s="215"/>
+      <c r="R78" s="215"/>
+      <c r="S78" s="215"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="219"/>
+      <c r="B79" s="255" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="219"/>
+      <c r="E79" s="219" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="214"/>
+      <c r="G79" s="215"/>
+      <c r="H79" s="215"/>
+      <c r="I79" s="215"/>
+      <c r="J79" s="215"/>
+      <c r="K79" s="215"/>
+      <c r="L79" s="215"/>
+      <c r="M79" s="215"/>
+      <c r="N79" s="215"/>
+      <c r="O79" s="215"/>
+      <c r="P79" s="215"/>
+      <c r="Q79" s="215"/>
+      <c r="R79" s="215"/>
+      <c r="S79" s="215"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="219"/>
+      <c r="B80" s="255" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="219"/>
+      <c r="E80" s="257" t="s">
+        <v>383</v>
+      </c>
+      <c r="F80" s="214"/>
+      <c r="G80" s="215"/>
+      <c r="H80" s="215"/>
+      <c r="I80" s="215"/>
+      <c r="J80" s="215"/>
+      <c r="K80" s="215"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="215"/>
+      <c r="N80" s="215"/>
+      <c r="O80" s="215"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="215"/>
+      <c r="R80" s="215"/>
+      <c r="S80" s="215"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="271" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="270" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="272" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="273" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="214" t="s">
+        <v>344</v>
+      </c>
+      <c r="G81" s="215"/>
+      <c r="H81" s="215"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="215"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="215"/>
+      <c r="M81" s="215"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
+      <c r="Q81" s="215"/>
+      <c r="R81" s="215"/>
+      <c r="S81" s="215"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="219"/>
+      <c r="B82" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="219" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="230" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="214"/>
+      <c r="G82" s="219"/>
+      <c r="H82" s="229"/>
+      <c r="I82" s="219"/>
+      <c r="J82" s="230"/>
+      <c r="K82" s="215"/>
+      <c r="L82" s="215"/>
+      <c r="M82" s="215"/>
+      <c r="N82" s="215"/>
+      <c r="O82" s="215"/>
+      <c r="P82" s="215"/>
+      <c r="Q82" s="215"/>
+      <c r="R82" s="215"/>
+      <c r="S82" s="215"/>
+    </row>
+    <row r="83" spans="1:19">